--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luongvandu/Documents/japtool/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="14805" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="TBL_Relation" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$E$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$E$138</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="231">
   <si>
     <t>No</t>
   </si>
@@ -591,13 +586,169 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>sortIndex</t>
+  </si>
+  <si>
+    <t>Trình độ học của user</t>
+  </si>
+  <si>
+    <t>firstUsing</t>
+  </si>
+  <si>
+    <t>=True: Sử dụng cho lần đầu tiên đăng ký. (Bắt buộc phải trả lời)</t>
+  </si>
+  <si>
+    <t>Mục đích bảng này lưu nội dung các câu hỏi khảo sát. Sử dụng cho User mới đăng nhập hoặc chuyển sang học level khác.</t>
+  </si>
+  <si>
+    <t>uniqueUsing</t>
+  </si>
+  <si>
+    <t>=True:Sử dụng 1 lần, = False: sử dụng để hỏi nhiều lần.</t>
+  </si>
+  <si>
+    <t>qType</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>=1:  sigle choice; =2: multiple choice. Dùng biến này để dễ dàng phân biệt đây là câu hỏi 1 lựa chọn hay câu hỏi nhiều lựa chọn.</t>
+  </si>
+  <si>
+    <t>correct1</t>
+  </si>
+  <si>
+    <t>correct2</t>
+  </si>
+  <si>
+    <t>correct3</t>
+  </si>
+  <si>
+    <t>correct4</t>
+  </si>
+  <si>
+    <t>surveyUser</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>Object Id</t>
+  </si>
+  <si>
+    <t>Reference with Id in user collection</t>
+  </si>
+  <si>
+    <t>learnLevel</t>
+  </si>
+  <si>
+    <t>Đang lựa chọn trình độ học nào.</t>
+  </si>
+  <si>
+    <t>learningPlan</t>
+  </si>
+  <si>
+    <t>Đã trả lời loại khảo sát nào. Sẽ lấy giá trị từ 1-&gt;5 tương ứng với 5 phương án lựa chọn trong layout</t>
+  </si>
+  <si>
+    <t>surveyUserAnswer</t>
+  </si>
+  <si>
+    <t>surveyUserId</t>
+  </si>
+  <si>
+    <t>Reference with Id in surveyUserDetail collection (FK)</t>
+  </si>
+  <si>
+    <t>surveyId</t>
+  </si>
+  <si>
+    <t>Reference with Id in survey collection (FK)</t>
+  </si>
+  <si>
+    <t>Sắp xếp câu hỏi theo thứ tự</t>
+  </si>
+  <si>
+    <t>Answer of user</t>
+  </si>
+  <si>
+    <t>testResult</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>Đánh giá bài test đã đạt được bao nhiêu % rồi (Tỷ lệ làm bài của user đối với library)</t>
+  </si>
+  <si>
+    <t>testResultDetail</t>
+  </si>
+  <si>
+    <t>testResultId</t>
+  </si>
+  <si>
+    <t>Reference with Id in testResult collection (FK)</t>
+  </si>
+  <si>
+    <t>Đánh giá bài test đã đạt được bao nhiêu % rồi (Tỷ lệ làm bài của user đối với lesson)</t>
+  </si>
+  <si>
+    <t>testResultQuestion</t>
+  </si>
+  <si>
+    <t>testResultDetailId</t>
+  </si>
+  <si>
+    <t>Reference with Id in testResultDetail collection (FK)</t>
+  </si>
+  <si>
+    <t>questionId</t>
+  </si>
+  <si>
+    <t>Reference with Id in question collection (FK)</t>
+  </si>
+  <si>
+    <t>sysOption</t>
+  </si>
+  <si>
+    <t>maxQuestion</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>enableModify</t>
+  </si>
+  <si>
+    <t>=false: Đây là biến hệ thống.</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>=1: Dễ; = 2: Trung Bình; =3 Khó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -633,16 +784,19 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -655,8 +809,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Hebrew Scholar"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial Hebrew"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +832,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -736,19 +901,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -838,13 +990,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,19 +1026,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,26 +1056,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -920,6 +1084,46 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2756,7 +2960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2766,105 +2970,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="97" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="14.5" style="14"/>
+    <col min="1" max="1" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="97" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="14.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="26" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="26" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="26" t="s">
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="26" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="27" t="s">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="26" t="s">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="27" t="s">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="26" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="27" t="s">
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="26" t="s">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B13" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B14" s="25" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2879,669 +3083,669 @@
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="97" style="13" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="13"/>
+    <col min="1" max="1" width="4.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="97" style="12" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="45">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="60">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="60">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="60">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="30">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="45">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="45">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="45">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="3"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" s="3"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2">
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2">
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2">
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2">
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2">
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2">
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2">
       <c r="B113" s="3"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2">
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2">
       <c r="B115" s="3"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2">
       <c r="B116" s="3"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2">
       <c r="B117" s="3"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2">
       <c r="B118" s="3"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2">
       <c r="B119" s="3"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2">
       <c r="B120" s="3"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2">
       <c r="B121" s="3"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2">
       <c r="B122" s="3"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2">
       <c r="B123" s="3"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2">
       <c r="B124" s="3"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2">
       <c r="B125" s="3"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2">
       <c r="B126" s="3"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2">
       <c r="B127" s="3"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2">
       <c r="B128" s="3"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2">
       <c r="B129" s="3"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2">
       <c r="B130" s="3"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2">
       <c r="B131" s="3"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2">
       <c r="B132" s="3"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2">
       <c r="B133" s="3"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2">
       <c r="B134" s="3"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2">
       <c r="B135" s="3"/>
     </row>
   </sheetData>
@@ -3551,42 +3755,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183:B187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="85.6640625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="85.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3597,11 +3803,11 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
@@ -3612,11 +3818,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
@@ -3625,11 +3831,11 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
@@ -3638,11 +3844,11 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -3653,11 +3859,11 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3668,11 +3874,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
@@ -3681,11 +3887,11 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
@@ -3694,11 +3900,11 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
@@ -3707,11 +3913,11 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3722,11 +3928,11 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="5" t="s">
         <v>78</v>
       </c>
@@ -3735,11 +3941,11 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
@@ -3748,11 +3954,11 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
@@ -3761,1508 +3967,1504 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="30" customFormat="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" s="30" customFormat="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C27" s="5" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="5" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="5" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="5" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="5" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="C37" s="5" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="68" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="B49" s="8"/>
       <c r="C49" s="5" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="5" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="C51" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="5" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="9"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="68" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="60">
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="B60" s="8"/>
       <c r="C60" s="5" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="5" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="C62" s="5" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="5" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="68" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="10"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="60">
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="B71" s="8"/>
       <c r="C71" s="5" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="5" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="10"/>
+      <c r="B73" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="C73" s="5" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="B74" s="8"/>
       <c r="C74" s="5" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="5" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="C76" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="5" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="9"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="9"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D83" s="5"/>
       <c r="E83" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="68" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="10"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="60">
       <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="B86" s="8"/>
       <c r="C86" s="5" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="9"/>
+      <c r="B88" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="C88" s="5" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="9"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="5" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="9"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="9"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="9"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="9"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="9"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="10"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="B98" s="8"/>
       <c r="C98" s="5" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="5" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="9"/>
+      <c r="B100" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C100" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="9"/>
+      <c r="B101" s="8"/>
       <c r="C101" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="8"/>
       <c r="C102" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" s="9"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="5" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="9"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="9"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="5" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="B106" s="8"/>
       <c r="C106" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="9"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="9"/>
+      <c r="B108" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C108" s="5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="9"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D109" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="9"/>
+      <c r="B110" s="8"/>
       <c r="C110" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="10"/>
+      <c r="B111" s="8"/>
       <c r="C111" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D111" s="5"/>
-      <c r="E111" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B112" s="8"/>
       <c r="C112" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="10"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>48</v>
+      <c r="B114" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="4">
         <v>114</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="5" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="10"/>
+      <c r="B116" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C116" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="B117" s="8"/>
       <c r="C117" s="5" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="4">
         <v>117</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="5" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="9"/>
+      <c r="B119" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C119" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="9"/>
+      <c r="B120" s="8"/>
       <c r="C120" s="5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="9"/>
+      <c r="B121" s="8"/>
       <c r="C121" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="8"/>
       <c r="C122" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123" s="10"/>
+      <c r="B123" s="8"/>
       <c r="C123" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="4">
         <v>123</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="B124" s="8"/>
       <c r="C124" s="5" t="s">
         <v>54</v>
       </c>
@@ -5270,231 +5472,913 @@
         <v>103</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="4">
         <v>124</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="5" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E125" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126" s="9"/>
+      <c r="B126" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="C126" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127" s="10"/>
+      <c r="B127" s="8"/>
       <c r="C127" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="B128" s="8"/>
       <c r="C128" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="7"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>60</v>
+      <c r="B130" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E130" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131" s="9"/>
+      <c r="B131" s="6"/>
       <c r="C131" s="5" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="4">
         <v>131</v>
       </c>
-      <c r="B132" s="10"/>
+      <c r="B132" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C132" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="4">
         <v>132</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="B133" s="8"/>
       <c r="C133" s="5" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="4">
         <v>133</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135" s="10"/>
+      <c r="B135" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="C135" s="5" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="8"/>
+      <c r="C136" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5" t="s">
+      <c r="C138" s="5"/>
+      <c r="D138" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+    <row r="139" spans="1:5" s="30" customFormat="1">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="29"/>
+    </row>
+    <row r="140" spans="1:5" s="30" customFormat="1">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="27"/>
+      <c r="C140" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="30" customFormat="1">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="27"/>
+      <c r="C141" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E141" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="30" customFormat="1">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E142" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="32"/>
+      <c r="C143" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E143" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="30" customFormat="1">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="32"/>
+      <c r="C144" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="30" customFormat="1">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="32"/>
+      <c r="C145" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="29"/>
+    </row>
+    <row r="146" spans="1:5" s="30" customFormat="1">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="32"/>
+      <c r="C146" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D146" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E146" s="29"/>
+    </row>
+    <row r="147" spans="1:5" s="30" customFormat="1">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="32"/>
+      <c r="C147" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="29"/>
+    </row>
+    <row r="148" spans="1:5" s="30" customFormat="1">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="32"/>
+      <c r="C148" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E148" s="29"/>
+    </row>
+    <row r="149" spans="1:5" s="30" customFormat="1">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="32"/>
+      <c r="C149" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="29"/>
+    </row>
+    <row r="150" spans="1:5" s="30" customFormat="1">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="32"/>
+      <c r="C150" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E150" s="29"/>
+    </row>
+    <row r="151" spans="1:5" s="30" customFormat="1">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="32"/>
+      <c r="C151" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D151" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="29"/>
+    </row>
+    <row r="152" spans="1:5" s="30" customFormat="1">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="33"/>
+      <c r="C152" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D152" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E152" s="29"/>
+    </row>
+    <row r="153" spans="1:5" s="30" customFormat="1">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="31"/>
+    </row>
+    <row r="154" spans="1:5" s="30" customFormat="1">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="35"/>
+      <c r="C154" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E154" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="30" customFormat="1">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="35"/>
+      <c r="C155" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="36"/>
+      <c r="C156" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="30" customFormat="1">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="30" customFormat="1">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="35"/>
+      <c r="C158" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="30" customFormat="1">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="35"/>
+      <c r="C159" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D159" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="30" customFormat="1">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="35"/>
+      <c r="C160" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D160" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" s="30" customFormat="1">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="35"/>
+      <c r="C161" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E161" s="29"/>
+    </row>
+    <row r="162" spans="1:5" s="30" customFormat="1">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="35"/>
+      <c r="C162" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E162" s="29"/>
+    </row>
+    <row r="163" spans="1:5" s="30" customFormat="1">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="35"/>
+      <c r="C163" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D163" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E163" s="29"/>
+    </row>
+    <row r="164" spans="1:5" s="30" customFormat="1">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D164" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E164" s="29"/>
+    </row>
+    <row r="165" spans="1:5" s="30" customFormat="1">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="27"/>
+      <c r="C165" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E165" s="29"/>
+    </row>
+    <row r="166" spans="1:5" s="30" customFormat="1">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="38"/>
+      <c r="C166" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E166" s="29"/>
+    </row>
+    <row r="167" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="38"/>
+      <c r="C167" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E167" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="30" customFormat="1">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="38"/>
+      <c r="C168" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E168" s="29"/>
+    </row>
+    <row r="169" spans="1:5" s="30" customFormat="1">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="33"/>
+      <c r="C169" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E169" s="29"/>
+    </row>
+    <row r="170" spans="1:5" s="30" customFormat="1">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D170" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E170" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="30" customFormat="1">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="38"/>
+      <c r="C171" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" s="29"/>
+    </row>
+    <row r="172" spans="1:5" s="30" customFormat="1">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="38"/>
+      <c r="C172" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="29"/>
+    </row>
+    <row r="173" spans="1:5" s="30" customFormat="1">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="38"/>
+      <c r="C173" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E173" s="29"/>
+    </row>
+    <row r="174" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="38"/>
+      <c r="C174" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E174" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="30" customFormat="1">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="38"/>
+      <c r="C175" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E175" s="29"/>
+    </row>
+    <row r="176" spans="1:5" s="30" customFormat="1">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="33"/>
+      <c r="C176" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E176" s="29"/>
+    </row>
+    <row r="177" spans="1:5" s="30" customFormat="1">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D177" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E177" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="30" customFormat="1">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="27"/>
+      <c r="C178" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E178" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="30" customFormat="1">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="38"/>
+      <c r="C179" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D179" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E179" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="30" customFormat="1">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="38"/>
+      <c r="C180" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D180" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E180" s="29"/>
+    </row>
+    <row r="181" spans="1:5" s="30" customFormat="1">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="38"/>
+      <c r="C181" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D181" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E181" s="29"/>
+    </row>
+    <row r="182" spans="1:5" s="30" customFormat="1">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="38"/>
+      <c r="C182" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D182" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E182" s="29"/>
+    </row>
+    <row r="183" spans="1:5" s="30" customFormat="1">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C183" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="30" customFormat="1">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="35"/>
+      <c r="C184" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D184" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" s="39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="30" customFormat="1">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="35"/>
+      <c r="C185" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D185" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E185" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" s="30" customFormat="1">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="35"/>
+      <c r="C186" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D186" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="30" customFormat="1">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="36"/>
+      <c r="C187" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E136"/>
+  <autoFilter ref="A1:E138"/>
+  <mergeCells count="7">
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="B142:B151"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B157:B163"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="B171:B175"/>
+    <mergeCell ref="B179:B182"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5505,24 +6389,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="18"/>
+    <col min="1" max="16384" width="2.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:1" ht="15.75">
+      <c r="A2" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="25"/>
-    </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="B35" s="24"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75">
+      <c r="A45" s="24" t="s">
         <v>154</v>
       </c>
     </row>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -13,7 +13,7 @@
     <sheet name="TBL_Relation" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$E$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$E$139</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="234">
   <si>
     <t>No</t>
   </si>
@@ -742,6 +742,15 @@
   </si>
   <si>
     <t xml:space="preserve">object </t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>Default = true. Nếu = False thì sẽ không hiện thị book này.</t>
+  </si>
+  <si>
+    <t>Ảnh đại diện cho book này.</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1020,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1098,10 +1107,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,17 +1128,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2960,7 +2972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3755,10 +3767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183:B187"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172:B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -3771,7 +3783,7 @@
     <col min="6" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3968,205 +3980,207 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" s="30" customFormat="1">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
+      <c r="A15" s="41"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="29"/>
+        <v>105</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="16" spans="1:5" s="30" customFormat="1">
-      <c r="A16" s="4">
-        <v>15</v>
+      <c r="A16" s="41">
+        <v>14</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="30" customFormat="1">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D17" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E17" s="31" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>103</v>
@@ -4175,52 +4189,52 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="5" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="5" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="C32" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>103</v>
@@ -4229,11 +4243,11 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>103</v>
@@ -4242,39 +4256,39 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="5" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="5" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>102</v>
@@ -4283,26 +4297,26 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>4</v>
@@ -4311,11 +4325,11 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="5" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>4</v>
@@ -4324,11 +4338,11 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="5" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>4</v>
@@ -4337,37 +4351,37 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>4</v>
@@ -4376,24 +4390,24 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="2" t="s">
@@ -4402,11 +4416,11 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="2" t="s">
@@ -4415,69 +4429,67 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="60">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>112</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B51" s="9"/>
       <c r="C51" s="5" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>4</v>
@@ -4486,11 +4498,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="C52" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>4</v>
@@ -4499,11 +4513,11 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>4</v>
@@ -4512,11 +4526,11 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>4</v>
@@ -4525,11 +4539,11 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>4</v>
@@ -4538,95 +4552,93 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="60">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="D61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="4">
-        <v>60</v>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B62" s="9"/>
       <c r="C62" s="5" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>4</v>
@@ -4635,11 +4647,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="C63" s="5" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>4</v>
@@ -4648,11 +4662,11 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>4</v>
@@ -4661,37 +4675,37 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="5" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="2" t="s">
@@ -4700,11 +4714,11 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="2" t="s">
@@ -4713,97 +4727,97 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="60">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="4">
-        <v>71</v>
-      </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4">
-        <v>72</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>67</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B73" s="9"/>
       <c r="C73" s="5" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4">
-        <v>73</v>
-      </c>
-      <c r="B74" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="C74" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="4">
-        <v>74</v>
-      </c>
-      <c r="B75" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="8"/>
       <c r="C75" s="5" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>4</v>
@@ -4812,13 +4826,11 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4">
-        <v>75</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B76" s="9"/>
       <c r="C76" s="5" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>4</v>
@@ -4827,11 +4839,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4">
-        <v>76</v>
-      </c>
-      <c r="B77" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="C77" s="5" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>4</v>
@@ -4840,37 +4854,37 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>4</v>
@@ -4879,24 +4893,24 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="2" t="s">
@@ -4905,11 +4919,11 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="2" t="s">
@@ -4918,248 +4932,248 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="60">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="D87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="4">
-        <v>86</v>
-      </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4">
-        <v>87</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>2</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B88" s="9"/>
       <c r="C88" s="5" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="4">
-        <v>88</v>
-      </c>
-      <c r="B89" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="C89" s="5" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4">
-        <v>98</v>
-      </c>
-      <c r="B99" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="8"/>
       <c r="C99" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4">
-        <v>99</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B100" s="9"/>
       <c r="C100" s="5" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="4">
-        <v>100</v>
-      </c>
-      <c r="B101" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C101" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>103</v>
@@ -5168,11 +5182,11 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>103</v>
@@ -5181,24 +5195,24 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>4</v>
@@ -5207,37 +5221,37 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="5" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="5" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>102</v>
@@ -5246,26 +5260,26 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="4">
-        <v>107</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B108" s="8"/>
       <c r="C108" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="4">
-        <v>108</v>
-      </c>
-      <c r="B109" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C109" s="5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>4</v>
@@ -5274,11 +5288,11 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>4</v>
@@ -5287,80 +5301,78 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D111" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D112" s="5"/>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4">
-        <v>112</v>
-      </c>
-      <c r="B113" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="8"/>
       <c r="C113" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4">
-        <v>113</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B114" s="9"/>
       <c r="C114" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="D114" s="5"/>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4">
-        <v>114</v>
-      </c>
-      <c r="B115" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C115" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="4">
-        <v>115</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B116" s="9"/>
       <c r="C116" s="5" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>103</v>
@@ -5369,11 +5381,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="4">
-        <v>116</v>
-      </c>
-      <c r="B117" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C117" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>103</v>
@@ -5382,26 +5396,24 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="4">
-        <v>117</v>
-      </c>
-      <c r="B118" s="9"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="8"/>
       <c r="C118" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="4">
-        <v>118</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B119" s="9"/>
       <c r="C119" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>4</v>
@@ -5410,11 +5422,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="4">
-        <v>119</v>
-      </c>
-      <c r="B120" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C120" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>4</v>
@@ -5423,24 +5437,24 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="5" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>102</v>
@@ -5449,97 +5463,97 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="4">
-        <v>124</v>
-      </c>
-      <c r="B125" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="B125" s="8"/>
       <c r="C125" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="4">
-        <v>125</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B126" s="9"/>
       <c r="C126" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="4">
-        <v>126</v>
-      </c>
-      <c r="B127" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="C127" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E127" s="2"/>
+      <c r="E127" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4">
-        <v>128</v>
-      </c>
-      <c r="B129" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="8"/>
       <c r="C129" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>102</v>
@@ -5548,43 +5562,41 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4">
-        <v>129</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B130" s="9"/>
       <c r="C130" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4">
-        <v>130</v>
-      </c>
-      <c r="B131" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="C131" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E131" s="2"/>
+      <c r="E131" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4">
-        <v>131</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B132" s="6"/>
       <c r="C132" s="5" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>103</v>
@@ -5593,11 +5605,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4">
-        <v>132</v>
-      </c>
-      <c r="B133" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C133" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>103</v>
@@ -5606,39 +5620,39 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4">
-        <v>133</v>
-      </c>
-      <c r="B134" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="B134" s="8"/>
       <c r="C134" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="4">
-        <v>134</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B135" s="9"/>
       <c r="C135" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="4">
-        <v>135</v>
-      </c>
-      <c r="B136" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="C136" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>103</v>
@@ -5647,368 +5661,368 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="4">
-        <v>136</v>
-      </c>
-      <c r="B137" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="B137" s="8"/>
       <c r="C137" s="5" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4">
+        <v>136</v>
+      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="4">
         <v>137</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B139" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5" t="s">
+      <c r="C139" s="5"/>
+      <c r="D139" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" s="30" customFormat="1">
-      <c r="A139" s="4">
-        <v>138</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D139" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="29"/>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" s="30" customFormat="1">
       <c r="A140" s="4">
-        <v>139</v>
-      </c>
-      <c r="B140" s="27"/>
+        <v>138</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="C140" s="28" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E140" s="29" t="s">
-        <v>181</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E140" s="29"/>
     </row>
     <row r="141" spans="1:5" s="30" customFormat="1">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="27"/>
       <c r="C141" s="28" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E141" s="31" t="s">
-        <v>183</v>
+        <v>4</v>
+      </c>
+      <c r="E141" s="29" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="30" customFormat="1">
       <c r="A142" s="4">
-        <v>141</v>
-      </c>
-      <c r="B142" s="32" t="s">
-        <v>184</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B142" s="27"/>
       <c r="C142" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D142" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E142" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="30" customFormat="1">
+      <c r="A143" s="4">
+        <v>141</v>
+      </c>
+      <c r="B143" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E143" s="31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A143" s="4">
+    <row r="144" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A144" s="4">
         <v>142</v>
       </c>
-      <c r="B143" s="32"/>
-      <c r="C143" s="28" t="s">
+      <c r="B144" s="39"/>
+      <c r="C144" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D143" s="28" t="s">
+      <c r="D144" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E143" s="31" t="s">
+      <c r="E144" s="31" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="30" customFormat="1">
-      <c r="A144" s="4">
-        <v>143</v>
-      </c>
-      <c r="B144" s="32"/>
-      <c r="C144" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D144" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E144" s="29" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="30" customFormat="1">
       <c r="A145" s="4">
-        <v>144</v>
-      </c>
-      <c r="B145" s="32"/>
+        <v>143</v>
+      </c>
+      <c r="B145" s="39"/>
       <c r="C145" s="28" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D145" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E145" s="29"/>
+      <c r="E145" s="29" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="146" spans="1:5" s="30" customFormat="1">
       <c r="A146" s="4">
-        <v>145</v>
-      </c>
-      <c r="B146" s="32"/>
+        <v>144</v>
+      </c>
+      <c r="B146" s="39"/>
       <c r="C146" s="28" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E146" s="29"/>
     </row>
     <row r="147" spans="1:5" s="30" customFormat="1">
       <c r="A147" s="4">
-        <v>146</v>
-      </c>
-      <c r="B147" s="32"/>
+        <v>145</v>
+      </c>
+      <c r="B147" s="39"/>
       <c r="C147" s="28" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E147" s="29"/>
     </row>
     <row r="148" spans="1:5" s="30" customFormat="1">
       <c r="A148" s="4">
-        <v>147</v>
-      </c>
-      <c r="B148" s="32"/>
+        <v>146</v>
+      </c>
+      <c r="B148" s="39"/>
       <c r="C148" s="28" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E148" s="29"/>
     </row>
     <row r="149" spans="1:5" s="30" customFormat="1">
       <c r="A149" s="4">
-        <v>148</v>
-      </c>
-      <c r="B149" s="32"/>
+        <v>147</v>
+      </c>
+      <c r="B149" s="39"/>
       <c r="C149" s="28" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E149" s="29"/>
     </row>
     <row r="150" spans="1:5" s="30" customFormat="1">
       <c r="A150" s="4">
-        <v>149</v>
-      </c>
-      <c r="B150" s="32"/>
+        <v>148</v>
+      </c>
+      <c r="B150" s="39"/>
       <c r="C150" s="28" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E150" s="29"/>
     </row>
     <row r="151" spans="1:5" s="30" customFormat="1">
       <c r="A151" s="4">
-        <v>150</v>
-      </c>
-      <c r="B151" s="32"/>
+        <v>149</v>
+      </c>
+      <c r="B151" s="39"/>
       <c r="C151" s="28" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E151" s="29"/>
     </row>
     <row r="152" spans="1:5" s="30" customFormat="1">
       <c r="A152" s="4">
-        <v>151</v>
-      </c>
-      <c r="B152" s="33"/>
+        <v>150</v>
+      </c>
+      <c r="B152" s="39"/>
       <c r="C152" s="28" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E152" s="29"/>
     </row>
     <row r="153" spans="1:5" s="30" customFormat="1">
       <c r="A153" s="4">
-        <v>152</v>
-      </c>
-      <c r="B153" s="34" t="s">
-        <v>194</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B153" s="32"/>
       <c r="C153" s="28" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E153" s="31"/>
+        <v>105</v>
+      </c>
+      <c r="E153" s="29"/>
     </row>
     <row r="154" spans="1:5" s="30" customFormat="1">
       <c r="A154" s="4">
-        <v>153</v>
-      </c>
-      <c r="B154" s="35"/>
+        <v>152</v>
+      </c>
+      <c r="B154" s="36" t="s">
+        <v>194</v>
+      </c>
       <c r="C154" s="28" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E154" s="29" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E154" s="31"/>
     </row>
     <row r="155" spans="1:5" s="30" customFormat="1">
       <c r="A155" s="4">
+        <v>153</v>
+      </c>
+      <c r="B155" s="37"/>
+      <c r="C155" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E155" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="30" customFormat="1">
+      <c r="A156" s="4">
         <v>154</v>
       </c>
-      <c r="B155" s="35"/>
-      <c r="C155" s="28" t="s">
+      <c r="B156" s="37"/>
+      <c r="C156" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="D155" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E155" s="29" t="s">
+      <c r="D156" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A156" s="4">
+    <row r="157" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A157" s="4">
         <v>155</v>
       </c>
-      <c r="B156" s="36"/>
-      <c r="C156" s="28" t="s">
+      <c r="B157" s="38"/>
+      <c r="C157" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="D156" s="28" t="s">
+      <c r="D157" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="29" t="s">
+      <c r="E157" s="29" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="30" customFormat="1">
-      <c r="A157" s="4">
-        <v>156</v>
-      </c>
-      <c r="B157" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D157" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E157" s="29" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="30" customFormat="1">
       <c r="A158" s="4">
-        <v>157</v>
-      </c>
-      <c r="B158" s="35"/>
+        <v>156</v>
+      </c>
+      <c r="B158" s="36" t="s">
+        <v>202</v>
+      </c>
       <c r="C158" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D158" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="30" customFormat="1">
       <c r="A159" s="4">
-        <v>158</v>
-      </c>
-      <c r="B159" s="35"/>
+        <v>157</v>
+      </c>
+      <c r="B159" s="37"/>
       <c r="C159" s="28" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="30" customFormat="1">
       <c r="A160" s="4">
-        <v>159</v>
-      </c>
-      <c r="B160" s="35"/>
+        <v>158</v>
+      </c>
+      <c r="B160" s="37"/>
       <c r="C160" s="28" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="E160" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="30" customFormat="1">
       <c r="A161" s="4">
-        <v>160</v>
-      </c>
-      <c r="B161" s="35"/>
+        <v>159</v>
+      </c>
+      <c r="B161" s="37"/>
       <c r="C161" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D161" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E161" s="29"/>
+      <c r="E161" s="29" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="162" spans="1:5" s="30" customFormat="1">
       <c r="A162" s="4">
-        <v>161</v>
-      </c>
-      <c r="B162" s="35"/>
+        <v>160</v>
+      </c>
+      <c r="B162" s="37"/>
       <c r="C162" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D162" s="28" t="s">
         <v>105</v>
@@ -6017,11 +6031,11 @@
     </row>
     <row r="163" spans="1:5" s="30" customFormat="1">
       <c r="A163" s="4">
-        <v>162</v>
-      </c>
-      <c r="B163" s="35"/>
+        <v>161</v>
+      </c>
+      <c r="B163" s="37"/>
       <c r="C163" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D163" s="28" t="s">
         <v>105</v>
@@ -6030,26 +6044,26 @@
     </row>
     <row r="164" spans="1:5" s="30" customFormat="1">
       <c r="A164" s="4">
-        <v>163</v>
-      </c>
-      <c r="B164" s="37" t="s">
-        <v>209</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B164" s="37"/>
       <c r="C164" s="28" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E164" s="29"/>
     </row>
     <row r="165" spans="1:5" s="30" customFormat="1">
       <c r="A165" s="4">
-        <v>164</v>
-      </c>
-      <c r="B165" s="27"/>
+        <v>163</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="C165" s="28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D165" s="28" t="s">
         <v>103</v>
@@ -6058,52 +6072,52 @@
     </row>
     <row r="166" spans="1:5" s="30" customFormat="1">
       <c r="A166" s="4">
+        <v>164</v>
+      </c>
+      <c r="B166" s="27"/>
+      <c r="C166" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E166" s="29"/>
+    </row>
+    <row r="167" spans="1:5" s="30" customFormat="1">
+      <c r="A167" s="4">
         <v>165</v>
       </c>
-      <c r="B166" s="38"/>
-      <c r="C166" s="28" t="s">
+      <c r="B167" s="40"/>
+      <c r="C167" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="D166" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E166" s="29"/>
-    </row>
-    <row r="167" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A167" s="4">
-        <v>166</v>
-      </c>
-      <c r="B167" s="38"/>
-      <c r="C167" s="28" t="s">
-        <v>210</v>
       </c>
       <c r="D167" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E167" s="29" t="s">
+      <c r="E167" s="29"/>
+    </row>
+    <row r="168" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A168" s="4">
+        <v>166</v>
+      </c>
+      <c r="B168" s="40"/>
+      <c r="C168" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D168" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E168" s="29" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" s="30" customFormat="1">
-      <c r="A168" s="4">
-        <v>167</v>
-      </c>
-      <c r="B168" s="38"/>
-      <c r="C168" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D168" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E168" s="29"/>
     </row>
     <row r="169" spans="1:5" s="30" customFormat="1">
       <c r="A169" s="4">
-        <v>168</v>
-      </c>
-      <c r="B169" s="33"/>
+        <v>167</v>
+      </c>
+      <c r="B169" s="40"/>
       <c r="C169" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D169" s="28" t="s">
         <v>102</v>
@@ -6112,41 +6126,41 @@
     </row>
     <row r="170" spans="1:5" s="30" customFormat="1">
       <c r="A170" s="4">
-        <v>169</v>
-      </c>
-      <c r="B170" s="37" t="s">
-        <v>212</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B170" s="32"/>
       <c r="C170" s="28" t="s">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E170" s="29" t="s">
-        <v>214</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E170" s="29"/>
     </row>
     <row r="171" spans="1:5" s="30" customFormat="1">
       <c r="A171" s="4">
-        <v>170</v>
-      </c>
-      <c r="B171" s="38"/>
+        <v>169</v>
+      </c>
+      <c r="B171" s="33" t="s">
+        <v>212</v>
+      </c>
       <c r="C171" s="28" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E171" s="29"/>
+        <v>103</v>
+      </c>
+      <c r="E171" s="29" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="172" spans="1:5" s="30" customFormat="1">
       <c r="A172" s="4">
-        <v>171</v>
-      </c>
-      <c r="B172" s="38"/>
+        <v>170</v>
+      </c>
+      <c r="B172" s="40"/>
       <c r="C172" s="28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D172" s="28" t="s">
         <v>4</v>
@@ -6155,52 +6169,52 @@
     </row>
     <row r="173" spans="1:5" s="30" customFormat="1">
       <c r="A173" s="4">
+        <v>171</v>
+      </c>
+      <c r="B173" s="40"/>
+      <c r="C173" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="29"/>
+    </row>
+    <row r="174" spans="1:5" s="30" customFormat="1">
+      <c r="A174" s="4">
         <v>172</v>
       </c>
-      <c r="B173" s="38"/>
-      <c r="C173" s="28" t="s">
+      <c r="B174" s="40"/>
+      <c r="C174" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="D173" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E173" s="29"/>
-    </row>
-    <row r="174" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A174" s="4">
-        <v>173</v>
-      </c>
-      <c r="B174" s="38"/>
-      <c r="C174" s="28" t="s">
-        <v>210</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E174" s="29" t="s">
+      <c r="E174" s="29"/>
+    </row>
+    <row r="175" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A175" s="4">
+        <v>173</v>
+      </c>
+      <c r="B175" s="40"/>
+      <c r="C175" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E175" s="29" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" s="30" customFormat="1">
-      <c r="A175" s="4">
-        <v>174</v>
-      </c>
-      <c r="B175" s="38"/>
-      <c r="C175" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D175" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E175" s="29"/>
     </row>
     <row r="176" spans="1:5" s="30" customFormat="1">
       <c r="A176" s="4">
-        <v>175</v>
-      </c>
-      <c r="B176" s="33"/>
+        <v>174</v>
+      </c>
+      <c r="B176" s="40"/>
       <c r="C176" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D176" s="28" t="s">
         <v>102</v>
@@ -6209,71 +6223,71 @@
     </row>
     <row r="177" spans="1:5" s="30" customFormat="1">
       <c r="A177" s="4">
-        <v>176</v>
-      </c>
-      <c r="B177" s="37" t="s">
-        <v>216</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B177" s="32"/>
       <c r="C177" s="28" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E177" s="29" t="s">
-        <v>218</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E177" s="29"/>
     </row>
     <row r="178" spans="1:5" s="30" customFormat="1">
       <c r="A178" s="4">
-        <v>177</v>
-      </c>
-      <c r="B178" s="27"/>
+        <v>176</v>
+      </c>
+      <c r="B178" s="33" t="s">
+        <v>216</v>
+      </c>
       <c r="C178" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D178" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E178" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="30" customFormat="1">
       <c r="A179" s="4">
-        <v>178</v>
-      </c>
-      <c r="B179" s="38"/>
+        <v>177</v>
+      </c>
+      <c r="B179" s="27"/>
       <c r="C179" s="28" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="30" customFormat="1">
       <c r="A180" s="4">
-        <v>179</v>
-      </c>
-      <c r="B180" s="38"/>
+        <v>178</v>
+      </c>
+      <c r="B180" s="40"/>
       <c r="C180" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D180" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E180" s="29"/>
+      <c r="E180" s="29" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="181" spans="1:5" s="30" customFormat="1">
       <c r="A181" s="4">
-        <v>180</v>
-      </c>
-      <c r="B181" s="38"/>
+        <v>179</v>
+      </c>
+      <c r="B181" s="40"/>
       <c r="C181" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D181" s="28" t="s">
         <v>105</v>
@@ -6282,11 +6296,11 @@
     </row>
     <row r="182" spans="1:5" s="30" customFormat="1">
       <c r="A182" s="4">
-        <v>181</v>
-      </c>
-      <c r="B182" s="38"/>
+        <v>180</v>
+      </c>
+      <c r="B182" s="40"/>
       <c r="C182" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D182" s="28" t="s">
         <v>105</v>
@@ -6295,89 +6309,102 @@
     </row>
     <row r="183" spans="1:5" s="30" customFormat="1">
       <c r="A183" s="4">
-        <v>182</v>
-      </c>
-      <c r="B183" s="34" t="s">
-        <v>221</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B183" s="40"/>
       <c r="C183" s="28" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E183" s="29" t="s">
-        <v>222</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E183" s="29"/>
     </row>
     <row r="184" spans="1:5" s="30" customFormat="1">
       <c r="A184" s="4">
-        <v>183</v>
-      </c>
-      <c r="B184" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="B184" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="C184" s="28" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="D184" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E184" s="39" t="s">
-        <v>224</v>
+      <c r="E184" s="29" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="185" spans="1:5" s="30" customFormat="1">
       <c r="A185" s="4">
-        <v>184</v>
-      </c>
-      <c r="B185" s="35"/>
+        <v>183</v>
+      </c>
+      <c r="B185" s="37"/>
       <c r="C185" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E185" s="29" t="s">
-        <v>226</v>
+        <v>4</v>
+      </c>
+      <c r="E185" s="34" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="186" spans="1:5" s="30" customFormat="1">
       <c r="A186" s="4">
-        <v>185</v>
-      </c>
-      <c r="B186" s="35"/>
+        <v>184</v>
+      </c>
+      <c r="B186" s="37"/>
       <c r="C186" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E186" s="39" t="s">
-        <v>224</v>
+        <v>105</v>
+      </c>
+      <c r="E186" s="29" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="187" spans="1:5" s="30" customFormat="1">
       <c r="A187" s="4">
+        <v>185</v>
+      </c>
+      <c r="B187" s="37"/>
+      <c r="C187" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="30" customFormat="1">
+      <c r="A188" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="36"/>
-      <c r="C187" s="40" t="s">
+      <c r="B188" s="38"/>
+      <c r="C188" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D187" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E187" s="29"/>
+      <c r="D188" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E138"/>
+  <autoFilter ref="A1:E139"/>
   <mergeCells count="7">
-    <mergeCell ref="B183:B187"/>
-    <mergeCell ref="B142:B151"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B157:B163"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="B171:B175"/>
-    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B184:B188"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="B158:B164"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="B180:B183"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -13,7 +13,7 @@
     <sheet name="TBL_Relation" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$E$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$E$140</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="236">
   <si>
     <t>No</t>
   </si>
@@ -681,27 +681,9 @@
     <t>testResult</t>
   </si>
   <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>Đánh giá bài test đã đạt được bao nhiêu % rồi (Tỷ lệ làm bài của user đối với library)</t>
-  </si>
-  <si>
     <t>testResultDetail</t>
   </si>
   <si>
-    <t>testResultId</t>
-  </si>
-  <si>
-    <t>Reference with Id in testResult collection (FK)</t>
-  </si>
-  <si>
-    <t>Đánh giá bài test đã đạt được bao nhiêu % rồi (Tỷ lệ làm bài của user đối với lesson)</t>
-  </si>
-  <si>
-    <t>testResultQuestion</t>
-  </si>
-  <si>
     <t>testResultDetailId</t>
   </si>
   <si>
@@ -751,6 +733,30 @@
   </si>
   <si>
     <t>Ảnh đại diện cho book này.</t>
+  </si>
+  <si>
+    <t>lesson</t>
+  </si>
+  <si>
+    <t>subLesson</t>
+  </si>
+  <si>
+    <t>Tỉ lệ hoàn thành bài test trong lesson</t>
+  </si>
+  <si>
+    <t>bookUsedHistoryId</t>
+  </si>
+  <si>
+    <t>Reference with Id in bookUsedHistory collection</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Đã kết thúc học giáo trình này chưa?. Mặc định = false</t>
+  </si>
+  <si>
+    <t>(can using embedded data)</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1026,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1119,6 +1125,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1134,8 +1143,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2972,7 +2993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3093,7 +3114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
+    <sheetView zoomScale="107" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
@@ -3767,10 +3790,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172:B176"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -3980,20 +4003,20 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" s="30" customFormat="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="30" customFormat="1">
-      <c r="A16" s="41">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" s="27"/>
@@ -4001,25 +4024,25 @@
         <v>6</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="30" customFormat="1">
-      <c r="A17" s="41">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="28" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>188</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4299,7 +4322,7 @@
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
         <v>40</v>
       </c>
@@ -4308,28 +4331,30 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="2"/>
+    <row r="38" spans="1:5" s="30" customFormat="1">
+      <c r="A38" s="36">
+        <v>35</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="C39" s="5" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>4</v>
@@ -4338,11 +4363,11 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="5" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>4</v>
@@ -4351,11 +4376,11 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="5" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>4</v>
@@ -4364,37 +4389,37 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>4</v>
@@ -4403,24 +4428,24 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="2" t="s">
@@ -4429,11 +4454,11 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="2" t="s">
@@ -4442,69 +4467,67 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="60">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="D51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="4">
-        <v>49</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4">
-        <v>50</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>112</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B52" s="9"/>
       <c r="C52" s="5" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>4</v>
@@ -4513,11 +4536,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4">
-        <v>51</v>
-      </c>
-      <c r="B53" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="C53" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>4</v>
@@ -4526,11 +4551,11 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>4</v>
@@ -4539,11 +4564,11 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>4</v>
@@ -4552,11 +4577,11 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>4</v>
@@ -4565,95 +4590,93 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="60">
+      <c r="A62" s="4">
+        <v>59</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="4">
-        <v>60</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4">
-        <v>61</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B63" s="9"/>
       <c r="C63" s="5" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>4</v>
@@ -4662,11 +4685,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4">
-        <v>62</v>
-      </c>
-      <c r="B64" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="C64" s="5" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>4</v>
@@ -4675,11 +4700,11 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>4</v>
@@ -4688,37 +4713,37 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="5" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="2" t="s">
@@ -4727,11 +4752,11 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="2" t="s">
@@ -4740,97 +4765,97 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="60">
+      <c r="A73" s="4">
+        <v>70</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="D73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="4">
-        <v>71</v>
-      </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4">
-        <v>72</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>67</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B74" s="9"/>
       <c r="C74" s="5" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="4">
-        <v>73</v>
-      </c>
-      <c r="B75" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="C75" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4">
-        <v>74</v>
-      </c>
-      <c r="B76" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="B76" s="8"/>
       <c r="C76" s="5" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>4</v>
@@ -4839,13 +4864,11 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4">
-        <v>75</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B77" s="9"/>
       <c r="C77" s="5" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>4</v>
@@ -4854,11 +4877,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4">
-        <v>76</v>
-      </c>
-      <c r="B78" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="C78" s="5" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>4</v>
@@ -4867,37 +4892,37 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>4</v>
@@ -4906,24 +4931,24 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="2" t="s">
@@ -4932,11 +4957,11 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="2" t="s">
@@ -4945,248 +4970,248 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="60">
+      <c r="A88" s="4">
+        <v>85</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="D88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="4">
-        <v>86</v>
-      </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="4">
-        <v>87</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>2</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B89" s="9"/>
       <c r="C89" s="5" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4">
-        <v>88</v>
-      </c>
-      <c r="B90" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="C90" s="5" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4">
-        <v>98</v>
-      </c>
-      <c r="B100" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="B100" s="8"/>
       <c r="C100" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="4">
-        <v>99</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B101" s="9"/>
       <c r="C101" s="5" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4">
-        <v>100</v>
-      </c>
-      <c r="B102" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C102" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>103</v>
@@ -5195,11 +5220,11 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>103</v>
@@ -5208,24 +5233,24 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>4</v>
@@ -5234,37 +5259,37 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="5" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="5" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>102</v>
@@ -5273,26 +5298,26 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="4">
-        <v>107</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B109" s="8"/>
       <c r="C109" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="4">
-        <v>108</v>
-      </c>
-      <c r="B110" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C110" s="5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>4</v>
@@ -5301,11 +5326,11 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>4</v>
@@ -5314,80 +5339,78 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D112" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D113" s="5"/>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4">
-        <v>112</v>
-      </c>
-      <c r="B114" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="B114" s="8"/>
       <c r="C114" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4">
-        <v>113</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B115" s="9"/>
       <c r="C115" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="D115" s="5"/>
       <c r="E115" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="4">
-        <v>114</v>
-      </c>
-      <c r="B116" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C116" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E116" s="2"/>
+      <c r="E116" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="4">
-        <v>115</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B117" s="9"/>
       <c r="C117" s="5" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>103</v>
@@ -5396,11 +5419,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="4">
-        <v>116</v>
-      </c>
-      <c r="B118" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C118" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>103</v>
@@ -5409,26 +5434,24 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="4">
-        <v>117</v>
-      </c>
-      <c r="B119" s="9"/>
+        <v>116</v>
+      </c>
+      <c r="B119" s="8"/>
       <c r="C119" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="4">
-        <v>118</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B120" s="9"/>
       <c r="C120" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>4</v>
@@ -5437,11 +5460,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="4">
-        <v>119</v>
-      </c>
-      <c r="B121" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C121" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>4</v>
@@ -5450,24 +5475,24 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="5" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>102</v>
@@ -5476,97 +5501,97 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="4">
-        <v>124</v>
-      </c>
-      <c r="B126" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="B126" s="8"/>
       <c r="C126" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="4">
-        <v>125</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B127" s="9"/>
       <c r="C127" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="4">
-        <v>126</v>
-      </c>
-      <c r="B128" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="C128" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E128" s="2"/>
+      <c r="E128" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4">
-        <v>128</v>
-      </c>
-      <c r="B130" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="B130" s="8"/>
       <c r="C130" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>102</v>
@@ -5575,43 +5600,41 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4">
-        <v>129</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B131" s="9"/>
       <c r="C131" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4">
-        <v>130</v>
-      </c>
-      <c r="B132" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="C132" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E132" s="2"/>
+      <c r="E132" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4">
-        <v>131</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B133" s="6"/>
       <c r="C133" s="5" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>103</v>
@@ -5620,11 +5643,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4">
-        <v>132</v>
-      </c>
-      <c r="B134" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C134" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>103</v>
@@ -5633,39 +5658,39 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="4">
-        <v>133</v>
-      </c>
-      <c r="B135" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="B135" s="8"/>
       <c r="C135" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="4">
-        <v>134</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B136" s="9"/>
       <c r="C136" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="4">
-        <v>135</v>
-      </c>
-      <c r="B137" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="C137" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>103</v>
@@ -5674,368 +5699,370 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4">
-        <v>136</v>
-      </c>
-      <c r="B138" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="B138" s="8"/>
       <c r="C138" s="5" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="4">
+        <v>136</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="4">
         <v>137</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B140" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5" t="s">
+      <c r="C140" s="5"/>
+      <c r="D140" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" s="30" customFormat="1">
-      <c r="A140" s="4">
-        <v>138</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D140" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140" s="29"/>
+      <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" s="30" customFormat="1">
       <c r="A141" s="4">
-        <v>139</v>
-      </c>
-      <c r="B141" s="27"/>
+        <v>138</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="C141" s="28" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E141" s="29" t="s">
-        <v>181</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E141" s="29"/>
     </row>
     <row r="142" spans="1:5" s="30" customFormat="1">
       <c r="A142" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="27"/>
       <c r="C142" s="28" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E142" s="31" t="s">
-        <v>183</v>
+        <v>4</v>
+      </c>
+      <c r="E142" s="29" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="30" customFormat="1">
       <c r="A143" s="4">
-        <v>141</v>
-      </c>
-      <c r="B143" s="39" t="s">
-        <v>184</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B143" s="27"/>
       <c r="C143" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D143" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E143" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="30" customFormat="1">
+      <c r="A144" s="4">
+        <v>141</v>
+      </c>
+      <c r="B144" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E144" s="31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A144" s="4">
+    <row r="145" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A145" s="4">
         <v>142</v>
       </c>
-      <c r="B144" s="39"/>
-      <c r="C144" s="28" t="s">
+      <c r="B145" s="40"/>
+      <c r="C145" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D144" s="28" t="s">
+      <c r="D145" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E144" s="31" t="s">
+      <c r="E145" s="31" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="30" customFormat="1">
-      <c r="A145" s="4">
-        <v>143</v>
-      </c>
-      <c r="B145" s="39"/>
-      <c r="C145" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E145" s="29" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="30" customFormat="1">
       <c r="A146" s="4">
-        <v>144</v>
-      </c>
-      <c r="B146" s="39"/>
+        <v>143</v>
+      </c>
+      <c r="B146" s="40"/>
       <c r="C146" s="28" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D146" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="29"/>
+      <c r="E146" s="29" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="147" spans="1:5" s="30" customFormat="1">
       <c r="A147" s="4">
-        <v>145</v>
-      </c>
-      <c r="B147" s="39"/>
+        <v>144</v>
+      </c>
+      <c r="B147" s="40"/>
       <c r="C147" s="28" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E147" s="29"/>
     </row>
     <row r="148" spans="1:5" s="30" customFormat="1">
       <c r="A148" s="4">
-        <v>146</v>
-      </c>
-      <c r="B148" s="39"/>
+        <v>145</v>
+      </c>
+      <c r="B148" s="40"/>
       <c r="C148" s="28" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E148" s="29"/>
     </row>
     <row r="149" spans="1:5" s="30" customFormat="1">
       <c r="A149" s="4">
-        <v>147</v>
-      </c>
-      <c r="B149" s="39"/>
+        <v>146</v>
+      </c>
+      <c r="B149" s="40"/>
       <c r="C149" s="28" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E149" s="29"/>
     </row>
     <row r="150" spans="1:5" s="30" customFormat="1">
       <c r="A150" s="4">
-        <v>148</v>
-      </c>
-      <c r="B150" s="39"/>
+        <v>147</v>
+      </c>
+      <c r="B150" s="40"/>
       <c r="C150" s="28" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E150" s="29"/>
     </row>
     <row r="151" spans="1:5" s="30" customFormat="1">
       <c r="A151" s="4">
-        <v>149</v>
-      </c>
-      <c r="B151" s="39"/>
+        <v>148</v>
+      </c>
+      <c r="B151" s="40"/>
       <c r="C151" s="28" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E151" s="29"/>
     </row>
     <row r="152" spans="1:5" s="30" customFormat="1">
       <c r="A152" s="4">
-        <v>150</v>
-      </c>
-      <c r="B152" s="39"/>
+        <v>149</v>
+      </c>
+      <c r="B152" s="40"/>
       <c r="C152" s="28" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E152" s="29"/>
     </row>
     <row r="153" spans="1:5" s="30" customFormat="1">
       <c r="A153" s="4">
-        <v>151</v>
-      </c>
-      <c r="B153" s="32"/>
+        <v>150</v>
+      </c>
+      <c r="B153" s="40"/>
       <c r="C153" s="28" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E153" s="29"/>
     </row>
     <row r="154" spans="1:5" s="30" customFormat="1">
       <c r="A154" s="4">
-        <v>152</v>
-      </c>
-      <c r="B154" s="36" t="s">
-        <v>194</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B154" s="32"/>
       <c r="C154" s="28" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E154" s="31"/>
+        <v>105</v>
+      </c>
+      <c r="E154" s="29"/>
     </row>
     <row r="155" spans="1:5" s="30" customFormat="1">
       <c r="A155" s="4">
-        <v>153</v>
-      </c>
-      <c r="B155" s="37"/>
+        <v>152</v>
+      </c>
+      <c r="B155" s="37" t="s">
+        <v>194</v>
+      </c>
       <c r="C155" s="28" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E155" s="29" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E155" s="31"/>
     </row>
     <row r="156" spans="1:5" s="30" customFormat="1">
       <c r="A156" s="4">
+        <v>153</v>
+      </c>
+      <c r="B156" s="38"/>
+      <c r="C156" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E156" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="30" customFormat="1">
+      <c r="A157" s="4">
         <v>154</v>
-      </c>
-      <c r="B156" s="37"/>
-      <c r="C156" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D156" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E156" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A157" s="4">
-        <v>155</v>
       </c>
       <c r="B157" s="38"/>
       <c r="C157" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A158" s="4">
+        <v>155</v>
+      </c>
+      <c r="B158" s="39"/>
+      <c r="C158" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="D157" s="28" t="s">
+      <c r="D158" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E157" s="29" t="s">
+      <c r="E158" s="29" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="30" customFormat="1">
-      <c r="A158" s="4">
-        <v>156</v>
-      </c>
-      <c r="B158" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D158" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E158" s="29" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="30" customFormat="1">
       <c r="A159" s="4">
-        <v>157</v>
-      </c>
-      <c r="B159" s="37"/>
+        <v>156</v>
+      </c>
+      <c r="B159" s="43" t="s">
+        <v>202</v>
+      </c>
       <c r="C159" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D159" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="30" customFormat="1">
       <c r="A160" s="4">
-        <v>158</v>
-      </c>
-      <c r="B160" s="37"/>
+        <v>157</v>
+      </c>
+      <c r="B160" s="44"/>
       <c r="C160" s="28" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="E160" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="30" customFormat="1">
       <c r="A161" s="4">
-        <v>159</v>
-      </c>
-      <c r="B161" s="37"/>
+        <v>158</v>
+      </c>
+      <c r="B161" s="44"/>
       <c r="C161" s="28" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="E161" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="30" customFormat="1">
       <c r="A162" s="4">
-        <v>160</v>
-      </c>
-      <c r="B162" s="37"/>
+        <v>159</v>
+      </c>
+      <c r="B162" s="46" t="s">
+        <v>235</v>
+      </c>
       <c r="C162" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D162" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E162" s="29"/>
+      <c r="E162" s="29" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="163" spans="1:5" s="30" customFormat="1">
       <c r="A163" s="4">
-        <v>161</v>
-      </c>
-      <c r="B163" s="37"/>
+        <v>160</v>
+      </c>
+      <c r="B163" s="46"/>
       <c r="C163" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D163" s="28" t="s">
         <v>105</v>
@@ -6044,11 +6071,11 @@
     </row>
     <row r="164" spans="1:5" s="30" customFormat="1">
       <c r="A164" s="4">
-        <v>162</v>
-      </c>
-      <c r="B164" s="37"/>
+        <v>161</v>
+      </c>
+      <c r="B164" s="44"/>
       <c r="C164" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D164" s="28" t="s">
         <v>105</v>
@@ -6057,356 +6084,289 @@
     </row>
     <row r="165" spans="1:5" s="30" customFormat="1">
       <c r="A165" s="4">
-        <v>163</v>
-      </c>
-      <c r="B165" s="33" t="s">
-        <v>209</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B165" s="45"/>
       <c r="C165" s="28" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E165" s="29"/>
     </row>
     <row r="166" spans="1:5" s="30" customFormat="1">
       <c r="A166" s="4">
-        <v>164</v>
-      </c>
-      <c r="B166" s="27"/>
+        <v>163</v>
+      </c>
+      <c r="B166" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="C166" s="28" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="D166" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E166" s="29"/>
+      <c r="E166" s="29" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="167" spans="1:5" s="30" customFormat="1">
       <c r="A167" s="4">
+        <v>164</v>
+      </c>
+      <c r="B167" s="41"/>
+      <c r="C167" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="29"/>
+    </row>
+    <row r="168" spans="1:5" s="30" customFormat="1">
+      <c r="A168" s="4">
         <v>165</v>
       </c>
-      <c r="B167" s="40"/>
-      <c r="C167" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D167" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E167" s="29"/>
-    </row>
-    <row r="168" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A168" s="4">
-        <v>166</v>
-      </c>
-      <c r="B168" s="40"/>
+      <c r="B168" s="41"/>
       <c r="C168" s="28" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E168" s="29" t="s">
-        <v>211</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E168" s="29"/>
     </row>
     <row r="169" spans="1:5" s="30" customFormat="1">
       <c r="A169" s="4">
-        <v>167</v>
-      </c>
-      <c r="B169" s="40"/>
+        <v>166</v>
+      </c>
+      <c r="B169" s="41"/>
       <c r="C169" s="28" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E169" s="29"/>
     </row>
     <row r="170" spans="1:5" s="30" customFormat="1">
       <c r="A170" s="4">
-        <v>168</v>
-      </c>
-      <c r="B170" s="32"/>
+        <v>167</v>
+      </c>
+      <c r="B170" s="41"/>
       <c r="C170" s="28" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E170" s="29"/>
+        <v>104</v>
+      </c>
+      <c r="E170" s="29" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="171" spans="1:5" s="30" customFormat="1">
       <c r="A171" s="4">
-        <v>169</v>
-      </c>
-      <c r="B171" s="33" t="s">
-        <v>212</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B171" s="41"/>
       <c r="C171" s="28" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E171" s="29" t="s">
-        <v>214</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E171" s="29"/>
     </row>
     <row r="172" spans="1:5" s="30" customFormat="1">
       <c r="A172" s="4">
-        <v>170</v>
-      </c>
-      <c r="B172" s="40"/>
+        <v>169</v>
+      </c>
+      <c r="B172" s="32"/>
       <c r="C172" s="28" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E172" s="29"/>
     </row>
     <row r="173" spans="1:5" s="30" customFormat="1">
       <c r="A173" s="4">
-        <v>171</v>
-      </c>
-      <c r="B173" s="40"/>
+        <v>170</v>
+      </c>
+      <c r="B173" s="33" t="s">
+        <v>210</v>
+      </c>
       <c r="C173" s="28" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E173" s="29"/>
+        <v>103</v>
+      </c>
+      <c r="E173" s="29" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="174" spans="1:5" s="30" customFormat="1">
       <c r="A174" s="4">
+        <v>171</v>
+      </c>
+      <c r="B174" s="27"/>
+      <c r="C174" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E174" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="30" customFormat="1">
+      <c r="A175" s="4">
         <v>172</v>
       </c>
-      <c r="B174" s="40"/>
-      <c r="C174" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D174" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E174" s="29"/>
-    </row>
-    <row r="175" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A175" s="4">
-        <v>173</v>
-      </c>
-      <c r="B175" s="40"/>
+      <c r="B175" s="42" t="s">
+        <v>235</v>
+      </c>
       <c r="C175" s="28" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="30" customFormat="1">
       <c r="A176" s="4">
-        <v>174</v>
-      </c>
-      <c r="B176" s="40"/>
+        <v>173</v>
+      </c>
+      <c r="B176" s="42"/>
       <c r="C176" s="28" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E176" s="29"/>
     </row>
     <row r="177" spans="1:5" s="30" customFormat="1">
       <c r="A177" s="4">
-        <v>175</v>
-      </c>
-      <c r="B177" s="32"/>
+        <v>174</v>
+      </c>
+      <c r="B177" s="42"/>
       <c r="C177" s="28" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E177" s="29"/>
     </row>
     <row r="178" spans="1:5" s="30" customFormat="1">
       <c r="A178" s="4">
-        <v>176</v>
-      </c>
-      <c r="B178" s="33" t="s">
-        <v>216</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B178" s="42"/>
       <c r="C178" s="28" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E178" s="29" t="s">
-        <v>218</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E178" s="29"/>
     </row>
     <row r="179" spans="1:5" s="30" customFormat="1">
       <c r="A179" s="4">
-        <v>177</v>
-      </c>
-      <c r="B179" s="27"/>
+        <v>176</v>
+      </c>
+      <c r="B179" s="37" t="s">
+        <v>215</v>
+      </c>
       <c r="C179" s="28" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="30" customFormat="1">
       <c r="A180" s="4">
-        <v>178</v>
-      </c>
-      <c r="B180" s="40"/>
+        <v>177</v>
+      </c>
+      <c r="B180" s="38"/>
       <c r="C180" s="28" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E180" s="29" t="s">
-        <v>208</v>
+        <v>4</v>
+      </c>
+      <c r="E180" s="34" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="30" customFormat="1">
       <c r="A181" s="4">
-        <v>179</v>
-      </c>
-      <c r="B181" s="40"/>
+        <v>178</v>
+      </c>
+      <c r="B181" s="38"/>
       <c r="C181" s="28" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="D181" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E181" s="29"/>
+      <c r="E181" s="29" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="182" spans="1:5" s="30" customFormat="1">
       <c r="A182" s="4">
-        <v>180</v>
-      </c>
-      <c r="B182" s="40"/>
+        <v>179</v>
+      </c>
+      <c r="B182" s="38"/>
       <c r="C182" s="28" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E182" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="E182" s="34" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="183" spans="1:5" s="30" customFormat="1">
       <c r="A183" s="4">
-        <v>181</v>
-      </c>
-      <c r="B183" s="40"/>
-      <c r="C183" s="28" t="s">
-        <v>193</v>
+        <v>180</v>
+      </c>
+      <c r="B183" s="39"/>
+      <c r="C183" s="35" t="s">
+        <v>78</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E183" s="29"/>
     </row>
-    <row r="184" spans="1:5" s="30" customFormat="1">
-      <c r="A184" s="4">
-        <v>182</v>
-      </c>
-      <c r="B184" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C184" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D184" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E184" s="29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" s="30" customFormat="1">
-      <c r="A185" s="4">
-        <v>183</v>
-      </c>
-      <c r="B185" s="37"/>
-      <c r="C185" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D185" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E185" s="34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" s="30" customFormat="1">
-      <c r="A186" s="4">
-        <v>184</v>
-      </c>
-      <c r="B186" s="37"/>
-      <c r="C186" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D186" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E186" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" s="30" customFormat="1">
-      <c r="A187" s="4">
-        <v>185</v>
-      </c>
-      <c r="B187" s="37"/>
-      <c r="C187" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D187" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E187" s="34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" s="30" customFormat="1">
-      <c r="A188" s="4">
-        <v>186</v>
-      </c>
-      <c r="B188" s="38"/>
-      <c r="C188" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D188" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E188" s="29"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E139"/>
-  <mergeCells count="7">
-    <mergeCell ref="B184:B188"/>
-    <mergeCell ref="B143:B152"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="B158:B164"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="B180:B183"/>
+  <autoFilter ref="A1:E140"/>
+  <mergeCells count="6">
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="B144:B153"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="B175:B178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -11,9 +11,10 @@
     <sheet name="TBL_LIST" sheetId="5" r:id="rId2"/>
     <sheet name="TBL_DESC" sheetId="4" r:id="rId3"/>
     <sheet name="TBL_Relation" sheetId="6" r:id="rId4"/>
+    <sheet name="TBL_SysOption_Content" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$E$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$E$141</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="254">
   <si>
     <t>No</t>
   </si>
@@ -699,21 +700,12 @@
     <t>sysOption</t>
   </si>
   <si>
-    <t>maxQuestion</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>enableModify</t>
   </si>
   <si>
-    <t>=false: Đây là biến hệ thống.</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -753,17 +745,80 @@
     <t>completed</t>
   </si>
   <si>
-    <t>Đã kết thúc học giáo trình này chưa?. Mặc định = false</t>
-  </si>
-  <si>
     <t>(can using embedded data)</t>
+  </si>
+  <si>
+    <t>rate1</t>
+  </si>
+  <si>
+    <t>Đánh giá đúng/sai cho phương án trả lời 1</t>
+  </si>
+  <si>
+    <t>Tỷ lệ % trả lời cho phương án 1</t>
+  </si>
+  <si>
+    <t>rate2</t>
+  </si>
+  <si>
+    <t>rate3</t>
+  </si>
+  <si>
+    <t>rate4</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỷ lệ % trả lời toàn bộ bài test. </t>
+  </si>
+  <si>
+    <t>learningPassCondition</t>
+  </si>
+  <si>
+    <t>tỉ lệ % tối thiểu để pass bài học</t>
+  </si>
+  <si>
+    <t>Đã hoàn thành các bài học trong giáo trình này chưa?. Mặc định = false</t>
+  </si>
+  <si>
+    <t>activeNewRegisterRequirement</t>
+  </si>
+  <si>
+    <t>Yêu cầu newUser active trước khi sử dụng tài khoản</t>
+  </si>
+  <si>
+    <t>maxSurveyQuestion</t>
+  </si>
+  <si>
+    <t>Giới hạn số câu hỏi tối đa khi thực hiện survey</t>
+  </si>
+  <si>
+    <t>(Xem thông tin content của table này trong sheet TBL_SysOption_Content)</t>
+  </si>
+  <si>
+    <t>limitTimeForQuestion</t>
+  </si>
+  <si>
+    <t>Giới hạn thời gian cho 1 câu hỏi</t>
+  </si>
+  <si>
+    <t>4. User Survey Reference</t>
+  </si>
+  <si>
+    <t>5 User Test Reference</t>
+  </si>
+  <si>
+    <t>referenceWord</t>
+  </si>
+  <si>
+    <t>Những từ có cùng nghĩa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -825,12 +880,25 @@
       <name val="Arial Hebrew Scholar"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Arial Hebrew"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +920,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,7 +1100,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1129,6 +1203,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,26 +1220,43 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2705,6 +2805,646 @@
         <a:xfrm>
           <a:off x="2463800" y="8807450"/>
           <a:ext cx="774700" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0432FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Alternate Process 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="10906125"/>
+          <a:ext cx="1765300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" charset="0"/>
+              <a:ea typeface="Courier New" charset="0"/>
+              <a:cs typeface="Courier New" charset="0"/>
+            </a:rPr>
+            <a:t>surveyUser</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Alternate Process 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="10906125"/>
+          <a:ext cx="1765300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" charset="0"/>
+              <a:ea typeface="Courier New" charset="0"/>
+              <a:cs typeface="Courier New" charset="0"/>
+            </a:rPr>
+            <a:t>surveyUserAnswer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Elbow Connector 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5299075" y="11236325"/>
+          <a:ext cx="1358900" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0432FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Alternate Process 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="12782550"/>
+          <a:ext cx="1765300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" charset="0"/>
+              <a:ea typeface="Courier New" charset="0"/>
+              <a:cs typeface="Courier New" charset="0"/>
+            </a:rPr>
+            <a:t>testResult</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Alternate Process 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677025" y="12782550"/>
+          <a:ext cx="1765300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" charset="0"/>
+              <a:ea typeface="Courier New" charset="0"/>
+              <a:cs typeface="Courier New" charset="0"/>
+            </a:rPr>
+            <a:t>testResultDetail</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Elbow Connector 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5318125" y="13112750"/>
+          <a:ext cx="1358900" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0432FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Alternate Process 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="10944225"/>
+          <a:ext cx="1765300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" charset="0"/>
+              <a:ea typeface="Courier New" charset="0"/>
+              <a:cs typeface="Courier New" charset="0"/>
+            </a:rPr>
+            <a:t>User</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Alternate Process 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="12782550"/>
+          <a:ext cx="1765300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" charset="0"/>
+              <a:ea typeface="Courier New" charset="0"/>
+              <a:cs typeface="Courier New" charset="0"/>
+            </a:rPr>
+            <a:t>User</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Elbow Connector 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1946275" y="13112750"/>
+          <a:ext cx="1606550" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0432FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Elbow Connector 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2012950" y="11236325"/>
+          <a:ext cx="1520825" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2993,7 +3733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3115,7 +3855,7 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3790,10 +4530,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -4003,51 +4743,53 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" s="30" customFormat="1">
-      <c r="A15" s="36"/>
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
       <c r="B15" s="27"/>
       <c r="C15" s="28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="30" customFormat="1">
-      <c r="A16" s="36">
-        <v>14</v>
+      <c r="A16" s="4">
+        <v>15</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="17" spans="1:5" s="30" customFormat="1">
-      <c r="A17" s="36">
-        <v>15</v>
+      <c r="A17" s="4">
+        <v>16</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>188</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
@@ -4062,7 +4804,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
@@ -4077,7 +4819,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="5" t="s">
@@ -4092,7 +4834,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="5" t="s">
@@ -4107,7 +4849,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>28</v>
@@ -4122,7 +4864,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="5" t="s">
@@ -4137,7 +4879,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="5" t="s">
@@ -4152,7 +4894,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="5" t="s">
@@ -4167,7 +4909,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="5" t="s">
@@ -4182,7 +4924,7 @@
     </row>
     <row r="27" spans="1:5" ht="30">
       <c r="A27" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="5" t="s">
@@ -4197,7 +4939,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>29</v>
@@ -4212,7 +4954,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="5" t="s">
@@ -4225,7 +4967,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="5" t="s">
@@ -4238,7 +4980,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="5" t="s">
@@ -4251,7 +4993,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>79</v>
@@ -4266,7 +5008,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="5" t="s">
@@ -4279,7 +5021,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="5" t="s">
@@ -4292,7 +5034,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="5" t="s">
@@ -4307,7 +5049,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="5" t="s">
@@ -4320,7 +5062,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
@@ -4332,23 +5074,23 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" s="30" customFormat="1">
-      <c r="A38" s="36">
-        <v>35</v>
+      <c r="A38" s="4">
+        <v>37</v>
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>1</v>
@@ -4363,7 +5105,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="5" t="s">
@@ -4376,7 +5118,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="5" t="s">
@@ -4389,7 +5131,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
@@ -4402,7 +5144,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
@@ -4415,7 +5157,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="5" t="s">
@@ -4428,7 +5170,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="5" t="s">
@@ -4441,7 +5183,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="5" t="s">
@@ -4454,7 +5196,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="5" t="s">
@@ -4467,7 +5209,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="5" t="s">
@@ -4480,7 +5222,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="5" t="s">
@@ -4493,7 +5235,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="5" t="s">
@@ -4508,7 +5250,7 @@
     </row>
     <row r="51" spans="1:5" ht="60">
       <c r="A51" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="5" t="s">
@@ -4521,28 +5263,26 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="4">
-        <v>49</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="2"/>
+    <row r="52" spans="1:5" s="30" customFormat="1">
+      <c r="A52" s="36"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4">
-        <v>50</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>112</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B53" s="9"/>
       <c r="C53" s="5" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>4</v>
@@ -4551,11 +5291,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4">
-        <v>51</v>
-      </c>
-      <c r="B54" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="C54" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>4</v>
@@ -4564,11 +5306,11 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>4</v>
@@ -4577,11 +5319,11 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>4</v>
@@ -4590,11 +5332,11 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>4</v>
@@ -4603,95 +5345,93 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="60">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="D63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="4">
-        <v>60</v>
-      </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4">
-        <v>61</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B64" s="9"/>
       <c r="C64" s="5" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>4</v>
@@ -4700,11 +5440,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4">
-        <v>62</v>
-      </c>
-      <c r="B65" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="C65" s="5" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>4</v>
@@ -4713,11 +5455,11 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>4</v>
@@ -4726,37 +5468,37 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="5" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="2" t="s">
@@ -4765,11 +5507,11 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="2" t="s">
@@ -4778,97 +5520,97 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="60">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="D74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="4">
-        <v>71</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="4">
-        <v>72</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B75" s="9"/>
       <c r="C75" s="5" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4">
-        <v>73</v>
-      </c>
-      <c r="B76" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="C76" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4">
-        <v>74</v>
-      </c>
-      <c r="B77" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="8"/>
       <c r="C77" s="5" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>4</v>
@@ -4877,13 +5619,11 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4">
-        <v>75</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B78" s="9"/>
       <c r="C78" s="5" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>4</v>
@@ -4892,11 +5632,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4">
-        <v>76</v>
-      </c>
-      <c r="B79" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="C79" s="5" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>4</v>
@@ -4905,37 +5647,37 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>4</v>
@@ -4944,24 +5686,24 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="2" t="s">
@@ -4970,11 +5712,11 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="2" t="s">
@@ -4983,248 +5725,248 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="60">
+        <v>4</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="60">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="D89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="4">
-        <v>86</v>
-      </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4">
-        <v>87</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>2</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B90" s="9"/>
       <c r="C90" s="5" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4">
-        <v>88</v>
-      </c>
-      <c r="B91" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="C91" s="5" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="4">
-        <v>98</v>
-      </c>
-      <c r="B101" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="8"/>
       <c r="C101" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4">
-        <v>99</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B102" s="9"/>
       <c r="C102" s="5" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="4">
-        <v>100</v>
-      </c>
-      <c r="B103" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C103" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>103</v>
@@ -5233,11 +5975,11 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>103</v>
@@ -5246,24 +5988,24 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>4</v>
@@ -5272,37 +6014,37 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="5" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="5" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>102</v>
@@ -5311,26 +6053,26 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="4">
-        <v>107</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B110" s="8"/>
       <c r="C110" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="4">
-        <v>108</v>
-      </c>
-      <c r="B111" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C111" s="5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>4</v>
@@ -5339,11 +6081,11 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>4</v>
@@ -5352,80 +6094,78 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D113" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D114" s="5"/>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4">
-        <v>112</v>
-      </c>
-      <c r="B115" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="B115" s="8"/>
       <c r="C115" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="4">
-        <v>113</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B116" s="9"/>
       <c r="C116" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="D116" s="5"/>
       <c r="E116" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="4">
-        <v>114</v>
-      </c>
-      <c r="B117" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C117" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E117" s="2"/>
+      <c r="E117" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="4">
-        <v>115</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B118" s="9"/>
       <c r="C118" s="5" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>103</v>
@@ -5434,11 +6174,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="4">
-        <v>116</v>
-      </c>
-      <c r="B119" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C119" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>103</v>
@@ -5447,26 +6189,24 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="4">
-        <v>117</v>
-      </c>
-      <c r="B120" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="8"/>
       <c r="C120" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="4">
-        <v>118</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B121" s="9"/>
       <c r="C121" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>4</v>
@@ -5475,11 +6215,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="4">
-        <v>119</v>
-      </c>
-      <c r="B122" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C122" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>4</v>
@@ -5488,24 +6230,24 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="5" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>102</v>
@@ -5514,97 +6256,97 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="4">
-        <v>124</v>
-      </c>
-      <c r="B127" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="8"/>
       <c r="C127" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="4">
-        <v>125</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B128" s="9"/>
       <c r="C128" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4">
-        <v>126</v>
-      </c>
-      <c r="B129" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="C129" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E129" s="2"/>
+      <c r="E129" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4">
-        <v>128</v>
-      </c>
-      <c r="B131" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="B131" s="8"/>
       <c r="C131" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>102</v>
@@ -5613,43 +6355,41 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4">
-        <v>129</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B132" s="9"/>
       <c r="C132" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4">
-        <v>130</v>
-      </c>
-      <c r="B133" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="C133" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E133" s="2"/>
+      <c r="E133" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4">
-        <v>131</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B134" s="6"/>
       <c r="C134" s="5" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>103</v>
@@ -5658,11 +6398,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="4">
-        <v>132</v>
-      </c>
-      <c r="B135" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C135" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>103</v>
@@ -5671,39 +6413,39 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="4">
-        <v>133</v>
-      </c>
-      <c r="B136" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="B136" s="8"/>
       <c r="C136" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="4">
-        <v>134</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B137" s="9"/>
       <c r="C137" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4">
-        <v>135</v>
-      </c>
-      <c r="B138" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="C138" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>103</v>
@@ -5712,181 +6454,185 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="4">
-        <v>136</v>
-      </c>
-      <c r="B139" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="B139" s="8"/>
       <c r="C139" s="5" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="4">
-        <v>137</v>
-      </c>
-      <c r="B140" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="4">
+        <v>139</v>
+      </c>
+      <c r="B141" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5" t="s">
+      <c r="C141" s="5"/>
+      <c r="D141" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" s="30" customFormat="1">
-      <c r="A141" s="4">
-        <v>138</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D141" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" s="29"/>
+      <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" s="30" customFormat="1">
       <c r="A142" s="4">
-        <v>139</v>
-      </c>
-      <c r="B142" s="27"/>
+        <v>140</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="C142" s="28" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E142" s="29" t="s">
-        <v>181</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E142" s="29"/>
     </row>
     <row r="143" spans="1:5" s="30" customFormat="1">
       <c r="A143" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" s="27"/>
       <c r="C143" s="28" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E143" s="31" t="s">
-        <v>183</v>
+        <v>4</v>
+      </c>
+      <c r="E143" s="29" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="30" customFormat="1">
       <c r="A144" s="4">
-        <v>141</v>
-      </c>
-      <c r="B144" s="40" t="s">
-        <v>184</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B144" s="27"/>
       <c r="C144" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D144" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E144" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A145" s="4">
+        <v>143</v>
+      </c>
+      <c r="B145" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D145" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E145" s="31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A145" s="4">
-        <v>142</v>
-      </c>
-      <c r="B145" s="40"/>
-      <c r="C145" s="28" t="s">
+    <row r="146" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="A146" s="4">
+        <v>144</v>
+      </c>
+      <c r="B146" s="57"/>
+      <c r="C146" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D145" s="28" t="s">
+      <c r="D146" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E145" s="31" t="s">
+      <c r="E146" s="31" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="30" customFormat="1">
-      <c r="A146" s="4">
-        <v>143</v>
-      </c>
-      <c r="B146" s="40"/>
-      <c r="C146" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E146" s="29" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="30" customFormat="1">
       <c r="A147" s="4">
-        <v>144</v>
-      </c>
-      <c r="B147" s="40"/>
+        <v>145</v>
+      </c>
+      <c r="B147" s="57"/>
       <c r="C147" s="28" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D147" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E147" s="29"/>
+      <c r="E147" s="29" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="148" spans="1:5" s="30" customFormat="1">
       <c r="A148" s="4">
-        <v>145</v>
-      </c>
-      <c r="B148" s="40"/>
+        <v>146</v>
+      </c>
+      <c r="B148" s="57"/>
       <c r="C148" s="28" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E148" s="29"/>
     </row>
     <row r="149" spans="1:5" s="30" customFormat="1">
       <c r="A149" s="4">
-        <v>146</v>
-      </c>
-      <c r="B149" s="40"/>
+        <v>147</v>
+      </c>
+      <c r="B149" s="57"/>
       <c r="C149" s="28" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E149" s="29"/>
+        <v>105</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="150" spans="1:5" s="30" customFormat="1">
       <c r="A150" s="4">
-        <v>147</v>
-      </c>
-      <c r="B150" s="40"/>
+        <v>148</v>
+      </c>
+      <c r="B150" s="57"/>
       <c r="C150" s="28" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E150" s="29"/>
+        <v>104</v>
+      </c>
+      <c r="E150" s="29" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="151" spans="1:5" s="30" customFormat="1">
       <c r="A151" s="4">
-        <v>148</v>
-      </c>
-      <c r="B151" s="40"/>
+        <v>149</v>
+      </c>
+      <c r="B151" s="57"/>
       <c r="C151" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D151" s="28" t="s">
         <v>4</v>
@@ -5895,11 +6641,11 @@
     </row>
     <row r="152" spans="1:5" s="30" customFormat="1">
       <c r="A152" s="4">
-        <v>149</v>
-      </c>
-      <c r="B152" s="40"/>
+        <v>150</v>
+      </c>
+      <c r="B152" s="57"/>
       <c r="C152" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D152" s="28" t="s">
         <v>105</v>
@@ -5908,462 +6654,536 @@
     </row>
     <row r="153" spans="1:5" s="30" customFormat="1">
       <c r="A153" s="4">
-        <v>150</v>
-      </c>
-      <c r="B153" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="B153" s="57"/>
       <c r="C153" s="28" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="E153" s="29"/>
     </row>
     <row r="154" spans="1:5" s="30" customFormat="1">
       <c r="A154" s="4">
-        <v>151</v>
-      </c>
-      <c r="B154" s="32"/>
+        <v>152</v>
+      </c>
+      <c r="B154" s="57"/>
       <c r="C154" s="28" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E154" s="29"/>
     </row>
     <row r="155" spans="1:5" s="30" customFormat="1">
       <c r="A155" s="4">
-        <v>152</v>
-      </c>
-      <c r="B155" s="37" t="s">
-        <v>194</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B155" s="57"/>
       <c r="C155" s="28" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E155" s="31"/>
+        <v>105</v>
+      </c>
+      <c r="E155" s="29"/>
     </row>
     <row r="156" spans="1:5" s="30" customFormat="1">
       <c r="A156" s="4">
-        <v>153</v>
-      </c>
-      <c r="B156" s="38"/>
+        <v>154</v>
+      </c>
+      <c r="B156" s="57"/>
       <c r="C156" s="28" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E156" s="29" t="s">
-        <v>197</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E156" s="29"/>
     </row>
     <row r="157" spans="1:5" s="30" customFormat="1">
       <c r="A157" s="4">
-        <v>154</v>
-      </c>
-      <c r="B157" s="38"/>
+        <v>155</v>
+      </c>
+      <c r="B157" s="57"/>
       <c r="C157" s="28" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D157" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E157" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="30" customFormat="1" ht="30">
+      <c r="E157" s="29"/>
+    </row>
+    <row r="158" spans="1:5" s="30" customFormat="1">
       <c r="A158" s="4">
-        <v>155</v>
-      </c>
-      <c r="B158" s="39"/>
+        <v>156</v>
+      </c>
+      <c r="B158" s="57"/>
       <c r="C158" s="28" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E158" s="29" t="s">
-        <v>201</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E158" s="29"/>
     </row>
     <row r="159" spans="1:5" s="30" customFormat="1">
       <c r="A159" s="4">
-        <v>156</v>
-      </c>
-      <c r="B159" s="43" t="s">
-        <v>202</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B159" s="58"/>
       <c r="C159" s="28" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E159" s="29" t="s">
-        <v>204</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E159" s="29"/>
     </row>
     <row r="160" spans="1:5" s="30" customFormat="1">
       <c r="A160" s="4">
-        <v>157</v>
-      </c>
-      <c r="B160" s="44"/>
+        <v>158</v>
+      </c>
+      <c r="B160" s="40" t="s">
+        <v>194</v>
+      </c>
       <c r="C160" s="28" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E160" s="29" t="s">
-        <v>206</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E160" s="31"/>
     </row>
     <row r="161" spans="1:5" s="30" customFormat="1">
       <c r="A161" s="4">
-        <v>158</v>
-      </c>
-      <c r="B161" s="44"/>
+        <v>159</v>
+      </c>
+      <c r="B161" s="41"/>
       <c r="C161" s="28" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="E161" s="29" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="30" customFormat="1">
       <c r="A162" s="4">
-        <v>159</v>
-      </c>
-      <c r="B162" s="46" t="s">
-        <v>235</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B162" s="41"/>
       <c r="C162" s="28" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E162" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="30" customFormat="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="30" customFormat="1" ht="30">
       <c r="A163" s="4">
-        <v>160</v>
-      </c>
-      <c r="B163" s="46"/>
+        <v>161</v>
+      </c>
+      <c r="B163" s="41"/>
       <c r="C163" s="28" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E163" s="29"/>
+        <v>13</v>
+      </c>
+      <c r="E163" s="29" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="164" spans="1:5" s="30" customFormat="1">
       <c r="A164" s="4">
-        <v>161</v>
-      </c>
-      <c r="B164" s="44"/>
+        <v>162</v>
+      </c>
+      <c r="B164" s="42"/>
       <c r="C164" s="28" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E164" s="29"/>
+        <v>104</v>
+      </c>
+      <c r="E164" s="29" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="165" spans="1:5" s="30" customFormat="1">
       <c r="A165" s="4">
-        <v>162</v>
-      </c>
-      <c r="B165" s="45"/>
+        <v>163</v>
+      </c>
+      <c r="B165" s="37" t="s">
+        <v>202</v>
+      </c>
       <c r="C165" s="28" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E165" s="29"/>
+        <v>196</v>
+      </c>
+      <c r="E165" s="29" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="166" spans="1:5" s="30" customFormat="1">
       <c r="A166" s="4">
-        <v>163</v>
-      </c>
-      <c r="B166" s="33" t="s">
-        <v>209</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B166" s="38"/>
       <c r="C166" s="28" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="E166" s="29" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="30" customFormat="1">
       <c r="A167" s="4">
-        <v>164</v>
-      </c>
-      <c r="B167" s="41"/>
+        <v>165</v>
+      </c>
+      <c r="B167" s="38"/>
       <c r="C167" s="28" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E167" s="29"/>
+        <v>13</v>
+      </c>
+      <c r="E167" s="29" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="168" spans="1:5" s="30" customFormat="1">
       <c r="A168" s="4">
-        <v>165</v>
-      </c>
-      <c r="B168" s="41"/>
+        <v>166</v>
+      </c>
+      <c r="B168" s="55" t="s">
+        <v>231</v>
+      </c>
       <c r="C168" s="28" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E168" s="29"/>
+        <v>105</v>
+      </c>
+      <c r="E168" s="29" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="169" spans="1:5" s="30" customFormat="1">
       <c r="A169" s="4">
-        <v>166</v>
-      </c>
-      <c r="B169" s="41"/>
+        <v>167</v>
+      </c>
+      <c r="B169" s="55"/>
       <c r="C169" s="28" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E169" s="29"/>
     </row>
     <row r="170" spans="1:5" s="30" customFormat="1">
       <c r="A170" s="4">
-        <v>167</v>
-      </c>
-      <c r="B170" s="41"/>
+        <v>168</v>
+      </c>
+      <c r="B170" s="38"/>
       <c r="C170" s="28" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E170" s="29" t="s">
-        <v>230</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E170" s="29"/>
     </row>
     <row r="171" spans="1:5" s="30" customFormat="1">
       <c r="A171" s="4">
-        <v>168</v>
-      </c>
-      <c r="B171" s="41"/>
+        <v>169</v>
+      </c>
+      <c r="B171" s="39"/>
       <c r="C171" s="28" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E171" s="29"/>
     </row>
     <row r="172" spans="1:5" s="30" customFormat="1">
       <c r="A172" s="4">
-        <v>169</v>
-      </c>
-      <c r="B172" s="32"/>
+        <v>170</v>
+      </c>
+      <c r="B172" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="C172" s="28" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E172" s="29"/>
+        <v>103</v>
+      </c>
+      <c r="E172" s="29" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="173" spans="1:5" s="30" customFormat="1">
       <c r="A173" s="4">
-        <v>170</v>
-      </c>
-      <c r="B173" s="33" t="s">
-        <v>210</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B173" s="43"/>
       <c r="C173" s="28" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E173" s="29" t="s">
-        <v>212</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E173" s="29"/>
     </row>
     <row r="174" spans="1:5" s="30" customFormat="1">
       <c r="A174" s="4">
-        <v>171</v>
-      </c>
-      <c r="B174" s="27"/>
+        <v>172</v>
+      </c>
+      <c r="B174" s="43"/>
       <c r="C174" s="28" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E174" s="29" t="s">
-        <v>214</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E174" s="29"/>
     </row>
     <row r="175" spans="1:5" s="30" customFormat="1">
       <c r="A175" s="4">
-        <v>172</v>
-      </c>
-      <c r="B175" s="42" t="s">
-        <v>235</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B175" s="43"/>
       <c r="C175" s="28" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E175" s="29" t="s">
-        <v>208</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E175" s="29"/>
     </row>
     <row r="176" spans="1:5" s="30" customFormat="1">
       <c r="A176" s="4">
-        <v>173</v>
-      </c>
-      <c r="B176" s="42"/>
+        <v>174</v>
+      </c>
+      <c r="B176" s="43"/>
       <c r="C176" s="28" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E176" s="29"/>
+        <v>104</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="177" spans="1:5" s="30" customFormat="1">
       <c r="A177" s="4">
-        <v>174</v>
-      </c>
-      <c r="B177" s="42"/>
+        <v>175</v>
+      </c>
+      <c r="B177" s="43"/>
       <c r="C177" s="28" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E177" s="29"/>
     </row>
     <row r="178" spans="1:5" s="30" customFormat="1">
       <c r="A178" s="4">
-        <v>175</v>
-      </c>
-      <c r="B178" s="42"/>
+        <v>176</v>
+      </c>
+      <c r="B178" s="32"/>
       <c r="C178" s="28" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E178" s="29"/>
     </row>
     <row r="179" spans="1:5" s="30" customFormat="1">
       <c r="A179" s="4">
-        <v>176</v>
-      </c>
-      <c r="B179" s="37" t="s">
-        <v>215</v>
+        <v>177</v>
+      </c>
+      <c r="B179" s="33" t="s">
+        <v>210</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="30" customFormat="1">
       <c r="A180" s="4">
-        <v>177</v>
-      </c>
-      <c r="B180" s="38"/>
+        <v>178</v>
+      </c>
+      <c r="B180" s="27"/>
       <c r="C180" s="28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E180" s="34" t="s">
-        <v>218</v>
+        <v>103</v>
+      </c>
+      <c r="E180" s="29" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="30" customFormat="1">
       <c r="A181" s="4">
-        <v>178</v>
-      </c>
-      <c r="B181" s="38"/>
+        <v>179</v>
+      </c>
+      <c r="B181" s="54" t="s">
+        <v>231</v>
+      </c>
       <c r="C181" s="28" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D181" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="30" customFormat="1">
       <c r="A182" s="4">
-        <v>179</v>
-      </c>
-      <c r="B182" s="38"/>
+        <v>180</v>
+      </c>
+      <c r="B182" s="54"/>
       <c r="C182" s="28" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E182" s="34" t="s">
-        <v>218</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E182" s="29"/>
     </row>
     <row r="183" spans="1:5" s="30" customFormat="1">
       <c r="A183" s="4">
-        <v>180</v>
-      </c>
-      <c r="B183" s="39"/>
-      <c r="C183" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" s="54"/>
+      <c r="C183" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D183" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E183" s="29"/>
+    </row>
+    <row r="184" spans="1:5" s="30" customFormat="1">
+      <c r="A184" s="4">
+        <v>182</v>
+      </c>
+      <c r="B184" s="54"/>
+      <c r="C184" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D184" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E184" s="29"/>
+    </row>
+    <row r="185" spans="1:5" s="30" customFormat="1">
+      <c r="A185" s="4">
+        <v>183</v>
+      </c>
+      <c r="B185" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="29"/>
+    </row>
+    <row r="186" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A186" s="4">
+        <v>184</v>
+      </c>
+      <c r="B186" s="56"/>
+      <c r="C186" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D186" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="34"/>
+    </row>
+    <row r="187" spans="1:5" s="30" customFormat="1">
+      <c r="A187" s="4">
+        <v>185</v>
+      </c>
+      <c r="B187" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E187" s="29"/>
+    </row>
+    <row r="188" spans="1:5" s="30" customFormat="1">
+      <c r="A188" s="4">
+        <v>186</v>
+      </c>
+      <c r="B188" s="52"/>
+      <c r="C188" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" s="34"/>
+    </row>
+    <row r="189" spans="1:5" s="30" customFormat="1">
+      <c r="A189" s="4">
+        <v>187</v>
+      </c>
+      <c r="B189" s="53"/>
+      <c r="C189" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D183" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E183" s="29"/>
+      <c r="D189" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E140"/>
+  <autoFilter ref="A1:E141"/>
   <mergeCells count="6">
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="B144:B153"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B173:B177"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="B145:B159"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="B187:B189"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6372,9 +7192,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B45"/>
+  <dimension ref="A2:B77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="12.75"/>
   <cols>
@@ -6397,10 +7219,380 @@
         <v>154</v>
       </c>
     </row>
+    <row r="66" spans="1:1" ht="15.75">
+      <c r="A66" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15.75">
+      <c r="A77" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="33" style="44" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" style="51" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="50">
+        <v>5</v>
+      </c>
+      <c r="C2" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="50">
+        <v>5</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="50">
+        <v>70</v>
+      </c>
+      <c r="C3" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50">
+        <v>80</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="50">
+        <v>1</v>
+      </c>
+      <c r="C5" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="50">
+        <v>1</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="46"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="47"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="46"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="46"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="46"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="47"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="46"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="46"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="46"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="46"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="46"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="47"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="46"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="46"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="46"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="47"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="46"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="47"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="46"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="47"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="46"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="47"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="46"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="47"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="46"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="47"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="46"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="47"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="46"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="47"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="46"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="47"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="46"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="47"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="46"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="47"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="46"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="47"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="46"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="47"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="46"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="47"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="46"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="47"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="46"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="47"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="46"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="47"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="46"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="47"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="47"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="46"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="46"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="47"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="46"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="14805" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19320" windowHeight="14805" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="TBL_SysOption_Content" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$E$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$190</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="257">
   <si>
     <t>No</t>
   </si>
@@ -812,6 +812,15 @@
   </si>
   <si>
     <t>Những từ có cùng nghĩa</t>
+  </si>
+  <si>
+    <t>Ngày cập nhật</t>
+  </si>
+  <si>
+    <t>nameLearning</t>
+  </si>
+  <si>
+    <t>imageLearning</t>
   </si>
 </sst>
 </file>
@@ -898,7 +907,7 @@
       <name val="Arial Hebrew"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,6 +935,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,13 +1121,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1180,21 +1198,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1211,18 +1220,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1238,19 +1235,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1258,6 +1252,45 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3733,7 +3766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3747,101 +3780,101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="97" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="13"/>
+    <col min="1" max="1" width="4.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="97" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3860,668 +3893,668 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="97" style="12" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="12"/>
+    <col min="1" max="1" width="4.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="97" style="11" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="3"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="3"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="3"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="3"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="3"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="3"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="3"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="3"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="3"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="3"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="3"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="3"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="3"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="3"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="3"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="3"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="3"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="3"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="3"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="3"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="3"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="3"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="3"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="3"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="3"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="3"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="3"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="3"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="3"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="3"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="3"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="3"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="3"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="3"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="3"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="3"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="3"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="3"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="3"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="3"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="3"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="3"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="3"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="3"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="3"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="3"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="3"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="3"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="3"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="3"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="3"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="3"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="3"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="3"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="3"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="3"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="3"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="3"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="3"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="3"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="3"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="3"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="3"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="3"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="3"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="3"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="3"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="3"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="3"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="3"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="3"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="3"/>
+      <c r="B135" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4530,2660 +4563,2869 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="85.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="78.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="62" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4">
+      <c r="F1" s="63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="E2" s="20"/>
+      <c r="F2" s="58"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="20" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
+      <c r="F3" s="58"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
+      <c r="E4" s="20"/>
+      <c r="F4" s="58"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
+      <c r="E5" s="20"/>
+      <c r="F5" s="58"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
+      <c r="E6" s="20"/>
+      <c r="F6" s="58"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="20" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
+      <c r="F7" s="58"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4">
+      <c r="E8" s="20"/>
+      <c r="F8" s="58"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4">
+      <c r="E9" s="20"/>
+      <c r="F9" s="58"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
+      <c r="E10" s="20"/>
+      <c r="F10" s="58"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="E11" s="20"/>
+      <c r="F11" s="58"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4">
+      <c r="E12" s="20"/>
+      <c r="F12" s="58"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="E13" s="20"/>
+      <c r="F13" s="58"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" s="30" customFormat="1">
-      <c r="A15" s="4">
+      <c r="E14" s="20"/>
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" spans="1:6" s="28" customFormat="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="55" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="30" customFormat="1">
-      <c r="A16" s="4">
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6" s="28" customFormat="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="56" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="30" customFormat="1">
-      <c r="A17" s="4">
+      <c r="F16" s="59"/>
+    </row>
+    <row r="17" spans="1:6" s="28" customFormat="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="55" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
+      <c r="F17" s="59"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4">
+      <c r="F18" s="58"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4">
+      <c r="F19" s="58"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="20" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
+      <c r="F20" s="58"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4">
+      <c r="F21" s="58"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4">
+      <c r="E22" s="20"/>
+      <c r="F22" s="58"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4">
+      <c r="F23" s="58"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4">
+      <c r="F24" s="58"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4">
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="20" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="4">
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4">
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4">
+      <c r="E28" s="20"/>
+      <c r="F28" s="58"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="4">
+      <c r="E29" s="20"/>
+      <c r="F29" s="58"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4">
+      <c r="E30" s="20"/>
+      <c r="F30" s="58"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4">
+      <c r="E31" s="20"/>
+      <c r="F31" s="58"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4">
+      <c r="E32" s="20"/>
+      <c r="F32" s="58"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="4">
+      <c r="E33" s="20"/>
+      <c r="F33" s="58"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4">
+      <c r="E34" s="20"/>
+      <c r="F34" s="58"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="4">
+      <c r="F35" s="58"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="4">
+      <c r="E36" s="20"/>
+      <c r="F36" s="58"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" s="30" customFormat="1">
-      <c r="A38" s="4">
+      <c r="E37" s="20"/>
+      <c r="F37" s="58"/>
+    </row>
+    <row r="38" spans="1:6" s="28" customFormat="1">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="28" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="56" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="4">
+      <c r="F38" s="59"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="4">
+      <c r="E39" s="20"/>
+      <c r="F39" s="58"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="4">
+      <c r="E40" s="20"/>
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="4">
+      <c r="E41" s="20"/>
+      <c r="F41" s="58"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="4">
+      <c r="E42" s="20"/>
+      <c r="F42" s="58"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="7"/>
+      <c r="C43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="4">
+      <c r="F43" s="58"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="4">
+      <c r="E44" s="20"/>
+      <c r="F44" s="58"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="4">
+      <c r="E45" s="20"/>
+      <c r="F45" s="58"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="2" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="4">
+      <c r="F46" s="58"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="2" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="4">
+      <c r="F47" s="58"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="5" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="4">
+      <c r="F48" s="58"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="4">
+      <c r="E49" s="20"/>
+      <c r="F49" s="58"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="60">
-      <c r="A51" s="4">
+      <c r="F50" s="58"/>
+    </row>
+    <row r="51" spans="1:6" ht="60">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" s="30" customFormat="1">
-      <c r="A52" s="36"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="28" t="s">
+      <c r="F51" s="58"/>
+    </row>
+    <row r="52" spans="1:6" s="28" customFormat="1">
+      <c r="A52" s="32"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="56" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="4">
+      <c r="F52" s="59"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="4">
+      <c r="E53" s="20"/>
+      <c r="F53" s="58"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="4">
+      <c r="E54" s="20"/>
+      <c r="F54" s="58"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="5" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="4">
+      <c r="E55" s="20"/>
+      <c r="F55" s="58"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="5" t="s">
+      <c r="B56" s="7"/>
+      <c r="C56" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="4">
+      <c r="E56" s="20"/>
+      <c r="F56" s="58"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="4">
+      <c r="E57" s="20"/>
+      <c r="F57" s="58"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="7"/>
+      <c r="C58" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="4">
+      <c r="E58" s="20"/>
+      <c r="F58" s="58"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="2" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="4">
+      <c r="F59" s="58"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="5" t="s">
+      <c r="B60" s="7"/>
+      <c r="C60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="2" t="s">
+      <c r="D60" s="4"/>
+      <c r="E60" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="4">
+      <c r="F60" s="58"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="7"/>
+      <c r="C61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="4">
+      <c r="E61" s="20"/>
+      <c r="F61" s="58"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="60">
-      <c r="A63" s="4">
+      <c r="F62" s="58"/>
+    </row>
+    <row r="63" spans="1:6" ht="60">
+      <c r="A63" s="3">
         <v>61</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="5" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="4">
+      <c r="F63" s="58"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="5" t="s">
+      <c r="B64" s="8"/>
+      <c r="C64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="4">
+      <c r="E64" s="20"/>
+      <c r="F64" s="58"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="4">
+      <c r="E65" s="20"/>
+      <c r="F65" s="58"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="4">
+      <c r="E66" s="20"/>
+      <c r="F66" s="58"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="7"/>
+      <c r="C67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="4">
+      <c r="E67" s="20"/>
+      <c r="F67" s="58"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="7"/>
+      <c r="C68" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="2" t="s">
+      <c r="D68" s="4"/>
+      <c r="E68" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="4">
+      <c r="F68" s="58"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3">
         <v>67</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="2" t="s">
+      <c r="D69" s="4"/>
+      <c r="E69" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="4">
+      <c r="F69" s="58"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="5" t="s">
+      <c r="B70" s="7"/>
+      <c r="C70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="4"/>
+      <c r="E70" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="4">
+      <c r="F70" s="58"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="5" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="2" t="s">
+      <c r="D71" s="4"/>
+      <c r="E71" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="4">
+      <c r="F71" s="58"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="5" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="4">
+      <c r="E72" s="20"/>
+      <c r="F72" s="58"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="5" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="60">
-      <c r="A74" s="4">
+      <c r="F73" s="58"/>
+    </row>
+    <row r="74" spans="1:6" ht="60">
+      <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="5" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="4">
+      <c r="F74" s="58"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="5" t="s">
+      <c r="B75" s="8"/>
+      <c r="C75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="4">
+      <c r="E75" s="20"/>
+      <c r="F75" s="58"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="4">
+      <c r="F76" s="58"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="4">
+      <c r="E77" s="20"/>
+      <c r="F77" s="58"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="5" t="s">
+      <c r="B78" s="8"/>
+      <c r="C78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="4">
+      <c r="E78" s="20"/>
+      <c r="F78" s="58"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="4">
+      <c r="E79" s="20"/>
+      <c r="F79" s="58"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="5" t="s">
+      <c r="B80" s="7"/>
+      <c r="C80" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="4">
+      <c r="E80" s="20"/>
+      <c r="F80" s="58"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="5" t="s">
+      <c r="B81" s="7"/>
+      <c r="C81" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="2" t="s">
+      <c r="D81" s="4"/>
+      <c r="E81" s="20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="4">
+      <c r="F81" s="58"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="7"/>
+      <c r="C82" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="4">
+      <c r="E82" s="20"/>
+      <c r="F82" s="58"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3">
         <v>81</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="7"/>
+      <c r="C83" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="4">
+      <c r="E83" s="20"/>
+      <c r="F83" s="58"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="5" t="s">
+      <c r="B84" s="7"/>
+      <c r="C84" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="2" t="s">
+      <c r="D84" s="4"/>
+      <c r="E84" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="4">
+      <c r="F84" s="58"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3">
         <v>83</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="7"/>
+      <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="2" t="s">
+      <c r="D85" s="4"/>
+      <c r="E85" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="4">
+      <c r="F85" s="58"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="5" t="s">
+      <c r="B86" s="7"/>
+      <c r="C86" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="2" t="s">
+      <c r="D86" s="4"/>
+      <c r="E86" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="4">
+      <c r="F86" s="58"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3">
         <v>85</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="5" t="s">
+      <c r="B87" s="7"/>
+      <c r="C87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="4">
+      <c r="E87" s="20"/>
+      <c r="F87" s="58"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="5" t="s">
+      <c r="B88" s="7"/>
+      <c r="C88" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="60">
-      <c r="A89" s="4">
+      <c r="F88" s="58"/>
+    </row>
+    <row r="89" spans="1:6" ht="60">
+      <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="5" t="s">
+      <c r="B89" s="7"/>
+      <c r="C89" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="4">
+      <c r="F89" s="58"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="5" t="s">
+      <c r="B90" s="8"/>
+      <c r="C90" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="4">
+      <c r="F90" s="58"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3">
         <v>89</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="4">
+      <c r="F91" s="58"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="5" t="s">
+      <c r="B92" s="7"/>
+      <c r="C92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="4">
+      <c r="F92" s="58"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3">
         <v>91</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="7"/>
+      <c r="C93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="20" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="4">
+      <c r="F93" s="58"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="5" t="s">
+      <c r="B94" s="7"/>
+      <c r="C94" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="2" t="s">
+      <c r="D94" s="4"/>
+      <c r="E94" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="4">
+      <c r="F94" s="58"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="3">
         <v>93</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="5" t="s">
+      <c r="B95" s="7"/>
+      <c r="C95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="4">
+      <c r="E95" s="20"/>
+      <c r="F95" s="58"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3">
         <v>94</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="5" t="s">
+      <c r="B96" s="7"/>
+      <c r="C96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="4">
+      <c r="E96" s="20"/>
+      <c r="F96" s="58"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="3">
         <v>95</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="7"/>
+      <c r="C97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="4">
+      <c r="E97" s="20"/>
+      <c r="F97" s="58"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="3">
         <v>96</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="7"/>
+      <c r="C98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="4">
+      <c r="E98" s="20"/>
+      <c r="F98" s="58"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="3">
         <v>97</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="7"/>
+      <c r="C99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="4">
+      <c r="E99" s="20"/>
+      <c r="F99" s="58"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="3">
         <v>98</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="5" t="s">
+      <c r="B100" s="7"/>
+      <c r="C100" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="4">
+      <c r="E100" s="20"/>
+      <c r="F100" s="58"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="3">
         <v>99</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="7"/>
+      <c r="C101" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="4">
+      <c r="E101" s="20"/>
+      <c r="F101" s="58"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="3">
         <v>100</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="5" t="s">
+      <c r="B102" s="8"/>
+      <c r="C102" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="4">
+      <c r="E102" s="20"/>
+      <c r="F102" s="58"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="3">
         <v>101</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="4">
+      <c r="E103" s="20"/>
+      <c r="F103" s="58"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="3">
         <v>102</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="5" t="s">
+      <c r="B104" s="7"/>
+      <c r="C104" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="4">
+      <c r="E104" s="20"/>
+      <c r="F104" s="58"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="3">
         <v>103</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="5" t="s">
+      <c r="B105" s="7"/>
+      <c r="C105" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="4">
+      <c r="E105" s="20"/>
+      <c r="F105" s="58"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="3">
         <v>104</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="5" t="s">
+      <c r="B106" s="7"/>
+      <c r="C106" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="4">
+      <c r="E106" s="20"/>
+      <c r="F106" s="58"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="3">
         <v>105</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="5" t="s">
+      <c r="B107" s="7"/>
+      <c r="C107" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="4">
+      <c r="E107" s="20"/>
+      <c r="F107" s="58"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="3">
         <v>106</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="5" t="s">
+      <c r="B108" s="7"/>
+      <c r="C108" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="4">
+      <c r="E108" s="20"/>
+      <c r="F108" s="58"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="3">
         <v>107</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="5" t="s">
+      <c r="B109" s="7"/>
+      <c r="C109" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="4">
+      <c r="E109" s="20"/>
+      <c r="F109" s="58"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="3">
         <v>108</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="5" t="s">
+      <c r="B110" s="7"/>
+      <c r="C110" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="4">
+      <c r="E110" s="20"/>
+      <c r="F110" s="58"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="3">
         <v>109</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="4">
+      <c r="E111" s="20"/>
+      <c r="F111" s="58"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="3">
         <v>110</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="5" t="s">
+      <c r="B112" s="7"/>
+      <c r="C112" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="4">
+      <c r="E112" s="20"/>
+      <c r="F112" s="58"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="3">
         <v>111</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="5" t="s">
+      <c r="B113" s="7"/>
+      <c r="C113" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="4">
+      <c r="E113" s="20"/>
+      <c r="F113" s="58"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="3">
         <v>112</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="5" t="s">
+      <c r="B114" s="7"/>
+      <c r="C114" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="4">
+      <c r="D114" s="4"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="58"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="3">
         <v>113</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="5" t="s">
+      <c r="B115" s="7"/>
+      <c r="C115" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="4">
+      <c r="E115" s="20"/>
+      <c r="F115" s="58"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="3">
         <v>114</v>
       </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="5" t="s">
+      <c r="B116" s="8"/>
+      <c r="C116" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="2" t="s">
+      <c r="D116" s="4"/>
+      <c r="E116" s="20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="4">
+      <c r="F116" s="58"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="3">
         <v>115</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="20" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="4">
+      <c r="F117" s="58"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="3">
         <v>116</v>
       </c>
-      <c r="B118" s="9"/>
-      <c r="C118" s="5" t="s">
+      <c r="B118" s="8"/>
+      <c r="C118" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="4">
+      <c r="E118" s="20"/>
+      <c r="F118" s="58"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="3">
         <v>117</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="4">
+      <c r="E119" s="20"/>
+      <c r="F119" s="58"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="3">
         <v>118</v>
       </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="5" t="s">
+      <c r="B120" s="7"/>
+      <c r="C120" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="4">
+      <c r="E120" s="20"/>
+      <c r="F120" s="58"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="3">
         <v>119</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="5" t="s">
+      <c r="B121" s="8"/>
+      <c r="C121" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="4">
+      <c r="E121" s="20"/>
+      <c r="F121" s="58"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="3">
         <v>120</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="20"/>
+      <c r="F122" s="64">
+        <v>42184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="3"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="20"/>
+      <c r="F123" s="64">
+        <v>42184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="3">
+        <v>121</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="20"/>
+      <c r="F124" s="58"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="3">
+        <v>122</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E125" s="20"/>
+      <c r="F125" s="58"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="3">
+        <v>123</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E126" s="20"/>
+      <c r="F126" s="58"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="3">
+        <v>124</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="20"/>
+      <c r="F127" s="58"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="3">
+        <v>125</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E128" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F128" s="58"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="3">
+        <v>126</v>
+      </c>
+      <c r="B129" s="8"/>
+      <c r="C129" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E129" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F129" s="58"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="3">
+        <v>127</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E130" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F130" s="58"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="3">
+        <v>128</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E131" s="20"/>
+      <c r="F131" s="58"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="3">
+        <v>129</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E132" s="20"/>
+      <c r="F132" s="58"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="3">
+        <v>130</v>
+      </c>
+      <c r="B133" s="8"/>
+      <c r="C133" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E133" s="20"/>
+      <c r="F133" s="58"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="3">
+        <v>131</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E134" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F134" s="58"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="3">
+        <v>132</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E135" s="20"/>
+      <c r="F135" s="58"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="3">
+        <v>133</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E136" s="20"/>
+      <c r="F136" s="58"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="3">
+        <v>134</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E137" s="20"/>
+      <c r="F137" s="58"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="3">
+        <v>135</v>
+      </c>
+      <c r="B138" s="8"/>
+      <c r="C138" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="20"/>
+      <c r="F138" s="58"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="3">
+        <v>136</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E139" s="20"/>
+      <c r="F139" s="58"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="3">
+        <v>137</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" s="20"/>
+      <c r="F140" s="58"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="3">
+        <v>138</v>
+      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="20"/>
+      <c r="F141" s="58"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="3">
+        <v>139</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E142" s="20"/>
+      <c r="F142" s="58"/>
+    </row>
+    <row r="143" spans="1:6" s="28" customFormat="1">
+      <c r="A143" s="3">
+        <v>140</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D143" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="56"/>
+      <c r="F143" s="59"/>
+    </row>
+    <row r="144" spans="1:6" s="28" customFormat="1">
+      <c r="A144" s="3">
+        <v>141</v>
+      </c>
+      <c r="B144" s="26"/>
+      <c r="C144" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F144" s="59"/>
+    </row>
+    <row r="145" spans="1:6" s="28" customFormat="1">
+      <c r="A145" s="3">
+        <v>142</v>
+      </c>
+      <c r="B145" s="26"/>
+      <c r="C145" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E145" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F145" s="59"/>
+    </row>
+    <row r="146" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A146" s="3">
+        <v>143</v>
+      </c>
+      <c r="B146" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E146" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F146" s="59"/>
+    </row>
+    <row r="147" spans="1:6" s="28" customFormat="1" ht="30">
+      <c r="A147" s="3">
+        <v>144</v>
+      </c>
+      <c r="B147" s="48"/>
+      <c r="C147" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D147" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="F147" s="59"/>
+    </row>
+    <row r="148" spans="1:6" s="28" customFormat="1">
+      <c r="A148" s="3">
+        <v>145</v>
+      </c>
+      <c r="B148" s="48"/>
+      <c r="C148" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F148" s="59"/>
+    </row>
+    <row r="149" spans="1:6" s="28" customFormat="1">
+      <c r="A149" s="3">
+        <v>146</v>
+      </c>
+      <c r="B149" s="48"/>
+      <c r="C149" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="56"/>
+      <c r="F149" s="59"/>
+    </row>
+    <row r="150" spans="1:6" s="28" customFormat="1">
+      <c r="A150" s="3">
+        <v>147</v>
+      </c>
+      <c r="B150" s="48"/>
+      <c r="C150" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D150" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E150" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="F150" s="59"/>
+    </row>
+    <row r="151" spans="1:6" s="28" customFormat="1">
+      <c r="A151" s="3">
+        <v>148</v>
+      </c>
+      <c r="B151" s="48"/>
+      <c r="C151" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E151" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="F151" s="59"/>
+    </row>
+    <row r="152" spans="1:6" s="28" customFormat="1">
+      <c r="A152" s="3">
+        <v>149</v>
+      </c>
+      <c r="B152" s="48"/>
+      <c r="C152" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="56"/>
+      <c r="F152" s="59"/>
+    </row>
+    <row r="153" spans="1:6" s="28" customFormat="1">
+      <c r="A153" s="3">
+        <v>150</v>
+      </c>
+      <c r="B153" s="48"/>
+      <c r="C153" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D153" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E153" s="56"/>
+      <c r="F153" s="59"/>
+    </row>
+    <row r="154" spans="1:6" s="28" customFormat="1">
+      <c r="A154" s="3">
+        <v>151</v>
+      </c>
+      <c r="B154" s="48"/>
+      <c r="C154" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E154" s="56"/>
+      <c r="F154" s="59"/>
+    </row>
+    <row r="155" spans="1:6" s="28" customFormat="1">
+      <c r="A155" s="3">
+        <v>152</v>
+      </c>
+      <c r="B155" s="48"/>
+      <c r="C155" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D155" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="56"/>
+      <c r="F155" s="59"/>
+    </row>
+    <row r="156" spans="1:6" s="28" customFormat="1">
+      <c r="A156" s="3">
+        <v>153</v>
+      </c>
+      <c r="B156" s="48"/>
+      <c r="C156" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D156" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E156" s="56"/>
+      <c r="F156" s="59"/>
+    </row>
+    <row r="157" spans="1:6" s="28" customFormat="1">
+      <c r="A157" s="3">
+        <v>154</v>
+      </c>
+      <c r="B157" s="48"/>
+      <c r="C157" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D157" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E157" s="56"/>
+      <c r="F157" s="59"/>
+    </row>
+    <row r="158" spans="1:6" s="28" customFormat="1">
+      <c r="A158" s="3">
+        <v>155</v>
+      </c>
+      <c r="B158" s="48"/>
+      <c r="C158" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D158" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="56"/>
+      <c r="F158" s="59"/>
+    </row>
+    <row r="159" spans="1:6" s="28" customFormat="1">
+      <c r="A159" s="3">
+        <v>156</v>
+      </c>
+      <c r="B159" s="48"/>
+      <c r="C159" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D159" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E159" s="56"/>
+      <c r="F159" s="59"/>
+    </row>
+    <row r="160" spans="1:6" s="28" customFormat="1">
+      <c r="A160" s="3">
+        <v>157</v>
+      </c>
+      <c r="B160" s="49"/>
+      <c r="C160" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D160" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E160" s="56"/>
+      <c r="F160" s="59"/>
+    </row>
+    <row r="161" spans="1:6" s="28" customFormat="1">
+      <c r="A161" s="3">
+        <v>158</v>
+      </c>
+      <c r="B161" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D161" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="55"/>
+      <c r="F161" s="59"/>
+    </row>
+    <row r="162" spans="1:6" s="28" customFormat="1">
+      <c r="A162" s="3">
+        <v>159</v>
+      </c>
+      <c r="B162" s="51"/>
+      <c r="C162" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D162" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E162" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="F162" s="59"/>
+    </row>
+    <row r="163" spans="1:6" s="28" customFormat="1">
+      <c r="A163" s="3">
+        <v>160</v>
+      </c>
+      <c r="B163" s="51"/>
+      <c r="C163" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D163" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="F163" s="59"/>
+    </row>
+    <row r="164" spans="1:6" s="28" customFormat="1" ht="30">
+      <c r="A164" s="3">
+        <v>161</v>
+      </c>
+      <c r="B164" s="51"/>
+      <c r="C164" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D164" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="F164" s="59"/>
+    </row>
+    <row r="165" spans="1:6" s="28" customFormat="1">
+      <c r="A165" s="3">
+        <v>162</v>
+      </c>
+      <c r="B165" s="52"/>
+      <c r="C165" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D165" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E165" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F165" s="59"/>
+    </row>
+    <row r="166" spans="1:6" s="28" customFormat="1">
+      <c r="A166" s="3">
+        <v>163</v>
+      </c>
+      <c r="B166" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D166" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E166" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F166" s="59"/>
+    </row>
+    <row r="167" spans="1:6" s="28" customFormat="1">
+      <c r="A167" s="3">
+        <v>164</v>
+      </c>
+      <c r="B167" s="34"/>
+      <c r="C167" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D167" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E167" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F167" s="59"/>
+    </row>
+    <row r="168" spans="1:6" s="28" customFormat="1">
+      <c r="A168" s="3">
+        <v>165</v>
+      </c>
+      <c r="B168" s="34"/>
+      <c r="C168" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D168" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="F168" s="59"/>
+    </row>
+    <row r="169" spans="1:6" s="28" customFormat="1">
+      <c r="A169" s="3">
+        <v>166</v>
+      </c>
+      <c r="B169" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E169" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="F169" s="59"/>
+    </row>
+    <row r="170" spans="1:6" s="28" customFormat="1">
+      <c r="A170" s="3">
+        <v>167</v>
+      </c>
+      <c r="B170" s="45"/>
+      <c r="C170" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E170" s="56"/>
+      <c r="F170" s="59"/>
+    </row>
+    <row r="171" spans="1:6" s="28" customFormat="1">
+      <c r="A171" s="3">
+        <v>168</v>
+      </c>
+      <c r="B171" s="34"/>
+      <c r="C171" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E171" s="56"/>
+      <c r="F171" s="59"/>
+    </row>
+    <row r="172" spans="1:6" s="28" customFormat="1">
+      <c r="A172" s="3">
+        <v>169</v>
+      </c>
+      <c r="B172" s="35"/>
+      <c r="C172" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E172" s="56"/>
+      <c r="F172" s="59"/>
+    </row>
+    <row r="173" spans="1:6" s="28" customFormat="1">
+      <c r="A173" s="3">
+        <v>170</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D173" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E173" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="F173" s="59"/>
+    </row>
+    <row r="174" spans="1:6" s="28" customFormat="1">
+      <c r="A174" s="3">
+        <v>171</v>
+      </c>
+      <c r="B174" s="46"/>
+      <c r="C174" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D174" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="56"/>
+      <c r="F174" s="59"/>
+    </row>
+    <row r="175" spans="1:6" s="28" customFormat="1">
+      <c r="A175" s="3">
+        <v>172</v>
+      </c>
+      <c r="B175" s="46"/>
+      <c r="C175" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D175" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="56"/>
+      <c r="F175" s="59"/>
+    </row>
+    <row r="176" spans="1:6" s="28" customFormat="1">
+      <c r="A176" s="3">
+        <v>173</v>
+      </c>
+      <c r="B176" s="46"/>
+      <c r="C176" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D176" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E176" s="56"/>
+      <c r="F176" s="59"/>
+    </row>
+    <row r="177" spans="1:6" s="28" customFormat="1">
+      <c r="A177" s="3">
+        <v>174</v>
+      </c>
+      <c r="B177" s="46"/>
+      <c r="C177" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D177" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E177" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="F177" s="59"/>
+    </row>
+    <row r="178" spans="1:6" s="28" customFormat="1">
+      <c r="A178" s="3">
+        <v>175</v>
+      </c>
+      <c r="B178" s="46"/>
+      <c r="C178" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D178" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E178" s="56"/>
+      <c r="F178" s="59"/>
+    </row>
+    <row r="179" spans="1:6" s="28" customFormat="1">
+      <c r="A179" s="3">
+        <v>176</v>
+      </c>
+      <c r="B179" s="29"/>
+      <c r="C179" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D179" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E179" s="56"/>
+      <c r="F179" s="59"/>
+    </row>
+    <row r="180" spans="1:6" s="28" customFormat="1">
+      <c r="A180" s="3">
+        <v>177</v>
+      </c>
+      <c r="B180" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C180" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E180" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="F180" s="59"/>
+    </row>
+    <row r="181" spans="1:6" s="28" customFormat="1">
+      <c r="A181" s="3">
+        <v>178</v>
+      </c>
+      <c r="B181" s="26"/>
+      <c r="C181" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E181" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="F181" s="59"/>
+    </row>
+    <row r="182" spans="1:6" s="28" customFormat="1">
+      <c r="A182" s="3">
+        <v>179</v>
+      </c>
+      <c r="B182" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C182" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D182" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E182" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="F182" s="59"/>
+    </row>
+    <row r="183" spans="1:6" s="28" customFormat="1">
+      <c r="A183" s="3">
+        <v>180</v>
+      </c>
+      <c r="B183" s="47"/>
+      <c r="C183" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E183" s="56"/>
+      <c r="F183" s="59"/>
+    </row>
+    <row r="184" spans="1:6" s="28" customFormat="1">
+      <c r="A184" s="3">
+        <v>181</v>
+      </c>
+      <c r="B184" s="47"/>
+      <c r="C184" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E184" s="56"/>
+      <c r="F184" s="59"/>
+    </row>
+    <row r="185" spans="1:6" s="28" customFormat="1">
+      <c r="A185" s="3">
+        <v>182</v>
+      </c>
+      <c r="B185" s="47"/>
+      <c r="C185" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D185" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E185" s="56"/>
+      <c r="F185" s="59"/>
+    </row>
+    <row r="186" spans="1:6" s="28" customFormat="1">
+      <c r="A186" s="3">
+        <v>183</v>
+      </c>
+      <c r="B186" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C186" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D186" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="4">
-        <v>121</v>
-      </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="5" t="s">
+      <c r="E186" s="56"/>
+      <c r="F186" s="59"/>
+    </row>
+    <row r="187" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A187" s="3">
+        <v>184</v>
+      </c>
+      <c r="B187" s="44"/>
+      <c r="C187" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="57"/>
+      <c r="F187" s="59"/>
+    </row>
+    <row r="188" spans="1:6" s="28" customFormat="1">
+      <c r="A188" s="3">
+        <v>185</v>
+      </c>
+      <c r="B188" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C188" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D188" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E188" s="56"/>
+      <c r="F188" s="59"/>
+    </row>
+    <row r="189" spans="1:6" s="28" customFormat="1">
+      <c r="A189" s="3">
+        <v>186</v>
+      </c>
+      <c r="B189" s="53"/>
+      <c r="C189" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="57"/>
+      <c r="F189" s="59"/>
+    </row>
+    <row r="190" spans="1:6" s="28" customFormat="1">
+      <c r="A190" s="3">
+        <v>187</v>
+      </c>
+      <c r="B190" s="54"/>
+      <c r="C190" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D190" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="4">
-        <v>122</v>
-      </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="4">
-        <v>123</v>
-      </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="4">
-        <v>124</v>
-      </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="4">
-        <v>125</v>
-      </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="4">
-        <v>126</v>
-      </c>
-      <c r="B128" s="9"/>
-      <c r="C128" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="4">
-        <v>127</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="4">
-        <v>128</v>
-      </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="4">
-        <v>129</v>
-      </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="4">
-        <v>130</v>
-      </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="4">
-        <v>131</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="4">
-        <v>132</v>
-      </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="4">
-        <v>133</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="4">
-        <v>134</v>
-      </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="4">
-        <v>135</v>
-      </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="4">
-        <v>136</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="4">
-        <v>137</v>
-      </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="4">
-        <v>138</v>
-      </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="4">
-        <v>139</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" s="30" customFormat="1">
-      <c r="A142" s="4">
-        <v>140</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D142" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E142" s="29"/>
-    </row>
-    <row r="143" spans="1:5" s="30" customFormat="1">
-      <c r="A143" s="4">
-        <v>141</v>
-      </c>
-      <c r="B143" s="27"/>
-      <c r="C143" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E143" s="29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="30" customFormat="1">
-      <c r="A144" s="4">
-        <v>142</v>
-      </c>
-      <c r="B144" s="27"/>
-      <c r="C144" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D144" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E144" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="A145" s="4">
-        <v>143</v>
-      </c>
-      <c r="B145" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="C145" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D145" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E145" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A146" s="4">
-        <v>144</v>
-      </c>
-      <c r="B146" s="57"/>
-      <c r="C146" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="D146" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="30" customFormat="1">
-      <c r="A147" s="4">
-        <v>145</v>
-      </c>
-      <c r="B147" s="57"/>
-      <c r="C147" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E147" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="30" customFormat="1">
-      <c r="A148" s="4">
-        <v>146</v>
-      </c>
-      <c r="B148" s="57"/>
-      <c r="C148" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D148" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E148" s="29"/>
-    </row>
-    <row r="149" spans="1:5" s="30" customFormat="1">
-      <c r="A149" s="4">
-        <v>147</v>
-      </c>
-      <c r="B149" s="57"/>
-      <c r="C149" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D149" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E149" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="30" customFormat="1">
-      <c r="A150" s="4">
-        <v>148</v>
-      </c>
-      <c r="B150" s="57"/>
-      <c r="C150" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D150" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E150" s="29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="30" customFormat="1">
-      <c r="A151" s="4">
-        <v>149</v>
-      </c>
-      <c r="B151" s="57"/>
-      <c r="C151" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D151" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E151" s="29"/>
-    </row>
-    <row r="152" spans="1:5" s="30" customFormat="1">
-      <c r="A152" s="4">
-        <v>150</v>
-      </c>
-      <c r="B152" s="57"/>
-      <c r="C152" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D152" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E152" s="29"/>
-    </row>
-    <row r="153" spans="1:5" s="30" customFormat="1">
-      <c r="A153" s="4">
-        <v>151</v>
-      </c>
-      <c r="B153" s="57"/>
-      <c r="C153" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D153" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E153" s="29"/>
-    </row>
-    <row r="154" spans="1:5" s="30" customFormat="1">
-      <c r="A154" s="4">
-        <v>152</v>
-      </c>
-      <c r="B154" s="57"/>
-      <c r="C154" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D154" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E154" s="29"/>
-    </row>
-    <row r="155" spans="1:5" s="30" customFormat="1">
-      <c r="A155" s="4">
-        <v>153</v>
-      </c>
-      <c r="B155" s="57"/>
-      <c r="C155" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D155" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E155" s="29"/>
-    </row>
-    <row r="156" spans="1:5" s="30" customFormat="1">
-      <c r="A156" s="4">
-        <v>154</v>
-      </c>
-      <c r="B156" s="57"/>
-      <c r="C156" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="D156" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E156" s="29"/>
-    </row>
-    <row r="157" spans="1:5" s="30" customFormat="1">
-      <c r="A157" s="4">
-        <v>155</v>
-      </c>
-      <c r="B157" s="57"/>
-      <c r="C157" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D157" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" s="29"/>
-    </row>
-    <row r="158" spans="1:5" s="30" customFormat="1">
-      <c r="A158" s="4">
-        <v>156</v>
-      </c>
-      <c r="B158" s="57"/>
-      <c r="C158" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D158" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E158" s="29"/>
-    </row>
-    <row r="159" spans="1:5" s="30" customFormat="1">
-      <c r="A159" s="4">
-        <v>157</v>
-      </c>
-      <c r="B159" s="58"/>
-      <c r="C159" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="D159" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E159" s="29"/>
-    </row>
-    <row r="160" spans="1:5" s="30" customFormat="1">
-      <c r="A160" s="4">
-        <v>158</v>
-      </c>
-      <c r="B160" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C160" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D160" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" s="31"/>
-    </row>
-    <row r="161" spans="1:5" s="30" customFormat="1">
-      <c r="A161" s="4">
-        <v>159</v>
-      </c>
-      <c r="B161" s="41"/>
-      <c r="C161" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D161" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E161" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="30" customFormat="1">
-      <c r="A162" s="4">
-        <v>160</v>
-      </c>
-      <c r="B162" s="41"/>
-      <c r="C162" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D162" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E162" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A163" s="4">
-        <v>161</v>
-      </c>
-      <c r="B163" s="41"/>
-      <c r="C163" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D163" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" s="29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="30" customFormat="1">
-      <c r="A164" s="4">
-        <v>162</v>
-      </c>
-      <c r="B164" s="42"/>
-      <c r="C164" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="D164" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E164" s="29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="30" customFormat="1">
-      <c r="A165" s="4">
-        <v>163</v>
-      </c>
-      <c r="B165" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C165" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D165" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E165" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="30" customFormat="1">
-      <c r="A166" s="4">
-        <v>164</v>
-      </c>
-      <c r="B166" s="38"/>
-      <c r="C166" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="D166" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E166" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="30" customFormat="1">
-      <c r="A167" s="4">
-        <v>165</v>
-      </c>
-      <c r="B167" s="38"/>
-      <c r="C167" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D167" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="30" customFormat="1">
-      <c r="A168" s="4">
-        <v>166</v>
-      </c>
-      <c r="B168" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="C168" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D168" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E168" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="30" customFormat="1">
-      <c r="A169" s="4">
-        <v>167</v>
-      </c>
-      <c r="B169" s="55"/>
-      <c r="C169" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D169" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E169" s="29"/>
-    </row>
-    <row r="170" spans="1:5" s="30" customFormat="1">
-      <c r="A170" s="4">
-        <v>168</v>
-      </c>
-      <c r="B170" s="38"/>
-      <c r="C170" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D170" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E170" s="29"/>
-    </row>
-    <row r="171" spans="1:5" s="30" customFormat="1">
-      <c r="A171" s="4">
-        <v>169</v>
-      </c>
-      <c r="B171" s="39"/>
-      <c r="C171" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D171" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E171" s="29"/>
-    </row>
-    <row r="172" spans="1:5" s="30" customFormat="1">
-      <c r="A172" s="4">
-        <v>170</v>
-      </c>
-      <c r="B172" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="C172" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D172" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E172" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" s="30" customFormat="1">
-      <c r="A173" s="4">
-        <v>171</v>
-      </c>
-      <c r="B173" s="43"/>
-      <c r="C173" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D173" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E173" s="29"/>
-    </row>
-    <row r="174" spans="1:5" s="30" customFormat="1">
-      <c r="A174" s="4">
-        <v>172</v>
-      </c>
-      <c r="B174" s="43"/>
-      <c r="C174" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D174" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" s="29"/>
-    </row>
-    <row r="175" spans="1:5" s="30" customFormat="1">
-      <c r="A175" s="4">
-        <v>173</v>
-      </c>
-      <c r="B175" s="43"/>
-      <c r="C175" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D175" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E175" s="29"/>
-    </row>
-    <row r="176" spans="1:5" s="30" customFormat="1">
-      <c r="A176" s="4">
-        <v>174</v>
-      </c>
-      <c r="B176" s="43"/>
-      <c r="C176" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D176" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E176" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="30" customFormat="1">
-      <c r="A177" s="4">
-        <v>175</v>
-      </c>
-      <c r="B177" s="43"/>
-      <c r="C177" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D177" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E177" s="29"/>
-    </row>
-    <row r="178" spans="1:5" s="30" customFormat="1">
-      <c r="A178" s="4">
-        <v>176</v>
-      </c>
-      <c r="B178" s="32"/>
-      <c r="C178" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D178" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E178" s="29"/>
-    </row>
-    <row r="179" spans="1:5" s="30" customFormat="1">
-      <c r="A179" s="4">
-        <v>177</v>
-      </c>
-      <c r="B179" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="C179" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D179" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E179" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="30" customFormat="1">
-      <c r="A180" s="4">
-        <v>178</v>
-      </c>
-      <c r="B180" s="27"/>
-      <c r="C180" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D180" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E180" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" s="30" customFormat="1">
-      <c r="A181" s="4">
-        <v>179</v>
-      </c>
-      <c r="B181" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="C181" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D181" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E181" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="30" customFormat="1">
-      <c r="A182" s="4">
-        <v>180</v>
-      </c>
-      <c r="B182" s="54"/>
-      <c r="C182" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D182" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E182" s="29"/>
-    </row>
-    <row r="183" spans="1:5" s="30" customFormat="1">
-      <c r="A183" s="4">
-        <v>181</v>
-      </c>
-      <c r="B183" s="54"/>
-      <c r="C183" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D183" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E183" s="29"/>
-    </row>
-    <row r="184" spans="1:5" s="30" customFormat="1">
-      <c r="A184" s="4">
-        <v>182</v>
-      </c>
-      <c r="B184" s="54"/>
-      <c r="C184" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D184" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E184" s="29"/>
-    </row>
-    <row r="185" spans="1:5" s="30" customFormat="1">
-      <c r="A185" s="4">
-        <v>183</v>
-      </c>
-      <c r="B185" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="C185" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D185" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E185" s="29"/>
-    </row>
-    <row r="186" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="A186" s="4">
-        <v>184</v>
-      </c>
-      <c r="B186" s="56"/>
-      <c r="C186" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D186" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E186" s="34"/>
-    </row>
-    <row r="187" spans="1:5" s="30" customFormat="1">
-      <c r="A187" s="4">
-        <v>185</v>
-      </c>
-      <c r="B187" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="C187" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D187" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E187" s="29"/>
-    </row>
-    <row r="188" spans="1:5" s="30" customFormat="1">
-      <c r="A188" s="4">
-        <v>186</v>
-      </c>
-      <c r="B188" s="52"/>
-      <c r="C188" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="D188" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E188" s="34"/>
-    </row>
-    <row r="189" spans="1:5" s="30" customFormat="1">
-      <c r="A189" s="4">
-        <v>187</v>
-      </c>
-      <c r="B189" s="53"/>
-      <c r="C189" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D189" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E189" s="29"/>
+      <c r="E190" s="56"/>
+      <c r="F190" s="59"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E141"/>
+  <autoFilter ref="A1:F190"/>
   <mergeCells count="6">
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B173:B177"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="B145:B159"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B146:B160"/>
+    <mergeCell ref="B161:B165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7200,32 +7442,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="2.42578125" style="17"/>
+    <col min="1" max="16384" width="2.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="15.75">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="23"/>
     </row>
     <row r="45" spans="1:2" ht="15.75">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="23" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.75">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="23" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7247,349 +7489,349 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33" style="44" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" style="36" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11" style="51" customWidth="1"/>
+    <col min="4" max="4" width="11" style="43" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="37" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="42">
         <v>5</v>
       </c>
-      <c r="C2" s="47" t="b">
+      <c r="C2" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="42">
         <v>5</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="40" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="42">
         <v>70</v>
       </c>
-      <c r="C3" s="47" t="b">
+      <c r="C3" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="42">
         <v>80</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="40" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="50" t="b">
+      <c r="B4" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="47" t="b">
+      <c r="C4" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="50" t="b">
+      <c r="D4" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="40" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="47" t="b">
+      <c r="C5" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="42">
         <v>1</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="40" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="46"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="47"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="46"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="47"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="46"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="47"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="46"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="47"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="46"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="47"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="47"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="46"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="47"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="46"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="47"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="46"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="47"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="46"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="47"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="46"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="47"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="46"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="47"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="46"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="47"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="47"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="47"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="46"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="47"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="46"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="47"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="46"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="47"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="46"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="47"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="47"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="46"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="47"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="46"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="47"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="46"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="47"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="46"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="47"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="46"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="47"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="46"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="47"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="46"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="47"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="46"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="47"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="46"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="47"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="39"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="46"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="47"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="46"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="47"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="46"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="47"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="39"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="46"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="47"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="39"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="46"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="47"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="39"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="46"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="47"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="46"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="47"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -14,7 +14,7 @@
     <sheet name="TBL_SysOption_Content" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$181</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="247">
   <si>
     <t>No</t>
   </si>
@@ -637,36 +637,9 @@
     <t>surveyUser</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
     <t>Object Id</t>
   </si>
   <si>
-    <t>Reference with Id in user collection</t>
-  </si>
-  <si>
-    <t>learnLevel</t>
-  </si>
-  <si>
-    <t>Đang lựa chọn trình độ học nào.</t>
-  </si>
-  <si>
-    <t>learningPlan</t>
-  </si>
-  <si>
-    <t>Đã trả lời loại khảo sát nào. Sẽ lấy giá trị từ 1-&gt;5 tương ứng với 5 phương án lựa chọn trong layout</t>
-  </si>
-  <si>
-    <t>surveyUserAnswer</t>
-  </si>
-  <si>
-    <t>surveyUserId</t>
-  </si>
-  <si>
-    <t>Reference with Id in surveyUserDetail collection (FK)</t>
-  </si>
-  <si>
     <t>surveyId</t>
   </si>
   <si>
@@ -748,30 +721,9 @@
     <t>(can using embedded data)</t>
   </si>
   <si>
-    <t>rate1</t>
-  </si>
-  <si>
     <t>Đánh giá đúng/sai cho phương án trả lời 1</t>
   </si>
   <si>
-    <t>Tỷ lệ % trả lời cho phương án 1</t>
-  </si>
-  <si>
-    <t>rate2</t>
-  </si>
-  <si>
-    <t>rate3</t>
-  </si>
-  <si>
-    <t>rate4</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tỷ lệ % trả lời toàn bộ bài test. </t>
-  </si>
-  <si>
     <t>learningPassCondition</t>
   </si>
   <si>
@@ -821,6 +773,24 @@
   </si>
   <si>
     <t>imageLearning</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>Answer of user with Option1</t>
+  </si>
+  <si>
+    <t>Answer of user with Option4</t>
+  </si>
+  <si>
+    <t>Answer of user with Option3</t>
+  </si>
+  <si>
+    <t>Answer of user with Option2</t>
+  </si>
+  <si>
+    <t>Đánh giá đúng/sai cho câu hỏi này. Sinh ra biến này để query kết quả lần sau không cần map với Question để đánh giá đúng sai cho câu hỏi này nữa.</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1091,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1237,36 +1207,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1291,6 +1231,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2936,131 +2891,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Alternate Process 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6657975" y="10906125"/>
-          <a:ext cx="1765300" cy="660400"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Courier New" charset="0"/>
-              <a:ea typeface="Courier New" charset="0"/>
-              <a:cs typeface="Courier New" charset="0"/>
-            </a:rPr>
-            <a:t>surveyUserAnswer</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Elbow Connector 28"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="3"/>
-          <a:endCxn id="28" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5299075" y="11236325"/>
-          <a:ext cx="1358900" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="0432FF"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3766,7 +3596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4563,11 +4393,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -4582,23 +4412,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="63" t="s">
-        <v>254</v>
+      <c r="F1" s="53" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4615,7 +4445,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="20"/>
-      <c r="F2" s="58"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
@@ -4631,7 +4461,7 @@
       <c r="E3" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3">
@@ -4645,7 +4475,7 @@
         <v>102</v>
       </c>
       <c r="E4" s="20"/>
-      <c r="F4" s="58"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
@@ -4659,7 +4489,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="F5" s="58"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3">
@@ -4675,7 +4505,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="58"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3">
@@ -4691,7 +4521,7 @@
       <c r="E7" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3">
@@ -4705,7 +4535,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="F8" s="58"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3">
@@ -4719,7 +4549,7 @@
         <v>102</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="58"/>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3">
@@ -4733,7 +4563,7 @@
         <v>102</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="58"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3">
@@ -4749,7 +4579,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="58"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3">
@@ -4763,7 +4593,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="58"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3">
@@ -4777,7 +4607,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="20"/>
-      <c r="F13" s="58"/>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3">
@@ -4791,7 +4621,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="20"/>
-      <c r="F14" s="58"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:6" s="28" customFormat="1">
       <c r="A15" s="3">
@@ -4799,15 +4629,15 @@
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="27" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="F15" s="59"/>
+      <c r="E15" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" s="28" customFormat="1">
       <c r="A16" s="3">
@@ -4818,12 +4648,12 @@
         <v>6</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="F16" s="59"/>
+        <v>212</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" s="28" customFormat="1">
       <c r="A17" s="3">
@@ -4831,15 +4661,15 @@
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="27" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="59"/>
+      <c r="E17" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3">
@@ -4855,7 +4685,7 @@
       <c r="E18" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3">
@@ -4871,7 +4701,7 @@
       <c r="E19" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="48"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3">
@@ -4887,7 +4717,7 @@
       <c r="E20" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3">
@@ -4903,7 +4733,7 @@
       <c r="E21" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3">
@@ -4919,7 +4749,7 @@
         <v>103</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="58"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3">
@@ -4935,7 +4765,7 @@
       <c r="E23" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3">
@@ -4951,7 +4781,7 @@
       <c r="E24" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="58"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3">
@@ -4967,7 +4797,7 @@
       <c r="E25" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3">
@@ -4983,7 +4813,7 @@
       <c r="E26" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="1:6" ht="30">
       <c r="A27" s="3">
@@ -4999,7 +4829,7 @@
       <c r="E27" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="48"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3">
@@ -5015,7 +4845,7 @@
         <v>103</v>
       </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="58"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3">
@@ -5029,7 +4859,7 @@
         <v>103</v>
       </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="58"/>
+      <c r="F29" s="48"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3">
@@ -5043,7 +4873,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="58"/>
+      <c r="F30" s="48"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3">
@@ -5057,7 +4887,7 @@
         <v>105</v>
       </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="58"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3">
@@ -5073,7 +4903,7 @@
         <v>103</v>
       </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="58"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3">
@@ -5087,7 +4917,7 @@
         <v>103</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="58"/>
+      <c r="F33" s="48"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3">
@@ -5101,7 +4931,7 @@
         <v>103</v>
       </c>
       <c r="E34" s="20"/>
-      <c r="F34" s="58"/>
+      <c r="F34" s="48"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3">
@@ -5117,7 +4947,7 @@
       <c r="E35" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="48"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3">
@@ -5131,7 +4961,7 @@
         <v>102</v>
       </c>
       <c r="E36" s="20"/>
-      <c r="F36" s="58"/>
+      <c r="F36" s="48"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3">
@@ -5145,7 +4975,7 @@
         <v>102</v>
       </c>
       <c r="E37" s="20"/>
-      <c r="F37" s="58"/>
+      <c r="F37" s="48"/>
     </row>
     <row r="38" spans="1:6" s="28" customFormat="1">
       <c r="A38" s="3">
@@ -5153,15 +4983,15 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="27" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F38" s="59"/>
+      <c r="E38" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="49"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3">
@@ -5177,7 +5007,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="20"/>
-      <c r="F39" s="58"/>
+      <c r="F39" s="48"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3">
@@ -5191,7 +5021,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="20"/>
-      <c r="F40" s="58"/>
+      <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3">
@@ -5205,7 +5035,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="20"/>
-      <c r="F41" s="58"/>
+      <c r="F41" s="48"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3">
@@ -5219,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="58"/>
+      <c r="F42" s="48"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3">
@@ -5233,7 +5063,7 @@
       <c r="E43" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="48"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3">
@@ -5247,7 +5077,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="58"/>
+      <c r="F44" s="48"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3">
@@ -5261,7 +5091,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="58"/>
+      <c r="F45" s="48"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3">
@@ -5275,7 +5105,7 @@
       <c r="E46" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="58"/>
+      <c r="F46" s="48"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3">
@@ -5289,7 +5119,7 @@
       <c r="E47" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="58"/>
+      <c r="F47" s="48"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3">
@@ -5303,7 +5133,7 @@
       <c r="E48" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="58"/>
+      <c r="F48" s="48"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3">
@@ -5317,7 +5147,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="20"/>
-      <c r="F49" s="58"/>
+      <c r="F49" s="48"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3">
@@ -5333,7 +5163,7 @@
       <c r="E50" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="58"/>
+      <c r="F50" s="48"/>
     </row>
     <row r="51" spans="1:6" ht="60">
       <c r="A51" s="3">
@@ -5349,21 +5179,21 @@
       <c r="E51" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="48"/>
     </row>
     <row r="52" spans="1:6" s="28" customFormat="1">
       <c r="A52" s="32"/>
       <c r="B52" s="26"/>
       <c r="C52" s="27" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="F52" s="59"/>
+      <c r="E52" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3">
@@ -5377,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="20"/>
-      <c r="F53" s="58"/>
+      <c r="F53" s="48"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3">
@@ -5393,7 +5223,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="58"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3">
@@ -5407,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="58"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3">
@@ -5421,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="20"/>
-      <c r="F56" s="58"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3">
@@ -5435,7 +5265,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="20"/>
-      <c r="F57" s="58"/>
+      <c r="F57" s="48"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3">
@@ -5449,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="20"/>
-      <c r="F58" s="58"/>
+      <c r="F58" s="48"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3">
@@ -5463,7 +5293,7 @@
       <c r="E59" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="58"/>
+      <c r="F59" s="48"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3">
@@ -5477,7 +5307,7 @@
       <c r="E60" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="58"/>
+      <c r="F60" s="48"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3">
@@ -5491,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="20"/>
-      <c r="F61" s="58"/>
+      <c r="F61" s="48"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3">
@@ -5507,7 +5337,7 @@
       <c r="E62" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="58"/>
+      <c r="F62" s="48"/>
     </row>
     <row r="63" spans="1:6" ht="60">
       <c r="A63" s="3">
@@ -5523,7 +5353,7 @@
       <c r="E63" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F63" s="58"/>
+      <c r="F63" s="48"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3">
@@ -5537,7 +5367,7 @@
         <v>4</v>
       </c>
       <c r="E64" s="20"/>
-      <c r="F64" s="58"/>
+      <c r="F64" s="48"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3">
@@ -5553,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="E65" s="20"/>
-      <c r="F65" s="58"/>
+      <c r="F65" s="48"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3">
@@ -5567,7 +5397,7 @@
         <v>4</v>
       </c>
       <c r="E66" s="20"/>
-      <c r="F66" s="58"/>
+      <c r="F66" s="48"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3">
@@ -5581,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="20"/>
-      <c r="F67" s="58"/>
+      <c r="F67" s="48"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3">
@@ -5595,7 +5425,7 @@
       <c r="E68" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F68" s="58"/>
+      <c r="F68" s="48"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3">
@@ -5609,7 +5439,7 @@
       <c r="E69" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F69" s="58"/>
+      <c r="F69" s="48"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3">
@@ -5623,7 +5453,7 @@
       <c r="E70" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F70" s="58"/>
+      <c r="F70" s="48"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3">
@@ -5637,7 +5467,7 @@
       <c r="E71" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F71" s="58"/>
+      <c r="F71" s="48"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3">
@@ -5651,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="E72" s="20"/>
-      <c r="F72" s="58"/>
+      <c r="F72" s="48"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3">
@@ -5667,7 +5497,7 @@
       <c r="E73" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F73" s="58"/>
+      <c r="F73" s="48"/>
     </row>
     <row r="74" spans="1:6" ht="60">
       <c r="A74" s="3">
@@ -5683,7 +5513,7 @@
       <c r="E74" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F74" s="58"/>
+      <c r="F74" s="48"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3">
@@ -5697,7 +5527,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="20"/>
-      <c r="F75" s="58"/>
+      <c r="F75" s="48"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3">
@@ -5715,7 +5545,7 @@
       <c r="E76" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F76" s="58"/>
+      <c r="F76" s="48"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3">
@@ -5729,7 +5559,7 @@
         <v>4</v>
       </c>
       <c r="E77" s="20"/>
-      <c r="F77" s="58"/>
+      <c r="F77" s="48"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3">
@@ -5743,7 +5573,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="20"/>
-      <c r="F78" s="58"/>
+      <c r="F78" s="48"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3">
@@ -5759,7 +5589,7 @@
         <v>4</v>
       </c>
       <c r="E79" s="20"/>
-      <c r="F79" s="58"/>
+      <c r="F79" s="48"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3">
@@ -5773,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="20"/>
-      <c r="F80" s="58"/>
+      <c r="F80" s="48"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3">
@@ -5787,7 +5617,7 @@
       <c r="E81" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="58"/>
+      <c r="F81" s="48"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3">
@@ -5801,7 +5631,7 @@
         <v>4</v>
       </c>
       <c r="E82" s="20"/>
-      <c r="F82" s="58"/>
+      <c r="F82" s="48"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="3">
@@ -5815,7 +5645,7 @@
         <v>4</v>
       </c>
       <c r="E83" s="20"/>
-      <c r="F83" s="58"/>
+      <c r="F83" s="48"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="3">
@@ -5829,7 +5659,7 @@
       <c r="E84" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F84" s="58"/>
+      <c r="F84" s="48"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="3">
@@ -5843,7 +5673,7 @@
       <c r="E85" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="58"/>
+      <c r="F85" s="48"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3">
@@ -5857,7 +5687,7 @@
       <c r="E86" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="58"/>
+      <c r="F86" s="48"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3">
@@ -5871,7 +5701,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="20"/>
-      <c r="F87" s="58"/>
+      <c r="F87" s="48"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3">
@@ -5887,7 +5717,7 @@
       <c r="E88" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F88" s="58"/>
+      <c r="F88" s="48"/>
     </row>
     <row r="89" spans="1:6" ht="60">
       <c r="A89" s="3">
@@ -5903,7 +5733,7 @@
       <c r="E89" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F89" s="58"/>
+      <c r="F89" s="48"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3">
@@ -5919,7 +5749,7 @@
       <c r="E90" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="58"/>
+      <c r="F90" s="48"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="3">
@@ -5937,7 +5767,7 @@
       <c r="E91" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="58"/>
+      <c r="F91" s="48"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="3">
@@ -5953,7 +5783,7 @@
       <c r="E92" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F92" s="58"/>
+      <c r="F92" s="48"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="3">
@@ -5969,7 +5799,7 @@
       <c r="E93" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F93" s="58"/>
+      <c r="F93" s="48"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3">
@@ -5983,7 +5813,7 @@
       <c r="E94" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F94" s="58"/>
+      <c r="F94" s="48"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3">
@@ -5997,7 +5827,7 @@
         <v>4</v>
       </c>
       <c r="E95" s="20"/>
-      <c r="F95" s="58"/>
+      <c r="F95" s="48"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3">
@@ -6011,7 +5841,7 @@
         <v>105</v>
       </c>
       <c r="E96" s="20"/>
-      <c r="F96" s="58"/>
+      <c r="F96" s="48"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3">
@@ -6025,7 +5855,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="20"/>
-      <c r="F97" s="58"/>
+      <c r="F97" s="48"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3">
@@ -6039,7 +5869,7 @@
         <v>105</v>
       </c>
       <c r="E98" s="20"/>
-      <c r="F98" s="58"/>
+      <c r="F98" s="48"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="3">
@@ -6053,7 +5883,7 @@
         <v>4</v>
       </c>
       <c r="E99" s="20"/>
-      <c r="F99" s="58"/>
+      <c r="F99" s="48"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="3">
@@ -6067,7 +5897,7 @@
         <v>105</v>
       </c>
       <c r="E100" s="20"/>
-      <c r="F100" s="58"/>
+      <c r="F100" s="48"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="3">
@@ -6081,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="20"/>
-      <c r="F101" s="58"/>
+      <c r="F101" s="48"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3">
@@ -6095,7 +5925,7 @@
         <v>105</v>
       </c>
       <c r="E102" s="20"/>
-      <c r="F102" s="58"/>
+      <c r="F102" s="48"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3">
@@ -6111,7 +5941,7 @@
         <v>103</v>
       </c>
       <c r="E103" s="20"/>
-      <c r="F103" s="58"/>
+      <c r="F103" s="48"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3">
@@ -6125,7 +5955,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="20"/>
-      <c r="F104" s="58"/>
+      <c r="F104" s="48"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3">
@@ -6139,7 +5969,7 @@
         <v>103</v>
       </c>
       <c r="E105" s="20"/>
-      <c r="F105" s="58"/>
+      <c r="F105" s="48"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3">
@@ -6153,7 +5983,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="20"/>
-      <c r="F106" s="58"/>
+      <c r="F106" s="48"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="3">
@@ -6167,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="20"/>
-      <c r="F107" s="58"/>
+      <c r="F107" s="48"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="3">
@@ -6181,7 +6011,7 @@
         <v>104</v>
       </c>
       <c r="E108" s="20"/>
-      <c r="F108" s="58"/>
+      <c r="F108" s="48"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="3">
@@ -6195,7 +6025,7 @@
         <v>102</v>
       </c>
       <c r="E109" s="20"/>
-      <c r="F109" s="58"/>
+      <c r="F109" s="48"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3">
@@ -6209,7 +6039,7 @@
         <v>102</v>
       </c>
       <c r="E110" s="20"/>
-      <c r="F110" s="58"/>
+      <c r="F110" s="48"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3">
@@ -6225,7 +6055,7 @@
         <v>4</v>
       </c>
       <c r="E111" s="20"/>
-      <c r="F111" s="58"/>
+      <c r="F111" s="48"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3">
@@ -6239,7 +6069,7 @@
         <v>4</v>
       </c>
       <c r="E112" s="20"/>
-      <c r="F112" s="58"/>
+      <c r="F112" s="48"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3">
@@ -6253,7 +6083,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="20"/>
-      <c r="F113" s="58"/>
+      <c r="F113" s="48"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3">
@@ -6265,7 +6095,7 @@
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="20"/>
-      <c r="F114" s="58"/>
+      <c r="F114" s="48"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="3">
@@ -6279,7 +6109,7 @@
         <v>105</v>
       </c>
       <c r="E115" s="20"/>
-      <c r="F115" s="58"/>
+      <c r="F115" s="48"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="3">
@@ -6293,7 +6123,7 @@
       <c r="E116" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F116" s="58"/>
+      <c r="F116" s="48"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="3">
@@ -6311,7 +6141,7 @@
       <c r="E117" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F117" s="58"/>
+      <c r="F117" s="48"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="3">
@@ -6325,7 +6155,7 @@
         <v>103</v>
       </c>
       <c r="E118" s="20"/>
-      <c r="F118" s="58"/>
+      <c r="F118" s="48"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="3">
@@ -6341,7 +6171,7 @@
         <v>103</v>
       </c>
       <c r="E119" s="20"/>
-      <c r="F119" s="58"/>
+      <c r="F119" s="48"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="3">
@@ -6355,7 +6185,7 @@
         <v>103</v>
       </c>
       <c r="E120" s="20"/>
-      <c r="F120" s="58"/>
+      <c r="F120" s="48"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="3">
@@ -6369,7 +6199,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="20"/>
-      <c r="F121" s="58"/>
+      <c r="F121" s="48"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="3">
@@ -6379,13 +6209,13 @@
         <v>52</v>
       </c>
       <c r="C122" s="27" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E122" s="20"/>
-      <c r="F122" s="64">
+      <c r="F122" s="54">
         <v>42184</v>
       </c>
     </row>
@@ -6393,13 +6223,13 @@
       <c r="A123" s="3"/>
       <c r="B123" s="7"/>
       <c r="C123" s="27" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E123" s="20"/>
-      <c r="F123" s="64">
+      <c r="F123" s="54">
         <v>42184</v>
       </c>
     </row>
@@ -6415,7 +6245,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="20"/>
-      <c r="F124" s="58"/>
+      <c r="F124" s="48"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="3">
@@ -6429,7 +6259,7 @@
         <v>102</v>
       </c>
       <c r="E125" s="20"/>
-      <c r="F125" s="58"/>
+      <c r="F125" s="48"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="3">
@@ -6443,7 +6273,7 @@
         <v>102</v>
       </c>
       <c r="E126" s="20"/>
-      <c r="F126" s="58"/>
+      <c r="F126" s="48"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="3">
@@ -6457,7 +6287,7 @@
         <v>13</v>
       </c>
       <c r="E127" s="20"/>
-      <c r="F127" s="58"/>
+      <c r="F127" s="48"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="3">
@@ -6473,7 +6303,7 @@
       <c r="E128" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F128" s="58"/>
+      <c r="F128" s="48"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="3">
@@ -6489,7 +6319,7 @@
       <c r="E129" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F129" s="58"/>
+      <c r="F129" s="48"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="3">
@@ -6507,7 +6337,7 @@
       <c r="E130" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F130" s="58"/>
+      <c r="F130" s="48"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="3">
@@ -6521,7 +6351,7 @@
         <v>103</v>
       </c>
       <c r="E131" s="20"/>
-      <c r="F131" s="58"/>
+      <c r="F131" s="48"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="3">
@@ -6535,7 +6365,7 @@
         <v>102</v>
       </c>
       <c r="E132" s="20"/>
-      <c r="F132" s="58"/>
+      <c r="F132" s="48"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="3">
@@ -6549,7 +6379,7 @@
         <v>102</v>
       </c>
       <c r="E133" s="20"/>
-      <c r="F133" s="58"/>
+      <c r="F133" s="48"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="3">
@@ -6567,7 +6397,7 @@
       <c r="E134" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F134" s="58"/>
+      <c r="F134" s="48"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="3">
@@ -6581,7 +6411,7 @@
         <v>103</v>
       </c>
       <c r="E135" s="20"/>
-      <c r="F135" s="58"/>
+      <c r="F135" s="48"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="3">
@@ -6597,7 +6427,7 @@
         <v>103</v>
       </c>
       <c r="E136" s="20"/>
-      <c r="F136" s="58"/>
+      <c r="F136" s="48"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="3">
@@ -6611,7 +6441,7 @@
         <v>103</v>
       </c>
       <c r="E137" s="20"/>
-      <c r="F137" s="58"/>
+      <c r="F137" s="48"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="3">
@@ -6625,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="20"/>
-      <c r="F138" s="58"/>
+      <c r="F138" s="48"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="3">
@@ -6641,7 +6471,7 @@
         <v>103</v>
       </c>
       <c r="E139" s="20"/>
-      <c r="F139" s="58"/>
+      <c r="F139" s="48"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="3">
@@ -6655,7 +6485,7 @@
         <v>103</v>
       </c>
       <c r="E140" s="20"/>
-      <c r="F140" s="58"/>
+      <c r="F140" s="48"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="3">
@@ -6669,7 +6499,7 @@
         <v>4</v>
       </c>
       <c r="E141" s="20"/>
-      <c r="F141" s="58"/>
+      <c r="F141" s="48"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="3">
@@ -6683,7 +6513,7 @@
         <v>165</v>
       </c>
       <c r="E142" s="20"/>
-      <c r="F142" s="58"/>
+      <c r="F142" s="48"/>
     </row>
     <row r="143" spans="1:6" s="28" customFormat="1">
       <c r="A143" s="3">
@@ -6698,8 +6528,8 @@
       <c r="D143" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="56"/>
-      <c r="F143" s="59"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="49"/>
     </row>
     <row r="144" spans="1:6" s="28" customFormat="1">
       <c r="A144" s="3">
@@ -6712,10 +6542,10 @@
       <c r="D144" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E144" s="56" t="s">
+      <c r="E144" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F144" s="59"/>
+      <c r="F144" s="49"/>
     </row>
     <row r="145" spans="1:6" s="28" customFormat="1">
       <c r="A145" s="3">
@@ -6728,16 +6558,16 @@
       <c r="D145" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E145" s="55" t="s">
+      <c r="E145" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="F145" s="59"/>
+      <c r="F145" s="49"/>
     </row>
     <row r="146" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="3">
         <v>143</v>
       </c>
-      <c r="B146" s="48" t="s">
+      <c r="B146" s="58" t="s">
         <v>184</v>
       </c>
       <c r="C146" s="27" t="s">
@@ -6746,686 +6576,551 @@
       <c r="D146" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E146" s="55" t="s">
+      <c r="E146" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="F146" s="59"/>
+      <c r="F146" s="49"/>
     </row>
     <row r="147" spans="1:6" s="28" customFormat="1" ht="30">
       <c r="A147" s="3">
         <v>144</v>
       </c>
-      <c r="B147" s="48"/>
+      <c r="B147" s="58"/>
       <c r="C147" s="27" t="s">
         <v>187</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E147" s="55" t="s">
+      <c r="E147" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="F147" s="59"/>
+      <c r="F147" s="49"/>
     </row>
     <row r="148" spans="1:6" s="28" customFormat="1">
       <c r="A148" s="3">
         <v>145</v>
       </c>
-      <c r="B148" s="48"/>
+      <c r="B148" s="58"/>
       <c r="C148" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="56" t="s">
+      <c r="E148" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F148" s="59"/>
+      <c r="F148" s="49"/>
     </row>
     <row r="149" spans="1:6" s="28" customFormat="1">
       <c r="A149" s="3">
         <v>146</v>
       </c>
-      <c r="B149" s="48"/>
+      <c r="B149" s="58"/>
       <c r="C149" s="27" t="s">
         <v>94</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="56"/>
-      <c r="F149" s="59"/>
+      <c r="E149" s="46"/>
+      <c r="F149" s="49"/>
     </row>
     <row r="150" spans="1:6" s="28" customFormat="1">
       <c r="A150" s="3">
         <v>147</v>
       </c>
-      <c r="B150" s="48"/>
+      <c r="B150" s="58"/>
       <c r="C150" s="27" t="s">
         <v>190</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E150" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="F150" s="59"/>
+      <c r="E150" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F150" s="49"/>
     </row>
     <row r="151" spans="1:6" s="28" customFormat="1">
       <c r="A151" s="3">
-        <v>148</v>
-      </c>
-      <c r="B151" s="48"/>
+        <v>149</v>
+      </c>
+      <c r="B151" s="58"/>
       <c r="C151" s="27" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E151" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="F151" s="59"/>
+        <v>4</v>
+      </c>
+      <c r="E151" s="46"/>
+      <c r="F151" s="49"/>
     </row>
     <row r="152" spans="1:6" s="28" customFormat="1">
       <c r="A152" s="3">
-        <v>149</v>
-      </c>
-      <c r="B152" s="48"/>
+        <v>150</v>
+      </c>
+      <c r="B152" s="58"/>
       <c r="C152" s="27" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" s="56"/>
-      <c r="F152" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="E152" s="46"/>
+      <c r="F152" s="49"/>
     </row>
     <row r="153" spans="1:6" s="28" customFormat="1">
       <c r="A153" s="3">
-        <v>150</v>
-      </c>
-      <c r="B153" s="48"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="58"/>
       <c r="C153" s="27" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E153" s="56"/>
-      <c r="F153" s="59"/>
+        <v>4</v>
+      </c>
+      <c r="E153" s="46"/>
+      <c r="F153" s="49"/>
     </row>
     <row r="154" spans="1:6" s="28" customFormat="1">
       <c r="A154" s="3">
-        <v>151</v>
-      </c>
-      <c r="B154" s="48"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="58"/>
       <c r="C154" s="27" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E154" s="56"/>
-      <c r="F154" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="E154" s="46"/>
+      <c r="F154" s="49"/>
     </row>
     <row r="155" spans="1:6" s="28" customFormat="1">
       <c r="A155" s="3">
-        <v>152</v>
-      </c>
-      <c r="B155" s="48"/>
+        <v>155</v>
+      </c>
+      <c r="B155" s="58"/>
       <c r="C155" s="27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E155" s="56"/>
-      <c r="F155" s="59"/>
+      <c r="E155" s="46"/>
+      <c r="F155" s="49"/>
     </row>
     <row r="156" spans="1:6" s="28" customFormat="1">
       <c r="A156" s="3">
-        <v>153</v>
-      </c>
-      <c r="B156" s="48"/>
+        <v>156</v>
+      </c>
+      <c r="B156" s="58"/>
       <c r="C156" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E156" s="56"/>
-      <c r="F156" s="59"/>
+      <c r="E156" s="46"/>
+      <c r="F156" s="49"/>
     </row>
     <row r="157" spans="1:6" s="28" customFormat="1">
       <c r="A157" s="3">
-        <v>154</v>
-      </c>
-      <c r="B157" s="48"/>
+        <v>163</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>194</v>
+      </c>
       <c r="C157" s="27" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E157" s="56"/>
-      <c r="F157" s="59"/>
+        <v>195</v>
+      </c>
+      <c r="E157" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F157" s="49"/>
     </row>
     <row r="158" spans="1:6" s="28" customFormat="1">
       <c r="A158" s="3">
-        <v>155</v>
-      </c>
-      <c r="B158" s="48"/>
+        <v>165</v>
+      </c>
+      <c r="B158" s="34"/>
       <c r="C158" s="27" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D158" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" s="56"/>
-      <c r="F158" s="59"/>
+        <v>13</v>
+      </c>
+      <c r="E158" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F158" s="49"/>
     </row>
     <row r="159" spans="1:6" s="28" customFormat="1">
       <c r="A159" s="3">
-        <v>156</v>
-      </c>
-      <c r="B159" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="B159" s="55" t="s">
+        <v>222</v>
+      </c>
       <c r="C159" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E159" s="56"/>
-      <c r="F159" s="59"/>
+      <c r="E159" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="F159" s="49"/>
     </row>
     <row r="160" spans="1:6" s="28" customFormat="1">
       <c r="A160" s="3">
-        <v>157</v>
-      </c>
-      <c r="B160" s="49"/>
+        <v>167</v>
+      </c>
+      <c r="B160" s="55"/>
       <c r="C160" s="27" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="D160" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E160" s="56"/>
-      <c r="F160" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="E160" s="46"/>
+      <c r="F160" s="49"/>
     </row>
     <row r="161" spans="1:6" s="28" customFormat="1">
       <c r="A161" s="3">
-        <v>158</v>
-      </c>
-      <c r="B161" s="50" t="s">
-        <v>194</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B161" s="34"/>
       <c r="C161" s="27" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E161" s="55"/>
-      <c r="F161" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="E161" s="46"/>
+      <c r="F161" s="49"/>
     </row>
     <row r="162" spans="1:6" s="28" customFormat="1">
       <c r="A162" s="3">
-        <v>159</v>
-      </c>
-      <c r="B162" s="51"/>
+        <v>169</v>
+      </c>
+      <c r="B162" s="35"/>
       <c r="C162" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D162" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E162" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="F162" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="E162" s="46"/>
+      <c r="F162" s="49"/>
     </row>
     <row r="163" spans="1:6" s="28" customFormat="1">
       <c r="A163" s="3">
-        <v>160</v>
-      </c>
-      <c r="B163" s="51"/>
+        <v>170</v>
+      </c>
+      <c r="B163" s="30" t="s">
+        <v>200</v>
+      </c>
       <c r="C163" s="27" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E163" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="F163" s="59"/>
-    </row>
-    <row r="164" spans="1:6" s="28" customFormat="1" ht="30">
+        <v>103</v>
+      </c>
+      <c r="E163" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="F163" s="49"/>
+    </row>
+    <row r="164" spans="1:6" s="28" customFormat="1">
       <c r="A164" s="3">
-        <v>161</v>
-      </c>
-      <c r="B164" s="51"/>
+        <v>171</v>
+      </c>
+      <c r="B164" s="57"/>
       <c r="C164" s="27" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="F164" s="59"/>
+        <v>4</v>
+      </c>
+      <c r="E164" s="46"/>
+      <c r="F164" s="49"/>
     </row>
     <row r="165" spans="1:6" s="28" customFormat="1">
       <c r="A165" s="3">
-        <v>162</v>
-      </c>
-      <c r="B165" s="52"/>
+        <v>172</v>
+      </c>
+      <c r="B165" s="57"/>
       <c r="C165" s="27" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E165" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="F165" s="59"/>
+        <v>4</v>
+      </c>
+      <c r="E165" s="46"/>
+      <c r="F165" s="49"/>
     </row>
     <row r="166" spans="1:6" s="28" customFormat="1">
       <c r="A166" s="3">
-        <v>163</v>
-      </c>
-      <c r="B166" s="33" t="s">
-        <v>202</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B166" s="57"/>
       <c r="C166" s="27" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="D166" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E166" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="F166" s="59"/>
+        <v>104</v>
+      </c>
+      <c r="E166" s="46"/>
+      <c r="F166" s="49"/>
     </row>
     <row r="167" spans="1:6" s="28" customFormat="1">
       <c r="A167" s="3">
-        <v>164</v>
-      </c>
-      <c r="B167" s="34"/>
+        <v>174</v>
+      </c>
+      <c r="B167" s="57"/>
       <c r="C167" s="27" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E167" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="F167" s="59"/>
+        <v>104</v>
+      </c>
+      <c r="E167" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="F167" s="49"/>
     </row>
     <row r="168" spans="1:6" s="28" customFormat="1">
       <c r="A168" s="3">
-        <v>165</v>
-      </c>
-      <c r="B168" s="34"/>
+        <v>175</v>
+      </c>
+      <c r="B168" s="57"/>
       <c r="C168" s="27" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="D168" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E168" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="F168" s="59"/>
+        <v>102</v>
+      </c>
+      <c r="E168" s="46"/>
+      <c r="F168" s="49"/>
     </row>
     <row r="169" spans="1:6" s="28" customFormat="1">
       <c r="A169" s="3">
-        <v>166</v>
-      </c>
-      <c r="B169" s="45" t="s">
-        <v>231</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B169" s="29"/>
       <c r="C169" s="27" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E169" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="F169" s="59"/>
+        <v>102</v>
+      </c>
+      <c r="E169" s="46"/>
+      <c r="F169" s="49"/>
     </row>
     <row r="170" spans="1:6" s="28" customFormat="1">
       <c r="A170" s="3">
-        <v>167</v>
-      </c>
-      <c r="B170" s="45"/>
+        <v>177</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>201</v>
+      </c>
       <c r="C170" s="27" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E170" s="56"/>
-      <c r="F170" s="59"/>
+        <v>103</v>
+      </c>
+      <c r="E170" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="F170" s="49"/>
     </row>
     <row r="171" spans="1:6" s="28" customFormat="1">
       <c r="A171" s="3">
-        <v>168</v>
-      </c>
-      <c r="B171" s="34"/>
+        <v>178</v>
+      </c>
+      <c r="B171" s="26"/>
       <c r="C171" s="27" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E171" s="56"/>
-      <c r="F171" s="59"/>
-    </row>
-    <row r="172" spans="1:6" s="28" customFormat="1">
-      <c r="A172" s="3">
-        <v>169</v>
-      </c>
-      <c r="B172" s="35"/>
+        <v>103</v>
+      </c>
+      <c r="E171" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F171" s="49"/>
+    </row>
+    <row r="172" spans="1:6" s="28" customFormat="1" ht="30">
+      <c r="A172" s="3"/>
+      <c r="B172" s="26"/>
       <c r="C172" s="27" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="D172" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E172" s="56"/>
-      <c r="F172" s="59"/>
+      <c r="E172" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="F172" s="49"/>
     </row>
     <row r="173" spans="1:6" s="28" customFormat="1">
       <c r="A173" s="3">
-        <v>170</v>
-      </c>
-      <c r="B173" s="30" t="s">
-        <v>209</v>
+        <v>179</v>
+      </c>
+      <c r="B173" s="58" t="s">
+        <v>222</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="D173" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E173" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="F173" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="E173" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F173" s="49"/>
     </row>
     <row r="174" spans="1:6" s="28" customFormat="1">
       <c r="A174" s="3">
-        <v>171</v>
-      </c>
-      <c r="B174" s="46"/>
+        <v>180</v>
+      </c>
+      <c r="B174" s="58"/>
       <c r="C174" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D174" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" s="56"/>
-      <c r="F174" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="E174" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="F174" s="49"/>
     </row>
     <row r="175" spans="1:6" s="28" customFormat="1">
       <c r="A175" s="3">
-        <v>172</v>
-      </c>
-      <c r="B175" s="46"/>
+        <v>181</v>
+      </c>
+      <c r="B175" s="58"/>
       <c r="C175" s="27" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D175" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E175" s="56"/>
-      <c r="F175" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="E175" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="F175" s="49"/>
     </row>
     <row r="176" spans="1:6" s="28" customFormat="1">
       <c r="A176" s="3">
-        <v>173</v>
-      </c>
-      <c r="B176" s="46"/>
+        <v>182</v>
+      </c>
+      <c r="B176" s="59"/>
       <c r="C176" s="27" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E176" s="56"/>
-      <c r="F176" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="E176" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="F176" s="49"/>
     </row>
     <row r="177" spans="1:6" s="28" customFormat="1">
       <c r="A177" s="3">
-        <v>174</v>
-      </c>
-      <c r="B177" s="46"/>
+        <v>183</v>
+      </c>
+      <c r="B177" s="33" t="s">
+        <v>206</v>
+      </c>
       <c r="C177" s="27" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E177" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="F177" s="59"/>
-    </row>
-    <row r="178" spans="1:6" s="28" customFormat="1">
+        <v>4</v>
+      </c>
+      <c r="E177" s="46"/>
+      <c r="F177" s="49"/>
+    </row>
+    <row r="178" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="3">
-        <v>175</v>
-      </c>
-      <c r="B178" s="46"/>
+        <v>184</v>
+      </c>
+      <c r="B178" s="44"/>
       <c r="C178" s="27" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E178" s="56"/>
-      <c r="F178" s="59"/>
+        <v>4</v>
+      </c>
+      <c r="E178" s="47"/>
+      <c r="F178" s="49"/>
     </row>
     <row r="179" spans="1:6" s="28" customFormat="1">
       <c r="A179" s="3">
-        <v>176</v>
-      </c>
-      <c r="B179" s="29"/>
+        <v>185</v>
+      </c>
+      <c r="B179" s="55" t="s">
+        <v>231</v>
+      </c>
       <c r="C179" s="27" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E179" s="56"/>
-      <c r="F179" s="59"/>
+        <v>105</v>
+      </c>
+      <c r="E179" s="46"/>
+      <c r="F179" s="49"/>
     </row>
     <row r="180" spans="1:6" s="28" customFormat="1">
       <c r="A180" s="3">
-        <v>177</v>
-      </c>
-      <c r="B180" s="30" t="s">
-        <v>210</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B180" s="55"/>
       <c r="C180" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D180" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E180" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="F180" s="59"/>
+        <v>4</v>
+      </c>
+      <c r="E180" s="47"/>
+      <c r="F180" s="49"/>
     </row>
     <row r="181" spans="1:6" s="28" customFormat="1">
       <c r="A181" s="3">
-        <v>178</v>
-      </c>
-      <c r="B181" s="26"/>
-      <c r="C181" s="27" t="s">
-        <v>213</v>
+        <v>187</v>
+      </c>
+      <c r="B181" s="56"/>
+      <c r="C181" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E181" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="F181" s="59"/>
-    </row>
-    <row r="182" spans="1:6" s="28" customFormat="1">
-      <c r="A182" s="3">
-        <v>179</v>
-      </c>
-      <c r="B182" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="C182" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="D182" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E182" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="F182" s="59"/>
-    </row>
-    <row r="183" spans="1:6" s="28" customFormat="1">
-      <c r="A183" s="3">
-        <v>180</v>
-      </c>
-      <c r="B183" s="47"/>
-      <c r="C183" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D183" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E183" s="56"/>
-      <c r="F183" s="59"/>
-    </row>
-    <row r="184" spans="1:6" s="28" customFormat="1">
-      <c r="A184" s="3">
-        <v>181</v>
-      </c>
-      <c r="B184" s="47"/>
-      <c r="C184" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D184" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E184" s="56"/>
-      <c r="F184" s="59"/>
-    </row>
-    <row r="185" spans="1:6" s="28" customFormat="1">
-      <c r="A185" s="3">
-        <v>182</v>
-      </c>
-      <c r="B185" s="47"/>
-      <c r="C185" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="D185" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E185" s="56"/>
-      <c r="F185" s="59"/>
-    </row>
-    <row r="186" spans="1:6" s="28" customFormat="1">
-      <c r="A186" s="3">
-        <v>183</v>
-      </c>
-      <c r="B186" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C186" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D186" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E186" s="56"/>
-      <c r="F186" s="59"/>
-    </row>
-    <row r="187" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1">
-      <c r="A187" s="3">
-        <v>184</v>
-      </c>
-      <c r="B187" s="44"/>
-      <c r="C187" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D187" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E187" s="57"/>
-      <c r="F187" s="59"/>
-    </row>
-    <row r="188" spans="1:6" s="28" customFormat="1">
-      <c r="A188" s="3">
-        <v>185</v>
-      </c>
-      <c r="B188" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="C188" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D188" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E188" s="56"/>
-      <c r="F188" s="59"/>
-    </row>
-    <row r="189" spans="1:6" s="28" customFormat="1">
-      <c r="A189" s="3">
-        <v>186</v>
-      </c>
-      <c r="B189" s="53"/>
-      <c r="C189" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="D189" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E189" s="57"/>
-      <c r="F189" s="59"/>
-    </row>
-    <row r="190" spans="1:6" s="28" customFormat="1">
-      <c r="A190" s="3">
-        <v>187</v>
-      </c>
-      <c r="B190" s="54"/>
-      <c r="C190" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D190" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="56"/>
-      <c r="F190" s="59"/>
+        <v>4</v>
+      </c>
+      <c r="E181" s="46"/>
+      <c r="F181" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F190"/>
-  <mergeCells count="6">
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B174:B178"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B146:B160"/>
-    <mergeCell ref="B161:B165"/>
+  <autoFilter ref="A1:F181"/>
+  <mergeCells count="5">
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B146:B156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7437,7 +7132,7 @@
   <dimension ref="A2:B77"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+      <selection activeCell="AA75" sqref="AA75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="12.75"/>
@@ -7463,12 +7158,12 @@
     </row>
     <row r="66" spans="1:1" ht="15.75">
       <c r="A66" s="23" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.75">
       <c r="A77" s="23" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7501,13 +7196,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>78</v>
@@ -7515,7 +7210,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="38" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B2" s="42">
         <v>5</v>
@@ -7527,12 +7222,12 @@
         <v>5</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="38" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B3" s="42">
         <v>70</v>
@@ -7544,12 +7239,12 @@
         <v>80</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="38" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B4" s="42" t="b">
         <v>0</v>
@@ -7561,12 +7256,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="38" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B5" s="42">
         <v>1</v>
@@ -7578,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -14,7 +14,7 @@
     <sheet name="TBL_SysOption_Content" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$183</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="249">
   <si>
     <t>No</t>
   </si>
@@ -791,6 +791,12 @@
   </si>
   <si>
     <t>Đánh giá đúng/sai cho câu hỏi này. Sinh ra biến này để query kết quả lần sau không cần map với Question để đánh giá đúng sai cho câu hỏi này nữa.</t>
+  </si>
+  <si>
+    <t>CurrentLevel</t>
+  </si>
+  <si>
+    <t>CurrentLearning</t>
   </si>
 </sst>
 </file>
@@ -3596,7 +3602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4393,11 +4399,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -6085,101 +6091,95 @@
       <c r="E113" s="20"/>
       <c r="F113" s="48"/>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="3">
-        <v>112</v>
-      </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="48"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="3">
-        <v>113</v>
-      </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E115" s="20"/>
-      <c r="F115" s="48"/>
+    <row r="114" spans="1:6" s="28" customFormat="1">
+      <c r="A114" s="32"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="46"/>
+      <c r="F114" s="49"/>
+    </row>
+    <row r="115" spans="1:6" s="28" customFormat="1">
+      <c r="A115" s="32"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="46"/>
+      <c r="F115" s="49"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="3">
-        <v>114</v>
-      </c>
-      <c r="B116" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="B116" s="7"/>
       <c r="C116" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D116" s="4"/>
-      <c r="E116" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="E116" s="20"/>
       <c r="F116" s="48"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="3">
-        <v>115</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B117" s="7"/>
       <c r="C117" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>107</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E117" s="20"/>
       <c r="F117" s="48"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="3">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E118" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="F118" s="48"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="3">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E119" s="20"/>
+      <c r="E119" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="F119" s="48"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="3">
-        <v>118</v>
-      </c>
-      <c r="B120" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="B120" s="8"/>
       <c r="C120" s="4" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>103</v>
@@ -6189,145 +6189,141 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="3">
-        <v>119</v>
-      </c>
-      <c r="B121" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C121" s="4" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="48"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="3">
-        <v>120</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>239</v>
+        <v>118</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E122" s="20"/>
-      <c r="F122" s="54">
-        <v>42184</v>
-      </c>
+      <c r="F122" s="48"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="3"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="27" t="s">
-        <v>240</v>
+      <c r="A123" s="3">
+        <v>119</v>
+      </c>
+      <c r="B123" s="8"/>
+      <c r="C123" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E123" s="20"/>
-      <c r="F123" s="54">
-        <v>42184</v>
-      </c>
+      <c r="F123" s="48"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="3">
-        <v>121</v>
-      </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="4" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>239</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E124" s="20"/>
-      <c r="F124" s="48"/>
+      <c r="F124" s="54">
+        <v>42184</v>
+      </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="3">
-        <v>122</v>
-      </c>
+      <c r="A125" s="3"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="4" t="s">
-        <v>39</v>
+      <c r="C125" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E125" s="20"/>
-      <c r="F125" s="48"/>
+      <c r="F125" s="54">
+        <v>42184</v>
+      </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="3">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="4" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="48"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="3">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="48"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="3">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E128" s="20" t="s">
-        <v>162</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E128" s="20"/>
       <c r="F128" s="48"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="3">
-        <v>126</v>
-      </c>
-      <c r="B129" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="B129" s="7"/>
       <c r="C129" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E129" s="20" t="s">
-        <v>163</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E129" s="20"/>
       <c r="F129" s="48"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="3">
-        <v>127</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B130" s="7"/>
       <c r="C130" s="4" t="s">
         <v>54</v>
       </c>
@@ -6335,107 +6331,111 @@
         <v>103</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F130" s="48"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="3">
-        <v>128</v>
-      </c>
-      <c r="B131" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="B131" s="8"/>
       <c r="C131" s="4" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E131" s="20"/>
+      <c r="E131" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F131" s="48"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="3">
-        <v>129</v>
-      </c>
-      <c r="B132" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C132" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E132" s="20"/>
+        <v>103</v>
+      </c>
+      <c r="E132" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F132" s="48"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="3">
-        <v>130</v>
-      </c>
-      <c r="B133" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="B133" s="7"/>
       <c r="C133" s="4" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="48"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="3">
-        <v>131</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B134" s="7"/>
       <c r="C134" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E134" s="20" t="s">
-        <v>164</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E134" s="20"/>
       <c r="F134" s="48"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="3">
-        <v>132</v>
-      </c>
-      <c r="B135" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="B135" s="8"/>
       <c r="C135" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="48"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="3">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E136" s="20"/>
+      <c r="E136" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F136" s="48"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="3">
-        <v>134</v>
-      </c>
-      <c r="B137" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="B137" s="5"/>
       <c r="C137" s="4" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>103</v>
@@ -6445,27 +6445,27 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="3">
-        <v>135</v>
-      </c>
-      <c r="B138" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C138" s="4" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="48"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="3">
-        <v>136</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B139" s="7"/>
       <c r="C139" s="4" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>103</v>
@@ -6475,181 +6475,181 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="3">
-        <v>137</v>
-      </c>
-      <c r="B140" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="B140" s="8"/>
       <c r="C140" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="48"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="3">
-        <v>138</v>
-      </c>
-      <c r="B141" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="C141" s="4" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="48"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="3">
-        <v>139</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C142" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="C142" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D142" s="4" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="48"/>
     </row>
-    <row r="143" spans="1:6" s="28" customFormat="1">
+    <row r="143" spans="1:6">
       <c r="A143" s="3">
-        <v>140</v>
-      </c>
-      <c r="B143" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" s="46"/>
-      <c r="F143" s="49"/>
-    </row>
-    <row r="144" spans="1:6" s="28" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="B143" s="8"/>
+      <c r="C143" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="20"/>
+      <c r="F143" s="48"/>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="3">
-        <v>141</v>
-      </c>
-      <c r="B144" s="26"/>
-      <c r="C144" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E144" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F144" s="49"/>
+        <v>139</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E144" s="20"/>
+      <c r="F144" s="48"/>
     </row>
     <row r="145" spans="1:6" s="28" customFormat="1">
       <c r="A145" s="3">
+        <v>140</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="46"/>
+      <c r="F145" s="49"/>
+    </row>
+    <row r="146" spans="1:6" s="28" customFormat="1">
+      <c r="A146" s="3">
+        <v>141</v>
+      </c>
+      <c r="B146" s="26"/>
+      <c r="C146" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F146" s="49"/>
+    </row>
+    <row r="147" spans="1:6" s="28" customFormat="1">
+      <c r="A147" s="3">
         <v>142</v>
       </c>
-      <c r="B145" s="26"/>
-      <c r="C145" s="27" t="s">
+      <c r="B147" s="26"/>
+      <c r="C147" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D145" s="27" t="s">
+      <c r="D147" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E145" s="45" t="s">
+      <c r="E147" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="F145" s="49"/>
-    </row>
-    <row r="146" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1">
-      <c r="A146" s="3">
+      <c r="F147" s="49"/>
+    </row>
+    <row r="148" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A148" s="3">
         <v>143</v>
       </c>
-      <c r="B146" s="58" t="s">
+      <c r="B148" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C148" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D146" s="27" t="s">
+      <c r="D148" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E146" s="45" t="s">
+      <c r="E148" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="F146" s="49"/>
-    </row>
-    <row r="147" spans="1:6" s="28" customFormat="1" ht="30">
-      <c r="A147" s="3">
+      <c r="F148" s="49"/>
+    </row>
+    <row r="149" spans="1:6" s="28" customFormat="1" ht="30">
+      <c r="A149" s="3">
         <v>144</v>
-      </c>
-      <c r="B147" s="58"/>
-      <c r="C147" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D147" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="E147" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="F147" s="49"/>
-    </row>
-    <row r="148" spans="1:6" s="28" customFormat="1">
-      <c r="A148" s="3">
-        <v>145</v>
-      </c>
-      <c r="B148" s="58"/>
-      <c r="C148" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E148" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F148" s="49"/>
-    </row>
-    <row r="149" spans="1:6" s="28" customFormat="1">
-      <c r="A149" s="3">
-        <v>146</v>
       </c>
       <c r="B149" s="58"/>
       <c r="C149" s="27" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E149" s="46"/>
+        <v>188</v>
+      </c>
+      <c r="E149" s="45" t="s">
+        <v>189</v>
+      </c>
       <c r="F149" s="49"/>
     </row>
     <row r="150" spans="1:6" s="28" customFormat="1">
       <c r="A150" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B150" s="58"/>
       <c r="C150" s="27" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E150" s="46" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="F150" s="49"/>
     </row>
     <row r="151" spans="1:6" s="28" customFormat="1">
       <c r="A151" s="3">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B151" s="58"/>
       <c r="C151" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>4</v>
@@ -6659,25 +6659,27 @@
     </row>
     <row r="152" spans="1:6" s="28" customFormat="1">
       <c r="A152" s="3">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B152" s="58"/>
       <c r="C152" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D152" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E152" s="46"/>
+      <c r="E152" s="46" t="s">
+        <v>223</v>
+      </c>
       <c r="F152" s="49"/>
     </row>
     <row r="153" spans="1:6" s="28" customFormat="1">
       <c r="A153" s="3">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B153" s="58"/>
       <c r="C153" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D153" s="27" t="s">
         <v>4</v>
@@ -6687,11 +6689,11 @@
     </row>
     <row r="154" spans="1:6" s="28" customFormat="1">
       <c r="A154" s="3">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B154" s="58"/>
       <c r="C154" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D154" s="27" t="s">
         <v>105</v>
@@ -6701,11 +6703,11 @@
     </row>
     <row r="155" spans="1:6" s="28" customFormat="1">
       <c r="A155" s="3">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B155" s="58"/>
       <c r="C155" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>4</v>
@@ -6715,11 +6717,11 @@
     </row>
     <row r="156" spans="1:6" s="28" customFormat="1">
       <c r="A156" s="3">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B156" s="58"/>
       <c r="C156" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>105</v>
@@ -6729,91 +6731,91 @@
     </row>
     <row r="157" spans="1:6" s="28" customFormat="1">
       <c r="A157" s="3">
-        <v>163</v>
-      </c>
-      <c r="B157" s="33" t="s">
-        <v>194</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B157" s="58"/>
       <c r="C157" s="27" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="E157" s="46" t="s">
-        <v>197</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E157" s="46"/>
       <c r="F157" s="49"/>
     </row>
     <row r="158" spans="1:6" s="28" customFormat="1">
       <c r="A158" s="3">
-        <v>165</v>
-      </c>
-      <c r="B158" s="34"/>
+        <v>156</v>
+      </c>
+      <c r="B158" s="58"/>
       <c r="C158" s="27" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D158" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E158" s="46" t="s">
-        <v>198</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E158" s="46"/>
       <c r="F158" s="49"/>
     </row>
     <row r="159" spans="1:6" s="28" customFormat="1">
       <c r="A159" s="3">
-        <v>166</v>
-      </c>
-      <c r="B159" s="55" t="s">
-        <v>222</v>
+        <v>163</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D159" s="27" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E159" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F159" s="49"/>
     </row>
     <row r="160" spans="1:6" s="28" customFormat="1">
       <c r="A160" s="3">
-        <v>167</v>
-      </c>
-      <c r="B160" s="55"/>
+        <v>165</v>
+      </c>
+      <c r="B160" s="34"/>
       <c r="C160" s="27" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D160" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E160" s="46"/>
+        <v>13</v>
+      </c>
+      <c r="E160" s="46" t="s">
+        <v>198</v>
+      </c>
       <c r="F160" s="49"/>
     </row>
     <row r="161" spans="1:6" s="28" customFormat="1">
       <c r="A161" s="3">
-        <v>168</v>
-      </c>
-      <c r="B161" s="34"/>
+        <v>166</v>
+      </c>
+      <c r="B161" s="55" t="s">
+        <v>222</v>
+      </c>
       <c r="C161" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D161" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E161" s="46"/>
+      <c r="E161" s="46" t="s">
+        <v>199</v>
+      </c>
       <c r="F161" s="49"/>
     </row>
     <row r="162" spans="1:6" s="28" customFormat="1">
       <c r="A162" s="3">
-        <v>169</v>
-      </c>
-      <c r="B162" s="35"/>
+        <v>167</v>
+      </c>
+      <c r="B162" s="55"/>
       <c r="C162" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D162" s="27" t="s">
         <v>105</v>
@@ -6823,275 +6825,273 @@
     </row>
     <row r="163" spans="1:6" s="28" customFormat="1">
       <c r="A163" s="3">
-        <v>170</v>
-      </c>
-      <c r="B163" s="30" t="s">
-        <v>200</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B163" s="34"/>
       <c r="C163" s="27" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E163" s="46" t="s">
-        <v>220</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E163" s="46"/>
       <c r="F163" s="49"/>
     </row>
     <row r="164" spans="1:6" s="28" customFormat="1">
       <c r="A164" s="3">
-        <v>171</v>
-      </c>
-      <c r="B164" s="57"/>
+        <v>169</v>
+      </c>
+      <c r="B164" s="35"/>
       <c r="C164" s="27" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E164" s="46"/>
       <c r="F164" s="49"/>
     </row>
     <row r="165" spans="1:6" s="28" customFormat="1">
       <c r="A165" s="3">
-        <v>172</v>
-      </c>
-      <c r="B165" s="57"/>
+        <v>170</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>200</v>
+      </c>
       <c r="C165" s="27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E165" s="46"/>
+        <v>103</v>
+      </c>
+      <c r="E165" s="46" t="s">
+        <v>220</v>
+      </c>
       <c r="F165" s="49"/>
     </row>
     <row r="166" spans="1:6" s="28" customFormat="1">
       <c r="A166" s="3">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B166" s="57"/>
       <c r="C166" s="27" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="D166" s="27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="E166" s="46"/>
       <c r="F166" s="49"/>
     </row>
     <row r="167" spans="1:6" s="28" customFormat="1">
       <c r="A167" s="3">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B167" s="57"/>
       <c r="C167" s="27" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E167" s="46" t="s">
-        <v>218</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E167" s="46"/>
       <c r="F167" s="49"/>
     </row>
     <row r="168" spans="1:6" s="28" customFormat="1">
       <c r="A168" s="3">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B168" s="57"/>
       <c r="C168" s="27" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D168" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E168" s="46"/>
       <c r="F168" s="49"/>
     </row>
     <row r="169" spans="1:6" s="28" customFormat="1">
       <c r="A169" s="3">
-        <v>176</v>
-      </c>
-      <c r="B169" s="29"/>
+        <v>174</v>
+      </c>
+      <c r="B169" s="57"/>
       <c r="C169" s="27" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E169" s="46"/>
+        <v>104</v>
+      </c>
+      <c r="E169" s="46" t="s">
+        <v>218</v>
+      </c>
       <c r="F169" s="49"/>
     </row>
     <row r="170" spans="1:6" s="28" customFormat="1">
       <c r="A170" s="3">
-        <v>177</v>
-      </c>
-      <c r="B170" s="30" t="s">
-        <v>201</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B170" s="57"/>
       <c r="C170" s="27" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E170" s="46" t="s">
-        <v>203</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E170" s="46"/>
       <c r="F170" s="49"/>
     </row>
     <row r="171" spans="1:6" s="28" customFormat="1">
       <c r="A171" s="3">
-        <v>178</v>
-      </c>
-      <c r="B171" s="26"/>
+        <v>176</v>
+      </c>
+      <c r="B171" s="29"/>
       <c r="C171" s="27" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="D171" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E171" s="46"/>
+      <c r="F171" s="49"/>
+    </row>
+    <row r="172" spans="1:6" s="28" customFormat="1">
+      <c r="A172" s="3">
+        <v>177</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D172" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E171" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="F171" s="49"/>
-    </row>
-    <row r="172" spans="1:6" s="28" customFormat="1" ht="30">
-      <c r="A172" s="3"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="D172" s="27" t="s">
-        <v>105</v>
-      </c>
       <c r="E172" s="46" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="F172" s="49"/>
     </row>
     <row r="173" spans="1:6" s="28" customFormat="1">
       <c r="A173" s="3">
-        <v>179</v>
-      </c>
-      <c r="B173" s="58" t="s">
-        <v>222</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B173" s="26"/>
       <c r="C173" s="27" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D173" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E173" s="46" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="F173" s="49"/>
     </row>
-    <row r="174" spans="1:6" s="28" customFormat="1">
-      <c r="A174" s="3">
-        <v>180</v>
-      </c>
-      <c r="B174" s="58"/>
+    <row r="174" spans="1:6" s="28" customFormat="1" ht="30">
+      <c r="A174" s="3"/>
+      <c r="B174" s="26"/>
       <c r="C174" s="27" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="D174" s="27" t="s">
         <v>105</v>
       </c>
       <c r="E174" s="46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F174" s="49"/>
     </row>
     <row r="175" spans="1:6" s="28" customFormat="1">
       <c r="A175" s="3">
-        <v>181</v>
-      </c>
-      <c r="B175" s="58"/>
+        <v>179</v>
+      </c>
+      <c r="B175" s="58" t="s">
+        <v>222</v>
+      </c>
       <c r="C175" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D175" s="27" t="s">
         <v>105</v>
       </c>
       <c r="E175" s="46" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F175" s="49"/>
     </row>
     <row r="176" spans="1:6" s="28" customFormat="1">
       <c r="A176" s="3">
-        <v>182</v>
-      </c>
-      <c r="B176" s="59"/>
+        <v>180</v>
+      </c>
+      <c r="B176" s="58"/>
       <c r="C176" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D176" s="27" t="s">
         <v>105</v>
       </c>
       <c r="E176" s="46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F176" s="49"/>
     </row>
     <row r="177" spans="1:6" s="28" customFormat="1">
       <c r="A177" s="3">
-        <v>183</v>
-      </c>
-      <c r="B177" s="33" t="s">
-        <v>206</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B177" s="58"/>
       <c r="C177" s="27" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E177" s="46"/>
+        <v>105</v>
+      </c>
+      <c r="E177" s="46" t="s">
+        <v>244</v>
+      </c>
       <c r="F177" s="49"/>
     </row>
-    <row r="178" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="178" spans="1:6" s="28" customFormat="1">
       <c r="A178" s="3">
-        <v>184</v>
-      </c>
-      <c r="B178" s="44"/>
+        <v>182</v>
+      </c>
+      <c r="B178" s="59"/>
       <c r="C178" s="27" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E178" s="47"/>
+        <v>105</v>
+      </c>
+      <c r="E178" s="46" t="s">
+        <v>243</v>
+      </c>
       <c r="F178" s="49"/>
     </row>
     <row r="179" spans="1:6" s="28" customFormat="1">
       <c r="A179" s="3">
-        <v>185</v>
-      </c>
-      <c r="B179" s="55" t="s">
-        <v>231</v>
+        <v>183</v>
+      </c>
+      <c r="B179" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E179" s="46"/>
       <c r="F179" s="49"/>
     </row>
-    <row r="180" spans="1:6" s="28" customFormat="1">
+    <row r="180" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A180" s="3">
-        <v>186</v>
-      </c>
-      <c r="B180" s="55"/>
+        <v>184</v>
+      </c>
+      <c r="B180" s="44"/>
       <c r="C180" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D180" s="27" t="s">
         <v>4</v>
@@ -7101,26 +7101,56 @@
     </row>
     <row r="181" spans="1:6" s="28" customFormat="1">
       <c r="A181" s="3">
-        <v>187</v>
-      </c>
-      <c r="B181" s="56"/>
-      <c r="C181" s="31" t="s">
-        <v>78</v>
+        <v>185</v>
+      </c>
+      <c r="B181" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C181" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E181" s="46"/>
       <c r="F181" s="49"/>
     </row>
+    <row r="182" spans="1:6" s="28" customFormat="1">
+      <c r="A182" s="3">
+        <v>186</v>
+      </c>
+      <c r="B182" s="55"/>
+      <c r="C182" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" s="47"/>
+      <c r="F182" s="49"/>
+    </row>
+    <row r="183" spans="1:6" s="28" customFormat="1">
+      <c r="A183" s="3">
+        <v>187</v>
+      </c>
+      <c r="B183" s="56"/>
+      <c r="C183" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" s="46"/>
+      <c r="F183" s="49"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F181"/>
+  <autoFilter ref="A1:F183"/>
   <mergeCells count="5">
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B146:B156"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B166:B170"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B148:B158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7179,7 +7209,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="TBL_SysOption_Content" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$184</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="248">
   <si>
     <t>No</t>
   </si>
@@ -507,9 +507,6 @@
     <t>reference to memberSet via "memberSetID"</t>
   </si>
   <si>
-    <t>reference to bookSet via "bookSetID"</t>
-  </si>
-  <si>
     <t>reference to learningGroup model</t>
   </si>
   <si>
@@ -788,6 +785,15 @@
   </si>
   <si>
     <t>chỉ thị thứ tự hiển thị trong các lesson hay subLesson</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>reference to bookMaster via "Id"</t>
   </si>
 </sst>
 </file>
@@ -1140,17 +1146,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1158,20 +1158,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1226,6 +1217,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3577,7 +3583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3587,105 +3593,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="46" customWidth="1"/>
-    <col min="3" max="3" width="97" style="46" customWidth="1"/>
-    <col min="4" max="16384" width="14.5" style="46"/>
+    <col min="1" max="1" width="4.140625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="97" style="41" customWidth="1"/>
+    <col min="4" max="16384" width="14.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-    </row>
-    <row r="3" spans="1:3" ht="25" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-    </row>
-    <row r="4" spans="1:3" ht="25" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="48" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="39"/>
-    </row>
-    <row r="5" spans="1:3" ht="25" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="48" t="s">
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="39"/>
-    </row>
-    <row r="6" spans="1:3" ht="25" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="48" t="s">
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="39"/>
-    </row>
-    <row r="7" spans="1:3" ht="25" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="48" t="s">
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="39"/>
-    </row>
-    <row r="8" spans="1:3" ht="25" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="39"/>
-    </row>
-    <row r="9" spans="1:3" ht="25" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="48" t="s">
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="39"/>
-    </row>
-    <row r="10" spans="1:3" ht="25" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39" t="s">
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="39"/>
-    </row>
-    <row r="11" spans="1:3" ht="25" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="48" t="s">
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="39"/>
-    </row>
-    <row r="12" spans="1:3" ht="25" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39" t="s">
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="39"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B13" s="48" t="s">
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B14" s="48" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="43" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3705,212 +3711,212 @@
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="97" style="39" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" style="39" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="39"/>
+    <col min="1" max="1" width="4.140625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="97" style="34" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="34" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34">
+    <row r="2" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34">
+    <row r="3" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="68">
+    <row r="4" spans="1:4" ht="69" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51">
+    <row r="5" spans="1:4" ht="69" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="36" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68">
+    <row r="7" spans="1:4" ht="69" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34">
+    <row r="8" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34">
+    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34">
+    <row r="10" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34">
+    <row r="11" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34">
+    <row r="12" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34">
+    <row r="13" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34">
+    <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34">
+    </row>
+    <row r="15" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3920,454 +3926,454 @@
       <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="36" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34">
+    <row r="17" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="36" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34">
+    <row r="18" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="51">
+      <c r="D18" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="51">
+      <c r="D19" s="36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51.75" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="51">
+      <c r="D20" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="51.75" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="34">
+      <c r="D21" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34">
+      <c r="D22" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="43"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="11"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="11"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="11"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="11"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="11"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="11"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="11"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="11"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="11"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="11"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="11"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="11"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="11"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="11"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="11"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="11"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="11"/>
     </row>
   </sheetData>
@@ -4382,25 +4388,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="11"/>
+    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4417,10 +4423,10 @@
         <v>128</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4436,7 +4442,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4452,7 +4458,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4466,7 +4472,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4480,7 +4486,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4496,7 +4502,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4512,7 +4518,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4526,7 +4532,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4540,7 +4546,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4554,7 +4560,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4570,7 +4576,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4584,7 +4590,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4598,7 +4604,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4612,23 +4618,23 @@
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="18" customFormat="1">
+    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>101</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" s="18" customFormat="1">
+    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4637,36 +4643,36 @@
         <v>6</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:6" s="18" customFormat="1">
+    <row r="17" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>198</v>
-      </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -4676,7 +4682,7 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4692,7 +4698,7 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4708,7 +4714,7 @@
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4724,7 +4730,7 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4740,13 +4746,13 @@
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>4</v>
@@ -4756,13 +4762,13 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>4</v>
@@ -4772,7 +4778,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4788,7 +4794,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4804,7 +4810,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="34">
+    <row r="27" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4820,7 +4826,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4836,7 +4842,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4850,13 +4856,13 @@
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>4</v>
@@ -4864,7 +4870,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4878,7 +4884,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4894,7 +4900,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4908,7 +4914,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -4922,7 +4928,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4938,7 +4944,7 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4952,7 +4958,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4966,23 +4972,23 @@
       <c r="E37" s="9"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" s="18" customFormat="1">
+    <row r="38" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>101</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4998,7 +5004,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -5012,7 +5018,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -5026,7 +5032,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -5040,7 +5046,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -5054,7 +5060,7 @@
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5068,7 +5074,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5082,7 +5088,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -5096,7 +5102,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -5110,7 +5116,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -5124,7 +5130,7 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -5138,7 +5144,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5150,11 +5156,11 @@
         <v>13</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="68">
+    <row r="51" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -5166,25 +5172,25 @@
         <v>4</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" s="18" customFormat="1">
+    <row r="52" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>224</v>
-      </c>
       <c r="F52" s="17"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -5198,7 +5204,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -5214,7 +5220,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -5228,7 +5234,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -5242,7 +5248,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -5256,7 +5262,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -5270,7 +5276,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -5284,7 +5290,7 @@
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>58</v>
       </c>
@@ -5298,7 +5304,7 @@
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -5312,7 +5318,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>60</v>
       </c>
@@ -5324,11 +5330,11 @@
         <v>13</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="68">
+    <row r="63" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>61</v>
       </c>
@@ -5340,11 +5346,11 @@
         <v>4</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>62</v>
       </c>
@@ -5358,7 +5364,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>63</v>
       </c>
@@ -5374,7 +5380,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>64</v>
       </c>
@@ -5388,7 +5394,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>65</v>
       </c>
@@ -5402,7 +5408,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -5416,7 +5422,7 @@
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -5430,7 +5436,7 @@
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -5444,7 +5450,7 @@
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -5458,7 +5464,7 @@
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>70</v>
       </c>
@@ -5472,7 +5478,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -5484,11 +5490,11 @@
         <v>13</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="68">
+    <row r="74" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>72</v>
       </c>
@@ -5500,11 +5506,11 @@
         <v>4</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>73</v>
       </c>
@@ -5518,7 +5524,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>74</v>
       </c>
@@ -5536,7 +5542,7 @@
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>75</v>
       </c>
@@ -5550,7 +5556,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>76</v>
       </c>
@@ -5564,7 +5570,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>77</v>
       </c>
@@ -5580,7 +5586,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>78</v>
       </c>
@@ -5594,7 +5600,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>79</v>
       </c>
@@ -5608,7 +5614,7 @@
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>80</v>
       </c>
@@ -5622,7 +5628,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>81</v>
       </c>
@@ -5636,7 +5642,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>82</v>
       </c>
@@ -5650,7 +5656,7 @@
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>83</v>
       </c>
@@ -5664,7 +5670,7 @@
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>84</v>
       </c>
@@ -5678,7 +5684,7 @@
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>85</v>
       </c>
@@ -5692,7 +5698,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>86</v>
       </c>
@@ -5704,11 +5710,11 @@
         <v>13</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="68">
+    <row r="89" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>87</v>
       </c>
@@ -5720,11 +5726,11 @@
         <v>4</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>88</v>
       </c>
@@ -5740,7 +5746,7 @@
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>89</v>
       </c>
@@ -5758,7 +5764,7 @@
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>90</v>
       </c>
@@ -5770,11 +5776,11 @@
         <v>13</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>91</v>
       </c>
@@ -5790,7 +5796,7 @@
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>92</v>
       </c>
@@ -5804,7 +5810,7 @@
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>93</v>
       </c>
@@ -5818,7 +5824,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>94</v>
       </c>
@@ -5832,7 +5838,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>95</v>
       </c>
@@ -5846,7 +5852,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>96</v>
       </c>
@@ -5860,7 +5866,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>97</v>
       </c>
@@ -5874,7 +5880,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>98</v>
       </c>
@@ -5888,7 +5894,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>99</v>
       </c>
@@ -5902,7 +5908,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>100</v>
       </c>
@@ -5916,7 +5922,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>101</v>
       </c>
@@ -5932,7 +5938,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>102</v>
       </c>
@@ -5946,7 +5952,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>103</v>
       </c>
@@ -5960,13 +5966,13 @@
       <c r="E105" s="9"/>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>104</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>4</v>
@@ -5974,13 +5980,13 @@
       <c r="E106" s="9"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>105</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>4</v>
@@ -5988,7 +5994,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>106</v>
       </c>
@@ -6002,7 +6008,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>107</v>
       </c>
@@ -6016,7 +6022,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>108</v>
       </c>
@@ -6030,7 +6036,7 @@
       <c r="E110" s="9"/>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>109</v>
       </c>
@@ -6046,7 +6052,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>110</v>
       </c>
@@ -6060,7 +6066,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>111</v>
       </c>
@@ -6074,11 +6080,11 @@
       <c r="E113" s="9"/>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" s="18" customFormat="1">
+    <row r="114" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="21"/>
       <c r="B114" s="14"/>
       <c r="C114" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>4</v>
@@ -6086,11 +6092,11 @@
       <c r="E114" s="19"/>
       <c r="F114" s="17"/>
     </row>
-    <row r="115" spans="1:6" s="18" customFormat="1">
+    <row r="115" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="21"/>
       <c r="B115" s="14"/>
       <c r="C115" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>4</v>
@@ -6098,7 +6104,7 @@
       <c r="E115" s="19"/>
       <c r="F115" s="17"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>112</v>
       </c>
@@ -6110,7 +6116,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>113</v>
       </c>
@@ -6124,7 +6130,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>114</v>
       </c>
@@ -6138,7 +6144,7 @@
       </c>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>115</v>
       </c>
@@ -6156,7 +6162,7 @@
       </c>
       <c r="F119" s="10"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>116</v>
       </c>
@@ -6170,7 +6176,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="10"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>117</v>
       </c>
@@ -6186,7 +6192,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="10"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>118</v>
       </c>
@@ -6200,7 +6206,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="10"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>119</v>
       </c>
@@ -6214,15 +6220,15 @@
       <c r="E123" s="9"/>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>120</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>4</v>
@@ -6232,11 +6238,11 @@
         <v>42184</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="12"/>
       <c r="C125" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>4</v>
@@ -6246,7 +6252,7 @@
         <v>42184</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>121</v>
       </c>
@@ -6260,7 +6266,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>122</v>
       </c>
@@ -6274,7 +6280,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>123</v>
       </c>
@@ -6288,7 +6294,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="10"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>124</v>
       </c>
@@ -6302,7 +6308,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="10"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>125</v>
       </c>
@@ -6318,75 +6324,75 @@
       </c>
       <c r="F130" s="10"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>126</v>
       </c>
-      <c r="B131" s="13"/>
-      <c r="C131" s="8" t="s">
-        <v>51</v>
+      <c r="B131" s="12"/>
+      <c r="C131" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="F131" s="10"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
+        <v>126</v>
+      </c>
+      <c r="B132" s="13"/>
+      <c r="C132" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="F132" s="10"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="6">
         <v>127</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B133" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C133" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F132" s="10"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="6">
-        <v>128</v>
-      </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E133" s="9"/>
+      <c r="E133" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="F133" s="10"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B134" s="12"/>
       <c r="C134" s="8" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="10"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
-        <v>130</v>
-      </c>
-      <c r="B135" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="B135" s="12"/>
       <c r="C135" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>98</v>
@@ -6394,47 +6400,45 @@
       <c r="E135" s="9"/>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
+        <v>130</v>
+      </c>
+      <c r="B136" s="13"/>
+      <c r="C136" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="6">
         <v>131</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B137" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C137" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F136" s="10"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="6">
-        <v>132</v>
-      </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E137" s="9"/>
+      <c r="E137" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
-        <v>133</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B138" s="23"/>
       <c r="C138" s="8" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>99</v>
@@ -6442,13 +6446,15 @@
       <c r="E138" s="9"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
-        <v>134</v>
-      </c>
-      <c r="B139" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="C139" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>99</v>
@@ -6456,43 +6462,43 @@
       <c r="E139" s="9"/>
       <c r="F139" s="10"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
-        <v>135</v>
-      </c>
-      <c r="B140" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="B140" s="12"/>
       <c r="C140" s="8" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
-        <v>136</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>57</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B141" s="13"/>
       <c r="C141" s="8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="10"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
-        <v>137</v>
-      </c>
-      <c r="B142" s="12"/>
+        <v>136</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C142" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>99</v>
@@ -6500,319 +6506,319 @@
       <c r="E142" s="9"/>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
-        <v>138</v>
-      </c>
-      <c r="B143" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="B143" s="12"/>
       <c r="C143" s="8" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
-        <v>139</v>
-      </c>
-      <c r="B144" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C144" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="B144" s="13"/>
+      <c r="C144" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="D144" s="8" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="10"/>
     </row>
-    <row r="145" spans="1:6" s="18" customFormat="1">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
+        <v>139</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="10"/>
+    </row>
+    <row r="146" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
         <v>140</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B146" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C146" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C145" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D145" s="15" t="s">
+      <c r="D146" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="17"/>
-    </row>
-    <row r="146" spans="1:6" s="18" customFormat="1">
-      <c r="A146" s="6">
+      <c r="E146" s="19"/>
+      <c r="F146" s="17"/>
+    </row>
+    <row r="147" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="6">
         <v>141</v>
-      </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E146" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F146" s="17"/>
-    </row>
-    <row r="147" spans="1:6" s="18" customFormat="1">
-      <c r="A147" s="6">
-        <v>142</v>
       </c>
       <c r="B147" s="14"/>
       <c r="C147" s="15" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>170</v>
+        <v>4</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="F147" s="17"/>
     </row>
-    <row r="148" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="148" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
-        <v>143</v>
-      </c>
-      <c r="B148" s="25" t="s">
-        <v>171</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B148" s="14"/>
       <c r="C148" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>101</v>
       </c>
       <c r="E148" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" s="17"/>
+    </row>
+    <row r="149" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="6">
+        <v>143</v>
+      </c>
+      <c r="B149" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F149" s="17"/>
+    </row>
+    <row r="150" spans="1:6" s="18" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A150" s="6">
+        <v>144</v>
+      </c>
+      <c r="B150" s="56"/>
+      <c r="C150" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F148" s="17"/>
-    </row>
-    <row r="149" spans="1:6" s="18" customFormat="1" ht="34">
-      <c r="A149" s="6">
-        <v>144</v>
-      </c>
-      <c r="B149" s="25"/>
-      <c r="C149" s="15" t="s">
+      <c r="D150" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D149" s="15" t="s">
+      <c r="E150" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="F150" s="17"/>
+    </row>
+    <row r="151" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="6">
+        <v>145</v>
+      </c>
+      <c r="B151" s="56"/>
+      <c r="C151" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F151" s="17"/>
+    </row>
+    <row r="152" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="6">
+        <v>146</v>
+      </c>
+      <c r="B152" s="56"/>
+      <c r="C152" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="19"/>
+      <c r="F152" s="17"/>
+    </row>
+    <row r="153" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="6">
+        <v>147</v>
+      </c>
+      <c r="B153" s="56"/>
+      <c r="C153" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F149" s="17"/>
-    </row>
-    <row r="150" spans="1:6" s="18" customFormat="1">
-      <c r="A150" s="6">
-        <v>145</v>
-      </c>
-      <c r="B150" s="25"/>
-      <c r="C150" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E150" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F150" s="17"/>
-    </row>
-    <row r="151" spans="1:6" s="18" customFormat="1">
-      <c r="A151" s="6">
-        <v>146</v>
-      </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="17"/>
-    </row>
-    <row r="152" spans="1:6" s="18" customFormat="1">
-      <c r="A152" s="6">
-        <v>147</v>
-      </c>
-      <c r="B152" s="25"/>
-      <c r="C152" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D152" s="15" t="s">
+      <c r="D153" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E152" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F152" s="17"/>
-    </row>
-    <row r="153" spans="1:6" s="18" customFormat="1">
-      <c r="A153" s="6">
+      <c r="E153" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F153" s="17"/>
+    </row>
+    <row r="154" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
         <v>149</v>
       </c>
-      <c r="B153" s="25"/>
-      <c r="C153" s="15" t="s">
+      <c r="B154" s="56"/>
+      <c r="C154" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E153" s="19"/>
-      <c r="F153" s="17"/>
-    </row>
-    <row r="154" spans="1:6" s="18" customFormat="1">
-      <c r="A154" s="6">
-        <v>150</v>
-      </c>
-      <c r="B154" s="25"/>
-      <c r="C154" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="D154" s="15" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E154" s="19"/>
       <c r="F154" s="17"/>
     </row>
-    <row r="155" spans="1:6" s="18" customFormat="1">
+    <row r="155" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
-        <v>152</v>
-      </c>
-      <c r="B155" s="25"/>
+        <v>150</v>
+      </c>
+      <c r="B155" s="56"/>
       <c r="C155" s="15" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="17"/>
     </row>
-    <row r="156" spans="1:6" s="18" customFormat="1">
+    <row r="156" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
-        <v>153</v>
-      </c>
-      <c r="B156" s="25"/>
+        <v>152</v>
+      </c>
+      <c r="B156" s="56"/>
       <c r="C156" s="15" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E156" s="19"/>
       <c r="F156" s="17"/>
     </row>
-    <row r="157" spans="1:6" s="18" customFormat="1">
+    <row r="157" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
-        <v>155</v>
-      </c>
-      <c r="B157" s="25"/>
+        <v>153</v>
+      </c>
+      <c r="B157" s="56"/>
       <c r="C157" s="15" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="17"/>
     </row>
-    <row r="158" spans="1:6" s="18" customFormat="1">
+    <row r="158" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
-        <v>156</v>
-      </c>
-      <c r="B158" s="25"/>
+        <v>155</v>
+      </c>
+      <c r="B158" s="56"/>
       <c r="C158" s="15" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" s="17"/>
     </row>
-    <row r="159" spans="1:6" s="18" customFormat="1">
+    <row r="159" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
+        <v>156</v>
+      </c>
+      <c r="B159" s="56"/>
+      <c r="C159" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E159" s="19"/>
+      <c r="F159" s="17"/>
+    </row>
+    <row r="160" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
         <v>163</v>
       </c>
-      <c r="B159" s="26" t="s">
+      <c r="B160" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D160" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="E160" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D159" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E159" s="19" t="s">
+      <c r="F160" s="17"/>
+    </row>
+    <row r="161" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="6">
+        <v>165</v>
+      </c>
+      <c r="B161" s="26"/>
+      <c r="C161" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F159" s="17"/>
-    </row>
-    <row r="160" spans="1:6" s="18" customFormat="1">
-      <c r="A160" s="6">
-        <v>165</v>
-      </c>
-      <c r="B160" s="27"/>
-      <c r="C160" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="F160" s="17"/>
-    </row>
-    <row r="161" spans="1:6" s="18" customFormat="1">
-      <c r="A161" s="6">
+      <c r="F161" s="17"/>
+    </row>
+    <row r="162" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
         <v>166</v>
       </c>
-      <c r="B161" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E161" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="F161" s="17"/>
-    </row>
-    <row r="162" spans="1:6" s="18" customFormat="1">
-      <c r="A162" s="6">
-        <v>167</v>
-      </c>
-      <c r="B162" s="28"/>
+      <c r="B162" s="53" t="s">
+        <v>208</v>
+      </c>
       <c r="C162" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E162" s="19"/>
+      <c r="E162" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="F162" s="17"/>
     </row>
-    <row r="163" spans="1:6" s="18" customFormat="1">
+    <row r="163" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
-        <v>168</v>
-      </c>
-      <c r="B163" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="B163" s="53"/>
       <c r="C163" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>101</v>
@@ -6820,13 +6826,13 @@
       <c r="E163" s="19"/>
       <c r="F163" s="17"/>
     </row>
-    <row r="164" spans="1:6" s="18" customFormat="1">
+    <row r="164" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
-        <v>169</v>
-      </c>
-      <c r="B164" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="B164" s="26"/>
       <c r="C164" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>101</v>
@@ -6834,45 +6840,45 @@
       <c r="E164" s="19"/>
       <c r="F164" s="17"/>
     </row>
-    <row r="165" spans="1:6" s="18" customFormat="1">
+    <row r="165" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
+        <v>169</v>
+      </c>
+      <c r="B165" s="27"/>
+      <c r="C165" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E165" s="19"/>
+      <c r="F165" s="17"/>
+    </row>
+    <row r="166" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
         <v>170</v>
       </c>
-      <c r="B165" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="C165" s="15" t="s">
+      <c r="B166" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E166" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D165" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E165" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F165" s="17"/>
-    </row>
-    <row r="166" spans="1:6" s="18" customFormat="1">
-      <c r="A166" s="6">
+      <c r="F166" s="17"/>
+    </row>
+    <row r="167" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="6">
         <v>171</v>
       </c>
-      <c r="B166" s="31"/>
-      <c r="C166" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E166" s="19"/>
-      <c r="F166" s="17"/>
-    </row>
-    <row r="167" spans="1:6" s="18" customFormat="1">
-      <c r="A167" s="6">
-        <v>172</v>
-      </c>
-      <c r="B167" s="31"/>
+      <c r="B167" s="55"/>
       <c r="C167" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>4</v>
@@ -6880,57 +6886,57 @@
       <c r="E167" s="19"/>
       <c r="F167" s="17"/>
     </row>
-    <row r="168" spans="1:6" s="18" customFormat="1">
+    <row r="168" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
-        <v>173</v>
-      </c>
-      <c r="B168" s="31"/>
+        <v>172</v>
+      </c>
+      <c r="B168" s="55"/>
       <c r="C168" s="15" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E168" s="19"/>
       <c r="F168" s="17"/>
     </row>
-    <row r="169" spans="1:6" s="18" customFormat="1">
+    <row r="169" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
-        <v>174</v>
-      </c>
-      <c r="B169" s="31"/>
+        <v>173</v>
+      </c>
+      <c r="B169" s="55"/>
       <c r="C169" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E169" s="19" t="s">
-        <v>205</v>
-      </c>
+      <c r="E169" s="19"/>
       <c r="F169" s="17"/>
     </row>
-    <row r="170" spans="1:6" s="18" customFormat="1">
+    <row r="170" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
+        <v>174</v>
+      </c>
+      <c r="B170" s="55"/>
+      <c r="C170" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F170" s="17"/>
+    </row>
+    <row r="171" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="6">
         <v>175</v>
       </c>
-      <c r="B170" s="31"/>
-      <c r="C170" s="15" t="s">
+      <c r="B171" s="55"/>
+      <c r="C171" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="D170" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E170" s="19"/>
-      <c r="F170" s="17"/>
-    </row>
-    <row r="171" spans="1:6" s="18" customFormat="1">
-      <c r="A171" s="6">
-        <v>176</v>
-      </c>
-      <c r="B171" s="20"/>
-      <c r="C171" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>98</v>
@@ -6938,95 +6944,93 @@
       <c r="E171" s="19"/>
       <c r="F171" s="17"/>
     </row>
-    <row r="172" spans="1:6" s="18" customFormat="1">
+    <row r="172" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
+        <v>176</v>
+      </c>
+      <c r="B172" s="20"/>
+      <c r="C172" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E172" s="19"/>
+      <c r="F172" s="17"/>
+    </row>
+    <row r="173" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="6">
         <v>177</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B173" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C173" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F172" s="17"/>
-    </row>
-    <row r="173" spans="1:6" s="18" customFormat="1">
-      <c r="A173" s="6">
-        <v>178</v>
-      </c>
-      <c r="B173" s="14"/>
-      <c r="C173" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>99</v>
       </c>
       <c r="E173" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F173" s="17"/>
     </row>
-    <row r="174" spans="1:6" s="18" customFormat="1" ht="34">
-      <c r="A174" s="6"/>
+    <row r="174" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="6">
+        <v>178</v>
+      </c>
       <c r="B174" s="14"/>
       <c r="C174" s="15" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E174" s="19" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="F174" s="17"/>
     </row>
-    <row r="175" spans="1:6" s="18" customFormat="1">
-      <c r="A175" s="6">
-        <v>179</v>
-      </c>
-      <c r="B175" s="25" t="s">
-        <v>209</v>
-      </c>
+    <row r="175" spans="1:6" s="18" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A175" s="6"/>
+      <c r="B175" s="14"/>
       <c r="C175" s="15" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>101</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F175" s="17"/>
     </row>
-    <row r="176" spans="1:6" s="18" customFormat="1">
+    <row r="176" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
-        <v>180</v>
-      </c>
-      <c r="B176" s="25"/>
+        <v>179</v>
+      </c>
+      <c r="B176" s="56" t="s">
+        <v>208</v>
+      </c>
       <c r="C176" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>101</v>
       </c>
       <c r="E176" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F176" s="17"/>
     </row>
-    <row r="177" spans="1:6" s="18" customFormat="1">
+    <row r="177" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
-        <v>181</v>
-      </c>
-      <c r="B177" s="25"/>
+        <v>180</v>
+      </c>
+      <c r="B177" s="56"/>
       <c r="C177" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>101</v>
@@ -7036,13 +7040,13 @@
       </c>
       <c r="F177" s="17"/>
     </row>
-    <row r="178" spans="1:6" s="18" customFormat="1">
+    <row r="178" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
-        <v>182</v>
-      </c>
-      <c r="B178" s="32"/>
+        <v>181</v>
+      </c>
+      <c r="B178" s="56"/>
       <c r="C178" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>101</v>
@@ -7052,88 +7056,104 @@
       </c>
       <c r="F178" s="17"/>
     </row>
-    <row r="179" spans="1:6" s="18" customFormat="1">
+    <row r="179" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
+        <v>182</v>
+      </c>
+      <c r="B179" s="57"/>
+      <c r="C179" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F179" s="17"/>
+    </row>
+    <row r="180" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="6">
         <v>183</v>
       </c>
-      <c r="B179" s="26" t="s">
+      <c r="B180" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" s="19"/>
+      <c r="F180" s="17"/>
+    </row>
+    <row r="181" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="6">
+        <v>184</v>
+      </c>
+      <c r="B181" s="29"/>
+      <c r="C181" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C179" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E179" s="19"/>
-      <c r="F179" s="17"/>
-    </row>
-    <row r="180" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A180" s="6">
-        <v>184</v>
-      </c>
-      <c r="B180" s="33"/>
-      <c r="C180" s="15" t="s">
+      <c r="D181" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" s="30"/>
+      <c r="F181" s="17"/>
+    </row>
+    <row r="182" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="6">
+        <v>185</v>
+      </c>
+      <c r="B182" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C182" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D180" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E180" s="34"/>
-      <c r="F180" s="17"/>
-    </row>
-    <row r="181" spans="1:6" s="18" customFormat="1">
-      <c r="A181" s="6">
-        <v>185</v>
-      </c>
-      <c r="B181" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C181" s="15" t="s">
+      <c r="D182" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E182" s="19"/>
+      <c r="F182" s="17"/>
+    </row>
+    <row r="183" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="6">
+        <v>186</v>
+      </c>
+      <c r="B183" s="53"/>
+      <c r="C183" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D181" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E181" s="19"/>
-      <c r="F181" s="17"/>
-    </row>
-    <row r="182" spans="1:6" s="18" customFormat="1">
-      <c r="A182" s="6">
-        <v>186</v>
-      </c>
-      <c r="B182" s="28"/>
-      <c r="C182" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D182" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E182" s="34"/>
-      <c r="F182" s="17"/>
-    </row>
-    <row r="183" spans="1:6" s="18" customFormat="1">
-      <c r="A183" s="6">
+      <c r="D183" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" s="30"/>
+      <c r="F183" s="17"/>
+    </row>
+    <row r="184" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="6">
         <v>187</v>
       </c>
-      <c r="B183" s="35"/>
-      <c r="C183" s="36" t="s">
+      <c r="B184" s="54"/>
+      <c r="C184" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D183" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E183" s="19"/>
-      <c r="F183" s="17"/>
+      <c r="D184" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" s="19"/>
+      <c r="F184" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F183"/>
+  <autoFilter ref="A1:F184"/>
   <mergeCells count="5">
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B166:B170"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="B148:B158"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="B149:B159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7150,35 +7170,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="50"/>
+    <col min="1" max="16384" width="2.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="17">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17">
-      <c r="A35" s="49" t="s">
+    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="49"/>
-    </row>
-    <row r="45" spans="1:2" ht="17">
-      <c r="A45" s="49" t="s">
+      <c r="B35" s="44"/>
+    </row>
+    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17">
-      <c r="A66" s="49" t="s">
+    <row r="66" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="44" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="17">
-      <c r="A77" s="49" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7199,352 +7219,352 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" style="56" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="11" style="57" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="50"/>
+    <col min="1" max="1" width="33" style="51" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="11" style="52" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="49">
+        <v>5</v>
+      </c>
+      <c r="C2" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="49">
+        <v>5</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="54">
-        <v>5</v>
-      </c>
-      <c r="C2" s="55" t="b">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="49">
+        <v>70</v>
+      </c>
+      <c r="C3" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="54">
-        <v>5</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
+      <c r="D3" s="49">
+        <v>80</v>
+      </c>
+      <c r="E3" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="54">
-        <v>70</v>
-      </c>
-      <c r="C3" s="55" t="b">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="54">
-        <v>80</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
+      <c r="D4" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="55" t="b">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="D4" s="54" t="b">
+      <c r="C5" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="53" t="s">
+      <c r="D5" s="49">
+        <v>1</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="54">
-        <v>1</v>
-      </c>
-      <c r="C5" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="54">
-        <v>1</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="53"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="55"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="53"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="55"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="50"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="48"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -3583,7 +3583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4391,8 +4391,8 @@
   <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4919,8 +4919,8 @@
         <v>33</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="8" t="s">
-        <v>35</v>
+      <c r="C34" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>99</v>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="TBL_LIST" sheetId="5" r:id="rId2"/>
     <sheet name="TBL_DESC" sheetId="4" r:id="rId3"/>
-    <sheet name="TBL_Relation" sheetId="6" r:id="rId4"/>
-    <sheet name="TBL_SysOption_Content" sheetId="7" r:id="rId5"/>
+    <sheet name="TBL_DESC (BAK)" sheetId="8" r:id="rId4"/>
+    <sheet name="TBL_Relation" sheetId="6" r:id="rId5"/>
+    <sheet name="TBL_SysOption_Content" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TBL_DESC (BAK)'!$A$1:$F$190</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="277">
   <si>
     <t>No</t>
   </si>
@@ -178,18 +180,9 @@
     <t>maxMemberNum</t>
   </si>
   <si>
-    <t>memberSetID</t>
-  </si>
-  <si>
     <t>bookSetID</t>
   </si>
   <si>
-    <t>joinDate</t>
-  </si>
-  <si>
-    <t>leaveDate</t>
-  </si>
-  <si>
     <t>memberSet</t>
   </si>
   <si>
@@ -301,9 +294,6 @@
     <t>option1</t>
   </si>
   <si>
-    <t>resultOption1</t>
-  </si>
-  <si>
     <t>option2</t>
   </si>
   <si>
@@ -317,9 +307,6 @@
   </si>
   <si>
     <t>option4</t>
-  </si>
-  <si>
-    <t>resultOption4</t>
   </si>
   <si>
     <t>date</t>
@@ -504,12 +491,6 @@
 repply request friend: U</t>
   </si>
   <si>
-    <t>reference to memberSet via "memberSetID"</t>
-  </si>
-  <si>
-    <t>reference to learningGroup model</t>
-  </si>
-  <si>
     <t>GridFS</t>
   </si>
   <si>
@@ -669,9 +650,6 @@
     <t>Reference with Id in bookUsedHistory collection</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
     <t>(can using embedded data)</t>
   </si>
   <si>
@@ -684,9 +662,6 @@
     <t>tỉ lệ % tối thiểu để pass bài học</t>
   </si>
   <si>
-    <t>Đã hoàn thành các bài học trong giáo trình này chưa?. Mặc định = false</t>
-  </si>
-  <si>
     <t>activeNewRegisterRequirement</t>
   </si>
   <si>
@@ -714,12 +689,6 @@
     <t>5 User Test Reference</t>
   </si>
   <si>
-    <t>referenceWord</t>
-  </si>
-  <si>
-    <t>Những từ có cùng nghĩa</t>
-  </si>
-  <si>
     <t>Ngày cập nhật</t>
   </si>
   <si>
@@ -745,12 +714,6 @@
   </si>
   <si>
     <t>Đánh giá đúng/sai cho câu hỏi này. Sinh ra biến này để query kết quả lần sau không cần map với Question để đánh giá đúng sai cho câu hỏi này nữa.</t>
-  </si>
-  <si>
-    <t>CurrentLevel</t>
-  </si>
-  <si>
-    <t>CurrentLearning</t>
   </si>
   <si>
     <t>Tập các từ vựng sử dụng trong các bài học, các sublesson trong bookDetail sẽ refer đến đây để lấy data cụ thể cho bài học.</t>
@@ -793,14 +756,246 @@
     <t>Status</t>
   </si>
   <si>
-    <t>reference to bookMaster via "Id"</t>
+    <t>bookID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>reference to bookMaster model</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>memberSetID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>reference to memberSet via "memberSetID"</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>memberSet</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>reference to learning model</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>joinDate</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>leaveDate</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>media</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>selfLearning</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>bookID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>userLearnHistory</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>learning</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>learningID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>bookDetailID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>correct1</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>resultOption1</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>vocabularyID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>kanjiID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>grammarID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>reference to vocabulary model</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>reference to kanji model</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>reference to grammar model</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <r>
+      <t>reference to example via "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>grammarID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <r>
+      <t>reference to example via "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>kanjiID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <r>
+      <t>reference to example via "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>vocabularyID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>userTestResult</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>questionID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>phuong an user da tra loi</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ket qua dung sai so voi dap an</t>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -828,47 +1023,83 @@
     <font>
       <sz val="12"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0432FF"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF0432FF"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,6 +1139,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0432FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1337,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1119,52 +1374,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1218,20 +1432,129 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3590,112 +3913,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="97" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="41"/>
+    <col min="1" max="1" width="4.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="97" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="14.42578125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:3" ht="27" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="34"/>
-    </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="34"/>
-    </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="43" t="s">
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B13" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="34"/>
-    </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="34"/>
-    </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="34"/>
-    </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="34"/>
-    </row>
-    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="34"/>
-    </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="34"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="43" t="s">
-        <v>115</v>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B14" s="28" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3706,678 +4030,682 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="97" style="34" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="34" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="34"/>
+    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="97" style="19" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:4" ht="51.75">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="C1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34.5">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="C2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.5">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="69" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="69">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="69">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="69" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="34.5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="69" x14ac:dyDescent="0.2">
+      <c r="C6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="69">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34.5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.5">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34.5">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34.5">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34.5">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="C13" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34.5">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34.5">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="D16" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34.5">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="C17" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34.5">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="C18" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51.75">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51.75">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="51.75">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34.5">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34.5">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="38"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2">
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2">
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2">
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2">
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2">
       <c r="B97" s="11"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2">
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2">
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2">
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2">
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2">
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2">
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2">
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2">
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2">
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2">
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2">
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2">
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2">
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2">
       <c r="B112" s="11"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2">
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2">
       <c r="B114" s="11"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2">
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2">
       <c r="B116" s="11"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2">
       <c r="B117" s="11"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2">
       <c r="B118" s="11"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2">
       <c r="B119" s="11"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2">
       <c r="B120" s="11"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2">
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2">
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2">
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2">
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2">
       <c r="B125" s="11"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2">
       <c r="B126" s="11"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2">
       <c r="B127" s="11"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2">
       <c r="B128" s="11"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2">
       <c r="B129" s="11"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2">
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2">
       <c r="B131" s="11"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2">
       <c r="B132" s="11"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2">
       <c r="B133" s="11"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2">
       <c r="B134" s="11"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2">
       <c r="B135" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4387,15 +4715,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
@@ -4406,7 +4734,7 @@
     <col min="7" max="16384" width="10.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4420,21 +4748,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
+      <c r="B2" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
@@ -4442,427 +4771,453 @@
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="6">
+        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="49" customFormat="1">
       <c r="A6" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" s="49" customFormat="1">
       <c r="A7" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" s="49" customFormat="1">
       <c r="A8" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="6">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="6">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="6">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="8" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="6">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="8" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="6">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" s="49" customFormat="1">
       <c r="A16" s="6">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="45"/>
+      <c r="C16" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="6">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="6">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="8" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="34.5">
       <c r="A19" s="6">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="6">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C20" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>118</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="6">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>119</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="6">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B22" s="12"/>
       <c r="C22" s="8" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="6">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="8" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="6">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="C24" s="8" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>121</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="6">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>122</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="6">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="8" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="6">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>124</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="6">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B28" s="13"/>
       <c r="C28" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="6">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="C29" s="8" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="6">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="8" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>4</v>
@@ -4870,133 +5225,134 @@
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="6">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="8" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="6">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="B32" s="12"/>
       <c r="C32" s="8" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="6">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="15" t="s">
-        <v>245</v>
+      <c r="C34" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="6">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="8" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>125</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="6">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="6">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="6">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="B39" s="12"/>
       <c r="C39" s="8" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>4</v>
@@ -5004,41 +5360,48 @@
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="6">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="8" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="69">
       <c r="A41" s="6">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="6">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="8" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>4</v>
@@ -5046,27 +5409,31 @@
       <c r="E42" s="9"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="6">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="C43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9" t="s">
-        <v>78</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="6">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="8" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>4</v>
@@ -5074,13 +5441,14 @@
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="6">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="8" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>4</v>
@@ -5088,111 +5456,119 @@
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="6">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9" t="s">
-        <v>80</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="6">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="9"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="6">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="6">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="6">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>244</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="69">
+      <c r="A52" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="F52" s="17"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="6">
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="8" t="s">
@@ -5204,15 +5580,16 @@
       <c r="E53" s="9"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="6">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>4</v>
@@ -5220,13 +5597,14 @@
       <c r="E54" s="9"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="6">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="8" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>4</v>
@@ -5234,13 +5612,14 @@
       <c r="E55" s="9"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="6">
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="8" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>4</v>
@@ -5248,65 +5627,70 @@
       <c r="E56" s="9"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="6">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="6">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="6">
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="6">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="8" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="6">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8" t="s">
@@ -5318,9 +5702,10 @@
       <c r="E61" s="9"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="6">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="8" t="s">
@@ -5330,13 +5715,14 @@
         <v>13</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="69">
       <c r="A63" s="6">
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="8" t="s">
@@ -5346,13 +5732,14 @@
         <v>4</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="6">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="8" t="s">
@@ -5364,205 +5751,219 @@
       <c r="E64" s="9"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="6">
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" s="76"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="6">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="B66" s="12"/>
-      <c r="C66" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="F66" s="76"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="6">
-        <v>65</v>
+        <f t="shared" ref="A67:A90" si="1">ROW()-1</f>
+        <v>66</v>
       </c>
       <c r="B67" s="12"/>
-      <c r="C67" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" s="76"/>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="6">
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="6">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="6">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
-        <v>67</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
-        <v>68</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="D70" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="9"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="6">
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9" t="s">
-        <v>80</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="9"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="6">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="6">
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>244</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E73" s="9"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="6">
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="8" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>242</v>
-      </c>
+      <c r="E74" s="9"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="6">
-        <v>73</v>
-      </c>
-      <c r="B75" s="13"/>
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="12"/>
       <c r="C75" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="6">
-        <v>74</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>63</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="12"/>
       <c r="C76" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>99</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D76" s="8"/>
       <c r="E76" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="6">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="6">
-        <v>76</v>
-      </c>
-      <c r="B78" s="13"/>
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="12"/>
       <c r="C78" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>4</v>
@@ -5570,127 +5971,148 @@
       <c r="E78" s="9"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="6">
-        <v>77</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>81</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="12"/>
       <c r="C79" s="8" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="69">
       <c r="A80" s="6">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="8" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="9"/>
+      <c r="E80" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="6">
-        <v>80</v>
-      </c>
-      <c r="B82" s="12"/>
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="C82" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="6">
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="8" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="6">
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E84" s="9" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="6">
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="6">
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="9" t="s">
-        <v>80</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="9"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="6">
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="8" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>4</v>
@@ -5698,1463 +6120,777 @@
       <c r="E87" s="9"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="6">
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="8" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>244</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E88" s="9"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="6">
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="9" t="s">
-        <v>242</v>
-      </c>
+      <c r="E89" s="9"/>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="6">
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>89</v>
       </c>
       <c r="B90" s="13"/>
-      <c r="C90" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="78"/>
+      <c r="F90" s="79"/>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="6">
-        <v>89</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>2</v>
+        <f t="shared" ref="A91:A114" si="2">ROW()-1</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>89</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E91" s="9"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="6">
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>91</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="C92" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C92" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="D92" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="78"/>
+      <c r="F92" s="79"/>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="6">
-        <v>91</v>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="B93" s="12"/>
-      <c r="C93" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="78"/>
+      <c r="F93" s="79"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="6">
-        <v>92</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="B94" s="12"/>
-      <c r="C94" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F94" s="10"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E94" s="78"/>
+      <c r="F94" s="79"/>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="6">
-        <v>93</v>
+        <f t="shared" si="2"/>
+        <v>94</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="8" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="6">
-        <v>94</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="8" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="6">
-        <v>95</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="8" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" s="49" customFormat="1">
       <c r="A98" s="6">
-        <v>96</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D98" s="8" t="s">
+        <f t="shared" ref="A98:A135" si="3">ROW()-1</f>
+        <v>97</v>
+      </c>
+      <c r="B98" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C98" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E98" s="78"/>
+      <c r="F98" s="48"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="6">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="81"/>
+      <c r="C99" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="E99" s="78"/>
+      <c r="F99" s="79"/>
+    </row>
+    <row r="100" spans="1:6" s="49" customFormat="1">
+      <c r="A100" s="6">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="81"/>
+      <c r="C100" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E100" s="78"/>
+      <c r="F100" s="48"/>
+    </row>
+    <row r="101" spans="1:6" s="49" customFormat="1">
+      <c r="A101" s="6">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="81"/>
+      <c r="C101" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="E101" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="F101" s="48"/>
+    </row>
+    <row r="102" spans="1:6" s="49" customFormat="1">
+      <c r="A102" s="6">
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
-        <v>97</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
-        <v>98</v>
-      </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="10"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
-        <v>99</v>
-      </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
-        <v>100</v>
-      </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="83"/>
+      <c r="C102" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="D102" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E102" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="F102" s="48"/>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="6">
-        <v>101</v>
+        <f t="shared" si="2"/>
+        <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="6">
-        <v>102</v>
+        <f t="shared" si="2"/>
+        <v>103</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="6">
-        <v>103</v>
+        <f t="shared" si="2"/>
+        <v>104</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="6">
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>105</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D106" s="8"/>
       <c r="E106" s="9"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="6">
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="8" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="6">
-        <v>106</v>
-      </c>
-      <c r="B108" s="12"/>
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="13"/>
       <c r="C108" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E108" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="6">
-        <v>107</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="8" t="s">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="80" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="15"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="6">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="81"/>
+      <c r="C110" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D110" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="15"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="6">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="81"/>
+      <c r="C111" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="10"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
-        <v>108</v>
-      </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="10"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
-        <v>109</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>4</v>
+      <c r="D111" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="6">
-        <v>110</v>
-      </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="81"/>
+      <c r="C112" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="6">
-        <v>111</v>
-      </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D113" s="8" t="s">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="81"/>
+      <c r="C113" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D113" s="38" t="s">
         <v>4</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="19"/>
-      <c r="F114" s="17"/>
-    </row>
-    <row r="115" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="21"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" s="19"/>
-      <c r="F115" s="17"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
+      <c r="A114" s="6">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="81"/>
+      <c r="C114" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="6">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6" s="49" customFormat="1">
       <c r="A116" s="6">
-        <v>112</v>
-      </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="10"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="50"/>
+      <c r="F116" s="48"/>
+    </row>
+    <row r="117" spans="1:6" s="49" customFormat="1">
       <c r="A117" s="6">
-        <v>113</v>
+        <f t="shared" si="3"/>
+        <v>116</v>
       </c>
       <c r="B117" s="12"/>
-      <c r="C117" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="10"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C117" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F117" s="48"/>
+    </row>
+    <row r="118" spans="1:6" s="49" customFormat="1">
       <c r="A118" s="6">
-        <v>114</v>
-      </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F118" s="10"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118" s="48"/>
+    </row>
+    <row r="119" spans="1:6" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="6">
-        <v>115</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F119" s="10"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D119" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F119" s="48"/>
+    </row>
+    <row r="120" spans="1:6" s="49" customFormat="1" ht="34.5">
       <c r="A120" s="6">
-        <v>116</v>
-      </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="10"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="66"/>
+      <c r="C120" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F120" s="48"/>
+    </row>
+    <row r="121" spans="1:6" s="49" customFormat="1">
       <c r="A121" s="6">
-        <v>117</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E121" s="9"/>
-      <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="66"/>
+      <c r="C121" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F121" s="48"/>
+    </row>
+    <row r="122" spans="1:6" s="49" customFormat="1">
       <c r="A122" s="6">
-        <v>118</v>
-      </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="10"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="66"/>
+      <c r="C122" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D122" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="50"/>
+      <c r="F122" s="48"/>
+    </row>
+    <row r="123" spans="1:6" s="49" customFormat="1">
       <c r="A123" s="6">
-        <v>119</v>
-      </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="10"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="66"/>
+      <c r="C123" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E123" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="F123" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="49" customFormat="1">
       <c r="A124" s="6">
-        <v>120</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="22">
-        <v>42184</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="22">
-        <v>42184</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="66"/>
+      <c r="C124" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D124" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="50"/>
+      <c r="F124" s="48"/>
+    </row>
+    <row r="125" spans="1:6" s="49" customFormat="1">
+      <c r="A125" s="6">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="66"/>
+      <c r="C125" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E125" s="59"/>
+      <c r="F125" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="49" customFormat="1">
       <c r="A126" s="6">
-        <v>121</v>
-      </c>
-      <c r="B126" s="12"/>
-      <c r="C126" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="10"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="66"/>
+      <c r="C126" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="50"/>
+      <c r="F126" s="48"/>
+    </row>
+    <row r="127" spans="1:6" s="49" customFormat="1">
       <c r="A127" s="6">
-        <v>122</v>
-      </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="10"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="66"/>
+      <c r="C127" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E127" s="59"/>
+      <c r="F127" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="49" customFormat="1">
       <c r="A128" s="6">
-        <v>123</v>
-      </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="10"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="66"/>
+      <c r="C128" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D128" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="50"/>
+      <c r="F128" s="48"/>
+    </row>
+    <row r="129" spans="1:6" s="49" customFormat="1">
       <c r="A129" s="6">
-        <v>124</v>
-      </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="8" t="s">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="66"/>
+      <c r="C129" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129" s="59"/>
+      <c r="F129" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="49" customFormat="1">
+      <c r="A130" s="6">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D130" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F130" s="48"/>
+    </row>
+    <row r="131" spans="1:6" s="49" customFormat="1">
+      <c r="A131" s="6">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="68"/>
+      <c r="C131" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D131" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="10"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="6">
-        <v>125</v>
-      </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F130" s="10"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="6">
-        <v>126</v>
-      </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F131" s="10"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E131" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F131" s="48"/>
+    </row>
+    <row r="132" spans="1:6" s="49" customFormat="1">
       <c r="A132" s="6">
-        <v>126</v>
-      </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="10"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C132" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E132" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F132" s="48"/>
+    </row>
+    <row r="133" spans="1:6" s="49" customFormat="1">
       <c r="A133" s="6">
-        <v>127</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F133" s="10"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="69"/>
+      <c r="C133" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E133" s="50"/>
+      <c r="F133" s="48"/>
+    </row>
+    <row r="134" spans="1:6" s="49" customFormat="1">
       <c r="A134" s="6">
-        <v>128</v>
-      </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="10"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="68"/>
+      <c r="C134" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D134" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E134" s="50"/>
+      <c r="F134" s="48"/>
+    </row>
+    <row r="135" spans="1:6" s="49" customFormat="1">
       <c r="A135" s="6">
-        <v>129</v>
-      </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E135" s="9"/>
-      <c r="F135" s="10"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="6">
-        <v>130</v>
-      </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="10"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="6">
-        <v>131</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F137" s="10"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="6">
-        <v>132</v>
-      </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E138" s="9"/>
-      <c r="F138" s="10"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="6">
-        <v>133</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="10"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="6">
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="10"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="6">
-        <v>135</v>
-      </c>
-      <c r="B141" s="13"/>
-      <c r="C141" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="10"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="6">
-        <v>136</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E142" s="9"/>
-      <c r="F142" s="10"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="6">
-        <v>137</v>
-      </c>
-      <c r="B143" s="12"/>
-      <c r="C143" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E143" s="9"/>
-      <c r="F143" s="10"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="6">
-        <v>138</v>
-      </c>
-      <c r="B144" s="13"/>
-      <c r="C144" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="10"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="6">
-        <v>139</v>
-      </c>
-      <c r="B145" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E145" s="9"/>
-      <c r="F145" s="10"/>
-    </row>
-    <row r="146" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="6">
-        <v>140</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D146" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" s="19"/>
-      <c r="F146" s="17"/>
-    </row>
-    <row r="147" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="6">
-        <v>141</v>
-      </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E147" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F147" s="17"/>
-    </row>
-    <row r="148" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="6">
-        <v>142</v>
-      </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D148" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F148" s="17"/>
-    </row>
-    <row r="149" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="6">
-        <v>143</v>
-      </c>
-      <c r="B149" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E149" s="16" t="s">
+      <c r="B135" s="70"/>
+      <c r="C135" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="F149" s="17"/>
-    </row>
-    <row r="150" spans="1:6" s="18" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="6">
-        <v>144</v>
-      </c>
-      <c r="B150" s="56"/>
-      <c r="C150" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F150" s="17"/>
-    </row>
-    <row r="151" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="6">
-        <v>145</v>
-      </c>
-      <c r="B151" s="56"/>
-      <c r="C151" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E151" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F151" s="17"/>
-    </row>
-    <row r="152" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="6">
-        <v>146</v>
-      </c>
-      <c r="B152" s="56"/>
-      <c r="C152" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" s="19"/>
-      <c r="F152" s="17"/>
-    </row>
-    <row r="153" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6">
-        <v>147</v>
-      </c>
-      <c r="B153" s="56"/>
-      <c r="C153" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E153" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="F153" s="17"/>
-    </row>
-    <row r="154" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6">
-        <v>149</v>
-      </c>
-      <c r="B154" s="56"/>
-      <c r="C154" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E154" s="19"/>
-      <c r="F154" s="17"/>
-    </row>
-    <row r="155" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6">
-        <v>150</v>
-      </c>
-      <c r="B155" s="56"/>
-      <c r="C155" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E155" s="19"/>
-      <c r="F155" s="17"/>
-    </row>
-    <row r="156" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="6">
-        <v>152</v>
-      </c>
-      <c r="B156" s="56"/>
-      <c r="C156" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E156" s="19"/>
-      <c r="F156" s="17"/>
-    </row>
-    <row r="157" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="6">
-        <v>153</v>
-      </c>
-      <c r="B157" s="56"/>
-      <c r="C157" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E157" s="19"/>
-      <c r="F157" s="17"/>
-    </row>
-    <row r="158" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="6">
-        <v>155</v>
-      </c>
-      <c r="B158" s="56"/>
-      <c r="C158" s="15" t="s">
+      <c r="D135" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D158" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" s="19"/>
-      <c r="F158" s="17"/>
-    </row>
-    <row r="159" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="6">
-        <v>156</v>
-      </c>
-      <c r="B159" s="56"/>
-      <c r="C159" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E159" s="19"/>
-      <c r="F159" s="17"/>
-    </row>
-    <row r="160" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="6">
-        <v>163</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E160" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F160" s="17"/>
-    </row>
-    <row r="161" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="6">
-        <v>165</v>
-      </c>
-      <c r="B161" s="26"/>
-      <c r="C161" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E161" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F161" s="17"/>
-    </row>
-    <row r="162" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="6">
-        <v>166</v>
-      </c>
-      <c r="B162" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E162" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="F162" s="17"/>
-    </row>
-    <row r="163" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="6">
-        <v>167</v>
-      </c>
-      <c r="B163" s="53"/>
-      <c r="C163" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E163" s="19"/>
-      <c r="F163" s="17"/>
-    </row>
-    <row r="164" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="6">
-        <v>168</v>
-      </c>
-      <c r="B164" s="26"/>
-      <c r="C164" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D164" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E164" s="19"/>
-      <c r="F164" s="17"/>
-    </row>
-    <row r="165" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="6">
-        <v>169</v>
-      </c>
-      <c r="B165" s="27"/>
-      <c r="C165" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D165" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E165" s="19"/>
-      <c r="F165" s="17"/>
-    </row>
-    <row r="166" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="6">
-        <v>170</v>
-      </c>
-      <c r="B166" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E166" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F166" s="17"/>
-    </row>
-    <row r="167" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="6">
-        <v>171</v>
-      </c>
-      <c r="B167" s="55"/>
-      <c r="C167" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E167" s="19"/>
-      <c r="F167" s="17"/>
-    </row>
-    <row r="168" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="6">
-        <v>172</v>
-      </c>
-      <c r="B168" s="55"/>
-      <c r="C168" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D168" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E168" s="19"/>
-      <c r="F168" s="17"/>
-    </row>
-    <row r="169" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="6">
-        <v>173</v>
-      </c>
-      <c r="B169" s="55"/>
-      <c r="C169" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D169" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E169" s="19"/>
-      <c r="F169" s="17"/>
-    </row>
-    <row r="170" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="6">
-        <v>174</v>
-      </c>
-      <c r="B170" s="55"/>
-      <c r="C170" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D170" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E170" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F170" s="17"/>
-    </row>
-    <row r="171" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="6">
-        <v>175</v>
-      </c>
-      <c r="B171" s="55"/>
-      <c r="C171" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D171" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E171" s="19"/>
-      <c r="F171" s="17"/>
-    </row>
-    <row r="172" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="6">
-        <v>176</v>
-      </c>
-      <c r="B172" s="20"/>
-      <c r="C172" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E172" s="19"/>
-      <c r="F172" s="17"/>
-    </row>
-    <row r="173" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="6">
-        <v>177</v>
-      </c>
-      <c r="B173" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E173" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="F173" s="17"/>
-    </row>
-    <row r="174" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="6">
-        <v>178</v>
-      </c>
-      <c r="B174" s="14"/>
-      <c r="C174" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E174" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F174" s="17"/>
-    </row>
-    <row r="175" spans="1:6" s="18" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A175" s="6"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F175" s="17"/>
-    </row>
-    <row r="176" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="6">
-        <v>179</v>
-      </c>
-      <c r="B176" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E176" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F176" s="17"/>
-    </row>
-    <row r="177" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="6">
-        <v>180</v>
-      </c>
-      <c r="B177" s="56"/>
-      <c r="C177" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D177" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E177" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="F177" s="17"/>
-    </row>
-    <row r="178" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="6">
-        <v>181</v>
-      </c>
-      <c r="B178" s="56"/>
-      <c r="C178" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E178" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="F178" s="17"/>
-    </row>
-    <row r="179" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="6">
-        <v>182</v>
-      </c>
-      <c r="B179" s="57"/>
-      <c r="C179" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F179" s="17"/>
-    </row>
-    <row r="180" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="6">
-        <v>183</v>
-      </c>
-      <c r="B180" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D180" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E180" s="19"/>
-      <c r="F180" s="17"/>
-    </row>
-    <row r="181" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="6">
-        <v>184</v>
-      </c>
-      <c r="B181" s="29"/>
-      <c r="C181" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D181" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E181" s="30"/>
-      <c r="F181" s="17"/>
-    </row>
-    <row r="182" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="6">
-        <v>185</v>
-      </c>
-      <c r="B182" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D182" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E182" s="19"/>
-      <c r="F182" s="17"/>
-    </row>
-    <row r="183" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="6">
-        <v>186</v>
-      </c>
-      <c r="B183" s="53"/>
-      <c r="C183" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D183" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E183" s="30"/>
-      <c r="F183" s="17"/>
-    </row>
-    <row r="184" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="6">
-        <v>187</v>
-      </c>
-      <c r="B184" s="54"/>
-      <c r="C184" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E184" s="19"/>
-      <c r="F184" s="17"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F184"/>
-  <mergeCells count="5">
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="B149:B159"/>
+  <autoFilter ref="A1:F135"/>
+  <mergeCells count="2">
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B119:B129"/>
   </mergeCells>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7165,40 +6901,2918 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F190"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="5" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="52">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="52">
+        <v>2</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="52">
+        <v>3</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="52">
+        <v>4</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="52">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="52">
+        <v>6</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="52">
+        <v>7</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="52">
+        <v>8</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="52">
+        <v>9</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" s="49" customFormat="1">
+      <c r="A15" s="51">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" s="49" customFormat="1">
+      <c r="A16" s="51">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="1:6" s="49" customFormat="1">
+      <c r="A17" s="51">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="34.5">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="69">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" ht="69">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="69">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" ht="69">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="D95" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" s="59"/>
+      <c r="F95" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" s="59"/>
+      <c r="F97" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E99" s="59"/>
+      <c r="F99" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="D101" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="62"/>
+      <c r="F101" s="63"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" s="59"/>
+      <c r="F103" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E104" s="59"/>
+      <c r="F104" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D105" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="59"/>
+      <c r="F105" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D106" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="59"/>
+      <c r="F106" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="6"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" s="62"/>
+      <c r="F107" s="63"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="6"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="D108" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E108" s="62"/>
+      <c r="F108" s="63"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="6"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="D109" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="E109" s="62"/>
+      <c r="F109" s="63"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="6">
+        <v>106</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="6">
+        <v>107</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="6">
+        <v>108</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="6">
+        <v>109</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="6">
+        <v>110</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="6">
+        <v>111</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="6">
+        <v>112</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="6">
+        <v>113</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="6">
+        <v>114</v>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="C118" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="6">
+        <v>115</v>
+      </c>
+      <c r="B119" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="6">
+        <v>116</v>
+      </c>
+      <c r="B120" s="57"/>
+      <c r="C120" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="6">
+        <v>117</v>
+      </c>
+      <c r="B121" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="6">
+        <v>118</v>
+      </c>
+      <c r="B122" s="56"/>
+      <c r="C122" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="10"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="6">
+        <v>119</v>
+      </c>
+      <c r="B123" s="57"/>
+      <c r="C123" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="10"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="6">
+        <v>120</v>
+      </c>
+      <c r="B124" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="15"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="6"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="15"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="6">
+        <v>121</v>
+      </c>
+      <c r="B126" s="54"/>
+      <c r="C126" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="6">
+        <v>122</v>
+      </c>
+      <c r="B127" s="54"/>
+      <c r="C127" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="6">
+        <v>123</v>
+      </c>
+      <c r="B128" s="54"/>
+      <c r="C128" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="6">
+        <v>124</v>
+      </c>
+      <c r="B129" s="54"/>
+      <c r="C129" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="6">
+        <v>120</v>
+      </c>
+      <c r="B130" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" s="15">
+        <v>42184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="6"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15">
+        <v>42184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="6">
+        <v>121</v>
+      </c>
+      <c r="B132" s="56"/>
+      <c r="C132" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="F132" s="10"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="6">
+        <v>122</v>
+      </c>
+      <c r="B133" s="56"/>
+      <c r="C133" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="6">
+        <v>123</v>
+      </c>
+      <c r="B134" s="56"/>
+      <c r="C134" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="6">
+        <v>124</v>
+      </c>
+      <c r="B135" s="56"/>
+      <c r="C135" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="10"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="6">
+        <v>125</v>
+      </c>
+      <c r="B136" s="56"/>
+      <c r="C136" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="6">
+        <v>126</v>
+      </c>
+      <c r="B137" s="56"/>
+      <c r="C137" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F137" s="10"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="6">
+        <v>126</v>
+      </c>
+      <c r="B138" s="57"/>
+      <c r="C138" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="10"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="6">
+        <v>127</v>
+      </c>
+      <c r="B139" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F139" s="10"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="6">
+        <v>128</v>
+      </c>
+      <c r="B140" s="56"/>
+      <c r="C140" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="10"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="6">
+        <v>129</v>
+      </c>
+      <c r="B141" s="56"/>
+      <c r="C141" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="F141" s="10"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="6">
+        <v>130</v>
+      </c>
+      <c r="B142" s="57"/>
+      <c r="C142" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E142" s="9"/>
+      <c r="F142" s="10"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="6">
+        <v>131</v>
+      </c>
+      <c r="B143" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F143" s="10"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="6">
+        <v>132</v>
+      </c>
+      <c r="B144" s="56"/>
+      <c r="C144" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="10"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="6">
+        <v>133</v>
+      </c>
+      <c r="B145" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="10"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="6">
+        <v>134</v>
+      </c>
+      <c r="B146" s="56"/>
+      <c r="C146" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E146" s="9"/>
+      <c r="F146" s="10"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="6">
+        <v>135</v>
+      </c>
+      <c r="B147" s="57"/>
+      <c r="C147" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="9"/>
+      <c r="F147" s="10"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="6">
+        <v>136</v>
+      </c>
+      <c r="B148" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E148" s="9"/>
+      <c r="F148" s="10"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="6">
+        <v>137</v>
+      </c>
+      <c r="B149" s="56"/>
+      <c r="C149" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="10"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="6">
+        <v>138</v>
+      </c>
+      <c r="B150" s="57"/>
+      <c r="C150" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" s="9"/>
+      <c r="F150" s="10"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="6">
+        <v>139</v>
+      </c>
+      <c r="B151" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="10"/>
+    </row>
+    <row r="152" spans="1:6" s="49" customFormat="1">
+      <c r="A152" s="44">
+        <v>140</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D152" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="50"/>
+      <c r="F152" s="48"/>
+    </row>
+    <row r="153" spans="1:6" s="49" customFormat="1">
+      <c r="A153" s="44">
+        <v>141</v>
+      </c>
+      <c r="B153" s="12"/>
+      <c r="C153" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F153" s="48"/>
+    </row>
+    <row r="154" spans="1:6" s="49" customFormat="1">
+      <c r="A154" s="44">
+        <v>142</v>
+      </c>
+      <c r="B154" s="12"/>
+      <c r="C154" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D154" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F154" s="48"/>
+    </row>
+    <row r="155" spans="1:6" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="A155" s="44">
+        <v>143</v>
+      </c>
+      <c r="B155" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C155" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D155" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F155" s="48"/>
+    </row>
+    <row r="156" spans="1:6" s="49" customFormat="1" ht="34.5">
+      <c r="A156" s="44">
+        <v>144</v>
+      </c>
+      <c r="B156" s="66"/>
+      <c r="C156" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D156" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E156" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F156" s="48"/>
+    </row>
+    <row r="157" spans="1:6" s="49" customFormat="1">
+      <c r="A157" s="44">
+        <v>145</v>
+      </c>
+      <c r="B157" s="66"/>
+      <c r="C157" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F157" s="48"/>
+    </row>
+    <row r="158" spans="1:6" s="49" customFormat="1">
+      <c r="A158" s="44">
+        <v>146</v>
+      </c>
+      <c r="B158" s="66"/>
+      <c r="C158" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D158" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="50"/>
+      <c r="F158" s="48"/>
+    </row>
+    <row r="159" spans="1:6" s="49" customFormat="1">
+      <c r="A159" s="44">
+        <v>147</v>
+      </c>
+      <c r="B159" s="66"/>
+      <c r="C159" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D159" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E159" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="F159" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="49" customFormat="1">
+      <c r="A160" s="44">
+        <v>149</v>
+      </c>
+      <c r="B160" s="66"/>
+      <c r="C160" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D160" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="50"/>
+      <c r="F160" s="48"/>
+    </row>
+    <row r="161" spans="1:6" s="49" customFormat="1">
+      <c r="A161" s="44">
+        <v>150</v>
+      </c>
+      <c r="B161" s="66"/>
+      <c r="C161" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D161" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E161" s="59"/>
+      <c r="F161" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="49" customFormat="1">
+      <c r="A162" s="44">
+        <v>152</v>
+      </c>
+      <c r="B162" s="66"/>
+      <c r="C162" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D162" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="50"/>
+      <c r="F162" s="48"/>
+    </row>
+    <row r="163" spans="1:6" s="49" customFormat="1">
+      <c r="A163" s="44">
+        <v>153</v>
+      </c>
+      <c r="B163" s="66"/>
+      <c r="C163" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D163" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E163" s="59"/>
+      <c r="F163" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="49" customFormat="1">
+      <c r="A164" s="44">
+        <v>155</v>
+      </c>
+      <c r="B164" s="66"/>
+      <c r="C164" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D164" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="50"/>
+      <c r="F164" s="48"/>
+    </row>
+    <row r="165" spans="1:6" s="49" customFormat="1">
+      <c r="A165" s="44">
+        <v>156</v>
+      </c>
+      <c r="B165" s="66"/>
+      <c r="C165" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D165" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E165" s="59"/>
+      <c r="F165" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="49" customFormat="1">
+      <c r="A166" s="44">
+        <v>163</v>
+      </c>
+      <c r="B166" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D166" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E166" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F166" s="48"/>
+    </row>
+    <row r="167" spans="1:6" s="49" customFormat="1">
+      <c r="A167" s="44">
+        <v>165</v>
+      </c>
+      <c r="B167" s="68"/>
+      <c r="C167" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D167" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F167" s="48"/>
+    </row>
+    <row r="168" spans="1:6" s="49" customFormat="1">
+      <c r="A168" s="44">
+        <v>166</v>
+      </c>
+      <c r="B168" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C168" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E168" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F168" s="48"/>
+    </row>
+    <row r="169" spans="1:6" s="49" customFormat="1">
+      <c r="A169" s="44">
+        <v>167</v>
+      </c>
+      <c r="B169" s="69"/>
+      <c r="C169" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E169" s="50"/>
+      <c r="F169" s="48"/>
+    </row>
+    <row r="170" spans="1:6" s="49" customFormat="1">
+      <c r="A170" s="44">
+        <v>168</v>
+      </c>
+      <c r="B170" s="68"/>
+      <c r="C170" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170" s="50"/>
+      <c r="F170" s="48"/>
+    </row>
+    <row r="171" spans="1:6" s="49" customFormat="1">
+      <c r="A171" s="44">
+        <v>169</v>
+      </c>
+      <c r="B171" s="70"/>
+      <c r="C171" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E171" s="50"/>
+      <c r="F171" s="48"/>
+    </row>
+    <row r="172" spans="1:6" s="49" customFormat="1">
+      <c r="A172" s="44">
+        <v>170</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C172" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D172" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E172" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="F172" s="48"/>
+    </row>
+    <row r="173" spans="1:6" s="49" customFormat="1">
+      <c r="A173" s="44">
+        <v>171</v>
+      </c>
+      <c r="B173" s="71"/>
+      <c r="C173" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D173" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="50"/>
+      <c r="F173" s="48"/>
+    </row>
+    <row r="174" spans="1:6" s="49" customFormat="1">
+      <c r="A174" s="44">
+        <v>172</v>
+      </c>
+      <c r="B174" s="71"/>
+      <c r="C174" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D174" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="50"/>
+      <c r="F174" s="48"/>
+    </row>
+    <row r="175" spans="1:6" s="49" customFormat="1">
+      <c r="A175" s="44">
+        <v>173</v>
+      </c>
+      <c r="B175" s="71"/>
+      <c r="C175" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D175" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E175" s="50"/>
+      <c r="F175" s="48"/>
+    </row>
+    <row r="176" spans="1:6" s="49" customFormat="1">
+      <c r="A176" s="44">
+        <v>174</v>
+      </c>
+      <c r="B176" s="71"/>
+      <c r="C176" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D176" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E176" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F176" s="48"/>
+    </row>
+    <row r="177" spans="1:6" s="49" customFormat="1">
+      <c r="A177" s="44">
+        <v>175</v>
+      </c>
+      <c r="B177" s="71"/>
+      <c r="C177" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D177" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E177" s="50"/>
+      <c r="F177" s="48"/>
+    </row>
+    <row r="178" spans="1:6" s="49" customFormat="1">
+      <c r="A178" s="44">
+        <v>176</v>
+      </c>
+      <c r="B178" s="13"/>
+      <c r="C178" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D178" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E178" s="50"/>
+      <c r="F178" s="48"/>
+    </row>
+    <row r="179" spans="1:6" s="49" customFormat="1">
+      <c r="A179" s="44">
+        <v>177</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E179" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F179" s="48"/>
+    </row>
+    <row r="180" spans="1:6" s="49" customFormat="1">
+      <c r="A180" s="44">
+        <v>178</v>
+      </c>
+      <c r="B180" s="12"/>
+      <c r="C180" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D180" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E180" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="F180" s="48"/>
+    </row>
+    <row r="181" spans="1:6" s="49" customFormat="1" ht="34.5">
+      <c r="A181" s="44"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D181" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E181" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="F181" s="48"/>
+    </row>
+    <row r="182" spans="1:6" s="49" customFormat="1">
+      <c r="A182" s="44">
+        <v>179</v>
+      </c>
+      <c r="B182" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C182" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D182" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E182" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="F182" s="48"/>
+    </row>
+    <row r="183" spans="1:6" s="49" customFormat="1">
+      <c r="A183" s="44">
+        <v>180</v>
+      </c>
+      <c r="B183" s="66"/>
+      <c r="C183" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D183" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E183" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="F183" s="48"/>
+    </row>
+    <row r="184" spans="1:6" s="49" customFormat="1">
+      <c r="A184" s="44">
+        <v>181</v>
+      </c>
+      <c r="B184" s="66"/>
+      <c r="C184" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D184" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E184" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F184" s="48"/>
+    </row>
+    <row r="185" spans="1:6" s="49" customFormat="1">
+      <c r="A185" s="44">
+        <v>182</v>
+      </c>
+      <c r="B185" s="72"/>
+      <c r="C185" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D185" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E185" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="F185" s="48"/>
+    </row>
+    <row r="186" spans="1:6" s="49" customFormat="1">
+      <c r="A186" s="44">
+        <v>183</v>
+      </c>
+      <c r="B186" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C186" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="50"/>
+      <c r="F186" s="48"/>
+    </row>
+    <row r="187" spans="1:6" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="A187" s="44">
+        <v>184</v>
+      </c>
+      <c r="B187" s="73"/>
+      <c r="C187" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D187" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="64"/>
+      <c r="F187" s="48"/>
+    </row>
+    <row r="188" spans="1:6" s="49" customFormat="1">
+      <c r="A188" s="44">
+        <v>185</v>
+      </c>
+      <c r="B188" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C188" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D188" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E188" s="50"/>
+      <c r="F188" s="48"/>
+    </row>
+    <row r="189" spans="1:6" s="49" customFormat="1">
+      <c r="A189" s="44">
+        <v>186</v>
+      </c>
+      <c r="B189" s="69"/>
+      <c r="C189" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D189" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="64"/>
+      <c r="F189" s="48"/>
+    </row>
+    <row r="190" spans="1:6" s="49" customFormat="1">
+      <c r="A190" s="44">
+        <v>187</v>
+      </c>
+      <c r="B190" s="74"/>
+      <c r="C190" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D190" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" s="50"/>
+      <c r="F190" s="48"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F190"/>
+  <mergeCells count="5">
+    <mergeCell ref="B155:B165"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B173:B177"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B188:B190"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="2.42578125" style="45"/>
+    <col min="1" max="16384" width="2.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="44"/>
-    </row>
-    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="44" t="s">
-        <v>221</v>
+    <row r="2" spans="1:1" ht="17.25">
+      <c r="A2" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25">
+      <c r="A35" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="29"/>
+    </row>
+    <row r="45" spans="1:2" ht="17.25">
+      <c r="A45" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="17.25">
+      <c r="A66" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="17.25">
+      <c r="A77" s="29" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -7213,360 +9827,361 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" style="51" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="11" style="52" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="45" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="45"/>
+    <col min="1" max="1" width="33" style="36" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="11" style="37" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="49">
+      <c r="B1" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="34">
         <v>5</v>
       </c>
-      <c r="C2" s="50" t="b">
+      <c r="C2" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="34">
         <v>5</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="E2" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="34">
+        <v>70</v>
+      </c>
+      <c r="C3" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34">
+        <v>80</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="49">
-        <v>70</v>
-      </c>
-      <c r="C3" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="49">
-        <v>80</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="49">
-        <v>1</v>
-      </c>
-      <c r="C5" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="49">
-        <v>1</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,12 @@
     <sheet name="TBL_DESC" sheetId="4" r:id="rId3"/>
     <sheet name="TBL_DESC (BAK)" sheetId="8" r:id="rId4"/>
     <sheet name="TBL_Relation" sheetId="6" r:id="rId5"/>
-    <sheet name="TBL_SysOption_Content" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TBL_DESC (BAK)'!$A$1:$F$190</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="281">
   <si>
     <t>No</t>
   </si>
@@ -656,31 +655,7 @@
     <t>Đánh giá đúng/sai cho phương án trả lời 1</t>
   </si>
   <si>
-    <t>learningPassCondition</t>
-  </si>
-  <si>
-    <t>tỉ lệ % tối thiểu để pass bài học</t>
-  </si>
-  <si>
-    <t>activeNewRegisterRequirement</t>
-  </si>
-  <si>
-    <t>Yêu cầu newUser active trước khi sử dụng tài khoản</t>
-  </si>
-  <si>
-    <t>maxSurveyQuestion</t>
-  </si>
-  <si>
-    <t>Giới hạn số câu hỏi tối đa khi thực hiện survey</t>
-  </si>
-  <si>
     <t>(Xem thông tin content của table này trong sheet TBL_SysOption_Content)</t>
-  </si>
-  <si>
-    <t>limitTimeForQuestion</t>
-  </si>
-  <si>
-    <t>Giới hạn thời gian cho 1 câu hỏi</t>
   </si>
   <si>
     <t>4. User Survey Reference</t>
@@ -757,127 +732,162 @@
   </si>
   <si>
     <t>bookID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>reference to bookMaster model</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>memberSetID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>reference to memberSet via "memberSetID"</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>memberSet</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>reference to learning model</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>joinDate</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>leaveDate</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>sort</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>media</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>selfLearning</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>userID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>bookID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>notes</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>status</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>userLearnHistory</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>learning</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>delete</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>learningID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>bookDetailID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>correct1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>resultOption1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>vocabularyID</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>kanjiID</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>grammarID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>reference to vocabulary model</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>reference to kanji model</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>reference to grammar model</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>userTestResult</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>phuong an user da tra loi</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ket qua dung sai so voi dap an</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>selfLearning</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>reference to bookMaster model</t>
+  </si>
+  <si>
+    <t>reference to user model</t>
+  </si>
+  <si>
+    <t>reference to bookDetail via "bookID"</t>
   </si>
   <si>
     <r>
@@ -891,7 +901,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>grammarID</t>
+      <t>vocabulary</t>
     </r>
     <r>
       <rPr>
@@ -902,7 +912,6 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="12"/>
   </si>
   <si>
     <r>
@@ -916,7 +925,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>kanjiID</t>
+      <t>kanji</t>
     </r>
     <r>
       <rPr>
@@ -927,7 +936,6 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="12"/>
   </si>
   <si>
     <r>
@@ -941,7 +949,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>vocabularyID</t>
+      <t>grammar</t>
     </r>
     <r>
       <rPr>
@@ -952,50 +960,46 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>userTestResult</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>questionID</t>
-    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>reference to question via "question"</t>
+  </si>
+  <si>
+    <t>reference to article model</t>
+  </si>
+  <si>
+    <t>reference to selfLearning model</t>
+  </si>
+  <si>
+    <t>reference to bookDetail model</t>
+  </si>
+  <si>
+    <t>reference to question model</t>
+  </si>
+  <si>
+    <t>oneTime</t>
+  </si>
+  <si>
+    <t>đánh dấu tag để làm điều kiện phức hợp dùng khi select data</t>
+  </si>
+  <si>
+    <t>surveyResult</t>
+  </si>
+  <si>
+    <t>reference to survey model</t>
   </si>
   <si>
     <t>answer</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>phuong an user da tra loi</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>ket qua dung sai so voi dap an</t>
-    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Chứa kết quả người dùng trả lời survey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1071,14 +1075,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1099,7 +1095,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1121,12 +1117,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,23 +1322,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1419,33 +1471,20 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,46 +1507,43 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1515,11 +1551,52 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1527,39 +1604,75 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3913,17 +4026,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="26" customWidth="1"/>
     <col min="3" max="3" width="97" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="26"/>
+    <col min="4" max="16384" width="14.5" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
@@ -3938,70 +4051,70 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1">
+    <row r="3" spans="1:3" ht="25" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1">
+    <row r="4" spans="1:3" ht="25" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1">
+    <row r="5" spans="1:3" ht="25" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1">
+    <row r="6" spans="1:3" ht="25" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1">
+    <row r="7" spans="1:3" ht="25" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1">
+    <row r="8" spans="1:3" ht="25" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
         <v>154</v>
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1">
+    <row r="9" spans="1:3" ht="25" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1">
+    <row r="10" spans="1:3" ht="25" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="1:3" ht="24.95" customHeight="1">
+    <row r="11" spans="1:3" ht="25" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1">
+    <row r="12" spans="1:3" ht="25" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="19" t="s">
         <v>67</v>
@@ -4019,7 +4132,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4030,23 +4143,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="97" style="19" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="19"/>
+    <col min="4" max="4" width="44.1640625" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51.75">
+    <row r="1" spans="1:4" ht="34">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +4171,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5">
+    <row r="2" spans="1:4" ht="34">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4074,7 +4185,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34.5">
+    <row r="3" spans="1:4" ht="34">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4088,7 +4199,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="69">
+    <row r="4" spans="1:4" ht="68">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4102,7 +4213,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="69">
+    <row r="5" spans="1:4" ht="51">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4110,13 +4221,13 @@
         <v>27</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.5">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4130,7 +4241,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="69">
+    <row r="7" spans="1:4" ht="68">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4144,7 +4255,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34.5">
+    <row r="8" spans="1:4" ht="34">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4152,13 +4263,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.5">
+    <row r="9" spans="1:4" ht="34">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4166,13 +4277,13 @@
         <v>103</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34.5">
+    <row r="10" spans="1:4" ht="34">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4180,13 +4291,13 @@
         <v>57</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34.5">
+    <row r="11" spans="1:4" ht="34">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4200,7 +4311,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34.5">
+    <row r="12" spans="1:4" ht="34">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4208,13 +4319,13 @@
         <v>78</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34.5">
+    <row r="13" spans="1:4" ht="34">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4228,7 +4339,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34.5">
+    <row r="14" spans="1:4" ht="34">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4236,13 +4347,13 @@
         <v>73</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34.5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4270,7 +4381,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34.5">
+    <row r="17" spans="1:4" ht="34">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4284,7 +4395,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34.5">
+    <row r="18" spans="1:4" ht="34">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4298,7 +4409,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="51.75">
+    <row r="19" spans="1:4" ht="51">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4312,7 +4423,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="51.75">
+    <row r="20" spans="1:4" ht="51">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4326,7 +4437,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51.75">
+    <row r="21" spans="1:4" ht="51">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4340,7 +4451,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34.5">
+    <row r="22" spans="1:4" ht="34">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4354,7 +4465,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34.5">
+    <row r="23" spans="1:4" ht="34">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4703,9 +4814,8 @@
       <c r="B135" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4715,23 +4825,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="11" customWidth="1"/>
     <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="11"/>
+    <col min="4" max="4" width="12.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="78.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
@@ -4751,7 +4861,7 @@
         <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4816,56 +4926,56 @@
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" s="49" customFormat="1">
+    <row r="6" spans="1:6" s="42" customFormat="1">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="48"/>
-    </row>
-    <row r="7" spans="1:6" s="49" customFormat="1">
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:6" s="42" customFormat="1">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="8" spans="1:6" s="49" customFormat="1">
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:6" s="42" customFormat="1">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6">
@@ -4874,7 +4984,7 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>13</v>
@@ -4940,16 +5050,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="9"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="63" t="s">
+        <v>266</v>
+      </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6">
@@ -4957,15 +5065,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8" t="s">
-        <v>195</v>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>115</v>
+        <v>94</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>264</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -4976,47 +5086,47 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" s="49" customFormat="1">
+    <row r="16" spans="1:6">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="48"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="B16" s="12"/>
+      <c r="C16" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" s="42" customFormat="1">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6">
@@ -5025,48 +5135,48 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="34.5">
+    <row r="19" spans="1:6">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="34">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B20" s="12"/>
       <c r="C20" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6">
@@ -5074,14 +5184,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="8" t="s">
-        <v>33</v>
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="63" t="s">
+        <v>264</v>
+      </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6">
@@ -5090,13 +5204,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="8" t="s">
-        <v>157</v>
+      <c r="C22" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>265</v>
+      </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
@@ -5106,10 +5222,10 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="8" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
@@ -5119,14 +5235,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="B24" s="12"/>
       <c r="C24" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
@@ -5136,14 +5250,18 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8" t="s">
-        <v>33</v>
+      <c r="B25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="63" t="s">
+        <v>264</v>
+      </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
@@ -5152,14 +5270,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="8" t="s">
-        <v>108</v>
+      <c r="C26" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>120</v>
+        <v>94</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>265</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -5170,12 +5288,14 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="8" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6">
@@ -5183,9 +5303,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>93</v>
@@ -5198,14 +5318,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="B29" s="13"/>
       <c r="C29" s="8" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
@@ -5215,9 +5333,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="C30" s="8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>4</v>
@@ -5232,7 +5352,7 @@
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="8" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>4</v>
@@ -5247,7 +5367,7 @@
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="8" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>4</v>
@@ -5262,12 +5382,12 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9" t="s">
-        <v>267</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6">
@@ -5276,13 +5396,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="9"/>
+      <c r="C34" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9" t="s">
+        <v>267</v>
+      </c>
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6">
@@ -5292,7 +5412,7 @@
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>4</v>
@@ -5307,12 +5427,12 @@
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="9"/>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6">
@@ -5322,7 +5442,7 @@
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="9" t="s">
@@ -5337,7 +5457,7 @@
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="9" t="s">
@@ -5352,12 +5472,12 @@
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6">
@@ -5367,46 +5487,46 @@
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>231</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="69">
+    <row r="41" spans="1:6">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="68">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6">
@@ -5414,11 +5534,9 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="B43" s="13"/>
       <c r="C43" s="8" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>4</v>
@@ -5431,9 +5549,11 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="C44" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>4</v>
@@ -5448,7 +5568,7 @@
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>4</v>
@@ -5463,7 +5583,7 @@
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>4</v>
@@ -5478,7 +5598,7 @@
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="8" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>4</v>
@@ -5493,12 +5613,12 @@
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="9"/>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6">
@@ -5508,11 +5628,11 @@
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="8" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="9" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="F49" s="10"/>
     </row>
@@ -5522,13 +5642,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="12"/>
-      <c r="C50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="9"/>
+      <c r="C50" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6">
@@ -5538,46 +5658,46 @@
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>231</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="69">
+    <row r="52" spans="1:6">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="68">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="13"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6">
@@ -5585,11 +5705,9 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="B54" s="13"/>
       <c r="C54" s="8" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>4</v>
@@ -5602,9 +5720,11 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="C55" s="8" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>4</v>
@@ -5619,7 +5739,7 @@
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>4</v>
@@ -5634,12 +5754,12 @@
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9" t="s">
-        <v>265</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6">
@@ -5648,12 +5768,12 @@
         <v>57</v>
       </c>
       <c r="B58" s="12"/>
-      <c r="C58" s="8" t="s">
-        <v>6</v>
+      <c r="C58" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="9" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="F58" s="10"/>
     </row>
@@ -5664,7 +5784,7 @@
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="9" t="s">
@@ -5679,7 +5799,7 @@
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="9" t="s">
@@ -5694,12 +5814,12 @@
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6">
@@ -5709,46 +5829,46 @@
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>231</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E62" s="9"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="69">
+    <row r="63" spans="1:6">
       <c r="A63" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="68">
       <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="13"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6">
@@ -5756,53 +5876,51 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="F65" s="76"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" s="38" t="s">
+      <c r="B66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E66" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="F66" s="76"/>
+      <c r="E66" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="F66" s="64"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="6">
-        <f t="shared" ref="A67:A90" si="1">ROW()-1</f>
+        <f t="shared" ref="A67:A128" si="1">ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" s="12"/>
-      <c r="C67" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D67" s="38" t="s">
+      <c r="C67" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="F67" s="76"/>
+      <c r="E67" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="64"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="6">
@@ -5810,23 +5928,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="12"/>
-      <c r="C68" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10"/>
+      <c r="C68" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" s="64"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="6">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="8" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>4</v>
@@ -5839,11 +5959,9 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="B70" s="13"/>
       <c r="C70" s="8" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>4</v>
@@ -5856,9 +5974,11 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="C71" s="8" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>4</v>
@@ -5873,12 +5993,12 @@
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="9"/>
       <c r="F72" s="10"/>
     </row>
     <row r="73" spans="1:6">
@@ -5887,13 +6007,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="12"/>
-      <c r="C73" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="9"/>
+      <c r="C73" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="31"/>
+      <c r="E73" s="63" t="s">
+        <v>270</v>
+      </c>
       <c r="F73" s="10"/>
     </row>
     <row r="74" spans="1:6">
@@ -5903,7 +6023,7 @@
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>4</v>
@@ -5918,12 +6038,12 @@
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="9"/>
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6">
@@ -5933,7 +6053,7 @@
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="9" t="s">
@@ -5948,7 +6068,7 @@
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="9" t="s">
@@ -5963,12 +6083,12 @@
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F78" s="10"/>
     </row>
     <row r="79" spans="1:6">
@@ -5978,47 +6098,45 @@
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>231</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E79" s="9"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" ht="69">
+    <row r="80" spans="1:6">
       <c r="A80" s="6">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="68">
       <c r="A81" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="13"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="F81" s="10"/>
     </row>
@@ -6027,17 +6145,15 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="B82" s="13"/>
       <c r="C82" s="8" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F82" s="10"/>
     </row>
@@ -6046,15 +6162,17 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="8" t="s">
-        <v>12</v>
+      <c r="B83" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="F83" s="10"/>
     </row>
@@ -6065,13 +6183,13 @@
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="F84" s="10"/>
     </row>
@@ -6082,11 +6200,13 @@
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E85" s="9" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -6097,12 +6217,12 @@
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F86" s="10"/>
     </row>
     <row r="87" spans="1:6">
@@ -6112,7 +6232,7 @@
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>4</v>
@@ -6127,7 +6247,7 @@
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>4</v>
@@ -6142,7 +6262,7 @@
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>4</v>
@@ -6155,116 +6275,122 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="D90" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="78"/>
-      <c r="F90" s="79"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="6">
-        <f t="shared" ref="A91:A114" si="2">ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="10"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D91" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="66"/>
+      <c r="F91" s="67"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="D92" s="77" t="s">
+      <c r="B92" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E92" s="78"/>
-      <c r="F92" s="79"/>
+      <c r="E92" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="F92" s="10"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="12"/>
-      <c r="C93" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="D93" s="77" t="s">
+      <c r="C93" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="E93" s="78"/>
-      <c r="F93" s="79"/>
+      <c r="E93" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="F93" s="67"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="12"/>
-      <c r="C94" s="77" t="s">
-        <v>250</v>
-      </c>
-      <c r="D94" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="E94" s="78"/>
-      <c r="F94" s="79"/>
+      <c r="C94" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="F94" s="67"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="12"/>
-      <c r="C95" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="10"/>
+      <c r="C95" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="E95" s="66"/>
+      <c r="F95" s="67"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="8" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>93</v>
@@ -6272,112 +6398,118 @@
       <c r="E97" s="9"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" s="49" customFormat="1">
+    <row r="98" spans="1:6">
       <c r="A98" s="6">
-        <f t="shared" ref="A98:A135" si="3">ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B98" s="80" t="s">
-        <v>269</v>
-      </c>
-      <c r="C98" s="77" t="s">
-        <v>247</v>
-      </c>
-      <c r="D98" s="38" t="s">
+      <c r="B98" s="12"/>
+      <c r="C98" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" s="42" customFormat="1">
+      <c r="A99" s="6">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E98" s="78"/>
-      <c r="F98" s="48"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="6">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="B99" s="81"/>
-      <c r="C99" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="D99" s="77" t="s">
+      <c r="E99" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="F99" s="41"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="6">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="69"/>
+      <c r="C100" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="D100" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="E99" s="78"/>
-      <c r="F99" s="79"/>
-    </row>
-    <row r="100" spans="1:6" s="49" customFormat="1">
-      <c r="A100" s="6">
-        <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="B100" s="81"/>
-      <c r="C100" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="D100" s="38" t="s">
+      <c r="E100" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="F100" s="67"/>
+    </row>
+    <row r="101" spans="1:6" s="42" customFormat="1">
+      <c r="A101" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="69"/>
+      <c r="C101" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E100" s="78"/>
-      <c r="F100" s="48"/>
-    </row>
-    <row r="101" spans="1:6" s="49" customFormat="1">
-      <c r="A101" s="6">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="D101" s="77" t="s">
-        <v>272</v>
-      </c>
-      <c r="E101" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="F101" s="48"/>
-    </row>
-    <row r="102" spans="1:6" s="49" customFormat="1">
+      <c r="E101" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="F101" s="41"/>
+    </row>
+    <row r="102" spans="1:6" s="42" customFormat="1">
       <c r="A102" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B102" s="83"/>
-      <c r="C102" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="D102" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="E102" s="78" t="s">
-        <v>276</v>
-      </c>
-      <c r="F102" s="48"/>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="B102" s="69"/>
+      <c r="C102" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="D102" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="E102" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="F102" s="41"/>
+    </row>
+    <row r="103" spans="1:6" s="42" customFormat="1">
       <c r="A103" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="10"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="D103" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="E103" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="F103" s="41"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104" s="12"/>
+      <c r="B104" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C104" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>4</v>
@@ -6387,12 +6519,12 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>4</v>
@@ -6402,104 +6534,108 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D106" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D107" s="8"/>
       <c r="E107" s="9"/>
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B108" s="13"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D108" s="8"/>
-      <c r="E108" s="9" t="s">
-        <v>97</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="9"/>
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B109" s="80" t="s">
-        <v>246</v>
-      </c>
-      <c r="C109" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="D109" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="15"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B110" s="81"/>
-      <c r="C110" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110" s="9"/>
+      <c r="B110" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E110" s="63" t="s">
+        <v>265</v>
+      </c>
       <c r="F110" s="15"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B111" s="81"/>
-      <c r="C111" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="10"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E111" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="F111" s="15"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B112" s="81"/>
-      <c r="C112" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D112" s="38" t="s">
+      <c r="B112" s="69"/>
+      <c r="C112" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="31" t="s">
         <v>93</v>
       </c>
       <c r="E112" s="9"/>
@@ -6507,390 +6643,265 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B113" s="81"/>
-      <c r="C113" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>4</v>
+      <c r="B113" s="69"/>
+      <c r="C113" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B114" s="81"/>
-      <c r="C114" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>243</v>
+      <c r="B114" s="69"/>
+      <c r="C114" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="10"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B115" s="82" t="s">
-        <v>244</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8" t="s">
-        <v>149</v>
+      <c r="B115" s="69"/>
+      <c r="C115" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" s="49" customFormat="1">
+    <row r="116" spans="1:6">
       <c r="A116" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" s="42" customFormat="1">
+      <c r="A117" s="6">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C116" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D116" s="46" t="s">
+      <c r="C117" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="50"/>
-      <c r="F116" s="48"/>
-    </row>
-    <row r="117" spans="1:6" s="49" customFormat="1">
-      <c r="A117" s="6">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F117" s="48"/>
-    </row>
-    <row r="118" spans="1:6" s="49" customFormat="1">
+      <c r="E117" s="43"/>
+      <c r="F117" s="41"/>
+    </row>
+    <row r="118" spans="1:6" s="42" customFormat="1" ht="34">
       <c r="A118" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" s="12"/>
-      <c r="C118" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D118" s="46" t="s">
+      <c r="C118" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E118" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F118" s="41"/>
+    </row>
+    <row r="119" spans="1:6" s="42" customFormat="1">
+      <c r="A119" s="6">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="12"/>
+      <c r="C119" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="D119" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E118" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="F118" s="48"/>
-    </row>
-    <row r="119" spans="1:6" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A119" s="6">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B119" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C119" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D119" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E119" s="47" t="s">
+      <c r="E119" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="F119" s="48"/>
-    </row>
-    <row r="120" spans="1:6" s="49" customFormat="1" ht="34.5">
+      <c r="F119" s="41"/>
+    </row>
+    <row r="120" spans="1:6" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B120" s="66"/>
-      <c r="C120" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D120" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="E120" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="F120" s="48"/>
-    </row>
-    <row r="121" spans="1:6" s="49" customFormat="1">
+      <c r="B120" s="72"/>
+      <c r="C120" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="F120" s="41"/>
+    </row>
+    <row r="121" spans="1:6" s="42" customFormat="1">
       <c r="A121" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B121" s="66"/>
-      <c r="C121" s="46" t="s">
+      <c r="B121" s="72"/>
+      <c r="C121" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="50" t="s">
+      <c r="D121" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="F121" s="48"/>
-    </row>
-    <row r="122" spans="1:6" s="49" customFormat="1">
+      <c r="F121" s="41"/>
+    </row>
+    <row r="122" spans="1:6" s="42" customFormat="1">
       <c r="A122" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B122" s="66"/>
-      <c r="C122" s="46" t="s">
+      <c r="B122" s="72"/>
+      <c r="C122" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D122" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="50"/>
-      <c r="F122" s="48"/>
-    </row>
-    <row r="123" spans="1:6" s="49" customFormat="1">
+      <c r="D122" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="43"/>
+      <c r="F122" s="41"/>
+    </row>
+    <row r="123" spans="1:6" s="42" customFormat="1">
       <c r="A123" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B123" s="66"/>
-      <c r="C123" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="D123" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E123" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="F123" s="60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="49" customFormat="1">
+      <c r="B123" s="72"/>
+      <c r="C123" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D123" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="43"/>
+      <c r="F123" s="41"/>
+    </row>
+    <row r="124" spans="1:6" s="42" customFormat="1">
       <c r="A124" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B124" s="66"/>
-      <c r="C124" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D124" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" s="50"/>
-      <c r="F124" s="48"/>
-    </row>
-    <row r="125" spans="1:6" s="49" customFormat="1">
+      <c r="B124" s="72"/>
+      <c r="C124" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D124" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="43"/>
+      <c r="F124" s="41"/>
+    </row>
+    <row r="125" spans="1:6" s="42" customFormat="1">
       <c r="A125" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B125" s="66"/>
-      <c r="C125" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D125" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E125" s="59"/>
-      <c r="F125" s="60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="49" customFormat="1">
+      <c r="B125" s="72"/>
+      <c r="C125" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="43"/>
+      <c r="F125" s="41"/>
+    </row>
+    <row r="126" spans="1:6" s="42" customFormat="1">
       <c r="A126" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B126" s="66"/>
-      <c r="C126" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D126" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126" s="50"/>
-      <c r="F126" s="48"/>
-    </row>
-    <row r="127" spans="1:6" s="49" customFormat="1">
+      <c r="B126" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E126" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="F126" s="41"/>
+    </row>
+    <row r="127" spans="1:6" s="42" customFormat="1">
       <c r="A127" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B127" s="66"/>
-      <c r="C127" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D127" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E127" s="59"/>
-      <c r="F127" s="60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="49" customFormat="1">
+      <c r="B127" s="60"/>
+      <c r="C127" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E127" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="F127" s="41"/>
+    </row>
+    <row r="128" spans="1:6" s="42" customFormat="1">
       <c r="A128" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B128" s="66"/>
-      <c r="C128" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D128" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="50"/>
-      <c r="F128" s="48"/>
-    </row>
-    <row r="129" spans="1:6" s="49" customFormat="1">
-      <c r="A129" s="6">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="B129" s="66"/>
-      <c r="C129" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D129" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E129" s="59"/>
-      <c r="F129" s="60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="49" customFormat="1">
-      <c r="A130" s="6">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="B130" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C130" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="D130" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="E130" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F130" s="48"/>
-    </row>
-    <row r="131" spans="1:6" s="49" customFormat="1">
-      <c r="A131" s="6">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="B131" s="68"/>
-      <c r="C131" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D131" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="F131" s="48"/>
-    </row>
-    <row r="132" spans="1:6" s="49" customFormat="1">
-      <c r="A132" s="6">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="B132" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="C132" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D132" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E132" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="F132" s="48"/>
-    </row>
-    <row r="133" spans="1:6" s="49" customFormat="1">
-      <c r="A133" s="6">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="B133" s="69"/>
-      <c r="C133" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D133" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E133" s="50"/>
-      <c r="F133" s="48"/>
-    </row>
-    <row r="134" spans="1:6" s="49" customFormat="1">
-      <c r="A134" s="6">
-        <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="B134" s="68"/>
-      <c r="C134" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D134" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E134" s="50"/>
-      <c r="F134" s="48"/>
-    </row>
-    <row r="135" spans="1:6" s="49" customFormat="1">
-      <c r="A135" s="6">
-        <f t="shared" si="3"/>
-        <v>134</v>
-      </c>
-      <c r="B135" s="70"/>
-      <c r="C135" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D135" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E135" s="50"/>
-      <c r="F135" s="48"/>
+      <c r="B128" s="75"/>
+      <c r="C128" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="D128" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="F128" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F135"/>
-  <mergeCells count="2">
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B119:B129"/>
-  </mergeCells>
-  <phoneticPr fontId="12"/>
+  <autoFilter ref="A1:F128"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6901,23 +6912,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="11" customWidth="1"/>
     <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="11"/>
+    <col min="4" max="4" width="12.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="78.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
@@ -6937,14 +6948,14 @@
         <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="52">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -6957,10 +6968,10 @@
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52">
+      <c r="A3" s="45">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
         <v>40</v>
       </c>
@@ -6973,10 +6984,10 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="52">
+      <c r="A4" s="45">
         <v>3</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
@@ -6987,10 +6998,10 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52">
-        <v>4</v>
-      </c>
-      <c r="B5" s="56"/>
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="49"/>
       <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
@@ -7001,10 +7012,10 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="52">
+      <c r="A6" s="45">
         <v>5</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="48" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -7017,10 +7028,10 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="52">
+      <c r="A7" s="45">
         <v>6</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
@@ -7033,10 +7044,10 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="52">
+      <c r="A8" s="45">
         <v>7</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
@@ -7047,10 +7058,10 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="52">
+      <c r="A9" s="45">
         <v>8</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
@@ -7061,10 +7072,10 @@
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="52">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
@@ -7132,53 +7143,53 @@
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="49" customFormat="1">
-      <c r="A15" s="51">
+    <row r="15" spans="1:6" s="42" customFormat="1">
+      <c r="A15" s="44">
         <v>14</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="48"/>
-    </row>
-    <row r="16" spans="1:6" s="49" customFormat="1">
-      <c r="A16" s="51">
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" s="42" customFormat="1">
+      <c r="A16" s="44">
         <v>15</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="48"/>
-    </row>
-    <row r="17" spans="1:6" s="49" customFormat="1">
-      <c r="A17" s="51">
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" spans="1:6" s="42" customFormat="1">
+      <c r="A17" s="44">
         <v>16</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6">
@@ -7186,7 +7197,7 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -7252,7 +7263,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>94</v>
@@ -7296,15 +7307,15 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6">
@@ -7338,7 +7349,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="34.5">
+    <row r="28" spans="1:6" ht="34">
       <c r="A28" s="6">
         <v>23</v>
       </c>
@@ -7447,15 +7458,15 @@
         <v>33</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="D35" s="58" t="s">
+      <c r="C35" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60" t="s">
-        <v>245</v>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7670,11 +7681,11 @@
         <v>13</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="69">
+    <row r="51" spans="1:6" ht="68">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -7686,7 +7697,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F51" s="10"/>
     </row>
@@ -7830,11 +7841,11 @@
         <v>13</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="69">
+    <row r="62" spans="1:6" ht="68">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -7846,7 +7857,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F62" s="10"/>
     </row>
@@ -7990,11 +8001,11 @@
         <v>13</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="69">
+    <row r="73" spans="1:6" ht="68">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -8006,7 +8017,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F73" s="10"/>
     </row>
@@ -8210,11 +8221,11 @@
         <v>13</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="69">
+    <row r="88" spans="1:6" ht="68">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -8226,7 +8237,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -8276,7 +8287,7 @@
         <v>13</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F91" s="10"/>
     </row>
@@ -8329,15 +8340,15 @@
         <v>94</v>
       </c>
       <c r="B95" s="12"/>
-      <c r="C95" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="D95" s="58" t="s">
+      <c r="C95" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="D95" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="59"/>
-      <c r="F95" s="60" t="s">
-        <v>253</v>
+      <c r="E95" s="52"/>
+      <c r="F95" s="53" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8359,15 +8370,15 @@
         <v>96</v>
       </c>
       <c r="B97" s="12"/>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D97" s="58" t="s">
+      <c r="D97" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E97" s="59"/>
-      <c r="F97" s="60" t="s">
-        <v>253</v>
+      <c r="E97" s="52"/>
+      <c r="F97" s="53" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8389,15 +8400,15 @@
         <v>98</v>
       </c>
       <c r="B99" s="12"/>
-      <c r="C99" s="58" t="s">
+      <c r="C99" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D99" s="58" t="s">
+      <c r="D99" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E99" s="59"/>
-      <c r="F99" s="60" t="s">
-        <v>253</v>
+      <c r="E99" s="52"/>
+      <c r="F99" s="53" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -8419,21 +8430,21 @@
         <v>100</v>
       </c>
       <c r="B101" s="13"/>
-      <c r="C101" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="D101" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="62"/>
-      <c r="F101" s="63"/>
+      <c r="C101" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="55"/>
+      <c r="F101" s="56"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>33</v>
@@ -8449,15 +8460,15 @@
         <v>102</v>
       </c>
       <c r="B103" s="12"/>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="58" t="s">
+      <c r="D103" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E103" s="59"/>
-      <c r="F103" s="60" t="s">
-        <v>253</v>
+      <c r="E103" s="52"/>
+      <c r="F103" s="53" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -8465,15 +8476,15 @@
         <v>103</v>
       </c>
       <c r="B104" s="12"/>
-      <c r="C104" s="58" t="s">
+      <c r="C104" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="58" t="s">
+      <c r="D104" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="59"/>
-      <c r="F104" s="60" t="s">
-        <v>253</v>
+      <c r="E104" s="52"/>
+      <c r="F104" s="53" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -8481,15 +8492,15 @@
         <v>104</v>
       </c>
       <c r="B105" s="12"/>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="D105" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="59"/>
-      <c r="F105" s="60" t="s">
-        <v>253</v>
+      <c r="D105" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="52"/>
+      <c r="F105" s="53" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -8497,52 +8508,52 @@
         <v>105</v>
       </c>
       <c r="B106" s="12"/>
-      <c r="C106" s="58" t="s">
+      <c r="C106" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="59"/>
-      <c r="F106" s="60" t="s">
-        <v>253</v>
+      <c r="D106" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="52"/>
+      <c r="F106" s="53" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="6"/>
       <c r="B107" s="12"/>
-      <c r="C107" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="D107" s="61" t="s">
+      <c r="C107" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="D107" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E107" s="62"/>
-      <c r="F107" s="63"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="56"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="6"/>
       <c r="B108" s="12"/>
-      <c r="C108" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="D108" s="61" t="s">
+      <c r="C108" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="62"/>
-      <c r="F108" s="63"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="56"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="6"/>
       <c r="B109" s="12"/>
-      <c r="C109" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="D109" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="E109" s="62"/>
-      <c r="F109" s="63"/>
+      <c r="C109" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="D109" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="E109" s="55"/>
+      <c r="F109" s="56"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="6">
@@ -8674,7 +8685,7 @@
       <c r="A119" s="6">
         <v>115</v>
       </c>
-      <c r="B119" s="55" t="s">
+      <c r="B119" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="8" t="s">
@@ -8692,7 +8703,7 @@
       <c r="A120" s="6">
         <v>116</v>
       </c>
-      <c r="B120" s="57"/>
+      <c r="B120" s="50"/>
       <c r="C120" s="8" t="s">
         <v>33</v>
       </c>
@@ -8706,7 +8717,7 @@
       <c r="A121" s="6">
         <v>117</v>
       </c>
-      <c r="B121" s="55" t="s">
+      <c r="B121" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -8722,7 +8733,7 @@
       <c r="A122" s="6">
         <v>118</v>
       </c>
-      <c r="B122" s="56"/>
+      <c r="B122" s="49"/>
       <c r="C122" s="8" t="s">
         <v>100</v>
       </c>
@@ -8736,7 +8747,7 @@
       <c r="A123" s="6">
         <v>119</v>
       </c>
-      <c r="B123" s="57"/>
+      <c r="B123" s="50"/>
       <c r="C123" s="8" t="s">
         <v>45</v>
       </c>
@@ -8750,11 +8761,11 @@
       <c r="A124" s="6">
         <v>120</v>
       </c>
-      <c r="B124" s="53" t="s">
-        <v>246</v>
+      <c r="B124" s="46" t="s">
+        <v>238</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>4</v>
@@ -8764,9 +8775,9 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="6"/>
-      <c r="B125" s="54"/>
+      <c r="B125" s="47"/>
       <c r="C125" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>4</v>
@@ -8778,7 +8789,7 @@
       <c r="A126" s="6">
         <v>121</v>
       </c>
-      <c r="B126" s="54"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="8" t="s">
         <v>36</v>
       </c>
@@ -8792,7 +8803,7 @@
       <c r="A127" s="6">
         <v>122</v>
       </c>
-      <c r="B127" s="54"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="8" t="s">
         <v>37</v>
       </c>
@@ -8806,9 +8817,9 @@
       <c r="A128" s="6">
         <v>123</v>
       </c>
-      <c r="B128" s="54"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>4</v>
@@ -8820,12 +8831,12 @@
       <c r="A129" s="6">
         <v>124</v>
       </c>
-      <c r="B129" s="54"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="10"/>
@@ -8834,11 +8845,11 @@
       <c r="A130" s="6">
         <v>120</v>
       </c>
-      <c r="B130" s="55" t="s">
-        <v>252</v>
+      <c r="B130" s="48" t="s">
+        <v>244</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>4</v>
@@ -8850,9 +8861,9 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="6"/>
-      <c r="B131" s="56"/>
+      <c r="B131" s="49"/>
       <c r="C131" s="14" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>4</v>
@@ -8866,7 +8877,7 @@
       <c r="A132" s="6">
         <v>121</v>
       </c>
-      <c r="B132" s="56"/>
+      <c r="B132" s="49"/>
       <c r="C132" s="8" t="s">
         <v>71</v>
       </c>
@@ -8880,7 +8891,7 @@
       <c r="A133" s="6">
         <v>122</v>
       </c>
-      <c r="B133" s="56"/>
+      <c r="B133" s="49"/>
       <c r="C133" s="8" t="s">
         <v>36</v>
       </c>
@@ -8894,7 +8905,7 @@
       <c r="A134" s="6">
         <v>123</v>
       </c>
-      <c r="B134" s="56"/>
+      <c r="B134" s="49"/>
       <c r="C134" s="8" t="s">
         <v>37</v>
       </c>
@@ -8908,7 +8919,7 @@
       <c r="A135" s="6">
         <v>124</v>
       </c>
-      <c r="B135" s="56"/>
+      <c r="B135" s="49"/>
       <c r="C135" s="8" t="s">
         <v>49</v>
       </c>
@@ -8922,15 +8933,15 @@
       <c r="A136" s="6">
         <v>125</v>
       </c>
-      <c r="B136" s="56"/>
+      <c r="B136" s="49"/>
       <c r="C136" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F136" s="10"/>
     </row>
@@ -8938,15 +8949,15 @@
       <c r="A137" s="6">
         <v>126</v>
       </c>
-      <c r="B137" s="56"/>
+      <c r="B137" s="49"/>
       <c r="C137" s="14" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F137" s="10"/>
     </row>
@@ -8954,9 +8965,9 @@
       <c r="A138" s="6">
         <v>126</v>
       </c>
-      <c r="B138" s="57"/>
+      <c r="B138" s="50"/>
       <c r="C138" s="14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>13</v>
@@ -8968,17 +8979,17 @@
       <c r="A139" s="6">
         <v>127</v>
       </c>
-      <c r="B139" s="55" t="s">
-        <v>238</v>
+      <c r="B139" s="48" t="s">
+        <v>230</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F139" s="10"/>
     </row>
@@ -8986,7 +8997,7 @@
       <c r="A140" s="6">
         <v>128</v>
       </c>
-      <c r="B140" s="56"/>
+      <c r="B140" s="49"/>
       <c r="C140" s="8" t="s">
         <v>33</v>
       </c>
@@ -9000,9 +9011,9 @@
       <c r="A141" s="6">
         <v>129</v>
       </c>
-      <c r="B141" s="56"/>
+      <c r="B141" s="49"/>
       <c r="C141" s="8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>93</v>
@@ -9014,9 +9025,9 @@
       <c r="A142" s="6">
         <v>130</v>
       </c>
-      <c r="B142" s="57"/>
+      <c r="B142" s="50"/>
       <c r="C142" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>93</v>
@@ -9028,7 +9039,7 @@
       <c r="A143" s="6">
         <v>131</v>
       </c>
-      <c r="B143" s="55" t="s">
+      <c r="B143" s="48" t="s">
         <v>52</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -9038,7 +9049,7 @@
         <v>94</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F143" s="10"/>
     </row>
@@ -9046,7 +9057,7 @@
       <c r="A144" s="6">
         <v>132</v>
       </c>
-      <c r="B144" s="56"/>
+      <c r="B144" s="49"/>
       <c r="C144" s="8" t="s">
         <v>29</v>
       </c>
@@ -9060,7 +9071,7 @@
       <c r="A145" s="6">
         <v>133</v>
       </c>
-      <c r="B145" s="55" t="s">
+      <c r="B145" s="48" t="s">
         <v>53</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -9076,7 +9087,7 @@
       <c r="A146" s="6">
         <v>134</v>
       </c>
-      <c r="B146" s="56"/>
+      <c r="B146" s="49"/>
       <c r="C146" s="8" t="s">
         <v>100</v>
       </c>
@@ -9090,7 +9101,7 @@
       <c r="A147" s="6">
         <v>135</v>
       </c>
-      <c r="B147" s="57"/>
+      <c r="B147" s="50"/>
       <c r="C147" s="8" t="s">
         <v>45</v>
       </c>
@@ -9104,7 +9115,7 @@
       <c r="A148" s="6">
         <v>136</v>
       </c>
-      <c r="B148" s="55" t="s">
+      <c r="B148" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -9120,7 +9131,7 @@
       <c r="A149" s="6">
         <v>137</v>
       </c>
-      <c r="B149" s="56"/>
+      <c r="B149" s="49"/>
       <c r="C149" s="8" t="s">
         <v>33</v>
       </c>
@@ -9134,7 +9145,7 @@
       <c r="A150" s="6">
         <v>138</v>
       </c>
-      <c r="B150" s="57"/>
+      <c r="B150" s="50"/>
       <c r="C150" s="8" t="s">
         <v>157</v>
       </c>
@@ -9148,8 +9159,8 @@
       <c r="A151" s="6">
         <v>139</v>
       </c>
-      <c r="B151" s="43" t="s">
-        <v>244</v>
+      <c r="B151" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="8" t="s">
@@ -9158,611 +9169,611 @@
       <c r="E151" s="9"/>
       <c r="F151" s="10"/>
     </row>
-    <row r="152" spans="1:6" s="49" customFormat="1">
-      <c r="A152" s="44">
+    <row r="152" spans="1:6" s="42" customFormat="1">
+      <c r="A152" s="37">
         <v>140</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C152" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D152" s="46" t="s">
+      <c r="C152" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D152" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E152" s="50"/>
-      <c r="F152" s="48"/>
-    </row>
-    <row r="153" spans="1:6" s="49" customFormat="1">
-      <c r="A153" s="44">
+      <c r="E152" s="43"/>
+      <c r="F152" s="41"/>
+    </row>
+    <row r="153" spans="1:6" s="42" customFormat="1">
+      <c r="A153" s="37">
         <v>141</v>
       </c>
       <c r="B153" s="12"/>
-      <c r="C153" s="46" t="s">
+      <c r="C153" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E153" s="50" t="s">
+      <c r="D153" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="F153" s="48"/>
-    </row>
-    <row r="154" spans="1:6" s="49" customFormat="1">
-      <c r="A154" s="44">
+      <c r="F153" s="41"/>
+    </row>
+    <row r="154" spans="1:6" s="42" customFormat="1">
+      <c r="A154" s="37">
         <v>142</v>
       </c>
       <c r="B154" s="12"/>
-      <c r="C154" s="46" t="s">
+      <c r="C154" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="D154" s="46" t="s">
+      <c r="D154" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E154" s="47" t="s">
+      <c r="E154" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="F154" s="48"/>
-    </row>
-    <row r="155" spans="1:6" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A155" s="44">
+      <c r="F154" s="41"/>
+    </row>
+    <row r="155" spans="1:6" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A155" s="37">
         <v>143</v>
       </c>
-      <c r="B155" s="66" t="s">
+      <c r="B155" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="C155" s="46" t="s">
+      <c r="C155" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D155" s="46" t="s">
+      <c r="D155" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E155" s="47" t="s">
+      <c r="E155" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="F155" s="48"/>
-    </row>
-    <row r="156" spans="1:6" s="49" customFormat="1" ht="34.5">
-      <c r="A156" s="44">
+      <c r="F155" s="41"/>
+    </row>
+    <row r="156" spans="1:6" s="42" customFormat="1" ht="34">
+      <c r="A156" s="37">
         <v>144</v>
       </c>
-      <c r="B156" s="66"/>
-      <c r="C156" s="46" t="s">
+      <c r="B156" s="76"/>
+      <c r="C156" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="46" t="s">
+      <c r="D156" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E156" s="47" t="s">
+      <c r="E156" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F156" s="48"/>
-    </row>
-    <row r="157" spans="1:6" s="49" customFormat="1">
-      <c r="A157" s="44">
+      <c r="F156" s="41"/>
+    </row>
+    <row r="157" spans="1:6" s="42" customFormat="1">
+      <c r="A157" s="37">
         <v>145</v>
       </c>
-      <c r="B157" s="66"/>
-      <c r="C157" s="46" t="s">
+      <c r="B157" s="76"/>
+      <c r="C157" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" s="50" t="s">
+      <c r="D157" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="F157" s="48"/>
-    </row>
-    <row r="158" spans="1:6" s="49" customFormat="1">
-      <c r="A158" s="44">
+      <c r="F157" s="41"/>
+    </row>
+    <row r="158" spans="1:6" s="42" customFormat="1">
+      <c r="A158" s="37">
         <v>146</v>
       </c>
-      <c r="B158" s="66"/>
-      <c r="C158" s="46" t="s">
+      <c r="B158" s="76"/>
+      <c r="C158" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D158" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" s="50"/>
-      <c r="F158" s="48"/>
-    </row>
-    <row r="159" spans="1:6" s="49" customFormat="1">
-      <c r="A159" s="44">
+      <c r="D158" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="43"/>
+      <c r="F158" s="41"/>
+    </row>
+    <row r="159" spans="1:6" s="42" customFormat="1">
+      <c r="A159" s="37">
         <v>147</v>
       </c>
-      <c r="B159" s="66"/>
-      <c r="C159" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="D159" s="58" t="s">
+      <c r="B159" s="76"/>
+      <c r="C159" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="D159" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E159" s="59" t="s">
+      <c r="E159" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="F159" s="60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" s="49" customFormat="1">
-      <c r="A160" s="44">
+      <c r="F159" s="53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="42" customFormat="1">
+      <c r="A160" s="37">
         <v>149</v>
       </c>
-      <c r="B160" s="66"/>
-      <c r="C160" s="46" t="s">
+      <c r="B160" s="76"/>
+      <c r="C160" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D160" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="50"/>
-      <c r="F160" s="48"/>
-    </row>
-    <row r="161" spans="1:6" s="49" customFormat="1">
-      <c r="A161" s="44">
+      <c r="D160" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="43"/>
+      <c r="F160" s="41"/>
+    </row>
+    <row r="161" spans="1:6" s="42" customFormat="1">
+      <c r="A161" s="37">
         <v>150</v>
       </c>
-      <c r="B161" s="66"/>
-      <c r="C161" s="58" t="s">
+      <c r="B161" s="76"/>
+      <c r="C161" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D161" s="58" t="s">
+      <c r="D161" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E161" s="59"/>
-      <c r="F161" s="60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" s="49" customFormat="1">
-      <c r="A162" s="44">
+      <c r="E161" s="52"/>
+      <c r="F161" s="53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="42" customFormat="1">
+      <c r="A162" s="37">
         <v>152</v>
       </c>
-      <c r="B162" s="66"/>
-      <c r="C162" s="46" t="s">
+      <c r="B162" s="76"/>
+      <c r="C162" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D162" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E162" s="50"/>
-      <c r="F162" s="48"/>
-    </row>
-    <row r="163" spans="1:6" s="49" customFormat="1">
-      <c r="A163" s="44">
+      <c r="D162" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="43"/>
+      <c r="F162" s="41"/>
+    </row>
+    <row r="163" spans="1:6" s="42" customFormat="1">
+      <c r="A163" s="37">
         <v>153</v>
       </c>
-      <c r="B163" s="66"/>
-      <c r="C163" s="58" t="s">
+      <c r="B163" s="76"/>
+      <c r="C163" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="D163" s="58" t="s">
+      <c r="D163" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E163" s="59"/>
-      <c r="F163" s="60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" s="49" customFormat="1">
-      <c r="A164" s="44">
+      <c r="E163" s="52"/>
+      <c r="F163" s="53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="42" customFormat="1">
+      <c r="A164" s="37">
         <v>155</v>
       </c>
-      <c r="B164" s="66"/>
-      <c r="C164" s="46" t="s">
+      <c r="B164" s="76"/>
+      <c r="C164" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D164" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E164" s="50"/>
-      <c r="F164" s="48"/>
-    </row>
-    <row r="165" spans="1:6" s="49" customFormat="1">
-      <c r="A165" s="44">
+      <c r="D164" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="43"/>
+      <c r="F164" s="41"/>
+    </row>
+    <row r="165" spans="1:6" s="42" customFormat="1">
+      <c r="A165" s="37">
         <v>156</v>
       </c>
-      <c r="B165" s="66"/>
-      <c r="C165" s="58" t="s">
+      <c r="B165" s="76"/>
+      <c r="C165" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="D165" s="58" t="s">
+      <c r="D165" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E165" s="59"/>
-      <c r="F165" s="60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" s="49" customFormat="1">
-      <c r="A166" s="44">
+      <c r="E165" s="52"/>
+      <c r="F165" s="53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="42" customFormat="1">
+      <c r="A166" s="37">
         <v>163</v>
       </c>
-      <c r="B166" s="67" t="s">
+      <c r="B166" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C166" s="46" t="s">
+      <c r="C166" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D166" s="46" t="s">
+      <c r="D166" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E166" s="50" t="s">
+      <c r="E166" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="F166" s="48"/>
-    </row>
-    <row r="167" spans="1:6" s="49" customFormat="1">
-      <c r="A167" s="44">
+      <c r="F166" s="41"/>
+    </row>
+    <row r="167" spans="1:6" s="42" customFormat="1">
+      <c r="A167" s="37">
         <v>165</v>
       </c>
-      <c r="B167" s="68"/>
-      <c r="C167" s="46" t="s">
+      <c r="B167" s="60"/>
+      <c r="C167" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D167" s="46" t="s">
+      <c r="D167" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="50" t="s">
+      <c r="E167" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="F167" s="48"/>
-    </row>
-    <row r="168" spans="1:6" s="49" customFormat="1">
-      <c r="A168" s="44">
+      <c r="F167" s="41"/>
+    </row>
+    <row r="168" spans="1:6" s="42" customFormat="1">
+      <c r="A168" s="37">
         <v>166</v>
       </c>
-      <c r="B168" s="69" t="s">
+      <c r="B168" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="C168" s="46" t="s">
+      <c r="C168" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="D168" s="46" t="s">
+      <c r="D168" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E168" s="50" t="s">
+      <c r="E168" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="F168" s="48"/>
-    </row>
-    <row r="169" spans="1:6" s="49" customFormat="1">
-      <c r="A169" s="44">
+      <c r="F168" s="41"/>
+    </row>
+    <row r="169" spans="1:6" s="42" customFormat="1">
+      <c r="A169" s="37">
         <v>167</v>
       </c>
-      <c r="B169" s="69"/>
-      <c r="C169" s="46" t="s">
+      <c r="B169" s="77"/>
+      <c r="C169" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="D169" s="46" t="s">
+      <c r="D169" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E169" s="50"/>
-      <c r="F169" s="48"/>
-    </row>
-    <row r="170" spans="1:6" s="49" customFormat="1">
-      <c r="A170" s="44">
+      <c r="E169" s="43"/>
+      <c r="F169" s="41"/>
+    </row>
+    <row r="170" spans="1:6" s="42" customFormat="1">
+      <c r="A170" s="37">
         <v>168</v>
       </c>
-      <c r="B170" s="68"/>
-      <c r="C170" s="46" t="s">
+      <c r="B170" s="60"/>
+      <c r="C170" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D170" s="46" t="s">
+      <c r="D170" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E170" s="50"/>
-      <c r="F170" s="48"/>
-    </row>
-    <row r="171" spans="1:6" s="49" customFormat="1">
-      <c r="A171" s="44">
+      <c r="E170" s="43"/>
+      <c r="F170" s="41"/>
+    </row>
+    <row r="171" spans="1:6" s="42" customFormat="1">
+      <c r="A171" s="37">
         <v>169</v>
       </c>
-      <c r="B171" s="70"/>
-      <c r="C171" s="46" t="s">
+      <c r="B171" s="61"/>
+      <c r="C171" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D171" s="46" t="s">
+      <c r="D171" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E171" s="50"/>
-      <c r="F171" s="48"/>
-    </row>
-    <row r="172" spans="1:6" s="49" customFormat="1">
-      <c r="A172" s="44">
+      <c r="E171" s="43"/>
+      <c r="F171" s="41"/>
+    </row>
+    <row r="172" spans="1:6" s="42" customFormat="1">
+      <c r="A172" s="37">
         <v>170</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C172" s="46" t="s">
+      <c r="C172" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="D172" s="46" t="s">
+      <c r="D172" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E172" s="50" t="s">
+      <c r="E172" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F172" s="48"/>
-    </row>
-    <row r="173" spans="1:6" s="49" customFormat="1">
-      <c r="A173" s="44">
+      <c r="F172" s="41"/>
+    </row>
+    <row r="173" spans="1:6" s="42" customFormat="1">
+      <c r="A173" s="37">
         <v>171</v>
       </c>
-      <c r="B173" s="71"/>
-      <c r="C173" s="46" t="s">
+      <c r="B173" s="78"/>
+      <c r="C173" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="D173" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E173" s="50"/>
-      <c r="F173" s="48"/>
-    </row>
-    <row r="174" spans="1:6" s="49" customFormat="1">
-      <c r="A174" s="44">
+      <c r="D173" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="43"/>
+      <c r="F173" s="41"/>
+    </row>
+    <row r="174" spans="1:6" s="42" customFormat="1">
+      <c r="A174" s="37">
         <v>172</v>
       </c>
-      <c r="B174" s="71"/>
-      <c r="C174" s="46" t="s">
+      <c r="B174" s="78"/>
+      <c r="C174" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="D174" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" s="50"/>
-      <c r="F174" s="48"/>
-    </row>
-    <row r="175" spans="1:6" s="49" customFormat="1">
-      <c r="A175" s="44">
+      <c r="D174" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="43"/>
+      <c r="F174" s="41"/>
+    </row>
+    <row r="175" spans="1:6" s="42" customFormat="1">
+      <c r="A175" s="37">
         <v>173</v>
       </c>
-      <c r="B175" s="71"/>
-      <c r="C175" s="46" t="s">
+      <c r="B175" s="78"/>
+      <c r="C175" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D175" s="46" t="s">
+      <c r="D175" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E175" s="50"/>
-      <c r="F175" s="48"/>
-    </row>
-    <row r="176" spans="1:6" s="49" customFormat="1">
-      <c r="A176" s="44">
+      <c r="E175" s="43"/>
+      <c r="F175" s="41"/>
+    </row>
+    <row r="176" spans="1:6" s="42" customFormat="1">
+      <c r="A176" s="37">
         <v>174</v>
       </c>
-      <c r="B176" s="71"/>
-      <c r="C176" s="46" t="s">
+      <c r="B176" s="78"/>
+      <c r="C176" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D176" s="46" t="s">
+      <c r="D176" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E176" s="50" t="s">
+      <c r="E176" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="F176" s="48"/>
-    </row>
-    <row r="177" spans="1:6" s="49" customFormat="1">
-      <c r="A177" s="44">
+      <c r="F176" s="41"/>
+    </row>
+    <row r="177" spans="1:6" s="42" customFormat="1">
+      <c r="A177" s="37">
         <v>175</v>
       </c>
-      <c r="B177" s="71"/>
-      <c r="C177" s="46" t="s">
+      <c r="B177" s="78"/>
+      <c r="C177" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D177" s="46" t="s">
+      <c r="D177" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E177" s="50"/>
-      <c r="F177" s="48"/>
-    </row>
-    <row r="178" spans="1:6" s="49" customFormat="1">
-      <c r="A178" s="44">
+      <c r="E177" s="43"/>
+      <c r="F177" s="41"/>
+    </row>
+    <row r="178" spans="1:6" s="42" customFormat="1">
+      <c r="A178" s="37">
         <v>176</v>
       </c>
       <c r="B178" s="13"/>
-      <c r="C178" s="46" t="s">
+      <c r="C178" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D178" s="46" t="s">
+      <c r="D178" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E178" s="50"/>
-      <c r="F178" s="48"/>
-    </row>
-    <row r="179" spans="1:6" s="49" customFormat="1">
-      <c r="A179" s="44">
+      <c r="E178" s="43"/>
+      <c r="F178" s="41"/>
+    </row>
+    <row r="179" spans="1:6" s="42" customFormat="1">
+      <c r="A179" s="37">
         <v>177</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C179" s="46" t="s">
+      <c r="C179" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="D179" s="46" t="s">
+      <c r="D179" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E179" s="50" t="s">
+      <c r="E179" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="F179" s="48"/>
-    </row>
-    <row r="180" spans="1:6" s="49" customFormat="1">
-      <c r="A180" s="44">
+      <c r="F179" s="41"/>
+    </row>
+    <row r="180" spans="1:6" s="42" customFormat="1">
+      <c r="A180" s="37">
         <v>178</v>
       </c>
       <c r="B180" s="12"/>
-      <c r="C180" s="46" t="s">
+      <c r="C180" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="D180" s="46" t="s">
+      <c r="D180" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E180" s="50" t="s">
+      <c r="E180" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="F180" s="48"/>
-    </row>
-    <row r="181" spans="1:6" s="49" customFormat="1" ht="34.5">
-      <c r="A181" s="44"/>
+      <c r="F180" s="41"/>
+    </row>
+    <row r="181" spans="1:6" s="42" customFormat="1" ht="34">
+      <c r="A181" s="37"/>
       <c r="B181" s="12"/>
-      <c r="C181" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D181" s="46" t="s">
+      <c r="C181" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D181" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E181" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="F181" s="48"/>
-    </row>
-    <row r="182" spans="1:6" s="49" customFormat="1">
-      <c r="A182" s="44">
+      <c r="E181" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="F181" s="41"/>
+    </row>
+    <row r="182" spans="1:6" s="42" customFormat="1">
+      <c r="A182" s="37">
         <v>179</v>
       </c>
-      <c r="B182" s="66" t="s">
+      <c r="B182" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="C182" s="46" t="s">
+      <c r="C182" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="D182" s="46" t="s">
+      <c r="D182" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E182" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="F182" s="48"/>
-    </row>
-    <row r="183" spans="1:6" s="49" customFormat="1">
-      <c r="A183" s="44">
+      <c r="E182" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F182" s="41"/>
+    </row>
+    <row r="183" spans="1:6" s="42" customFormat="1">
+      <c r="A183" s="37">
         <v>180</v>
       </c>
-      <c r="B183" s="66"/>
-      <c r="C183" s="46" t="s">
+      <c r="B183" s="76"/>
+      <c r="C183" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="D183" s="46" t="s">
+      <c r="D183" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E183" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="F183" s="48"/>
-    </row>
-    <row r="184" spans="1:6" s="49" customFormat="1">
-      <c r="A184" s="44">
+      <c r="E183" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F183" s="41"/>
+    </row>
+    <row r="184" spans="1:6" s="42" customFormat="1">
+      <c r="A184" s="37">
         <v>181</v>
       </c>
-      <c r="B184" s="66"/>
-      <c r="C184" s="46" t="s">
+      <c r="B184" s="76"/>
+      <c r="C184" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D184" s="46" t="s">
+      <c r="D184" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E184" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="F184" s="48"/>
-    </row>
-    <row r="185" spans="1:6" s="49" customFormat="1">
-      <c r="A185" s="44">
+      <c r="E184" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F184" s="41"/>
+    </row>
+    <row r="185" spans="1:6" s="42" customFormat="1">
+      <c r="A185" s="37">
         <v>182</v>
       </c>
-      <c r="B185" s="72"/>
-      <c r="C185" s="46" t="s">
+      <c r="B185" s="79"/>
+      <c r="C185" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D185" s="46" t="s">
+      <c r="D185" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E185" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="F185" s="48"/>
-    </row>
-    <row r="186" spans="1:6" s="49" customFormat="1">
-      <c r="A186" s="44">
+      <c r="E185" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F185" s="41"/>
+    </row>
+    <row r="186" spans="1:6" s="42" customFormat="1">
+      <c r="A186" s="37">
         <v>183</v>
       </c>
-      <c r="B186" s="67" t="s">
+      <c r="B186" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="46" t="s">
+      <c r="C186" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D186" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E186" s="50"/>
-      <c r="F186" s="48"/>
-    </row>
-    <row r="187" spans="1:6" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A187" s="44">
+      <c r="D186" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="43"/>
+      <c r="F186" s="41"/>
+    </row>
+    <row r="187" spans="1:6" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A187" s="37">
         <v>184</v>
       </c>
-      <c r="B187" s="73"/>
-      <c r="C187" s="46" t="s">
+      <c r="B187" s="62"/>
+      <c r="C187" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="D187" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E187" s="64"/>
-      <c r="F187" s="48"/>
-    </row>
-    <row r="188" spans="1:6" s="49" customFormat="1">
-      <c r="A188" s="44">
+      <c r="D187" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="57"/>
+      <c r="F187" s="41"/>
+    </row>
+    <row r="188" spans="1:6" s="42" customFormat="1">
+      <c r="A188" s="37">
         <v>185</v>
       </c>
-      <c r="B188" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="C188" s="46" t="s">
+      <c r="B188" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C188" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="D188" s="46" t="s">
+      <c r="D188" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E188" s="50"/>
-      <c r="F188" s="48"/>
-    </row>
-    <row r="189" spans="1:6" s="49" customFormat="1">
-      <c r="A189" s="44">
+      <c r="E188" s="43"/>
+      <c r="F188" s="41"/>
+    </row>
+    <row r="189" spans="1:6" s="42" customFormat="1">
+      <c r="A189" s="37">
         <v>186</v>
       </c>
-      <c r="B189" s="69"/>
-      <c r="C189" s="46" t="s">
+      <c r="B189" s="77"/>
+      <c r="C189" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D189" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E189" s="64"/>
-      <c r="F189" s="48"/>
-    </row>
-    <row r="190" spans="1:6" s="49" customFormat="1">
-      <c r="A190" s="44">
+      <c r="D189" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="57"/>
+      <c r="F189" s="41"/>
+    </row>
+    <row r="190" spans="1:6" s="42" customFormat="1">
+      <c r="A190" s="37">
         <v>187</v>
       </c>
-      <c r="B190" s="74"/>
-      <c r="C190" s="65" t="s">
+      <c r="B190" s="80"/>
+      <c r="C190" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D190" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="50"/>
-      <c r="F190" s="48"/>
+      <c r="D190" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" s="43"/>
+      <c r="F190" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F190"/>
@@ -9773,46 +9784,51 @@
     <mergeCell ref="B182:B185"/>
     <mergeCell ref="B188:B190"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="2.42578125" style="30"/>
+    <col min="1" max="16384" width="2.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="17.25">
+    <row r="2" spans="1:1" ht="17">
       <c r="A2" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25">
+    <row r="35" spans="1:2" ht="17">
       <c r="A35" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="29"/>
     </row>
-    <row r="45" spans="1:2" ht="17.25">
+    <row r="45" spans="1:2" ht="17">
       <c r="A45" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17.25">
+    <row r="66" spans="1:1" ht="17">
       <c r="A66" s="29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="17.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="17">
       <c r="A77" s="29" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -9825,368 +9841,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33" style="36" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="11" style="37" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="34">
-        <v>5</v>
-      </c>
-      <c r="C2" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="34">
-        <v>5</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="34">
-        <v>70</v>
-      </c>
-      <c r="C3" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="34">
-        <v>80</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="34">
-        <v>1</v>
-      </c>
-      <c r="C5" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="34">
-        <v>1</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TBL_DESC (BAK)'!$A$1:$F$190</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="284">
   <si>
     <t>No</t>
   </si>
@@ -994,12 +994,21 @@
   <si>
     <t>Chứa kết quả người dùng trả lời survey</t>
   </si>
+  <si>
+    <t>bookDetails</t>
+  </si>
+  <si>
+    <t>examples</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4019,7 +4028,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4031,12 +4040,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="26" customWidth="1"/>
     <col min="3" max="3" width="97" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="14.5" style="26"/>
+    <col min="4" max="16384" width="14.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
@@ -4051,70 +4060,70 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="25" customHeight="1">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" ht="25" customHeight="1">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="25" customHeight="1">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3" ht="25" customHeight="1">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" ht="25" customHeight="1">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:3" ht="25" customHeight="1">
+    <row r="8" spans="1:3" ht="24.95" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
         <v>154</v>
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="25" customHeight="1">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" ht="25" customHeight="1">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="1:3" ht="25" customHeight="1">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:3" ht="25" customHeight="1">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="19" t="s">
         <v>67</v>
@@ -4148,16 +4157,16 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
     <col min="3" max="3" width="97" style="19" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="19"/>
+    <col min="4" max="4" width="44.140625" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34">
+    <row r="1" spans="1:4" ht="51.75">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4171,7 +4180,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34">
+    <row r="2" spans="1:4" ht="34.5">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34">
+    <row r="3" spans="1:4" ht="34.5">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4199,7 +4208,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="68">
+    <row r="4" spans="1:4" ht="69">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4213,7 +4222,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51">
+    <row r="5" spans="1:4" ht="69">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4227,7 +4236,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="34.5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4241,7 +4250,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68">
+    <row r="7" spans="1:4" ht="69">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4255,7 +4264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34">
+    <row r="8" spans="1:4" ht="34.5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4269,7 +4278,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34">
+    <row r="9" spans="1:4" ht="34.5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34">
+    <row r="10" spans="1:4" ht="34.5">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4297,7 +4306,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34">
+    <row r="11" spans="1:4" ht="34.5">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4311,7 +4320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34">
+    <row r="12" spans="1:4" ht="34.5">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34">
+    <row r="13" spans="1:4" ht="34.5">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4339,7 +4348,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34">
+    <row r="14" spans="1:4" ht="34.5">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4353,7 +4362,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34">
+    <row r="15" spans="1:4" ht="34.5">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4381,7 +4390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34">
+    <row r="17" spans="1:4" ht="34.5">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4395,7 +4404,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34">
+    <row r="18" spans="1:4" ht="34.5">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4409,7 +4418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="51">
+    <row r="19" spans="1:4" ht="51.75">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4423,7 +4432,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="51">
+    <row r="20" spans="1:4" ht="51.75">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4437,7 +4446,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51">
+    <row r="21" spans="1:4" ht="51.75">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34">
+    <row r="22" spans="1:4" ht="34.5">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4465,7 +4474,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34">
+    <row r="23" spans="1:4" ht="34.5">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4829,19 +4838,19 @@
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="11"/>
+    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
@@ -5052,7 +5061,7 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="31" t="s">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="63" t="s">
@@ -5162,7 +5171,7 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="34">
+    <row r="20" spans="1:6" ht="34.5">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5397,7 +5406,7 @@
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="31" t="s">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="9" t="s">
@@ -5512,7 +5521,7 @@
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="68">
+    <row r="42" spans="1:6" ht="86.25">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5643,7 +5652,7 @@
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="31" t="s">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="9" t="s">
@@ -5683,7 +5692,7 @@
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="68">
+    <row r="53" spans="1:6" ht="86.25">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5769,7 +5778,7 @@
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="31" t="s">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="9" t="s">
@@ -5854,7 +5863,7 @@
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="68">
+    <row r="64" spans="1:6" ht="86.25">
       <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -6008,7 +6017,7 @@
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="31" t="s">
-        <v>2</v>
+        <v>283</v>
       </c>
       <c r="D73" s="31"/>
       <c r="E73" s="63" t="s">
@@ -6123,7 +6132,7 @@
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="68">
+    <row r="81" spans="1:6" ht="86.25">
       <c r="A81" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6718,7 +6727,7 @@
       <c r="E117" s="43"/>
       <c r="F117" s="41"/>
     </row>
-    <row r="118" spans="1:6" s="42" customFormat="1" ht="34">
+    <row r="118" spans="1:6" s="42" customFormat="1" ht="34.5">
       <c r="A118" s="6">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6920,15 +6929,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="11"/>
+    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
@@ -7349,7 +7358,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="34">
+    <row r="28" spans="1:6" ht="34.5">
       <c r="A28" s="6">
         <v>23</v>
       </c>
@@ -7685,7 +7694,7 @@
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="68">
+    <row r="51" spans="1:6" ht="86.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -7845,7 +7854,7 @@
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="68">
+    <row r="62" spans="1:6" ht="86.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -8005,7 +8014,7 @@
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="68">
+    <row r="73" spans="1:6" ht="86.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -8225,7 +8234,7 @@
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="68">
+    <row r="88" spans="1:6" ht="86.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -9235,7 +9244,7 @@
       </c>
       <c r="F155" s="41"/>
     </row>
-    <row r="156" spans="1:6" s="42" customFormat="1" ht="34">
+    <row r="156" spans="1:6" s="42" customFormat="1" ht="34.5">
       <c r="A156" s="37">
         <v>144</v>
       </c>
@@ -9621,7 +9630,7 @@
       </c>
       <c r="F180" s="41"/>
     </row>
-    <row r="181" spans="1:6" s="42" customFormat="1" ht="34">
+    <row r="181" spans="1:6" s="42" customFormat="1" ht="51.75">
       <c r="A181" s="37"/>
       <c r="B181" s="12"/>
       <c r="C181" s="39" t="s">
@@ -9800,33 +9809,33 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="30"/>
+    <col min="1" max="16384" width="2.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="17">
+    <row r="2" spans="1:1" ht="17.25">
       <c r="A2" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17">
+    <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="29"/>
     </row>
-    <row r="45" spans="1:2" ht="17">
+    <row r="45" spans="1:2" ht="17.25">
       <c r="A45" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17">
+    <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="29" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="17">
+    <row r="77" spans="1:1" ht="17.25">
       <c r="A77" s="29" t="s">
         <v>204</v>
       </c>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -14,7 +14,7 @@
     <sheet name="TBL_Relation" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TBL_DESC (BAK)'!$A$1:$F$190</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="284">
   <si>
     <t>No</t>
   </si>
@@ -1398,7 +1398,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1615,6 +1615,20 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -4028,7 +4042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4835,11 +4849,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
@@ -4892,7 +4906,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A67" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="12"/>
@@ -5290,22 +5304,19 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="10"/>
+    <row r="27" spans="1:6" s="84" customFormat="1">
+      <c r="A27" s="81"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="83"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6">
@@ -5314,12 +5325,14 @@
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="8" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6">
@@ -5327,9 +5340,9 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>93</v>
@@ -5342,14 +5355,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="B30" s="13"/>
       <c r="C30" s="8" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
@@ -5359,9 +5370,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="C31" s="8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>4</v>
@@ -5376,7 +5389,7 @@
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="8" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>4</v>
@@ -5391,7 +5404,7 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>4</v>
@@ -5405,13 +5418,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9" t="s">
-        <v>267</v>
-      </c>
+      <c r="C34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6">
@@ -5420,13 +5433,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="9"/>
+      <c r="C35" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9" t="s">
+        <v>267</v>
+      </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6">
@@ -5436,7 +5449,7 @@
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>4</v>
@@ -5451,12 +5464,12 @@
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="9"/>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6">
@@ -5466,7 +5479,7 @@
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="9" t="s">
@@ -5481,7 +5494,7 @@
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="9" t="s">
@@ -5496,12 +5509,12 @@
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6">
@@ -5511,46 +5524,46 @@
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>223</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="86.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="86.25">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6">
@@ -5558,11 +5571,9 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="B44" s="13"/>
       <c r="C44" s="8" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>4</v>
@@ -5575,9 +5586,11 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="C45" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>4</v>
@@ -5592,7 +5605,7 @@
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>4</v>
@@ -5607,7 +5620,7 @@
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>4</v>
@@ -5622,7 +5635,7 @@
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="8" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>4</v>
@@ -5637,12 +5650,12 @@
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="9"/>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6">
@@ -5651,12 +5664,12 @@
         <v>49</v>
       </c>
       <c r="B50" s="12"/>
-      <c r="C50" s="31" t="s">
-        <v>282</v>
+      <c r="C50" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="9" t="s">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="F50" s="10"/>
     </row>
@@ -5666,13 +5679,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="9"/>
+      <c r="C51" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6">
@@ -5682,46 +5695,46 @@
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>223</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E52" s="9"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="86.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="86.25">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="13"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6">
@@ -5729,11 +5742,9 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="B55" s="13"/>
       <c r="C55" s="8" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>4</v>
@@ -5746,9 +5757,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="12"/>
+      <c r="B56" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="C56" s="8" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>4</v>
@@ -5763,7 +5776,7 @@
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>4</v>
@@ -5777,13 +5790,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="12"/>
-      <c r="C58" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="C58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="9"/>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6">
@@ -5792,12 +5805,12 @@
         <v>58</v>
       </c>
       <c r="B59" s="12"/>
-      <c r="C59" s="8" t="s">
-        <v>6</v>
+      <c r="C59" s="31" t="s">
+        <v>282</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="9" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="F59" s="10"/>
     </row>
@@ -5808,7 +5821,7 @@
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="9" t="s">
@@ -5823,7 +5836,7 @@
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="9" t="s">
@@ -5838,12 +5851,12 @@
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6">
@@ -5853,46 +5866,46 @@
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>223</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E63" s="9"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="86.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="86.25">
       <c r="A65" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="13"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6">
@@ -5900,51 +5913,49 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="63" t="s">
-        <v>251</v>
-      </c>
-      <c r="F66" s="64"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="6">
-        <f t="shared" ref="A67:A128" si="1">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="12"/>
+      <c r="B67" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="C67" s="31" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>94</v>
       </c>
       <c r="E67" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F67" s="64"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A68:A129" si="1">ROW()-1</f>
         <v>67</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="31" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D68" s="31" t="s">
         <v>94</v>
       </c>
       <c r="E68" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F68" s="64"/>
     </row>
@@ -5954,23 +5965,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="12"/>
-      <c r="C69" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="10"/>
+      <c r="C69" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" s="64"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="6">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="8" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>4</v>
@@ -5983,11 +5996,9 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="B71" s="13"/>
       <c r="C71" s="8" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>4</v>
@@ -6000,9 +6011,11 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="C72" s="8" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>4</v>
@@ -6016,13 +6029,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="12"/>
-      <c r="C73" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="63" t="s">
-        <v>270</v>
-      </c>
+      <c r="C73" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="9"/>
       <c r="F73" s="10"/>
     </row>
     <row r="74" spans="1:6">
@@ -6031,13 +6044,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="C74" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="9"/>
+      <c r="C74" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" s="31"/>
+      <c r="E74" s="63" t="s">
+        <v>270</v>
+      </c>
       <c r="F74" s="10"/>
     </row>
     <row r="75" spans="1:6">
@@ -6047,7 +6060,7 @@
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>4</v>
@@ -6062,12 +6075,12 @@
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="9"/>
       <c r="F76" s="10"/>
     </row>
     <row r="77" spans="1:6">
@@ -6077,7 +6090,7 @@
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="9" t="s">
@@ -6092,7 +6105,7 @@
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="9" t="s">
@@ -6107,12 +6120,12 @@
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F79" s="10"/>
     </row>
     <row r="80" spans="1:6">
@@ -6122,47 +6135,45 @@
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>223</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E80" s="9"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="86.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="86.25">
       <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="13"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="F82" s="10"/>
     </row>
@@ -6171,17 +6182,15 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>78</v>
+      <c r="B83" s="13"/>
+      <c r="C83" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="F83" s="10"/>
     </row>
@@ -6190,15 +6199,17 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="8" t="s">
-        <v>12</v>
+      <c r="B84" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="F84" s="10"/>
     </row>
@@ -6209,13 +6220,13 @@
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -6226,11 +6237,13 @@
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E86" s="9" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="F86" s="10"/>
     </row>
@@ -6241,12 +6254,12 @@
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F87" s="10"/>
     </row>
     <row r="88" spans="1:6">
@@ -6256,7 +6269,7 @@
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>4</v>
@@ -6271,7 +6284,7 @@
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>4</v>
@@ -6286,7 +6299,7 @@
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>4</v>
@@ -6299,51 +6312,49 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="66"/>
-      <c r="F91" s="67"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E92" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="F92" s="10"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D92" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="66"/>
+      <c r="F92" s="67"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="6">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="D93" s="65" t="s">
+      <c r="B93" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E93" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="F93" s="67"/>
+        <v>265</v>
+      </c>
+      <c r="F93" s="10"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="6">
@@ -6352,13 +6363,13 @@
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="65" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="D94" s="65" t="s">
         <v>94</v>
       </c>
       <c r="E94" s="63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F94" s="67"/>
     </row>
@@ -6369,12 +6380,14 @@
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="65" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="E95" s="66"/>
+        <v>94</v>
+      </c>
+      <c r="E95" s="63" t="s">
+        <v>273</v>
+      </c>
       <c r="F95" s="67"/>
     </row>
     <row r="96" spans="1:6">
@@ -6383,14 +6396,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="12"/>
-      <c r="C96" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="10"/>
+      <c r="C96" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="E96" s="66"/>
+      <c r="F96" s="67"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="6">
@@ -6399,10 +6412,10 @@
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="8" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="10"/>
@@ -6414,7 +6427,7 @@
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>93</v>
@@ -6422,58 +6435,56 @@
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" s="42" customFormat="1">
+    <row r="99" spans="1:6">
       <c r="A99" s="6">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B99" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E99" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="F99" s="41"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="B99" s="12"/>
+      <c r="C99" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" s="42" customFormat="1">
       <c r="A100" s="6">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B100" s="69"/>
-      <c r="C100" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="D100" s="65" t="s">
+      <c r="B100" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="31" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="F100" s="67"/>
-    </row>
-    <row r="101" spans="1:6" s="42" customFormat="1">
+        <v>265</v>
+      </c>
+      <c r="F100" s="41"/>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="69"/>
       <c r="C101" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="65" t="s">
         <v>94</v>
       </c>
       <c r="E101" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="F101" s="41"/>
+        <v>272</v>
+      </c>
+      <c r="F101" s="67"/>
     </row>
     <row r="102" spans="1:6" s="42" customFormat="1">
       <c r="A102" s="6">
@@ -6482,13 +6493,13 @@
       </c>
       <c r="B102" s="69"/>
       <c r="C102" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="D102" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="E102" s="66" t="s">
-        <v>260</v>
+        <v>2</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" s="63" t="s">
+        <v>274</v>
       </c>
       <c r="F102" s="41"/>
     </row>
@@ -6497,43 +6508,45 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B103" s="71"/>
+      <c r="B103" s="69"/>
       <c r="C103" s="65" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D103" s="65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E103" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F103" s="41"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" s="42" customFormat="1">
       <c r="A104" s="6">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="10"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="D104" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="E104" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="F104" s="41"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B105" s="12"/>
+      <c r="B105" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C105" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>4</v>
@@ -6548,7 +6561,7 @@
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>4</v>
@@ -6563,9 +6576,11 @@
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D107" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E107" s="9"/>
       <c r="F107" s="10"/>
     </row>
@@ -6576,11 +6591,9 @@
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D108" s="8"/>
       <c r="E108" s="9"/>
       <c r="F108" s="10"/>
     </row>
@@ -6589,14 +6602,14 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B109" s="13"/>
+      <c r="B109" s="12"/>
       <c r="C109" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="9" t="s">
-        <v>97</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="9"/>
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6">
@@ -6604,34 +6617,32 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B110" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E110" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="F110" s="15"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F110" s="10"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="6">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B111" s="69"/>
+      <c r="B111" s="68" t="s">
+        <v>262</v>
+      </c>
       <c r="C111" s="31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D111" s="31" t="s">
         <v>94</v>
       </c>
       <c r="E111" s="63" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F111" s="15"/>
     </row>
@@ -6642,13 +6653,15 @@
       </c>
       <c r="B112" s="69"/>
       <c r="C112" s="31" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="E112" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="F112" s="15"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="6">
@@ -6657,7 +6670,7 @@
       </c>
       <c r="B113" s="69"/>
       <c r="C113" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D113" s="31" t="s">
         <v>93</v>
@@ -6672,10 +6685,10 @@
       </c>
       <c r="B114" s="69"/>
       <c r="C114" s="31" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="10"/>
@@ -6687,10 +6700,10 @@
       </c>
       <c r="B115" s="69"/>
       <c r="C115" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="10"/>
@@ -6700,98 +6713,96 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8" t="s">
-        <v>149</v>
+      <c r="B116" s="69"/>
+      <c r="C116" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:6" s="42" customFormat="1">
+    <row r="117" spans="1:6">
       <c r="A117" s="6">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B117" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C117" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D117" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="43"/>
-      <c r="F117" s="41"/>
-    </row>
-    <row r="118" spans="1:6" s="42" customFormat="1" ht="34.5">
+      <c r="B117" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6" s="42" customFormat="1">
       <c r="A118" s="6">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B118" s="12"/>
+      <c r="B118" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="C118" s="39" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="D118" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E118" s="40" t="s">
-        <v>168</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E118" s="43"/>
       <c r="F118" s="41"/>
     </row>
-    <row r="119" spans="1:6" s="42" customFormat="1">
+    <row r="119" spans="1:6" s="42" customFormat="1" ht="34.5">
       <c r="A119" s="6">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" s="12"/>
-      <c r="C119" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="D119" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="E119" s="73" t="s">
-        <v>165</v>
+      <c r="C119" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E119" s="40" t="s">
+        <v>168</v>
       </c>
       <c r="F119" s="41"/>
     </row>
-    <row r="120" spans="1:6" s="42" customFormat="1" ht="15" customHeight="1">
+    <row r="120" spans="1:6" s="42" customFormat="1">
       <c r="A120" s="6">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B120" s="72"/>
+      <c r="B120" s="12"/>
       <c r="C120" s="65" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="D120" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120" s="66" t="s">
-        <v>276</v>
+        <v>96</v>
+      </c>
+      <c r="E120" s="73" t="s">
+        <v>165</v>
       </c>
       <c r="F120" s="41"/>
     </row>
-    <row r="121" spans="1:6" s="42" customFormat="1">
+    <row r="121" spans="1:6" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="6">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" s="72"/>
-      <c r="C121" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="43" t="s">
-        <v>121</v>
+      <c r="C121" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="66" t="s">
+        <v>276</v>
       </c>
       <c r="F121" s="41"/>
     </row>
@@ -6802,12 +6813,14 @@
       </c>
       <c r="B122" s="72"/>
       <c r="C122" s="39" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D122" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="43"/>
+      <c r="E122" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="F122" s="41"/>
     </row>
     <row r="123" spans="1:6" s="42" customFormat="1">
@@ -6817,7 +6830,7 @@
       </c>
       <c r="B123" s="72"/>
       <c r="C123" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D123" s="39" t="s">
         <v>4</v>
@@ -6832,7 +6845,7 @@
       </c>
       <c r="B124" s="72"/>
       <c r="C124" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D124" s="39" t="s">
         <v>4</v>
@@ -6847,7 +6860,7 @@
       </c>
       <c r="B125" s="72"/>
       <c r="C125" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D125" s="39" t="s">
         <v>4</v>
@@ -6860,18 +6873,14 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B126" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="C126" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E126" s="63" t="s">
-        <v>265</v>
-      </c>
+      <c r="B126" s="72"/>
+      <c r="C126" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="43"/>
       <c r="F126" s="41"/>
     </row>
     <row r="127" spans="1:6" s="42" customFormat="1">
@@ -6879,15 +6888,17 @@
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B127" s="60"/>
-      <c r="C127" s="65" t="s">
-        <v>158</v>
+      <c r="B127" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="C127" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="D127" s="31" t="s">
         <v>94</v>
       </c>
       <c r="E127" s="63" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F127" s="41"/>
     </row>
@@ -6896,20 +6907,37 @@
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B128" s="75"/>
+      <c r="B128" s="60"/>
       <c r="C128" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E128" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="F128" s="41"/>
+    </row>
+    <row r="129" spans="1:6" s="42" customFormat="1">
+      <c r="A129" s="6">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="75"/>
+      <c r="C129" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="D128" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="66" t="s">
+      <c r="D129" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="F128" s="41"/>
+      <c r="F129" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F128"/>
+  <autoFilter ref="A1:F129"/>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="285">
   <si>
     <t>No</t>
   </si>
@@ -1002,6 +1002,9 @@
   </si>
   <si>
     <t>questions</t>
+  </si>
+  <si>
+    <t>Đã học - Đang học</t>
   </si>
 </sst>
 </file>
@@ -1601,6 +1604,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1615,20 +1632,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -4042,7 +4045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4852,8 +4855,8 @@
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
@@ -5304,19 +5307,19 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" s="84" customFormat="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="82" t="s">
+    <row r="27" spans="1:6" s="79" customFormat="1">
+      <c r="A27" s="76"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="86" t="s">
+      <c r="E27" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="F27" s="83"/>
+      <c r="F27" s="78"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6">
@@ -6402,7 +6405,9 @@
       <c r="D96" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="E96" s="66"/>
+      <c r="E96" s="66" t="s">
+        <v>284</v>
+      </c>
       <c r="F96" s="67"/>
     </row>
     <row r="97" spans="1:6">
@@ -9258,7 +9263,7 @@
       <c r="A155" s="37">
         <v>143</v>
       </c>
-      <c r="B155" s="76" t="s">
+      <c r="B155" s="82" t="s">
         <v>163</v>
       </c>
       <c r="C155" s="39" t="s">
@@ -9276,7 +9281,7 @@
       <c r="A156" s="37">
         <v>144</v>
       </c>
-      <c r="B156" s="76"/>
+      <c r="B156" s="82"/>
       <c r="C156" s="39" t="s">
         <v>166</v>
       </c>
@@ -9292,7 +9297,7 @@
       <c r="A157" s="37">
         <v>145</v>
       </c>
-      <c r="B157" s="76"/>
+      <c r="B157" s="82"/>
       <c r="C157" s="39" t="s">
         <v>2</v>
       </c>
@@ -9308,7 +9313,7 @@
       <c r="A158" s="37">
         <v>146</v>
       </c>
-      <c r="B158" s="76"/>
+      <c r="B158" s="82"/>
       <c r="C158" s="39" t="s">
         <v>87</v>
       </c>
@@ -9322,7 +9327,7 @@
       <c r="A159" s="37">
         <v>147</v>
       </c>
-      <c r="B159" s="76"/>
+      <c r="B159" s="82"/>
       <c r="C159" s="51" t="s">
         <v>248</v>
       </c>
@@ -9340,7 +9345,7 @@
       <c r="A160" s="37">
         <v>149</v>
       </c>
-      <c r="B160" s="76"/>
+      <c r="B160" s="82"/>
       <c r="C160" s="39" t="s">
         <v>88</v>
       </c>
@@ -9354,7 +9359,7 @@
       <c r="A161" s="37">
         <v>150</v>
       </c>
-      <c r="B161" s="76"/>
+      <c r="B161" s="82"/>
       <c r="C161" s="51" t="s">
         <v>170</v>
       </c>
@@ -9370,7 +9375,7 @@
       <c r="A162" s="37">
         <v>152</v>
       </c>
-      <c r="B162" s="76"/>
+      <c r="B162" s="82"/>
       <c r="C162" s="39" t="s">
         <v>90</v>
       </c>
@@ -9384,7 +9389,7 @@
       <c r="A163" s="37">
         <v>153</v>
       </c>
-      <c r="B163" s="76"/>
+      <c r="B163" s="82"/>
       <c r="C163" s="51" t="s">
         <v>171</v>
       </c>
@@ -9400,7 +9405,7 @@
       <c r="A164" s="37">
         <v>155</v>
       </c>
-      <c r="B164" s="76"/>
+      <c r="B164" s="82"/>
       <c r="C164" s="39" t="s">
         <v>92</v>
       </c>
@@ -9414,7 +9419,7 @@
       <c r="A165" s="37">
         <v>156</v>
       </c>
-      <c r="B165" s="76"/>
+      <c r="B165" s="82"/>
       <c r="C165" s="51" t="s">
         <v>172</v>
       </c>
@@ -9464,7 +9469,7 @@
       <c r="A168" s="37">
         <v>166</v>
       </c>
-      <c r="B168" s="77" t="s">
+      <c r="B168" s="83" t="s">
         <v>200</v>
       </c>
       <c r="C168" s="39" t="s">
@@ -9482,7 +9487,7 @@
       <c r="A169" s="37">
         <v>167</v>
       </c>
-      <c r="B169" s="77"/>
+      <c r="B169" s="83"/>
       <c r="C169" s="39" t="s">
         <v>170</v>
       </c>
@@ -9542,7 +9547,7 @@
       <c r="A173" s="37">
         <v>171</v>
       </c>
-      <c r="B173" s="78"/>
+      <c r="B173" s="84"/>
       <c r="C173" s="39" t="s">
         <v>195</v>
       </c>
@@ -9556,7 +9561,7 @@
       <c r="A174" s="37">
         <v>172</v>
       </c>
-      <c r="B174" s="78"/>
+      <c r="B174" s="84"/>
       <c r="C174" s="39" t="s">
         <v>196</v>
       </c>
@@ -9570,7 +9575,7 @@
       <c r="A175" s="37">
         <v>173</v>
       </c>
-      <c r="B175" s="78"/>
+      <c r="B175" s="84"/>
       <c r="C175" s="39" t="s">
         <v>107</v>
       </c>
@@ -9584,7 +9589,7 @@
       <c r="A176" s="37">
         <v>174</v>
       </c>
-      <c r="B176" s="78"/>
+      <c r="B176" s="84"/>
       <c r="C176" s="39" t="s">
         <v>108</v>
       </c>
@@ -9600,7 +9605,7 @@
       <c r="A177" s="37">
         <v>175</v>
       </c>
-      <c r="B177" s="78"/>
+      <c r="B177" s="84"/>
       <c r="C177" s="39" t="s">
         <v>36</v>
       </c>
@@ -9676,7 +9681,7 @@
       <c r="A182" s="37">
         <v>179</v>
       </c>
-      <c r="B182" s="76" t="s">
+      <c r="B182" s="82" t="s">
         <v>200</v>
       </c>
       <c r="C182" s="39" t="s">
@@ -9694,7 +9699,7 @@
       <c r="A183" s="37">
         <v>180</v>
       </c>
-      <c r="B183" s="76"/>
+      <c r="B183" s="82"/>
       <c r="C183" s="39" t="s">
         <v>170</v>
       </c>
@@ -9710,7 +9715,7 @@
       <c r="A184" s="37">
         <v>181</v>
       </c>
-      <c r="B184" s="76"/>
+      <c r="B184" s="82"/>
       <c r="C184" s="39" t="s">
         <v>171</v>
       </c>
@@ -9726,7 +9731,7 @@
       <c r="A185" s="37">
         <v>182</v>
       </c>
-      <c r="B185" s="79"/>
+      <c r="B185" s="85"/>
       <c r="C185" s="39" t="s">
         <v>172</v>
       </c>
@@ -9772,7 +9777,7 @@
       <c r="A188" s="37">
         <v>185</v>
       </c>
-      <c r="B188" s="77" t="s">
+      <c r="B188" s="83" t="s">
         <v>202</v>
       </c>
       <c r="C188" s="39" t="s">
@@ -9788,7 +9793,7 @@
       <c r="A189" s="37">
         <v>186</v>
       </c>
-      <c r="B189" s="77"/>
+      <c r="B189" s="83"/>
       <c r="C189" s="39" t="s">
         <v>188</v>
       </c>
@@ -9802,7 +9807,7 @@
       <c r="A190" s="37">
         <v>187</v>
       </c>
-      <c r="B190" s="80"/>
+      <c r="B190" s="86"/>
       <c r="C190" s="58" t="s">
         <v>71</v>
       </c>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TBL_DESC (BAK)'!$A$1:$F$190</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -887,81 +887,6 @@
     <t>reference to user model</t>
   </si>
   <si>
-    <t>reference to bookDetail via "bookID"</t>
-  </si>
-  <si>
-    <r>
-      <t>reference to example via "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>vocabulary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>reference to example via "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>kanji</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>reference to example via "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>grammar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
     <t>reference to question via "question"</t>
   </si>
   <si>
@@ -1005,13 +930,25 @@
   </si>
   <si>
     <t>Đã học - Đang học</t>
+  </si>
+  <si>
+    <t>reference to bookDetail via "bookMaster"</t>
+  </si>
+  <si>
+    <t>reference to example via "vocabulary"</t>
+  </si>
+  <si>
+    <t>reference to example via "kanji"</t>
+  </si>
+  <si>
+    <t>reference to example via "grammar"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1089,13 +1026,6 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1401,7 +1331,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1483,10 +1413,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1569,54 +1496,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1633,6 +1517,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4045,7 +3935,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4057,12 +3947,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="26" customWidth="1"/>
     <col min="3" max="3" width="97" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="26"/>
+    <col min="4" max="16384" width="14.5" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
@@ -4077,70 +3967,70 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1">
+    <row r="3" spans="1:3" ht="25" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1">
+    <row r="4" spans="1:3" ht="25" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1">
+    <row r="5" spans="1:3" ht="25" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1">
+    <row r="6" spans="1:3" ht="25" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1">
+    <row r="7" spans="1:3" ht="25" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1">
+    <row r="8" spans="1:3" ht="25" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
         <v>154</v>
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1">
+    <row r="9" spans="1:3" ht="25" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1">
+    <row r="10" spans="1:3" ht="25" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="1:3" ht="24.95" customHeight="1">
+    <row r="11" spans="1:3" ht="25" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1">
+    <row r="12" spans="1:3" ht="25" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="19" t="s">
         <v>67</v>
@@ -4174,16 +4064,16 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="97" style="19" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="19"/>
+    <col min="4" max="4" width="44.1640625" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51.75">
+    <row r="1" spans="1:4" ht="34">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4197,7 +4087,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5">
+    <row r="2" spans="1:4" ht="34">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4211,7 +4101,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34.5">
+    <row r="3" spans="1:4" ht="34">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4225,7 +4115,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="69">
+    <row r="4" spans="1:4" ht="68">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4239,7 +4129,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="69">
+    <row r="5" spans="1:4" ht="51">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4253,7 +4143,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.5">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4267,7 +4157,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="69">
+    <row r="7" spans="1:4" ht="68">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4281,7 +4171,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34.5">
+    <row r="8" spans="1:4" ht="34">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4295,7 +4185,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.5">
+    <row r="9" spans="1:4" ht="34">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4309,7 +4199,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34.5">
+    <row r="10" spans="1:4" ht="34">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4323,7 +4213,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34.5">
+    <row r="11" spans="1:4" ht="34">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4337,7 +4227,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34.5">
+    <row r="12" spans="1:4" ht="34">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4351,7 +4241,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34.5">
+    <row r="13" spans="1:4" ht="34">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4365,7 +4255,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34.5">
+    <row r="14" spans="1:4" ht="34">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4379,7 +4269,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34.5">
+    <row r="15" spans="1:4" ht="34">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4407,7 +4297,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34.5">
+    <row r="17" spans="1:4" ht="34">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4421,7 +4311,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34.5">
+    <row r="18" spans="1:4" ht="34">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4435,7 +4325,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="51.75">
+    <row r="19" spans="1:4" ht="51">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4449,7 +4339,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="51.75">
+    <row r="20" spans="1:4" ht="51">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4463,7 +4353,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51.75">
+    <row r="21" spans="1:4" ht="51">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4477,7 +4367,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34.5">
+    <row r="22" spans="1:4" ht="34">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4491,7 +4381,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34.5">
+    <row r="23" spans="1:4" ht="34">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4855,19 +4745,19 @@
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="11" customWidth="1"/>
     <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="11"/>
+    <col min="4" max="4" width="12.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="78.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
@@ -4886,7 +4776,7 @@
       <c r="E1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="69" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4905,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6">
@@ -4920,7 +4810,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6">
@@ -4935,7 +4825,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6">
@@ -4950,58 +4840,58 @@
         <v>4</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" s="42" customFormat="1">
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6" s="41" customFormat="1">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="41"/>
-    </row>
-    <row r="7" spans="1:6" s="42" customFormat="1">
+      <c r="F6" s="71"/>
+    </row>
+    <row r="7" spans="1:6" s="41" customFormat="1">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" spans="1:6" s="42" customFormat="1">
+      <c r="F7" s="71"/>
+    </row>
+    <row r="8" spans="1:6" s="41" customFormat="1">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6">
@@ -5018,7 +4908,7 @@
       <c r="E9" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6">
@@ -5035,7 +4925,7 @@
       <c r="E10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6">
@@ -5052,7 +4942,7 @@
       <c r="E11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6">
@@ -5069,7 +4959,7 @@
       <c r="E12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6">
@@ -5077,14 +4967,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6">
@@ -5094,16 +4984,16 @@
       <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6">
@@ -5120,7 +5010,7 @@
       <c r="E15" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6">
@@ -5137,22 +5027,22 @@
       <c r="E16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" s="42" customFormat="1">
+      <c r="F16" s="70"/>
+    </row>
+    <row r="17" spans="1:6" s="41" customFormat="1">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="65" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="71"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6">
@@ -5169,7 +5059,7 @@
       <c r="E18" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6">
@@ -5186,9 +5076,9 @@
       <c r="E19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="34.5">
+      <c r="F19" s="70"/>
+    </row>
+    <row r="20" spans="1:6" ht="34">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5203,7 +5093,7 @@
       <c r="E20" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="70"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6">
@@ -5213,16 +5103,16 @@
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="70"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6">
@@ -5230,16 +5120,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="70"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6">
@@ -5254,7 +5144,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="70"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6">
@@ -5269,7 +5159,7 @@
         <v>96</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="70"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6">
@@ -5279,16 +5169,16 @@
       <c r="B25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="70"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6">
@@ -5296,30 +5186,30 @@
         <v>25</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" s="79" customFormat="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="77" t="s">
+      <c r="F26" s="70"/>
+    </row>
+    <row r="27" spans="1:6" s="41" customFormat="1">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="81" t="s">
-        <v>272</v>
-      </c>
-      <c r="F27" s="78"/>
+      <c r="E27" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F27" s="71"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6">
@@ -5336,7 +5226,7 @@
       <c r="E28" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="70"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6">
@@ -5351,7 +5241,7 @@
         <v>93</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6">
@@ -5366,7 +5256,7 @@
         <v>93</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6">
@@ -5383,7 +5273,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="70"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6">
@@ -5398,7 +5288,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="70"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6">
@@ -5413,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
+      <c r="F33" s="70"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="6">
@@ -5428,7 +5318,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="70"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6">
@@ -5436,14 +5326,14 @@
         <v>34</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="31" t="s">
-        <v>282</v>
+      <c r="C35" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F35" s="10"/>
+        <v>282</v>
+      </c>
+      <c r="F35" s="70"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="6">
@@ -5458,7 +5348,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="70"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6">
@@ -5473,7 +5363,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
+      <c r="F37" s="70"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6">
@@ -5488,7 +5378,7 @@
       <c r="E38" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="70"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6">
@@ -5503,7 +5393,7 @@
       <c r="E39" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="70"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6">
@@ -5518,7 +5408,7 @@
       <c r="E40" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="70"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6">
@@ -5533,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="70"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="6">
@@ -5550,9 +5440,9 @@
       <c r="E42" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" ht="86.25">
+      <c r="F42" s="70"/>
+    </row>
+    <row r="43" spans="1:6" ht="68">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5567,7 +5457,7 @@
       <c r="E43" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="70"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6">
@@ -5582,7 +5472,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="70"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="6">
@@ -5599,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="70"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6">
@@ -5614,7 +5504,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="9"/>
-      <c r="F46" s="10"/>
+      <c r="F46" s="70"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="6">
@@ -5629,7 +5519,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
+      <c r="F47" s="70"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6">
@@ -5644,7 +5534,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
+      <c r="F48" s="70"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="6">
@@ -5659,7 +5549,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
+      <c r="F49" s="70"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="6">
@@ -5674,7 +5564,7 @@
       <c r="E50" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="70"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="6">
@@ -5682,14 +5572,14 @@
         <v>50</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="31" t="s">
-        <v>282</v>
+      <c r="C51" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="F51" s="10"/>
+        <v>283</v>
+      </c>
+      <c r="F51" s="70"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="6">
@@ -5704,7 +5594,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="10"/>
+      <c r="F52" s="70"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="6">
@@ -5721,9 +5611,9 @@
       <c r="E53" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" ht="86.25">
+      <c r="F53" s="70"/>
+    </row>
+    <row r="54" spans="1:6" ht="68">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5738,7 +5628,7 @@
       <c r="E54" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F54" s="10"/>
+      <c r="F54" s="70"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6">
@@ -5753,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="9"/>
-      <c r="F55" s="10"/>
+      <c r="F55" s="70"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6">
@@ -5770,7 +5660,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
+      <c r="F56" s="70"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="6">
@@ -5785,7 +5675,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
+      <c r="F57" s="70"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="6">
@@ -5800,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="10"/>
+      <c r="F58" s="70"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="6">
@@ -5808,14 +5698,14 @@
         <v>58</v>
       </c>
       <c r="B59" s="12"/>
-      <c r="C59" s="31" t="s">
-        <v>282</v>
+      <c r="C59" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F59" s="10"/>
+        <v>284</v>
+      </c>
+      <c r="F59" s="70"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="6">
@@ -5830,7 +5720,7 @@
       <c r="E60" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="10"/>
+      <c r="F60" s="70"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="6">
@@ -5845,7 +5735,7 @@
       <c r="E61" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F61" s="10"/>
+      <c r="F61" s="70"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="6">
@@ -5860,7 +5750,7 @@
       <c r="E62" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F62" s="10"/>
+      <c r="F62" s="70"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="6">
@@ -5875,7 +5765,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
+      <c r="F63" s="70"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="6">
@@ -5892,9 +5782,9 @@
       <c r="E64" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="86.25">
+      <c r="F64" s="70"/>
+    </row>
+    <row r="65" spans="1:6" ht="68">
       <c r="A65" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5909,7 +5799,7 @@
       <c r="E65" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F65" s="10"/>
+      <c r="F65" s="70"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="6">
@@ -5924,7 +5814,7 @@
         <v>4</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="10"/>
+      <c r="F66" s="70"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="6">
@@ -5934,16 +5824,16 @@
       <c r="B67" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F67" s="64"/>
+      <c r="F67" s="70"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="6">
@@ -5951,16 +5841,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="12"/>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="63" t="s">
+      <c r="E68" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F68" s="64"/>
+      <c r="F68" s="70"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="6">
@@ -5968,16 +5858,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="12"/>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E69" s="63" t="s">
+      <c r="E69" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F69" s="64"/>
+      <c r="F69" s="70"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="6">
@@ -5992,7 +5882,7 @@
         <v>4</v>
       </c>
       <c r="E70" s="9"/>
-      <c r="F70" s="10"/>
+      <c r="F70" s="70"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="6">
@@ -6007,7 +5897,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="9"/>
-      <c r="F71" s="10"/>
+      <c r="F71" s="70"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="6">
@@ -6024,7 +5914,7 @@
         <v>4</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="10"/>
+      <c r="F72" s="70"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="6">
@@ -6039,7 +5929,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="10"/>
+      <c r="F73" s="70"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="6">
@@ -6047,14 +5937,14 @@
         <v>73</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="C74" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="F74" s="10"/>
+      <c r="C74" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="70"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="6">
@@ -6069,7 +5959,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="9"/>
-      <c r="F75" s="10"/>
+      <c r="F75" s="70"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="6">
@@ -6084,7 +5974,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="9"/>
-      <c r="F76" s="10"/>
+      <c r="F76" s="70"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="6">
@@ -6099,7 +5989,7 @@
       <c r="E77" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F77" s="10"/>
+      <c r="F77" s="70"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="6">
@@ -6114,7 +6004,7 @@
       <c r="E78" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F78" s="10"/>
+      <c r="F78" s="70"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="6">
@@ -6129,7 +6019,7 @@
       <c r="E79" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="10"/>
+      <c r="F79" s="70"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="6">
@@ -6144,7 +6034,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="9"/>
-      <c r="F80" s="10"/>
+      <c r="F80" s="70"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="6">
@@ -6161,9 +6051,9 @@
       <c r="E81" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" ht="86.25">
+      <c r="F81" s="70"/>
+    </row>
+    <row r="82" spans="1:6" ht="68">
       <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6178,7 +6068,7 @@
       <c r="E82" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F82" s="10"/>
+      <c r="F82" s="70"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="6">
@@ -6195,7 +6085,7 @@
       <c r="E83" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="10"/>
+      <c r="F83" s="70"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="6">
@@ -6205,16 +6095,16 @@
       <c r="B84" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="F84" s="10"/>
+        <v>267</v>
+      </c>
+      <c r="F84" s="70"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="6">
@@ -6231,7 +6121,7 @@
       <c r="E85" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F85" s="10"/>
+      <c r="F85" s="70"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="6">
@@ -6248,7 +6138,7 @@
       <c r="E86" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="10"/>
+      <c r="F86" s="70"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="6">
@@ -6263,7 +6153,7 @@
       <c r="E87" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="10"/>
+      <c r="F87" s="70"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="6">
@@ -6278,7 +6168,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="9"/>
-      <c r="F88" s="10"/>
+      <c r="F88" s="70"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="6">
@@ -6293,7 +6183,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="9"/>
-      <c r="F89" s="10"/>
+      <c r="F89" s="70"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="6">
@@ -6308,7 +6198,7 @@
         <v>4</v>
       </c>
       <c r="E90" s="9"/>
-      <c r="F90" s="10"/>
+      <c r="F90" s="70"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="6">
@@ -6323,7 +6213,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="9"/>
-      <c r="F91" s="10"/>
+      <c r="F91" s="70"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="6">
@@ -6331,14 +6221,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="13"/>
-      <c r="C92" s="65" t="s">
+      <c r="C92" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="D92" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="66"/>
-      <c r="F92" s="67"/>
+      <c r="D92" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="42"/>
+      <c r="F92" s="71"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="6">
@@ -6348,16 +6238,16 @@
       <c r="B93" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E93" s="63" t="s">
+      <c r="E93" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F93" s="10"/>
+      <c r="F93" s="70"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="6">
@@ -6365,16 +6255,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="12"/>
-      <c r="C94" s="65" t="s">
+      <c r="C94" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="D94" s="65" t="s">
+      <c r="D94" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E94" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="F94" s="67"/>
+      <c r="E94" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F94" s="71"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="6">
@@ -6382,16 +6272,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="12"/>
-      <c r="C95" s="65" t="s">
+      <c r="C95" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="65" t="s">
+      <c r="D95" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E95" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="F95" s="67"/>
+      <c r="E95" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F95" s="71"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="6">
@@ -6399,16 +6289,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="12"/>
-      <c r="C96" s="65" t="s">
+      <c r="C96" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D96" s="65" t="s">
+      <c r="D96" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="E96" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="F96" s="67"/>
+      <c r="E96" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="F96" s="71"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="6">
@@ -6423,7 +6313,7 @@
         <v>95</v>
       </c>
       <c r="E97" s="9"/>
-      <c r="F97" s="10"/>
+      <c r="F97" s="70"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="6">
@@ -6438,7 +6328,7 @@
         <v>93</v>
       </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="10"/>
+      <c r="F98" s="70"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="6">
@@ -6453,94 +6343,94 @@
         <v>93</v>
       </c>
       <c r="E99" s="9"/>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" s="42" customFormat="1">
+      <c r="F99" s="70"/>
+    </row>
+    <row r="100" spans="1:6" s="41" customFormat="1">
       <c r="A100" s="6">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B100" s="68" t="s">
+      <c r="B100" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C100" s="31" t="s">
+      <c r="C100" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E100" s="63" t="s">
+      <c r="E100" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F100" s="41"/>
+      <c r="F100" s="71"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B101" s="69"/>
-      <c r="C101" s="65" t="s">
+      <c r="B101" s="12"/>
+      <c r="C101" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="65" t="s">
+      <c r="D101" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E101" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="F101" s="67"/>
-    </row>
-    <row r="102" spans="1:6" s="42" customFormat="1">
+      <c r="E101" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F101" s="71"/>
+    </row>
+    <row r="102" spans="1:6" s="41" customFormat="1">
       <c r="A102" s="6">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B102" s="69"/>
-      <c r="C102" s="65" t="s">
+      <c r="B102" s="12"/>
+      <c r="C102" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E102" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="F102" s="41"/>
-    </row>
-    <row r="103" spans="1:6" s="42" customFormat="1">
+      <c r="E102" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F102" s="71"/>
+    </row>
+    <row r="103" spans="1:6" s="41" customFormat="1">
       <c r="A103" s="6">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B103" s="69"/>
-      <c r="C103" s="65" t="s">
+      <c r="B103" s="12"/>
+      <c r="C103" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="D103" s="65" t="s">
+      <c r="D103" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="E103" s="66" t="s">
+      <c r="E103" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="F103" s="41"/>
-    </row>
-    <row r="104" spans="1:6" s="42" customFormat="1">
+      <c r="F103" s="71"/>
+    </row>
+    <row r="104" spans="1:6" s="41" customFormat="1">
       <c r="A104" s="6">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104" s="71"/>
-      <c r="C104" s="65" t="s">
+      <c r="B104" s="13"/>
+      <c r="C104" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="D104" s="65" t="s">
+      <c r="D104" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="E104" s="66" t="s">
+      <c r="E104" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="F104" s="41"/>
+      <c r="F104" s="71"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="6">
@@ -6557,7 +6447,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="10"/>
+      <c r="F105" s="70"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="6">
@@ -6572,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="10"/>
+      <c r="F106" s="70"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="6">
@@ -6587,7 +6477,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="9"/>
-      <c r="F107" s="10"/>
+      <c r="F107" s="70"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="6">
@@ -6600,7 +6490,7 @@
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="10"/>
+      <c r="F108" s="70"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="6">
@@ -6615,7 +6505,7 @@
         <v>96</v>
       </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="10"/>
+      <c r="F109" s="70"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="6">
@@ -6630,110 +6520,110 @@
       <c r="E110" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F110" s="10"/>
+      <c r="F110" s="70"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="6">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B111" s="68" t="s">
+      <c r="B111" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E111" s="63" t="s">
+      <c r="E111" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F111" s="15"/>
+      <c r="F111" s="72"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="6">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B112" s="69"/>
-      <c r="C112" s="31" t="s">
+      <c r="B112" s="12"/>
+      <c r="C112" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E112" s="63" t="s">
+      <c r="E112" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F112" s="15"/>
+      <c r="F112" s="72"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="6">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B113" s="69"/>
-      <c r="C113" s="31" t="s">
+      <c r="B113" s="12"/>
+      <c r="C113" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="10"/>
+      <c r="F113" s="70"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B114" s="69"/>
-      <c r="C114" s="31" t="s">
+      <c r="B114" s="12"/>
+      <c r="C114" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="10"/>
+      <c r="F114" s="70"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="6">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B115" s="69"/>
-      <c r="C115" s="31" t="s">
+      <c r="B115" s="12"/>
+      <c r="C115" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="10"/>
+      <c r="F115" s="70"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="6">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116" s="69"/>
-      <c r="C116" s="31" t="s">
+      <c r="B116" s="12"/>
+      <c r="C116" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="8" t="s">
         <v>235</v>
       </c>
       <c r="E116" s="9"/>
-      <c r="F116" s="10"/>
+      <c r="F116" s="70"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="6">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B117" s="70" t="s">
+      <c r="B117" s="16" t="s">
         <v>263</v>
       </c>
       <c r="C117" s="8"/>
@@ -6741,9 +6631,9 @@
         <v>149</v>
       </c>
       <c r="E117" s="9"/>
-      <c r="F117" s="10"/>
-    </row>
-    <row r="118" spans="1:6" s="42" customFormat="1">
+      <c r="F117" s="70"/>
+    </row>
+    <row r="118" spans="1:6" s="41" customFormat="1">
       <c r="A118" s="6">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6751,195 +6641,195 @@
       <c r="B118" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C118" s="39" t="s">
+      <c r="C118" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D118" s="39" t="s">
+      <c r="D118" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="43"/>
-      <c r="F118" s="41"/>
-    </row>
-    <row r="119" spans="1:6" s="42" customFormat="1" ht="34.5">
+      <c r="E118" s="42"/>
+      <c r="F118" s="71"/>
+    </row>
+    <row r="119" spans="1:6" s="41" customFormat="1" ht="34">
       <c r="A119" s="6">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" s="12"/>
-      <c r="C119" s="39" t="s">
+      <c r="C119" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="39" t="s">
+      <c r="D119" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E119" s="40" t="s">
+      <c r="E119" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F119" s="41"/>
-    </row>
-    <row r="120" spans="1:6" s="42" customFormat="1">
+      <c r="F119" s="71"/>
+    </row>
+    <row r="120" spans="1:6" s="41" customFormat="1">
       <c r="A120" s="6">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" s="12"/>
-      <c r="C120" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="D120" s="65" t="s">
+      <c r="C120" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E120" s="73" t="s">
+      <c r="E120" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="F120" s="41"/>
-    </row>
-    <row r="121" spans="1:6" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="F120" s="71"/>
+    </row>
+    <row r="121" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="6">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B121" s="72"/>
-      <c r="C121" s="65" t="s">
+      <c r="B121" s="62"/>
+      <c r="C121" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D121" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="F121" s="41"/>
-    </row>
-    <row r="122" spans="1:6" s="42" customFormat="1">
+      <c r="D121" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="F121" s="71"/>
+    </row>
+    <row r="122" spans="1:6" s="41" customFormat="1">
       <c r="A122" s="6">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B122" s="72"/>
-      <c r="C122" s="39" t="s">
+      <c r="B122" s="62"/>
+      <c r="C122" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="43" t="s">
+      <c r="D122" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="F122" s="41"/>
-    </row>
-    <row r="123" spans="1:6" s="42" customFormat="1">
+      <c r="F122" s="71"/>
+    </row>
+    <row r="123" spans="1:6" s="41" customFormat="1">
       <c r="A123" s="6">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B123" s="72"/>
-      <c r="C123" s="39" t="s">
+      <c r="B123" s="62"/>
+      <c r="C123" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D123" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="43"/>
-      <c r="F123" s="41"/>
-    </row>
-    <row r="124" spans="1:6" s="42" customFormat="1">
+      <c r="D123" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="42"/>
+      <c r="F123" s="71"/>
+    </row>
+    <row r="124" spans="1:6" s="41" customFormat="1">
       <c r="A124" s="6">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B124" s="72"/>
-      <c r="C124" s="39" t="s">
+      <c r="B124" s="62"/>
+      <c r="C124" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D124" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" s="43"/>
-      <c r="F124" s="41"/>
-    </row>
-    <row r="125" spans="1:6" s="42" customFormat="1">
+      <c r="D124" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="42"/>
+      <c r="F124" s="71"/>
+    </row>
+    <row r="125" spans="1:6" s="41" customFormat="1">
       <c r="A125" s="6">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B125" s="72"/>
-      <c r="C125" s="39" t="s">
+      <c r="B125" s="62"/>
+      <c r="C125" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D125" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E125" s="43"/>
-      <c r="F125" s="41"/>
-    </row>
-    <row r="126" spans="1:6" s="42" customFormat="1">
+      <c r="D125" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="42"/>
+      <c r="F125" s="71"/>
+    </row>
+    <row r="126" spans="1:6" s="41" customFormat="1">
       <c r="A126" s="6">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B126" s="72"/>
-      <c r="C126" s="39" t="s">
+      <c r="B126" s="62"/>
+      <c r="C126" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D126" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126" s="43"/>
-      <c r="F126" s="41"/>
-    </row>
-    <row r="127" spans="1:6" s="42" customFormat="1">
+      <c r="D126" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="42"/>
+      <c r="F126" s="71"/>
+    </row>
+    <row r="127" spans="1:6" s="41" customFormat="1">
       <c r="A127" s="6">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B127" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="C127" s="31" t="s">
+      <c r="B127" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E127" s="63" t="s">
+      <c r="E127" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F127" s="41"/>
-    </row>
-    <row r="128" spans="1:6" s="42" customFormat="1">
+      <c r="F127" s="71"/>
+    </row>
+    <row r="128" spans="1:6" s="41" customFormat="1">
       <c r="A128" s="6">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B128" s="60"/>
-      <c r="C128" s="65" t="s">
+      <c r="B128" s="59"/>
+      <c r="C128" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E128" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="F128" s="41"/>
-    </row>
-    <row r="129" spans="1:6" s="42" customFormat="1">
+      <c r="E128" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F128" s="71"/>
+    </row>
+    <row r="129" spans="1:6" s="41" customFormat="1">
       <c r="A129" s="6">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B129" s="75"/>
-      <c r="C129" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="D129" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="F129" s="41"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D129" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="F129" s="71"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F129"/>
@@ -6962,15 +6852,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="11" customWidth="1"/>
     <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="11"/>
+    <col min="4" max="4" width="12.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="78.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
@@ -6994,10 +6884,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="45">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -7010,10 +6900,10 @@
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="8" t="s">
         <v>40</v>
       </c>
@@ -7026,10 +6916,10 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
@@ -7040,10 +6930,10 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45">
-        <v>4</v>
-      </c>
-      <c r="B5" s="49"/>
+      <c r="A5" s="44">
+        <v>4</v>
+      </c>
+      <c r="B5" s="48"/>
       <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
@@ -7054,10 +6944,10 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>5</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -7070,10 +6960,10 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>6</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
@@ -7086,10 +6976,10 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
@@ -7100,10 +6990,10 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
@@ -7114,10 +7004,10 @@
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>9</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
@@ -7185,53 +7075,53 @@
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="42" customFormat="1">
-      <c r="A15" s="44">
+    <row r="15" spans="1:6" s="41" customFormat="1">
+      <c r="A15" s="43">
         <v>14</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="41"/>
-    </row>
-    <row r="16" spans="1:6" s="42" customFormat="1">
-      <c r="A16" s="44">
+      <c r="F15" s="40"/>
+    </row>
+    <row r="16" spans="1:6" s="41" customFormat="1">
+      <c r="A16" s="43">
         <v>15</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="41"/>
-    </row>
-    <row r="17" spans="1:6" s="42" customFormat="1">
-      <c r="A17" s="44">
+      <c r="F16" s="40"/>
+    </row>
+    <row r="17" spans="1:6" s="41" customFormat="1">
+      <c r="A17" s="43">
         <v>16</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6">
@@ -7349,15 +7239,15 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6">
@@ -7391,7 +7281,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="34.5">
+    <row r="28" spans="1:6" ht="34">
       <c r="A28" s="6">
         <v>23</v>
       </c>
@@ -7500,14 +7390,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53" t="s">
+      <c r="E35" s="51"/>
+      <c r="F35" s="52" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7727,7 +7617,7 @@
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="86.25">
+    <row r="51" spans="1:6" ht="68">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -7887,7 +7777,7 @@
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="86.25">
+    <row r="62" spans="1:6" ht="68">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -8047,7 +7937,7 @@
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="86.25">
+    <row r="73" spans="1:6" ht="68">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -8267,7 +8157,7 @@
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="86.25">
+    <row r="88" spans="1:6" ht="68">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -8382,14 +8272,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="12"/>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="D95" s="51" t="s">
+      <c r="D95" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="52"/>
-      <c r="F95" s="53" t="s">
+      <c r="E95" s="51"/>
+      <c r="F95" s="52" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8412,14 +8302,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="12"/>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D97" s="51" t="s">
+      <c r="D97" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E97" s="52"/>
-      <c r="F97" s="53" t="s">
+      <c r="E97" s="51"/>
+      <c r="F97" s="52" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8442,14 +8332,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="12"/>
-      <c r="C99" s="51" t="s">
+      <c r="C99" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D99" s="51" t="s">
+      <c r="D99" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E99" s="52"/>
-      <c r="F99" s="53" t="s">
+      <c r="E99" s="51"/>
+      <c r="F99" s="52" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8472,14 +8362,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="13"/>
-      <c r="C101" s="54" t="s">
+      <c r="C101" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="D101" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="55"/>
-      <c r="F101" s="56"/>
+      <c r="D101" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="54"/>
+      <c r="F101" s="55"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="6">
@@ -8502,14 +8392,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="12"/>
-      <c r="C103" s="51" t="s">
+      <c r="C103" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="51" t="s">
+      <c r="D103" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E103" s="52"/>
-      <c r="F103" s="53" t="s">
+      <c r="E103" s="51"/>
+      <c r="F103" s="52" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8518,14 +8408,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="12"/>
-      <c r="C104" s="51" t="s">
+      <c r="C104" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="51" t="s">
+      <c r="D104" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="52"/>
-      <c r="F104" s="53" t="s">
+      <c r="E104" s="51"/>
+      <c r="F104" s="52" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8534,14 +8424,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="12"/>
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="D105" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="52"/>
-      <c r="F105" s="53" t="s">
+      <c r="D105" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="51"/>
+      <c r="F105" s="52" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8550,52 +8440,52 @@
         <v>105</v>
       </c>
       <c r="B106" s="12"/>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="52"/>
-      <c r="F106" s="53" t="s">
+      <c r="D106" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="51"/>
+      <c r="F106" s="52" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="6"/>
       <c r="B107" s="12"/>
-      <c r="C107" s="54" t="s">
+      <c r="C107" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="D107" s="54" t="s">
+      <c r="D107" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E107" s="55"/>
-      <c r="F107" s="56"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="55"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="6"/>
       <c r="B108" s="12"/>
-      <c r="C108" s="54" t="s">
+      <c r="C108" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="D108" s="54" t="s">
+      <c r="D108" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="55"/>
-      <c r="F108" s="56"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="55"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="6"/>
       <c r="B109" s="12"/>
-      <c r="C109" s="54" t="s">
+      <c r="C109" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="D109" s="54" t="s">
+      <c r="D109" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="E109" s="55"/>
-      <c r="F109" s="56"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="55"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="6">
@@ -8727,7 +8617,7 @@
       <c r="A119" s="6">
         <v>115</v>
       </c>
-      <c r="B119" s="48" t="s">
+      <c r="B119" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="8" t="s">
@@ -8745,7 +8635,7 @@
       <c r="A120" s="6">
         <v>116</v>
       </c>
-      <c r="B120" s="50"/>
+      <c r="B120" s="49"/>
       <c r="C120" s="8" t="s">
         <v>33</v>
       </c>
@@ -8759,7 +8649,7 @@
       <c r="A121" s="6">
         <v>117</v>
       </c>
-      <c r="B121" s="48" t="s">
+      <c r="B121" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -8775,7 +8665,7 @@
       <c r="A122" s="6">
         <v>118</v>
       </c>
-      <c r="B122" s="49"/>
+      <c r="B122" s="48"/>
       <c r="C122" s="8" t="s">
         <v>100</v>
       </c>
@@ -8789,7 +8679,7 @@
       <c r="A123" s="6">
         <v>119</v>
       </c>
-      <c r="B123" s="50"/>
+      <c r="B123" s="49"/>
       <c r="C123" s="8" t="s">
         <v>45</v>
       </c>
@@ -8803,7 +8693,7 @@
       <c r="A124" s="6">
         <v>120</v>
       </c>
-      <c r="B124" s="46" t="s">
+      <c r="B124" s="45" t="s">
         <v>238</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -8817,7 +8707,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="6"/>
-      <c r="B125" s="47"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="8" t="s">
         <v>240</v>
       </c>
@@ -8831,7 +8721,7 @@
       <c r="A126" s="6">
         <v>121</v>
       </c>
-      <c r="B126" s="47"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="8" t="s">
         <v>36</v>
       </c>
@@ -8845,7 +8735,7 @@
       <c r="A127" s="6">
         <v>122</v>
       </c>
-      <c r="B127" s="47"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="8" t="s">
         <v>37</v>
       </c>
@@ -8859,7 +8749,7 @@
       <c r="A128" s="6">
         <v>123</v>
       </c>
-      <c r="B128" s="47"/>
+      <c r="B128" s="46"/>
       <c r="C128" s="8" t="s">
         <v>241</v>
       </c>
@@ -8873,7 +8763,7 @@
       <c r="A129" s="6">
         <v>124</v>
       </c>
-      <c r="B129" s="47"/>
+      <c r="B129" s="46"/>
       <c r="C129" s="8" t="s">
         <v>242</v>
       </c>
@@ -8887,7 +8777,7 @@
       <c r="A130" s="6">
         <v>120</v>
       </c>
-      <c r="B130" s="48" t="s">
+      <c r="B130" s="47" t="s">
         <v>244</v>
       </c>
       <c r="C130" s="14" t="s">
@@ -8903,7 +8793,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="6"/>
-      <c r="B131" s="49"/>
+      <c r="B131" s="48"/>
       <c r="C131" s="14" t="s">
         <v>207</v>
       </c>
@@ -8919,7 +8809,7 @@
       <c r="A132" s="6">
         <v>121</v>
       </c>
-      <c r="B132" s="49"/>
+      <c r="B132" s="48"/>
       <c r="C132" s="8" t="s">
         <v>71</v>
       </c>
@@ -8933,7 +8823,7 @@
       <c r="A133" s="6">
         <v>122</v>
       </c>
-      <c r="B133" s="49"/>
+      <c r="B133" s="48"/>
       <c r="C133" s="8" t="s">
         <v>36</v>
       </c>
@@ -8947,7 +8837,7 @@
       <c r="A134" s="6">
         <v>123</v>
       </c>
-      <c r="B134" s="49"/>
+      <c r="B134" s="48"/>
       <c r="C134" s="8" t="s">
         <v>37</v>
       </c>
@@ -8961,7 +8851,7 @@
       <c r="A135" s="6">
         <v>124</v>
       </c>
-      <c r="B135" s="49"/>
+      <c r="B135" s="48"/>
       <c r="C135" s="8" t="s">
         <v>49</v>
       </c>
@@ -8975,7 +8865,7 @@
       <c r="A136" s="6">
         <v>125</v>
       </c>
-      <c r="B136" s="49"/>
+      <c r="B136" s="48"/>
       <c r="C136" s="8" t="s">
         <v>228</v>
       </c>
@@ -8991,7 +8881,7 @@
       <c r="A137" s="6">
         <v>126</v>
       </c>
-      <c r="B137" s="49"/>
+      <c r="B137" s="48"/>
       <c r="C137" s="14" t="s">
         <v>226</v>
       </c>
@@ -9007,7 +8897,7 @@
       <c r="A138" s="6">
         <v>126</v>
       </c>
-      <c r="B138" s="50"/>
+      <c r="B138" s="49"/>
       <c r="C138" s="14" t="s">
         <v>225</v>
       </c>
@@ -9021,7 +8911,7 @@
       <c r="A139" s="6">
         <v>127</v>
       </c>
-      <c r="B139" s="48" t="s">
+      <c r="B139" s="47" t="s">
         <v>230</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -9039,7 +8929,7 @@
       <c r="A140" s="6">
         <v>128</v>
       </c>
-      <c r="B140" s="49"/>
+      <c r="B140" s="48"/>
       <c r="C140" s="8" t="s">
         <v>33</v>
       </c>
@@ -9053,7 +8943,7 @@
       <c r="A141" s="6">
         <v>129</v>
       </c>
-      <c r="B141" s="49"/>
+      <c r="B141" s="48"/>
       <c r="C141" s="8" t="s">
         <v>232</v>
       </c>
@@ -9067,7 +8957,7 @@
       <c r="A142" s="6">
         <v>130</v>
       </c>
-      <c r="B142" s="50"/>
+      <c r="B142" s="49"/>
       <c r="C142" s="8" t="s">
         <v>233</v>
       </c>
@@ -9081,7 +8971,7 @@
       <c r="A143" s="6">
         <v>131</v>
       </c>
-      <c r="B143" s="48" t="s">
+      <c r="B143" s="47" t="s">
         <v>52</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -9099,7 +8989,7 @@
       <c r="A144" s="6">
         <v>132</v>
       </c>
-      <c r="B144" s="49"/>
+      <c r="B144" s="48"/>
       <c r="C144" s="8" t="s">
         <v>29</v>
       </c>
@@ -9113,7 +9003,7 @@
       <c r="A145" s="6">
         <v>133</v>
       </c>
-      <c r="B145" s="48" t="s">
+      <c r="B145" s="47" t="s">
         <v>53</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -9129,7 +9019,7 @@
       <c r="A146" s="6">
         <v>134</v>
       </c>
-      <c r="B146" s="49"/>
+      <c r="B146" s="48"/>
       <c r="C146" s="8" t="s">
         <v>100</v>
       </c>
@@ -9143,7 +9033,7 @@
       <c r="A147" s="6">
         <v>135</v>
       </c>
-      <c r="B147" s="50"/>
+      <c r="B147" s="49"/>
       <c r="C147" s="8" t="s">
         <v>45</v>
       </c>
@@ -9157,7 +9047,7 @@
       <c r="A148" s="6">
         <v>136</v>
       </c>
-      <c r="B148" s="48" t="s">
+      <c r="B148" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -9173,7 +9063,7 @@
       <c r="A149" s="6">
         <v>137</v>
       </c>
-      <c r="B149" s="49"/>
+      <c r="B149" s="48"/>
       <c r="C149" s="8" t="s">
         <v>33</v>
       </c>
@@ -9187,7 +9077,7 @@
       <c r="A150" s="6">
         <v>138</v>
       </c>
-      <c r="B150" s="50"/>
+      <c r="B150" s="49"/>
       <c r="C150" s="8" t="s">
         <v>157</v>
       </c>
@@ -9201,7 +9091,7 @@
       <c r="A151" s="6">
         <v>139</v>
       </c>
-      <c r="B151" s="36" t="s">
+      <c r="B151" s="35" t="s">
         <v>236</v>
       </c>
       <c r="C151" s="8"/>
@@ -9211,611 +9101,611 @@
       <c r="E151" s="9"/>
       <c r="F151" s="10"/>
     </row>
-    <row r="152" spans="1:6" s="42" customFormat="1">
-      <c r="A152" s="37">
+    <row r="152" spans="1:6" s="41" customFormat="1">
+      <c r="A152" s="36">
         <v>140</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C152" s="39" t="s">
+      <c r="C152" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D152" s="39" t="s">
+      <c r="D152" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E152" s="43"/>
-      <c r="F152" s="41"/>
-    </row>
-    <row r="153" spans="1:6" s="42" customFormat="1">
-      <c r="A153" s="37">
+      <c r="E152" s="42"/>
+      <c r="F152" s="40"/>
+    </row>
+    <row r="153" spans="1:6" s="41" customFormat="1">
+      <c r="A153" s="36">
         <v>141</v>
       </c>
       <c r="B153" s="12"/>
-      <c r="C153" s="39" t="s">
+      <c r="C153" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E153" s="43" t="s">
+      <c r="D153" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="F153" s="41"/>
-    </row>
-    <row r="154" spans="1:6" s="42" customFormat="1">
-      <c r="A154" s="37">
+      <c r="F153" s="40"/>
+    </row>
+    <row r="154" spans="1:6" s="41" customFormat="1">
+      <c r="A154" s="36">
         <v>142</v>
       </c>
       <c r="B154" s="12"/>
-      <c r="C154" s="39" t="s">
+      <c r="C154" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D154" s="39" t="s">
+      <c r="D154" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E154" s="40" t="s">
+      <c r="E154" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="F154" s="41"/>
-    </row>
-    <row r="155" spans="1:6" s="42" customFormat="1" ht="15" customHeight="1">
-      <c r="A155" s="37">
+      <c r="F154" s="40"/>
+    </row>
+    <row r="155" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1">
+      <c r="A155" s="36">
         <v>143</v>
       </c>
-      <c r="B155" s="82" t="s">
+      <c r="B155" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="C155" s="39" t="s">
+      <c r="C155" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D155" s="39" t="s">
+      <c r="D155" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E155" s="40" t="s">
+      <c r="E155" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="F155" s="41"/>
-    </row>
-    <row r="156" spans="1:6" s="42" customFormat="1" ht="34.5">
-      <c r="A156" s="37">
+      <c r="F155" s="40"/>
+    </row>
+    <row r="156" spans="1:6" s="41" customFormat="1" ht="34">
+      <c r="A156" s="36">
         <v>144</v>
       </c>
-      <c r="B156" s="82"/>
-      <c r="C156" s="39" t="s">
+      <c r="B156" s="64"/>
+      <c r="C156" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="39" t="s">
+      <c r="D156" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E156" s="40" t="s">
+      <c r="E156" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F156" s="41"/>
-    </row>
-    <row r="157" spans="1:6" s="42" customFormat="1">
-      <c r="A157" s="37">
+      <c r="F156" s="40"/>
+    </row>
+    <row r="157" spans="1:6" s="41" customFormat="1">
+      <c r="A157" s="36">
         <v>145</v>
       </c>
-      <c r="B157" s="82"/>
-      <c r="C157" s="39" t="s">
+      <c r="B157" s="64"/>
+      <c r="C157" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" s="43" t="s">
+      <c r="D157" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="F157" s="41"/>
-    </row>
-    <row r="158" spans="1:6" s="42" customFormat="1">
-      <c r="A158" s="37">
+      <c r="F157" s="40"/>
+    </row>
+    <row r="158" spans="1:6" s="41" customFormat="1">
+      <c r="A158" s="36">
         <v>146</v>
       </c>
-      <c r="B158" s="82"/>
-      <c r="C158" s="39" t="s">
+      <c r="B158" s="64"/>
+      <c r="C158" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D158" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" s="43"/>
-      <c r="F158" s="41"/>
-    </row>
-    <row r="159" spans="1:6" s="42" customFormat="1">
-      <c r="A159" s="37">
+      <c r="D158" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="42"/>
+      <c r="F158" s="40"/>
+    </row>
+    <row r="159" spans="1:6" s="41" customFormat="1">
+      <c r="A159" s="36">
         <v>147</v>
       </c>
-      <c r="B159" s="82"/>
-      <c r="C159" s="51" t="s">
+      <c r="B159" s="64"/>
+      <c r="C159" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="D159" s="51" t="s">
+      <c r="D159" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E159" s="52" t="s">
+      <c r="E159" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="F159" s="53" t="s">
+      <c r="F159" s="52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="42" customFormat="1">
-      <c r="A160" s="37">
+    <row r="160" spans="1:6" s="41" customFormat="1">
+      <c r="A160" s="36">
         <v>149</v>
       </c>
-      <c r="B160" s="82"/>
-      <c r="C160" s="39" t="s">
+      <c r="B160" s="64"/>
+      <c r="C160" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D160" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="43"/>
-      <c r="F160" s="41"/>
-    </row>
-    <row r="161" spans="1:6" s="42" customFormat="1">
-      <c r="A161" s="37">
+      <c r="D160" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="42"/>
+      <c r="F160" s="40"/>
+    </row>
+    <row r="161" spans="1:6" s="41" customFormat="1">
+      <c r="A161" s="36">
         <v>150</v>
       </c>
-      <c r="B161" s="82"/>
-      <c r="C161" s="51" t="s">
+      <c r="B161" s="64"/>
+      <c r="C161" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D161" s="51" t="s">
+      <c r="D161" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E161" s="52"/>
-      <c r="F161" s="53" t="s">
+      <c r="E161" s="51"/>
+      <c r="F161" s="52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="42" customFormat="1">
-      <c r="A162" s="37">
+    <row r="162" spans="1:6" s="41" customFormat="1">
+      <c r="A162" s="36">
         <v>152</v>
       </c>
-      <c r="B162" s="82"/>
-      <c r="C162" s="39" t="s">
+      <c r="B162" s="64"/>
+      <c r="C162" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D162" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E162" s="43"/>
-      <c r="F162" s="41"/>
-    </row>
-    <row r="163" spans="1:6" s="42" customFormat="1">
-      <c r="A163" s="37">
+      <c r="D162" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="42"/>
+      <c r="F162" s="40"/>
+    </row>
+    <row r="163" spans="1:6" s="41" customFormat="1">
+      <c r="A163" s="36">
         <v>153</v>
       </c>
-      <c r="B163" s="82"/>
-      <c r="C163" s="51" t="s">
+      <c r="B163" s="64"/>
+      <c r="C163" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="D163" s="51" t="s">
+      <c r="D163" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E163" s="52"/>
-      <c r="F163" s="53" t="s">
+      <c r="E163" s="51"/>
+      <c r="F163" s="52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="42" customFormat="1">
-      <c r="A164" s="37">
+    <row r="164" spans="1:6" s="41" customFormat="1">
+      <c r="A164" s="36">
         <v>155</v>
       </c>
-      <c r="B164" s="82"/>
-      <c r="C164" s="39" t="s">
+      <c r="B164" s="64"/>
+      <c r="C164" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D164" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E164" s="43"/>
-      <c r="F164" s="41"/>
-    </row>
-    <row r="165" spans="1:6" s="42" customFormat="1">
-      <c r="A165" s="37">
+      <c r="D164" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="42"/>
+      <c r="F164" s="40"/>
+    </row>
+    <row r="165" spans="1:6" s="41" customFormat="1">
+      <c r="A165" s="36">
         <v>156</v>
       </c>
-      <c r="B165" s="82"/>
-      <c r="C165" s="51" t="s">
+      <c r="B165" s="64"/>
+      <c r="C165" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D165" s="51" t="s">
+      <c r="D165" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E165" s="52"/>
-      <c r="F165" s="53" t="s">
+      <c r="E165" s="51"/>
+      <c r="F165" s="52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="42" customFormat="1">
-      <c r="A166" s="37">
+    <row r="166" spans="1:6" s="41" customFormat="1">
+      <c r="A166" s="36">
         <v>163</v>
       </c>
-      <c r="B166" s="59" t="s">
+      <c r="B166" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="C166" s="39" t="s">
+      <c r="C166" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D166" s="39" t="s">
+      <c r="D166" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="E166" s="43" t="s">
+      <c r="E166" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="F166" s="41"/>
-    </row>
-    <row r="167" spans="1:6" s="42" customFormat="1">
-      <c r="A167" s="37">
+      <c r="F166" s="40"/>
+    </row>
+    <row r="167" spans="1:6" s="41" customFormat="1">
+      <c r="A167" s="36">
         <v>165</v>
       </c>
-      <c r="B167" s="60"/>
-      <c r="C167" s="39" t="s">
+      <c r="B167" s="59"/>
+      <c r="C167" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D167" s="39" t="s">
+      <c r="D167" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="43" t="s">
+      <c r="E167" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="F167" s="41"/>
-    </row>
-    <row r="168" spans="1:6" s="42" customFormat="1">
-      <c r="A168" s="37">
+      <c r="F167" s="40"/>
+    </row>
+    <row r="168" spans="1:6" s="41" customFormat="1">
+      <c r="A168" s="36">
         <v>166</v>
       </c>
-      <c r="B168" s="83" t="s">
+      <c r="B168" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="C168" s="39" t="s">
+      <c r="C168" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D168" s="39" t="s">
+      <c r="D168" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E168" s="43" t="s">
+      <c r="E168" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="F168" s="41"/>
-    </row>
-    <row r="169" spans="1:6" s="42" customFormat="1">
-      <c r="A169" s="37">
+      <c r="F168" s="40"/>
+    </row>
+    <row r="169" spans="1:6" s="41" customFormat="1">
+      <c r="A169" s="36">
         <v>167</v>
       </c>
-      <c r="B169" s="83"/>
-      <c r="C169" s="39" t="s">
+      <c r="B169" s="65"/>
+      <c r="C169" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D169" s="39" t="s">
+      <c r="D169" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E169" s="43"/>
-      <c r="F169" s="41"/>
-    </row>
-    <row r="170" spans="1:6" s="42" customFormat="1">
-      <c r="A170" s="37">
+      <c r="E169" s="42"/>
+      <c r="F169" s="40"/>
+    </row>
+    <row r="170" spans="1:6" s="41" customFormat="1">
+      <c r="A170" s="36">
         <v>168</v>
       </c>
-      <c r="B170" s="60"/>
-      <c r="C170" s="39" t="s">
+      <c r="B170" s="59"/>
+      <c r="C170" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D170" s="39" t="s">
+      <c r="D170" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E170" s="43"/>
-      <c r="F170" s="41"/>
-    </row>
-    <row r="171" spans="1:6" s="42" customFormat="1">
-      <c r="A171" s="37">
+      <c r="E170" s="42"/>
+      <c r="F170" s="40"/>
+    </row>
+    <row r="171" spans="1:6" s="41" customFormat="1">
+      <c r="A171" s="36">
         <v>169</v>
       </c>
-      <c r="B171" s="61"/>
-      <c r="C171" s="39" t="s">
+      <c r="B171" s="60"/>
+      <c r="C171" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D171" s="39" t="s">
+      <c r="D171" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E171" s="43"/>
-      <c r="F171" s="41"/>
-    </row>
-    <row r="172" spans="1:6" s="42" customFormat="1">
-      <c r="A172" s="37">
+      <c r="E171" s="42"/>
+      <c r="F171" s="40"/>
+    </row>
+    <row r="172" spans="1:6" s="41" customFormat="1">
+      <c r="A172" s="36">
         <v>170</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C172" s="39" t="s">
+      <c r="C172" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="D172" s="39" t="s">
+      <c r="D172" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E172" s="43" t="s">
+      <c r="E172" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F172" s="41"/>
-    </row>
-    <row r="173" spans="1:6" s="42" customFormat="1">
-      <c r="A173" s="37">
+      <c r="F172" s="40"/>
+    </row>
+    <row r="173" spans="1:6" s="41" customFormat="1">
+      <c r="A173" s="36">
         <v>171</v>
       </c>
-      <c r="B173" s="84"/>
-      <c r="C173" s="39" t="s">
+      <c r="B173" s="66"/>
+      <c r="C173" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D173" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E173" s="43"/>
-      <c r="F173" s="41"/>
-    </row>
-    <row r="174" spans="1:6" s="42" customFormat="1">
-      <c r="A174" s="37">
+      <c r="D173" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="42"/>
+      <c r="F173" s="40"/>
+    </row>
+    <row r="174" spans="1:6" s="41" customFormat="1">
+      <c r="A174" s="36">
         <v>172</v>
       </c>
-      <c r="B174" s="84"/>
-      <c r="C174" s="39" t="s">
+      <c r="B174" s="66"/>
+      <c r="C174" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="D174" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" s="43"/>
-      <c r="F174" s="41"/>
-    </row>
-    <row r="175" spans="1:6" s="42" customFormat="1">
-      <c r="A175" s="37">
+      <c r="D174" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="42"/>
+      <c r="F174" s="40"/>
+    </row>
+    <row r="175" spans="1:6" s="41" customFormat="1">
+      <c r="A175" s="36">
         <v>173</v>
       </c>
-      <c r="B175" s="84"/>
-      <c r="C175" s="39" t="s">
+      <c r="B175" s="66"/>
+      <c r="C175" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D175" s="39" t="s">
+      <c r="D175" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E175" s="43"/>
-      <c r="F175" s="41"/>
-    </row>
-    <row r="176" spans="1:6" s="42" customFormat="1">
-      <c r="A176" s="37">
+      <c r="E175" s="42"/>
+      <c r="F175" s="40"/>
+    </row>
+    <row r="176" spans="1:6" s="41" customFormat="1">
+      <c r="A176" s="36">
         <v>174</v>
       </c>
-      <c r="B176" s="84"/>
-      <c r="C176" s="39" t="s">
+      <c r="B176" s="66"/>
+      <c r="C176" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D176" s="39" t="s">
+      <c r="D176" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E176" s="43" t="s">
+      <c r="E176" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="F176" s="41"/>
-    </row>
-    <row r="177" spans="1:6" s="42" customFormat="1">
-      <c r="A177" s="37">
+      <c r="F176" s="40"/>
+    </row>
+    <row r="177" spans="1:6" s="41" customFormat="1">
+      <c r="A177" s="36">
         <v>175</v>
       </c>
-      <c r="B177" s="84"/>
-      <c r="C177" s="39" t="s">
+      <c r="B177" s="66"/>
+      <c r="C177" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D177" s="39" t="s">
+      <c r="D177" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E177" s="43"/>
-      <c r="F177" s="41"/>
-    </row>
-    <row r="178" spans="1:6" s="42" customFormat="1">
-      <c r="A178" s="37">
+      <c r="E177" s="42"/>
+      <c r="F177" s="40"/>
+    </row>
+    <row r="178" spans="1:6" s="41" customFormat="1">
+      <c r="A178" s="36">
         <v>176</v>
       </c>
       <c r="B178" s="13"/>
-      <c r="C178" s="39" t="s">
+      <c r="C178" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D178" s="39" t="s">
+      <c r="D178" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E178" s="43"/>
-      <c r="F178" s="41"/>
-    </row>
-    <row r="179" spans="1:6" s="42" customFormat="1">
-      <c r="A179" s="37">
+      <c r="E178" s="42"/>
+      <c r="F178" s="40"/>
+    </row>
+    <row r="179" spans="1:6" s="41" customFormat="1">
+      <c r="A179" s="36">
         <v>177</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C179" s="39" t="s">
+      <c r="C179" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="D179" s="39" t="s">
+      <c r="D179" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E179" s="43" t="s">
+      <c r="E179" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="F179" s="41"/>
-    </row>
-    <row r="180" spans="1:6" s="42" customFormat="1">
-      <c r="A180" s="37">
+      <c r="F179" s="40"/>
+    </row>
+    <row r="180" spans="1:6" s="41" customFormat="1">
+      <c r="A180" s="36">
         <v>178</v>
       </c>
       <c r="B180" s="12"/>
-      <c r="C180" s="39" t="s">
+      <c r="C180" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="D180" s="39" t="s">
+      <c r="D180" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E180" s="43" t="s">
+      <c r="E180" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="F180" s="41"/>
-    </row>
-    <row r="181" spans="1:6" s="42" customFormat="1" ht="51.75">
-      <c r="A181" s="37"/>
+      <c r="F180" s="40"/>
+    </row>
+    <row r="181" spans="1:6" s="41" customFormat="1" ht="34">
+      <c r="A181" s="36"/>
       <c r="B181" s="12"/>
-      <c r="C181" s="39" t="s">
+      <c r="C181" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="D181" s="39" t="s">
+      <c r="D181" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E181" s="43" t="s">
+      <c r="E181" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="F181" s="41"/>
-    </row>
-    <row r="182" spans="1:6" s="42" customFormat="1">
-      <c r="A182" s="37">
+      <c r="F181" s="40"/>
+    </row>
+    <row r="182" spans="1:6" s="41" customFormat="1">
+      <c r="A182" s="36">
         <v>179</v>
       </c>
-      <c r="B182" s="82" t="s">
+      <c r="B182" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="C182" s="39" t="s">
+      <c r="C182" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D182" s="39" t="s">
+      <c r="D182" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E182" s="43" t="s">
+      <c r="E182" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="F182" s="41"/>
-    </row>
-    <row r="183" spans="1:6" s="42" customFormat="1">
-      <c r="A183" s="37">
+      <c r="F182" s="40"/>
+    </row>
+    <row r="183" spans="1:6" s="41" customFormat="1">
+      <c r="A183" s="36">
         <v>180</v>
       </c>
-      <c r="B183" s="82"/>
-      <c r="C183" s="39" t="s">
+      <c r="B183" s="64"/>
+      <c r="C183" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D183" s="39" t="s">
+      <c r="D183" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E183" s="43" t="s">
+      <c r="E183" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="F183" s="41"/>
-    </row>
-    <row r="184" spans="1:6" s="42" customFormat="1">
-      <c r="A184" s="37">
+      <c r="F183" s="40"/>
+    </row>
+    <row r="184" spans="1:6" s="41" customFormat="1">
+      <c r="A184" s="36">
         <v>181</v>
       </c>
-      <c r="B184" s="82"/>
-      <c r="C184" s="39" t="s">
+      <c r="B184" s="64"/>
+      <c r="C184" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D184" s="39" t="s">
+      <c r="D184" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E184" s="43" t="s">
+      <c r="E184" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="F184" s="41"/>
-    </row>
-    <row r="185" spans="1:6" s="42" customFormat="1">
-      <c r="A185" s="37">
+      <c r="F184" s="40"/>
+    </row>
+    <row r="185" spans="1:6" s="41" customFormat="1">
+      <c r="A185" s="36">
         <v>182</v>
       </c>
-      <c r="B185" s="85"/>
-      <c r="C185" s="39" t="s">
+      <c r="B185" s="67"/>
+      <c r="C185" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D185" s="39" t="s">
+      <c r="D185" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E185" s="43" t="s">
+      <c r="E185" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="F185" s="41"/>
-    </row>
-    <row r="186" spans="1:6" s="42" customFormat="1">
-      <c r="A186" s="37">
+      <c r="F185" s="40"/>
+    </row>
+    <row r="186" spans="1:6" s="41" customFormat="1">
+      <c r="A186" s="36">
         <v>183</v>
       </c>
-      <c r="B186" s="59" t="s">
+      <c r="B186" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="39" t="s">
+      <c r="C186" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D186" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E186" s="43"/>
-      <c r="F186" s="41"/>
-    </row>
-    <row r="187" spans="1:6" s="42" customFormat="1" ht="15" customHeight="1">
-      <c r="A187" s="37">
+      <c r="D186" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="42"/>
+      <c r="F186" s="40"/>
+    </row>
+    <row r="187" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1">
+      <c r="A187" s="36">
         <v>184</v>
       </c>
-      <c r="B187" s="62"/>
-      <c r="C187" s="39" t="s">
+      <c r="B187" s="61"/>
+      <c r="C187" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="D187" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E187" s="57"/>
-      <c r="F187" s="41"/>
-    </row>
-    <row r="188" spans="1:6" s="42" customFormat="1">
-      <c r="A188" s="37">
+      <c r="D187" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="56"/>
+      <c r="F187" s="40"/>
+    </row>
+    <row r="188" spans="1:6" s="41" customFormat="1">
+      <c r="A188" s="36">
         <v>185</v>
       </c>
-      <c r="B188" s="83" t="s">
+      <c r="B188" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="C188" s="39" t="s">
+      <c r="C188" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D188" s="39" t="s">
+      <c r="D188" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E188" s="43"/>
-      <c r="F188" s="41"/>
-    </row>
-    <row r="189" spans="1:6" s="42" customFormat="1">
-      <c r="A189" s="37">
+      <c r="E188" s="42"/>
+      <c r="F188" s="40"/>
+    </row>
+    <row r="189" spans="1:6" s="41" customFormat="1">
+      <c r="A189" s="36">
         <v>186</v>
       </c>
-      <c r="B189" s="83"/>
-      <c r="C189" s="39" t="s">
+      <c r="B189" s="65"/>
+      <c r="C189" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D189" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E189" s="57"/>
-      <c r="F189" s="41"/>
-    </row>
-    <row r="190" spans="1:6" s="42" customFormat="1">
-      <c r="A190" s="37">
+      <c r="D189" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="56"/>
+      <c r="F189" s="40"/>
+    </row>
+    <row r="190" spans="1:6" s="41" customFormat="1">
+      <c r="A190" s="36">
         <v>187</v>
       </c>
-      <c r="B190" s="86"/>
-      <c r="C190" s="58" t="s">
+      <c r="B190" s="68"/>
+      <c r="C190" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D190" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="43"/>
-      <c r="F190" s="41"/>
+      <c r="D190" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" s="42"/>
+      <c r="F190" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F190"/>
@@ -9842,33 +9732,33 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="2.42578125" style="30"/>
+    <col min="1" max="16384" width="2.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="17.25">
+    <row r="2" spans="1:1" ht="17">
       <c r="A2" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25">
+    <row r="35" spans="1:2" ht="17">
       <c r="A35" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="29"/>
     </row>
-    <row r="45" spans="1:2" ht="17.25">
+    <row r="45" spans="1:2" ht="17">
       <c r="A45" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17.25">
+    <row r="66" spans="1:1" ht="17">
       <c r="A66" s="29" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="17.25">
+    <row r="77" spans="1:1" ht="17">
       <c r="A77" s="29" t="s">
         <v>204</v>
       </c>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="286">
   <si>
     <t>No</t>
   </si>
@@ -942,13 +942,16 @@
   </si>
   <si>
     <t>reference to example via "grammar"</t>
+  </si>
+  <si>
+    <t>sentence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1035,6 +1038,17 @@
       <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1264,7 +1278,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1330,8 +1344,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1502,6 +1522,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1517,14 +1543,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1557,6 +1590,9 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1589,6 +1625,9 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3935,7 +3974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4742,11 +4781,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4776,7 +4815,7 @@
       <c r="E1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="64" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4795,7 +4834,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="70"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6">
@@ -4810,7 +4849,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="70"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6">
@@ -4825,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="70"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6">
@@ -4840,7 +4879,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="70"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" s="41" customFormat="1">
       <c r="A6" s="6">
@@ -4857,7 +4896,7 @@
       <c r="E6" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="71"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" s="41" customFormat="1">
       <c r="A7" s="6">
@@ -4874,7 +4913,7 @@
       <c r="E7" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6" s="41" customFormat="1">
       <c r="A8" s="6">
@@ -4891,7 +4930,7 @@
       <c r="E8" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6">
@@ -4908,7 +4947,7 @@
       <c r="E9" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6">
@@ -4925,7 +4964,7 @@
       <c r="E10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6">
@@ -4942,7 +4981,7 @@
       <c r="E11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6">
@@ -4959,7 +4998,7 @@
       <c r="E12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6">
@@ -4974,7 +5013,7 @@
       <c r="E13" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6">
@@ -4993,7 +5032,7 @@
       <c r="E14" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6">
@@ -5010,7 +5049,7 @@
       <c r="E15" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6">
@@ -5027,7 +5066,7 @@
       <c r="E16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:6" s="41" customFormat="1">
       <c r="A17" s="6">
@@ -5042,7 +5081,7 @@
         <v>235</v>
       </c>
       <c r="E17" s="42"/>
-      <c r="F17" s="71"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6">
@@ -5059,7 +5098,7 @@
       <c r="E18" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6">
@@ -5076,7 +5115,7 @@
       <c r="E19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6" ht="34">
       <c r="A20" s="6">
@@ -5093,7 +5132,7 @@
       <c r="E20" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6">
@@ -5112,7 +5151,7 @@
       <c r="E21" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F21" s="70"/>
+      <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6">
@@ -5129,7 +5168,7 @@
       <c r="E22" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="70"/>
+      <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6">
@@ -5144,7 +5183,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="70"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6">
@@ -5159,7 +5198,7 @@
         <v>96</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="70"/>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6">
@@ -5178,7 +5217,7 @@
       <c r="E25" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="70"/>
+      <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6">
@@ -5195,7 +5234,7 @@
       <c r="E26" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F26" s="70"/>
+      <c r="F26" s="65"/>
     </row>
     <row r="27" spans="1:6" s="41" customFormat="1">
       <c r="A27" s="36"/>
@@ -5209,7 +5248,7 @@
       <c r="E27" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="71"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6">
@@ -5226,7 +5265,7 @@
       <c r="E28" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="70"/>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6">
@@ -5241,7 +5280,7 @@
         <v>93</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="70"/>
+      <c r="F29" s="65"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6">
@@ -5256,7 +5295,7 @@
         <v>93</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="70"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6">
@@ -5273,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="70"/>
+      <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6">
@@ -5288,7 +5327,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="70"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6">
@@ -5303,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="70"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="6">
@@ -5318,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="70"/>
+      <c r="F34" s="65"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6">
@@ -5333,7 +5372,7 @@
       <c r="E35" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="F35" s="70"/>
+      <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="6">
@@ -5348,7 +5387,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="70"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6">
@@ -5363,7 +5402,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="70"/>
+      <c r="F37" s="65"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6">
@@ -5378,7 +5417,7 @@
       <c r="E38" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="70"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6">
@@ -5393,7 +5432,7 @@
       <c r="E39" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="70"/>
+      <c r="F39" s="65"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6">
@@ -5408,7 +5447,7 @@
       <c r="E40" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="70"/>
+      <c r="F40" s="65"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6">
@@ -5423,7 +5462,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="70"/>
+      <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="6">
@@ -5440,7 +5479,7 @@
       <c r="E42" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="70"/>
+      <c r="F42" s="65"/>
     </row>
     <row r="43" spans="1:6" ht="68">
       <c r="A43" s="6">
@@ -5457,7 +5496,7 @@
       <c r="E43" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="70"/>
+      <c r="F43" s="65"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6">
@@ -5472,7 +5511,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="70"/>
+      <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="6">
@@ -5489,7 +5528,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="70"/>
+      <c r="F45" s="65"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6">
@@ -5504,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="9"/>
-      <c r="F46" s="70"/>
+      <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="6">
@@ -5519,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="70"/>
+      <c r="F47" s="65"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6">
@@ -5534,7 +5573,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="70"/>
+      <c r="F48" s="65"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="6">
@@ -5549,7 +5588,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="70"/>
+      <c r="F49" s="65"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="6">
@@ -5564,7 +5603,7 @@
       <c r="E50" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="70"/>
+      <c r="F50" s="65"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="6">
@@ -5579,7 +5618,7 @@
       <c r="E51" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="F51" s="70"/>
+      <c r="F51" s="65"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="6">
@@ -5594,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="70"/>
+      <c r="F52" s="65"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="6">
@@ -5611,7 +5650,7 @@
       <c r="E53" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F53" s="70"/>
+      <c r="F53" s="65"/>
     </row>
     <row r="54" spans="1:6" ht="68">
       <c r="A54" s="6">
@@ -5628,7 +5667,7 @@
       <c r="E54" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F54" s="70"/>
+      <c r="F54" s="65"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6">
@@ -5643,7 +5682,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="9"/>
-      <c r="F55" s="70"/>
+      <c r="F55" s="65"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6">
@@ -5660,7 +5699,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="9"/>
-      <c r="F56" s="70"/>
+      <c r="F56" s="65"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="6">
@@ -5675,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="70"/>
+      <c r="F57" s="65"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="6">
@@ -5690,7 +5729,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="70"/>
+      <c r="F58" s="65"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="6">
@@ -5705,7 +5744,7 @@
       <c r="E59" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F59" s="70"/>
+      <c r="F59" s="65"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="6">
@@ -5720,7 +5759,7 @@
       <c r="E60" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="70"/>
+      <c r="F60" s="65"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="6">
@@ -5735,7 +5774,7 @@
       <c r="E61" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F61" s="70"/>
+      <c r="F61" s="65"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="6">
@@ -5750,7 +5789,7 @@
       <c r="E62" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F62" s="70"/>
+      <c r="F62" s="65"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="6">
@@ -5765,7 +5804,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="70"/>
+      <c r="F63" s="65"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="6">
@@ -5782,7 +5821,7 @@
       <c r="E64" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F64" s="70"/>
+      <c r="F64" s="65"/>
     </row>
     <row r="65" spans="1:6" ht="68">
       <c r="A65" s="6">
@@ -5799,7 +5838,7 @@
       <c r="E65" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F65" s="70"/>
+      <c r="F65" s="65"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="6">
@@ -5814,7 +5853,7 @@
         <v>4</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="70"/>
+      <c r="F66" s="65"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="6">
@@ -5833,11 +5872,11 @@
       <c r="E67" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F67" s="70"/>
+      <c r="F67" s="65"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="6">
-        <f t="shared" ref="A68:A129" si="1">ROW()-1</f>
+        <f t="shared" ref="A68:A131" si="1">ROW()-1</f>
         <v>67</v>
       </c>
       <c r="B68" s="12"/>
@@ -5850,7 +5889,7 @@
       <c r="E68" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F68" s="70"/>
+      <c r="F68" s="65"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="6">
@@ -5867,7 +5906,7 @@
       <c r="E69" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F69" s="70"/>
+      <c r="F69" s="65"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="6">
@@ -5882,7 +5921,7 @@
         <v>4</v>
       </c>
       <c r="E70" s="9"/>
-      <c r="F70" s="70"/>
+      <c r="F70" s="65"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="6">
@@ -5897,7 +5936,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="9"/>
-      <c r="F71" s="70"/>
+      <c r="F71" s="65"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="6">
@@ -5914,7 +5953,7 @@
         <v>4</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="70"/>
+      <c r="F72" s="65"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="6">
@@ -5929,7 +5968,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="70"/>
+      <c r="F73" s="65"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="6">
@@ -5944,7 +5983,7 @@
       <c r="E74" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F74" s="70"/>
+      <c r="F74" s="65"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="6">
@@ -5959,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="9"/>
-      <c r="F75" s="70"/>
+      <c r="F75" s="65"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="6">
@@ -5974,7 +6013,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="9"/>
-      <c r="F76" s="70"/>
+      <c r="F76" s="65"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="6">
@@ -5989,7 +6028,7 @@
       <c r="E77" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F77" s="70"/>
+      <c r="F77" s="65"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="6">
@@ -6004,7 +6043,7 @@
       <c r="E78" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F78" s="70"/>
+      <c r="F78" s="65"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="6">
@@ -6019,7 +6058,7 @@
       <c r="E79" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="70"/>
+      <c r="F79" s="65"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="6">
@@ -6034,7 +6073,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="9"/>
-      <c r="F80" s="70"/>
+      <c r="F80" s="65"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="6">
@@ -6051,7 +6090,7 @@
       <c r="E81" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="70"/>
+      <c r="F81" s="65"/>
     </row>
     <row r="82" spans="1:6" ht="68">
       <c r="A82" s="6">
@@ -6068,7 +6107,7 @@
       <c r="E82" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F82" s="70"/>
+      <c r="F82" s="65"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="6">
@@ -6085,7 +6124,7 @@
       <c r="E83" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="70"/>
+      <c r="F83" s="65"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="6">
@@ -6104,7 +6143,7 @@
       <c r="E84" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F84" s="70"/>
+      <c r="F84" s="65"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="6">
@@ -6121,7 +6160,7 @@
       <c r="E85" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F85" s="70"/>
+      <c r="F85" s="65"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="6">
@@ -6138,7 +6177,7 @@
       <c r="E86" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="70"/>
+      <c r="F86" s="65"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="6">
@@ -6153,7 +6192,7 @@
       <c r="E87" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="70"/>
+      <c r="F87" s="65"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="6">
@@ -6168,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="9"/>
-      <c r="F88" s="70"/>
+      <c r="F88" s="65"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="6">
@@ -6183,7 +6222,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="9"/>
-      <c r="F89" s="70"/>
+      <c r="F89" s="65"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="6">
@@ -6198,7 +6237,7 @@
         <v>4</v>
       </c>
       <c r="E90" s="9"/>
-      <c r="F90" s="70"/>
+      <c r="F90" s="65"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="6">
@@ -6213,7 +6252,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="9"/>
-      <c r="F91" s="70"/>
+      <c r="F91" s="65"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="6">
@@ -6228,7 +6267,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="42"/>
-      <c r="F92" s="71"/>
+      <c r="F92" s="66"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="6">
@@ -6247,7 +6286,7 @@
       <c r="E93" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F93" s="70"/>
+      <c r="F93" s="65"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="6">
@@ -6264,7 +6303,7 @@
       <c r="E94" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F94" s="71"/>
+      <c r="F94" s="66"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="6">
@@ -6281,7 +6320,7 @@
       <c r="E95" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F95" s="71"/>
+      <c r="F95" s="66"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="6">
@@ -6298,7 +6337,7 @@
       <c r="E96" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="F96" s="71"/>
+      <c r="F96" s="66"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="6">
@@ -6313,7 +6352,7 @@
         <v>95</v>
       </c>
       <c r="E97" s="9"/>
-      <c r="F97" s="70"/>
+      <c r="F97" s="65"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="6">
@@ -6328,7 +6367,7 @@
         <v>93</v>
       </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="70"/>
+      <c r="F98" s="65"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="6">
@@ -6343,7 +6382,7 @@
         <v>93</v>
       </c>
       <c r="E99" s="9"/>
-      <c r="F99" s="70"/>
+      <c r="F99" s="65"/>
     </row>
     <row r="100" spans="1:6" s="41" customFormat="1">
       <c r="A100" s="6">
@@ -6362,7 +6401,7 @@
       <c r="E100" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F100" s="71"/>
+      <c r="F100" s="66"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="6">
@@ -6379,7 +6418,7 @@
       <c r="E101" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F101" s="71"/>
+      <c r="F101" s="66"/>
     </row>
     <row r="102" spans="1:6" s="41" customFormat="1">
       <c r="A102" s="6">
@@ -6396,7 +6435,7 @@
       <c r="E102" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F102" s="71"/>
+      <c r="F102" s="66"/>
     </row>
     <row r="103" spans="1:6" s="41" customFormat="1">
       <c r="A103" s="6">
@@ -6413,7 +6452,7 @@
       <c r="E103" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="F103" s="71"/>
+      <c r="F103" s="66"/>
     </row>
     <row r="104" spans="1:6" s="41" customFormat="1">
       <c r="A104" s="6">
@@ -6430,7 +6469,7 @@
       <c r="E104" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="F104" s="71"/>
+      <c r="F104" s="66"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="6">
@@ -6447,7 +6486,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="70"/>
+      <c r="F105" s="65"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="6">
@@ -6462,7 +6501,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="70"/>
+      <c r="F106" s="65"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="6">
@@ -6477,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="9"/>
-      <c r="F107" s="70"/>
+      <c r="F107" s="65"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="6">
@@ -6490,7 +6529,7 @@
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="70"/>
+      <c r="F108" s="65"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="6">
@@ -6505,7 +6544,7 @@
         <v>96</v>
       </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="70"/>
+      <c r="F109" s="65"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="6">
@@ -6520,7 +6559,7 @@
       <c r="E110" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F110" s="70"/>
+      <c r="F110" s="65"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="6">
@@ -6539,7 +6578,7 @@
       <c r="E111" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F111" s="72"/>
+      <c r="F111" s="67"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="6">
@@ -6556,7 +6595,7 @@
       <c r="E112" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F112" s="72"/>
+      <c r="F112" s="67"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="6">
@@ -6571,7 +6610,7 @@
         <v>93</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="70"/>
+      <c r="F113" s="65"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="6">
@@ -6586,7 +6625,7 @@
         <v>93</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="70"/>
+      <c r="F114" s="65"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="6">
@@ -6601,7 +6640,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="70"/>
+      <c r="F115" s="65"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="6">
@@ -6616,7 +6655,7 @@
         <v>235</v>
       </c>
       <c r="E116" s="9"/>
-      <c r="F116" s="70"/>
+      <c r="F116" s="65"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="6">
@@ -6631,7 +6670,7 @@
         <v>149</v>
       </c>
       <c r="E117" s="9"/>
-      <c r="F117" s="70"/>
+      <c r="F117" s="65"/>
     </row>
     <row r="118" spans="1:6" s="41" customFormat="1">
       <c r="A118" s="6">
@@ -6648,7 +6687,7 @@
         <v>13</v>
       </c>
       <c r="E118" s="42"/>
-      <c r="F118" s="71"/>
+      <c r="F118" s="66"/>
     </row>
     <row r="119" spans="1:6" s="41" customFormat="1" ht="34">
       <c r="A119" s="6">
@@ -6665,7 +6704,7 @@
       <c r="E119" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F119" s="71"/>
+      <c r="F119" s="66"/>
     </row>
     <row r="120" spans="1:6" s="41" customFormat="1">
       <c r="A120" s="6">
@@ -6682,7 +6721,7 @@
       <c r="E120" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="F120" s="71"/>
+      <c r="F120" s="66"/>
     </row>
     <row r="121" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="6">
@@ -6699,7 +6738,7 @@
       <c r="E121" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="F121" s="71"/>
+      <c r="F121" s="66"/>
     </row>
     <row r="122" spans="1:6" s="41" customFormat="1">
       <c r="A122" s="6">
@@ -6716,7 +6755,7 @@
       <c r="E122" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="F122" s="71"/>
+      <c r="F122" s="66"/>
     </row>
     <row r="123" spans="1:6" s="41" customFormat="1">
       <c r="A123" s="6">
@@ -6731,7 +6770,7 @@
         <v>4</v>
       </c>
       <c r="E123" s="42"/>
-      <c r="F123" s="71"/>
+      <c r="F123" s="66"/>
     </row>
     <row r="124" spans="1:6" s="41" customFormat="1">
       <c r="A124" s="6">
@@ -6746,7 +6785,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="42"/>
-      <c r="F124" s="71"/>
+      <c r="F124" s="66"/>
     </row>
     <row r="125" spans="1:6" s="41" customFormat="1">
       <c r="A125" s="6">
@@ -6761,7 +6800,7 @@
         <v>4</v>
       </c>
       <c r="E125" s="42"/>
-      <c r="F125" s="71"/>
+      <c r="F125" s="66"/>
     </row>
     <row r="126" spans="1:6" s="41" customFormat="1">
       <c r="A126" s="6">
@@ -6776,7 +6815,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="42"/>
-      <c r="F126" s="71"/>
+      <c r="F126" s="66"/>
     </row>
     <row r="127" spans="1:6" s="41" customFormat="1">
       <c r="A127" s="6">
@@ -6795,7 +6834,7 @@
       <c r="E127" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F127" s="71"/>
+      <c r="F127" s="66"/>
     </row>
     <row r="128" spans="1:6" s="41" customFormat="1">
       <c r="A128" s="6">
@@ -6812,7 +6851,7 @@
       <c r="E128" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F128" s="71"/>
+      <c r="F128" s="66"/>
     </row>
     <row r="129" spans="1:6" s="41" customFormat="1">
       <c r="A129" s="6">
@@ -6829,12 +6868,94 @@
       <c r="E129" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="F129" s="71"/>
+      <c r="F129" s="66"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="6">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="D130" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="75"/>
+      <c r="F130" s="76"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="6">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="73"/>
+      <c r="C131" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="75"/>
+      <c r="F131" s="76"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="6">
+        <f t="shared" ref="A132:A133" si="2">ROW()-1</f>
+        <v>131</v>
+      </c>
+      <c r="B132" s="73"/>
+      <c r="C132" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="75"/>
+      <c r="F132" s="76"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="6">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="73"/>
+      <c r="C133" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F133" s="76"/>
+    </row>
+    <row r="134" spans="1:6" ht="68">
+      <c r="A134" s="6">
+        <f t="shared" ref="A134" si="3">ROW()-1</f>
+        <v>133</v>
+      </c>
+      <c r="B134" s="77"/>
+      <c r="C134" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="F134" s="76"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F129"/>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9153,7 +9274,7 @@
       <c r="A155" s="36">
         <v>143</v>
       </c>
-      <c r="B155" s="64" t="s">
+      <c r="B155" s="68" t="s">
         <v>163</v>
       </c>
       <c r="C155" s="38" t="s">
@@ -9171,7 +9292,7 @@
       <c r="A156" s="36">
         <v>144</v>
       </c>
-      <c r="B156" s="64"/>
+      <c r="B156" s="68"/>
       <c r="C156" s="38" t="s">
         <v>166</v>
       </c>
@@ -9187,7 +9308,7 @@
       <c r="A157" s="36">
         <v>145</v>
       </c>
-      <c r="B157" s="64"/>
+      <c r="B157" s="68"/>
       <c r="C157" s="38" t="s">
         <v>2</v>
       </c>
@@ -9203,7 +9324,7 @@
       <c r="A158" s="36">
         <v>146</v>
       </c>
-      <c r="B158" s="64"/>
+      <c r="B158" s="68"/>
       <c r="C158" s="38" t="s">
         <v>87</v>
       </c>
@@ -9217,7 +9338,7 @@
       <c r="A159" s="36">
         <v>147</v>
       </c>
-      <c r="B159" s="64"/>
+      <c r="B159" s="68"/>
       <c r="C159" s="50" t="s">
         <v>248</v>
       </c>
@@ -9235,7 +9356,7 @@
       <c r="A160" s="36">
         <v>149</v>
       </c>
-      <c r="B160" s="64"/>
+      <c r="B160" s="68"/>
       <c r="C160" s="38" t="s">
         <v>88</v>
       </c>
@@ -9249,7 +9370,7 @@
       <c r="A161" s="36">
         <v>150</v>
       </c>
-      <c r="B161" s="64"/>
+      <c r="B161" s="68"/>
       <c r="C161" s="50" t="s">
         <v>170</v>
       </c>
@@ -9265,7 +9386,7 @@
       <c r="A162" s="36">
         <v>152</v>
       </c>
-      <c r="B162" s="64"/>
+      <c r="B162" s="68"/>
       <c r="C162" s="38" t="s">
         <v>90</v>
       </c>
@@ -9279,7 +9400,7 @@
       <c r="A163" s="36">
         <v>153</v>
       </c>
-      <c r="B163" s="64"/>
+      <c r="B163" s="68"/>
       <c r="C163" s="50" t="s">
         <v>171</v>
       </c>
@@ -9295,7 +9416,7 @@
       <c r="A164" s="36">
         <v>155</v>
       </c>
-      <c r="B164" s="64"/>
+      <c r="B164" s="68"/>
       <c r="C164" s="38" t="s">
         <v>92</v>
       </c>
@@ -9309,7 +9430,7 @@
       <c r="A165" s="36">
         <v>156</v>
       </c>
-      <c r="B165" s="64"/>
+      <c r="B165" s="68"/>
       <c r="C165" s="50" t="s">
         <v>172</v>
       </c>
@@ -9359,7 +9480,7 @@
       <c r="A168" s="36">
         <v>166</v>
       </c>
-      <c r="B168" s="65" t="s">
+      <c r="B168" s="69" t="s">
         <v>200</v>
       </c>
       <c r="C168" s="38" t="s">
@@ -9377,7 +9498,7 @@
       <c r="A169" s="36">
         <v>167</v>
       </c>
-      <c r="B169" s="65"/>
+      <c r="B169" s="69"/>
       <c r="C169" s="38" t="s">
         <v>170</v>
       </c>
@@ -9437,7 +9558,7 @@
       <c r="A173" s="36">
         <v>171</v>
       </c>
-      <c r="B173" s="66"/>
+      <c r="B173" s="70"/>
       <c r="C173" s="38" t="s">
         <v>195</v>
       </c>
@@ -9451,7 +9572,7 @@
       <c r="A174" s="36">
         <v>172</v>
       </c>
-      <c r="B174" s="66"/>
+      <c r="B174" s="70"/>
       <c r="C174" s="38" t="s">
         <v>196</v>
       </c>
@@ -9465,7 +9586,7 @@
       <c r="A175" s="36">
         <v>173</v>
       </c>
-      <c r="B175" s="66"/>
+      <c r="B175" s="70"/>
       <c r="C175" s="38" t="s">
         <v>107</v>
       </c>
@@ -9479,7 +9600,7 @@
       <c r="A176" s="36">
         <v>174</v>
       </c>
-      <c r="B176" s="66"/>
+      <c r="B176" s="70"/>
       <c r="C176" s="38" t="s">
         <v>108</v>
       </c>
@@ -9495,7 +9616,7 @@
       <c r="A177" s="36">
         <v>175</v>
       </c>
-      <c r="B177" s="66"/>
+      <c r="B177" s="70"/>
       <c r="C177" s="38" t="s">
         <v>36</v>
       </c>
@@ -9571,7 +9692,7 @@
       <c r="A182" s="36">
         <v>179</v>
       </c>
-      <c r="B182" s="64" t="s">
+      <c r="B182" s="68" t="s">
         <v>200</v>
       </c>
       <c r="C182" s="38" t="s">
@@ -9589,7 +9710,7 @@
       <c r="A183" s="36">
         <v>180</v>
       </c>
-      <c r="B183" s="64"/>
+      <c r="B183" s="68"/>
       <c r="C183" s="38" t="s">
         <v>170</v>
       </c>
@@ -9605,7 +9726,7 @@
       <c r="A184" s="36">
         <v>181</v>
       </c>
-      <c r="B184" s="64"/>
+      <c r="B184" s="68"/>
       <c r="C184" s="38" t="s">
         <v>171</v>
       </c>
@@ -9621,7 +9742,7 @@
       <c r="A185" s="36">
         <v>182</v>
       </c>
-      <c r="B185" s="67"/>
+      <c r="B185" s="71"/>
       <c r="C185" s="38" t="s">
         <v>172</v>
       </c>
@@ -9667,7 +9788,7 @@
       <c r="A188" s="36">
         <v>185</v>
       </c>
-      <c r="B188" s="65" t="s">
+      <c r="B188" s="69" t="s">
         <v>202</v>
       </c>
       <c r="C188" s="38" t="s">
@@ -9683,7 +9804,7 @@
       <c r="A189" s="36">
         <v>186</v>
       </c>
-      <c r="B189" s="65"/>
+      <c r="B189" s="69"/>
       <c r="C189" s="38" t="s">
         <v>188</v>
       </c>
@@ -9697,7 +9818,7 @@
       <c r="A190" s="36">
         <v>187</v>
       </c>
-      <c r="B190" s="68"/>
+      <c r="B190" s="72"/>
       <c r="C190" s="57" t="s">
         <v>71</v>
       </c>

--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,10 @@
     <sheet name="TBL_Relation" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$130</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TBL_DESC (BAK)'!$A$1:$F$190</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="288">
   <si>
     <t>No</t>
   </si>
@@ -946,12 +946,18 @@
   <si>
     <t>sentence</t>
   </si>
+  <si>
+    <t>vocabulary, kanji, grammar, test</t>
+  </si>
+  <si>
+    <t>N1, N2, N3, N4, N5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1049,6 +1055,13 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1351,7 +1364,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1528,6 +1541,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1543,18 +1569,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -3974,24 +3990,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="26" customWidth="1"/>
     <col min="3" max="3" width="97" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="14.5" style="26"/>
+    <col min="4" max="16384" width="14.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
@@ -4006,70 +4022,70 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="25" customHeight="1">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" ht="25" customHeight="1">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="25" customHeight="1">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3" ht="25" customHeight="1">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" ht="25" customHeight="1">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:3" ht="25" customHeight="1">
+    <row r="8" spans="1:3" ht="24.95" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
         <v>154</v>
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="25" customHeight="1">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" ht="25" customHeight="1">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="1:3" ht="25" customHeight="1">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:3" ht="25" customHeight="1">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="19" t="s">
         <v>67</v>
@@ -4098,21 +4114,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
     <col min="3" max="3" width="97" style="19" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="19"/>
+    <col min="4" max="4" width="44.140625" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34">
+    <row r="1" spans="1:4" ht="51.75">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4126,7 +4142,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34">
+    <row r="2" spans="1:4" ht="34.5">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4140,7 +4156,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34">
+    <row r="3" spans="1:4" ht="34.5">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4154,7 +4170,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="68">
+    <row r="4" spans="1:4" ht="69">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4168,7 +4184,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51">
+    <row r="5" spans="1:4" ht="69">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4182,7 +4198,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="34.5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4196,7 +4212,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68">
+    <row r="7" spans="1:4" ht="69">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4210,7 +4226,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34">
+    <row r="8" spans="1:4" ht="34.5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4224,7 +4240,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34">
+    <row r="9" spans="1:4" ht="34.5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4238,7 +4254,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34">
+    <row r="10" spans="1:4" ht="34.5">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4252,7 +4268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34">
+    <row r="11" spans="1:4" ht="34.5">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4266,7 +4282,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34">
+    <row r="12" spans="1:4" ht="34.5">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4280,7 +4296,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34">
+    <row r="13" spans="1:4" ht="34.5">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4294,7 +4310,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34">
+    <row r="14" spans="1:4" ht="34.5">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4308,7 +4324,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34">
+    <row r="15" spans="1:4" ht="34.5">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4336,7 +4352,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34">
+    <row r="17" spans="1:4" ht="34.5">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4350,7 +4366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34">
+    <row r="18" spans="1:4" ht="34.5">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4364,7 +4380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="51">
+    <row r="19" spans="1:4" ht="51.75">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4378,7 +4394,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="51">
+    <row r="20" spans="1:4" ht="51.75">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4392,7 +4408,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51">
+    <row r="21" spans="1:4" ht="51.75">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4406,7 +4422,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34">
+    <row r="22" spans="1:4" ht="34.5">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4420,7 +4436,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34">
+    <row r="23" spans="1:4" ht="34.5">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4780,23 +4796,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="11"/>
+    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
@@ -4838,7 +4854,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A67" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A7" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="12"/>
@@ -4863,7 +4879,9 @@
       <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6">
@@ -4878,25 +4896,25 @@
       <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="F5" s="65"/>
     </row>
-    <row r="6" spans="1:6" s="41" customFormat="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="66"/>
+      <c r="C6" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6" s="41" customFormat="1">
       <c r="A7" s="6">
@@ -4905,391 +4923,393 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="38" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>194</v>
+        <v>96</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>193</v>
       </c>
       <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6" s="41" customFormat="1">
       <c r="A8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A3:A68" si="1">ROW()-1</f>
         <v>7</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="66"/>
+    </row>
+    <row r="9" spans="1:6" s="41" customFormat="1">
+      <c r="A9" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D9" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E9" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="66"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="9" t="s">
-        <v>281</v>
+        <v>114</v>
       </c>
       <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="9" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="8" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="65"/>
-    </row>
-    <row r="17" spans="1:6" s="41" customFormat="1">
-      <c r="A17" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38" t="s">
+      <c r="F17" s="65"/>
+    </row>
+    <row r="18" spans="1:6" s="41" customFormat="1">
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D18" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="66"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="65"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="65"/>
     </row>
-    <row r="20" spans="1:6" ht="34">
+    <row r="20" spans="1:6">
       <c r="A20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="65"/>
+    </row>
+    <row r="21" spans="1:6" ht="34.5">
+      <c r="A21" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="F20" s="65"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>264</v>
       </c>
       <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="8" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="B25" s="12"/>
       <c r="C25" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>264</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="C26" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="65"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F26" s="65"/>
-    </row>
-    <row r="27" spans="1:6" s="41" customFormat="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38" t="s">
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" spans="1:6" s="41" customFormat="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D28" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E28" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="66"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="6">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="65"/>
+      <c r="F28" s="66"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="8" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="F29" s="65"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>93</v>
@@ -5299,29 +5319,29 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="B31" s="13"/>
       <c r="C31" s="8" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="C32" s="8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>4</v>
@@ -5331,12 +5351,12 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>4</v>
@@ -5346,12 +5366,12 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="8" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>4</v>
@@ -5361,42 +5381,42 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9" t="s">
-        <v>282</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>4</v>
@@ -5406,27 +5426,27 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="9"/>
       <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="9" t="s">
@@ -5436,12 +5456,12 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="9" t="s">
@@ -5451,78 +5471,76 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>223</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="65"/>
     </row>
-    <row r="43" spans="1:6" ht="68">
+    <row r="43" spans="1:6">
       <c r="A43" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="65"/>
+    </row>
+    <row r="44" spans="1:6" ht="86.25">
+      <c r="A44" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="65"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="6">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="9"/>
       <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="B45" s="13"/>
       <c r="C45" s="8" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>4</v>
@@ -5532,12 +5550,14 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="C46" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>4</v>
@@ -5547,12 +5567,12 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>4</v>
@@ -5562,12 +5582,12 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>4</v>
@@ -5577,12 +5597,12 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="8" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>4</v>
@@ -5592,108 +5612,106 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="65"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="8" t="s">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="9" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="F51" s="65"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="F52" s="65"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>223</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E53" s="9"/>
       <c r="F53" s="65"/>
     </row>
-    <row r="54" spans="1:6" ht="68">
+    <row r="54" spans="1:6">
       <c r="A54" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="65"/>
+    </row>
+    <row r="55" spans="1:6" ht="86.25">
+      <c r="A55" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="D55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F54" s="65"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="6">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="9"/>
       <c r="F55" s="65"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="B56" s="13"/>
       <c r="C56" s="8" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>4</v>
@@ -5703,12 +5721,14 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="C57" s="8" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>4</v>
@@ -5718,12 +5738,12 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>4</v>
@@ -5733,42 +5753,42 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9" t="s">
-        <v>284</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="9"/>
       <c r="F59" s="65"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="8" t="s">
-        <v>6</v>
+        <v>278</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="9" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="F60" s="65"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="9" t="s">
@@ -5778,12 +5798,12 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="9" t="s">
@@ -5793,144 +5813,144 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F63" s="65"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>223</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E64" s="9"/>
       <c r="F64" s="65"/>
     </row>
-    <row r="65" spans="1:6" ht="68">
+    <row r="65" spans="1:6">
       <c r="A65" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F65" s="65"/>
+    </row>
+    <row r="66" spans="1:6" ht="86.25">
+      <c r="A66" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="9" t="s">
+      <c r="D66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F65" s="65"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="6">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="9"/>
       <c r="F66" s="65"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="B67" s="13"/>
       <c r="C67" s="8" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>251</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E67" s="9"/>
       <c r="F67" s="65"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="6">
-        <f t="shared" ref="A68:A131" si="1">ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68" s="12"/>
+      <c r="B68" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="C68" s="8" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F68" s="65"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A69:A132" si="2">ROW()-1</f>
         <v>68</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="8" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F69" s="65"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="F70" s="65"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B71" s="13"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="8" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>4</v>
@@ -5940,14 +5960,12 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="B72" s="13"/>
       <c r="C72" s="8" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>4</v>
@@ -5957,12 +5975,14 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="C73" s="8" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>4</v>
@@ -5972,42 +5992,42 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9" t="s">
-        <v>266</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="9"/>
       <c r="F74" s="65"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="9"/>
+        <v>279</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="F75" s="65"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>4</v>
@@ -6017,27 +6037,27 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="9"/>
       <c r="F77" s="65"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="9" t="s">
@@ -6047,12 +6067,12 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="9" t="s">
@@ -6062,161 +6082,161 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F80" s="65"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>223</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E81" s="9"/>
       <c r="F81" s="65"/>
     </row>
-    <row r="82" spans="1:6" ht="68">
+    <row r="82" spans="1:6">
       <c r="A82" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82" s="65"/>
+    </row>
+    <row r="83" spans="1:6" ht="86.25">
+      <c r="A83" s="6">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="9" t="s">
+      <c r="D83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="F82" s="65"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="6">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="F83" s="65"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="B84" s="13"/>
       <c r="C84" s="8" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="F84" s="65"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B85" s="12"/>
+      <c r="B85" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="C85" s="8" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="F85" s="65"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="F86" s="65"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E87" s="9" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="F87" s="65"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F88" s="65"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>4</v>
@@ -6226,12 +6246,12 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>4</v>
@@ -6241,12 +6261,12 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>4</v>
@@ -6256,127 +6276,127 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="42"/>
-      <c r="F92" s="66"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="65"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F93" s="65"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="42"/>
+      <c r="F93" s="66"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="D94" s="38" t="s">
+      <c r="B94" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="F94" s="66"/>
+        <v>265</v>
+      </c>
+      <c r="F94" s="65"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="38" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="D95" s="38" t="s">
         <v>94</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F95" s="66"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="38" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E96" s="42" t="s">
-        <v>280</v>
+        <v>94</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="F96" s="66"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" s="12"/>
-      <c r="C97" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="65"/>
+      <c r="C97" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="F97" s="66"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="8" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="65"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>93</v>
@@ -6384,118 +6404,118 @@
       <c r="E99" s="9"/>
       <c r="F99" s="65"/>
     </row>
-    <row r="100" spans="1:6" s="41" customFormat="1">
+    <row r="100" spans="1:6">
       <c r="A100" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="12"/>
+      <c r="C100" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="65"/>
+    </row>
+    <row r="101" spans="1:6" s="41" customFormat="1">
+      <c r="A101" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D101" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E101" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F100" s="66"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="D101" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>268</v>
-      </c>
       <c r="F101" s="66"/>
     </row>
-    <row r="102" spans="1:6" s="41" customFormat="1">
+    <row r="102" spans="1:6">
       <c r="A102" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" s="38" t="s">
         <v>94</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F102" s="66"/>
     </row>
     <row r="103" spans="1:6" s="41" customFormat="1">
       <c r="A103" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="D103" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="E103" s="42" t="s">
-        <v>260</v>
+        <v>2</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="F103" s="66"/>
     </row>
     <row r="104" spans="1:6" s="41" customFormat="1">
       <c r="A104" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B104" s="13"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="E104" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="F104" s="66"/>
+    </row>
+    <row r="105" spans="1:6" s="41" customFormat="1">
+      <c r="A105" s="6">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="D104" s="38" t="s">
+      <c r="D105" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E105" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="F104" s="66"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="6">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="65"/>
+      <c r="F105" s="66"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B106" s="12"/>
+      <c r="B106" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C106" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>4</v>
@@ -6505,12 +6525,12 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>4</v>
@@ -6520,106 +6540,106 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D108" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="65"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D109" s="8"/>
       <c r="E109" s="9"/>
       <c r="F109" s="65"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B110" s="13"/>
+      <c r="B110" s="12"/>
       <c r="C110" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="9" t="s">
-        <v>97</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" s="9"/>
       <c r="F110" s="65"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>262</v>
-      </c>
+      <c r="B111" s="13"/>
       <c r="C111" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D111" s="8"/>
       <c r="E111" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F111" s="67"/>
+        <v>97</v>
+      </c>
+      <c r="F111" s="65"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="B112" s="12"/>
+      <c r="B112" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="C112" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F112" s="67"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="65"/>
+        <v>94</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F113" s="67"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>93</v>
@@ -6629,157 +6649,157 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="8" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="65"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="65"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B117" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C117" s="8"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="D117" s="8" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="65"/>
     </row>
-    <row r="118" spans="1:6" s="41" customFormat="1">
+    <row r="118" spans="1:6">
       <c r="A118" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="65"/>
+    </row>
+    <row r="119" spans="1:6" s="41" customFormat="1">
+      <c r="A119" s="6">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C118" s="38" t="s">
+      <c r="C119" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D118" s="38" t="s">
+      <c r="D119" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="42"/>
-      <c r="F118" s="66"/>
-    </row>
-    <row r="119" spans="1:6" s="41" customFormat="1" ht="34">
-      <c r="A119" s="6">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E119" s="39" t="s">
-        <v>168</v>
-      </c>
+      <c r="E119" s="42"/>
       <c r="F119" s="66"/>
     </row>
-    <row r="120" spans="1:6" s="41" customFormat="1">
+    <row r="120" spans="1:6" s="41" customFormat="1" ht="34.5">
       <c r="A120" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F120" s="66"/>
+    </row>
+    <row r="121" spans="1:6" s="41" customFormat="1">
+      <c r="A121" s="6">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="D120" s="38" t="s">
+      <c r="D121" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E120" s="39" t="s">
+      <c r="E121" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="F120" s="66"/>
-    </row>
-    <row r="121" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A121" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="B121" s="62"/>
-      <c r="C121" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="42" t="s">
-        <v>272</v>
-      </c>
       <c r="F121" s="66"/>
     </row>
-    <row r="122" spans="1:6" s="41" customFormat="1">
+    <row r="122" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="B122" s="62"/>
       <c r="C122" s="38" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D122" s="38" t="s">
         <v>4</v>
       </c>
       <c r="E122" s="42" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="F122" s="66"/>
     </row>
     <row r="123" spans="1:6" s="41" customFormat="1">
       <c r="A123" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="B123" s="62"/>
       <c r="C123" s="38" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D123" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="42"/>
+      <c r="E123" s="42" t="s">
+        <v>121</v>
+      </c>
       <c r="F123" s="66"/>
     </row>
     <row r="124" spans="1:6" s="41" customFormat="1">
       <c r="A124" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B124" s="62"/>
       <c r="C124" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D124" s="38" t="s">
         <v>4</v>
@@ -6789,12 +6809,12 @@
     </row>
     <row r="125" spans="1:6" s="41" customFormat="1">
       <c r="A125" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B125" s="62"/>
       <c r="C125" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D125" s="38" t="s">
         <v>4</v>
@@ -6804,12 +6824,12 @@
     </row>
     <row r="126" spans="1:6" s="41" customFormat="1">
       <c r="A126" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B126" s="62"/>
       <c r="C126" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D126" s="38" t="s">
         <v>4</v>
@@ -6819,143 +6839,158 @@
     </row>
     <row r="127" spans="1:6" s="41" customFormat="1">
       <c r="A127" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="B127" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>265</v>
-      </c>
+      <c r="B127" s="62"/>
+      <c r="C127" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="42"/>
       <c r="F127" s="66"/>
     </row>
     <row r="128" spans="1:6" s="41" customFormat="1">
       <c r="A128" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="B128" s="59"/>
-      <c r="C128" s="38" t="s">
-        <v>158</v>
+      <c r="B128" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F128" s="66"/>
     </row>
     <row r="129" spans="1:6" s="41" customFormat="1">
       <c r="A129" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B129" s="63"/>
+      <c r="B129" s="59"/>
       <c r="C129" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F129" s="66"/>
+    </row>
+    <row r="130" spans="1:6" s="41" customFormat="1">
+      <c r="A130" s="6">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="63"/>
+      <c r="C130" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="D129" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129" s="42" t="s">
+      <c r="D130" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="F129" s="66"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="6">
-        <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="B130" s="73" t="s">
-        <v>285</v>
-      </c>
-      <c r="C130" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="D130" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="75"/>
-      <c r="F130" s="76"/>
+      <c r="F130" s="66"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B131" s="73"/>
-      <c r="C131" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="D131" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E131" s="75"/>
-      <c r="F131" s="76"/>
+      <c r="B131" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="C131" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="D131" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="70"/>
+      <c r="F131" s="71"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="6">
-        <f t="shared" ref="A132:A133" si="2">ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="B132" s="73"/>
-      <c r="C132" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" s="75"/>
-      <c r="F132" s="76"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="70"/>
+      <c r="F132" s="71"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A133:A134" si="3">ROW()-1</f>
         <v>132</v>
       </c>
-      <c r="B133" s="73"/>
-      <c r="C133" s="74" t="s">
+      <c r="B133" s="68"/>
+      <c r="C133" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="70"/>
+      <c r="F133" s="71"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="6">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="68"/>
+      <c r="C134" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="74" t="s">
+      <c r="D134" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="75" t="s">
+      <c r="E134" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="F133" s="76"/>
-    </row>
-    <row r="134" spans="1:6" ht="68">
-      <c r="A134" s="6">
-        <f t="shared" ref="A134" si="3">ROW()-1</f>
-        <v>133</v>
-      </c>
-      <c r="B134" s="77"/>
-      <c r="C134" s="74" t="s">
+      <c r="F134" s="71"/>
+    </row>
+    <row r="135" spans="1:6" ht="86.25">
+      <c r="A135" s="6">
+        <f t="shared" ref="A135" si="4">ROW()-1</f>
+        <v>134</v>
+      </c>
+      <c r="B135" s="72"/>
+      <c r="C135" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E134" s="75" t="s">
+      <c r="D135" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="F134" s="76"/>
+      <c r="F135" s="71"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F129"/>
+  <autoFilter ref="A1:F130"/>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6965,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -6973,15 +7008,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="11"/>
+    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
@@ -7402,7 +7437,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="34">
+    <row r="28" spans="1:6" ht="34.5">
       <c r="A28" s="6">
         <v>23</v>
       </c>
@@ -7738,7 +7773,7 @@
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="68">
+    <row r="51" spans="1:6" ht="86.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -7898,7 +7933,7 @@
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="68">
+    <row r="62" spans="1:6" ht="86.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -8058,7 +8093,7 @@
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="68">
+    <row r="73" spans="1:6" ht="86.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -8278,7 +8313,7 @@
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="68">
+    <row r="88" spans="1:6" ht="86.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -9274,7 +9309,7 @@
       <c r="A155" s="36">
         <v>143</v>
       </c>
-      <c r="B155" s="68" t="s">
+      <c r="B155" s="73" t="s">
         <v>163</v>
       </c>
       <c r="C155" s="38" t="s">
@@ -9288,11 +9323,11 @@
       </c>
       <c r="F155" s="40"/>
     </row>
-    <row r="156" spans="1:6" s="41" customFormat="1" ht="34">
+    <row r="156" spans="1:6" s="41" customFormat="1" ht="34.5">
       <c r="A156" s="36">
         <v>144</v>
       </c>
-      <c r="B156" s="68"/>
+      <c r="B156" s="73"/>
       <c r="C156" s="38" t="s">
         <v>166</v>
       </c>
@@ -9308,7 +9343,7 @@
       <c r="A157" s="36">
         <v>145</v>
       </c>
-      <c r="B157" s="68"/>
+      <c r="B157" s="73"/>
       <c r="C157" s="38" t="s">
         <v>2</v>
       </c>
@@ -9324,7 +9359,7 @@
       <c r="A158" s="36">
         <v>146</v>
       </c>
-      <c r="B158" s="68"/>
+      <c r="B158" s="73"/>
       <c r="C158" s="38" t="s">
         <v>87</v>
       </c>
@@ -9338,7 +9373,7 @@
       <c r="A159" s="36">
         <v>147</v>
       </c>
-      <c r="B159" s="68"/>
+      <c r="B159" s="73"/>
       <c r="C159" s="50" t="s">
         <v>248</v>
       </c>
@@ -9356,7 +9391,7 @@
       <c r="A160" s="36">
         <v>149</v>
       </c>
-      <c r="B160" s="68"/>
+      <c r="B160" s="73"/>
       <c r="C160" s="38" t="s">
         <v>88</v>
       </c>
@@ -9370,7 +9405,7 @@
       <c r="A161" s="36">
         <v>150</v>
       </c>
-      <c r="B161" s="68"/>
+      <c r="B161" s="73"/>
       <c r="C161" s="50" t="s">
         <v>170</v>
       </c>
@@ -9386,7 +9421,7 @@
       <c r="A162" s="36">
         <v>152</v>
       </c>
-      <c r="B162" s="68"/>
+      <c r="B162" s="73"/>
       <c r="C162" s="38" t="s">
         <v>90</v>
       </c>
@@ -9400,7 +9435,7 @@
       <c r="A163" s="36">
         <v>153</v>
       </c>
-      <c r="B163" s="68"/>
+      <c r="B163" s="73"/>
       <c r="C163" s="50" t="s">
         <v>171</v>
       </c>
@@ -9416,7 +9451,7 @@
       <c r="A164" s="36">
         <v>155</v>
       </c>
-      <c r="B164" s="68"/>
+      <c r="B164" s="73"/>
       <c r="C164" s="38" t="s">
         <v>92</v>
       </c>
@@ -9430,7 +9465,7 @@
       <c r="A165" s="36">
         <v>156</v>
       </c>
-      <c r="B165" s="68"/>
+      <c r="B165" s="73"/>
       <c r="C165" s="50" t="s">
         <v>172</v>
       </c>
@@ -9480,7 +9515,7 @@
       <c r="A168" s="36">
         <v>166</v>
       </c>
-      <c r="B168" s="69" t="s">
+      <c r="B168" s="74" t="s">
         <v>200</v>
       </c>
       <c r="C168" s="38" t="s">
@@ -9498,7 +9533,7 @@
       <c r="A169" s="36">
         <v>167</v>
       </c>
-      <c r="B169" s="69"/>
+      <c r="B169" s="74"/>
       <c r="C169" s="38" t="s">
         <v>170</v>
       </c>
@@ -9558,7 +9593,7 @@
       <c r="A173" s="36">
         <v>171</v>
       </c>
-      <c r="B173" s="70"/>
+      <c r="B173" s="75"/>
       <c r="C173" s="38" t="s">
         <v>195</v>
       </c>
@@ -9572,7 +9607,7 @@
       <c r="A174" s="36">
         <v>172</v>
       </c>
-      <c r="B174" s="70"/>
+      <c r="B174" s="75"/>
       <c r="C174" s="38" t="s">
         <v>196</v>
       </c>
@@ -9586,7 +9621,7 @@
       <c r="A175" s="36">
         <v>173</v>
       </c>
-      <c r="B175" s="70"/>
+      <c r="B175" s="75"/>
       <c r="C175" s="38" t="s">
         <v>107</v>
       </c>
@@ -9600,7 +9635,7 @@
       <c r="A176" s="36">
         <v>174</v>
       </c>
-      <c r="B176" s="70"/>
+      <c r="B176" s="75"/>
       <c r="C176" s="38" t="s">
         <v>108</v>
       </c>
@@ -9616,7 +9651,7 @@
       <c r="A177" s="36">
         <v>175</v>
       </c>
-      <c r="B177" s="70"/>
+      <c r="B177" s="75"/>
       <c r="C177" s="38" t="s">
         <v>36</v>
       </c>
@@ -9674,7 +9709,7 @@
       </c>
       <c r="F180" s="40"/>
     </row>
-    <row r="181" spans="1:6" s="41" customFormat="1" ht="34">
+    <row r="181" spans="1:6" s="41" customFormat="1" ht="51.75">
       <c r="A181" s="36"/>
       <c r="B181" s="12"/>
       <c r="C181" s="38" t="s">
@@ -9692,7 +9727,7 @@
       <c r="A182" s="36">
         <v>179</v>
       </c>
-      <c r="B182" s="68" t="s">
+      <c r="B182" s="73" t="s">
         <v>200</v>
       </c>
       <c r="C182" s="38" t="s">
@@ -9710,7 +9745,7 @@
       <c r="A183" s="36">
         <v>180</v>
       </c>
-      <c r="B183" s="68"/>
+      <c r="B183" s="73"/>
       <c r="C183" s="38" t="s">
         <v>170</v>
       </c>
@@ -9726,7 +9761,7 @@
       <c r="A184" s="36">
         <v>181</v>
       </c>
-      <c r="B184" s="68"/>
+      <c r="B184" s="73"/>
       <c r="C184" s="38" t="s">
         <v>171</v>
       </c>
@@ -9742,7 +9777,7 @@
       <c r="A185" s="36">
         <v>182</v>
       </c>
-      <c r="B185" s="71"/>
+      <c r="B185" s="76"/>
       <c r="C185" s="38" t="s">
         <v>172</v>
       </c>
@@ -9788,7 +9823,7 @@
       <c r="A188" s="36">
         <v>185</v>
       </c>
-      <c r="B188" s="69" t="s">
+      <c r="B188" s="74" t="s">
         <v>202</v>
       </c>
       <c r="C188" s="38" t="s">
@@ -9804,7 +9839,7 @@
       <c r="A189" s="36">
         <v>186</v>
       </c>
-      <c r="B189" s="69"/>
+      <c r="B189" s="74"/>
       <c r="C189" s="38" t="s">
         <v>188</v>
       </c>
@@ -9818,7 +9853,7 @@
       <c r="A190" s="36">
         <v>187</v>
       </c>
-      <c r="B190" s="72"/>
+      <c r="B190" s="77"/>
       <c r="C190" s="57" t="s">
         <v>71</v>
       </c>
@@ -9848,38 +9883,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="30"/>
+    <col min="1" max="16384" width="2.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="17">
+    <row r="2" spans="1:1" ht="17.25">
       <c r="A2" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17">
+    <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="29"/>
     </row>
-    <row r="45" spans="1:2" ht="17">
+    <row r="45" spans="1:2" ht="17.25">
       <c r="A45" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17">
+    <row r="66" spans="1:1" ht="17.25">
       <c r="A66" s="29" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="17">
+    <row r="77" spans="1:1" ht="17.25">
       <c r="A77" s="29" t="s">
         <v>204</v>
       </c>
